--- a/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
+++ b/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18492" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18492" windowHeight="11700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Target list" sheetId="1" r:id="rId1"/>
-    <sheet name="JPTL D+2" sheetId="3" r:id="rId2"/>
-    <sheet name="Example_support" sheetId="4" r:id="rId3"/>
+    <sheet name="JPTL D+X" sheetId="3" r:id="rId2"/>
+    <sheet name="JPTL D+X EXAMPLE" sheetId="5" r:id="rId3"/>
+    <sheet name="Explanation" sheetId="6" r:id="rId4"/>
+    <sheet name="Example_support" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="127">
   <si>
     <t>OP ACTIVE RESOLVE TARGET LIST</t>
   </si>
@@ -159,9 +161,6 @@
     <t>High Value Target</t>
   </si>
   <si>
-    <t>Current as of: G+0</t>
-  </si>
-  <si>
     <t>BDA</t>
   </si>
   <si>
@@ -171,12 +170,6 @@
     <t>Updated by:</t>
   </si>
   <si>
-    <t>JPTL with priority</t>
-  </si>
-  <si>
-    <t>TST matrix</t>
-  </si>
-  <si>
     <t>Source:</t>
   </si>
   <si>
@@ -192,14 +185,240 @@
     <t>JPUB Joint Targeting (Unclassified):</t>
   </si>
   <si>
-    <t xml:space="preserve">JPTL produced for each ATO </t>
+    <t>Current as of: D+0</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>OBJECTIVE NAME</t>
+  </si>
+  <si>
+    <t>TARGET</t>
+  </si>
+  <si>
+    <t>D+X</t>
+  </si>
+  <si>
+    <t>ELEVATION</t>
+  </si>
+  <si>
+    <t>DESIRED EFFECT</t>
+  </si>
+  <si>
+    <t>TARGET NUMBER</t>
+  </si>
+  <si>
+    <t>TARGET CATEGORY</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>RISK LEVEL</t>
+  </si>
+  <si>
+    <t>ATO DAY:</t>
+  </si>
+  <si>
+    <t>TST targets are to be struck immediatly when detected. These are high priority targets for the entire force.</t>
+  </si>
+  <si>
+    <t>JPTL produced for each ATO . These targets are to be planned to be attacked during the ATO day</t>
+  </si>
+  <si>
+    <t>D+12</t>
+  </si>
+  <si>
+    <t>VIS (NECK)</t>
+  </si>
+  <si>
+    <t>UNLOCATED</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>DESTROY</t>
+  </si>
+  <si>
+    <t>OPARTGT201</t>
+  </si>
+  <si>
+    <t>DOLLY</t>
+  </si>
+  <si>
+    <t>N23 23.333</t>
+  </si>
+  <si>
+    <t>E053 34.567</t>
+  </si>
+  <si>
+    <t>345ft</t>
+  </si>
+  <si>
+    <t>DENY USE OF RWY FOR 24 HOURS</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>OPARTGT211</t>
+  </si>
+  <si>
+    <t>MINNY</t>
+  </si>
+  <si>
+    <t>CORPS HQ</t>
+  </si>
+  <si>
+    <t>N21.12.345</t>
+  </si>
+  <si>
+    <t>E023 12.345</t>
+  </si>
+  <si>
+    <t>1244ft</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>OPARTGT109</t>
+  </si>
+  <si>
+    <t>SCROOGE</t>
+  </si>
+  <si>
+    <t>AIRFIELD 1</t>
+  </si>
+  <si>
+    <t>For targets to be put on JPTL they need minimum to be fixed in time and space</t>
+  </si>
+  <si>
+    <t>TST targets are not fixed in time and space</t>
+  </si>
+  <si>
+    <t>AWACS</t>
+  </si>
+  <si>
+    <t>20000ft</t>
+  </si>
+  <si>
+    <t>SILKWORM MISSILES</t>
+  </si>
+  <si>
+    <t>UNKNOWN, INTELIGENCE REPORTS SIGHTING WEST OF VILLAGE 1</t>
+  </si>
+  <si>
+    <t>N20 11.111</t>
+  </si>
+  <si>
+    <t>E011 11.111</t>
+  </si>
+  <si>
+    <t>KILL</t>
+  </si>
+  <si>
+    <t>EXTREME</t>
+  </si>
+  <si>
+    <t>CHEMICAL WEAPON LOADED SCUD</t>
+  </si>
+  <si>
+    <t>LAST REPORTED IN VILLAGE 2</t>
+  </si>
+  <si>
+    <t>One BN of the 923rd SSM Regiment is loaded with chemical weapons</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JOINT PRIORITIZED TARGET LIST (JPTL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TIME SENSITIVE TARGET MATRIX (TST)</t>
+  </si>
+  <si>
+    <t>OPERATION ACTIVE RESOLVE</t>
+  </si>
+  <si>
+    <t>DEFINITION</t>
+  </si>
+  <si>
+    <t>CLARIFICATION</t>
+  </si>
+  <si>
+    <t>Losses only at expected training or peactime attrition rates</t>
+  </si>
+  <si>
+    <t>losses expected at historical combat rates. Accept neutral or disadvantegous engagements can withdraw to prevent heavy losses</t>
+  </si>
+  <si>
+    <t>Accept losses to achieve objective. Preserve future capability if able</t>
+  </si>
+  <si>
+    <t>Losses may result in complete force annihilation. Accept any losses necessary to accomplish mission</t>
+  </si>
+  <si>
+    <t>Force survival high priority</t>
+  </si>
+  <si>
+    <t>Whenever possible, provide SEAD support to operations in known SAM envelopes and position recovery forces at FOBs</t>
+  </si>
+  <si>
+    <t>Operations in known SAM envelopes without SEAD support. PR missions and recovery forces at FOL/FARP</t>
+  </si>
+  <si>
+    <t>Defense against WMD, where consequences of failure unaceptable.</t>
+  </si>
+  <si>
+    <t>ACCEPTED RISK LEVELS</t>
+  </si>
+  <si>
+    <t>TARGET CATEGORIES</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Targets absolutely must be tasked for attack on this ATO because:
+- The target is essential for mission success in support of current objectives (or is a designated HPT, High Payoff Target, or TST
+- It is crucial to the overall success of the operation
+- It will have immediate and compelling effects
+- Its timeliness as an urgent target may not exist in the future
+- If not targeted, negative consequences may seriously jeopardize future CJTF operations</t>
+  </si>
+  <si>
+    <t>CRITERIA</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>Targets desired to be tasked for attack on this ATO because:
+- It will contribute to the battle, but it is not critical to mission success
+- It will further the success of the operation
+- It will eventually require targetding due to JFC future plans
+- If not targeted on this ATO, negative consequences will probably not impede operations</t>
+  </si>
+  <si>
+    <t>Targets need to be tasked for attack on this ATO because:
+- Targets have substantial, but not immediate impact on the battle
+- The cascading effects this target provides may not be realized in the future
+- If not targeted on this ATO, a significant level of effort may be required later
+- If not targeted , negative consequence smay significantly hamper CJTF operations</t>
+  </si>
+  <si>
+    <t>Target folders may be produced (Should?)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,8 +459,56 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +527,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -338,30 +617,182 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -370,7 +801,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -381,7 +823,96 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -393,22 +924,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -423,130 +939,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -560,9 +955,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -572,54 +971,202 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
@@ -634,16 +1181,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -661,7 +1208,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8717280" y="1097280"/>
+          <a:off x="13220700" y="0"/>
           <a:ext cx="4175760" cy="2712720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -681,16 +1228,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -708,7 +1255,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6080760" y="2438400"/>
+          <a:off x="8016240" y="350520"/>
           <a:ext cx="4975860" cy="6156960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -728,16 +1275,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -755,7 +1302,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11094720" y="4937760"/>
+          <a:off x="11285220" y="6103620"/>
           <a:ext cx="5128260" cy="2567940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -822,16 +1369,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>670560</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -849,7 +1396,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5349240" y="1295400"/>
+          <a:off x="861060" y="1310640"/>
           <a:ext cx="5166360" cy="2415540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -869,16 +1416,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>967740</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -896,7 +1443,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="1424940"/>
+          <a:off x="1760220" y="1600200"/>
           <a:ext cx="5806440" cy="6743700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1202,492 +1749,548 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I317"/>
+  <dimension ref="A1:J317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.6" thickBot="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="21.6" thickBot="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="29.4" customHeight="1" thickBot="1">
+      <c r="A3" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="J3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="23" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="23" t="s">
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="23" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="23" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="23" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="23" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="23" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="23" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="23" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="23" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="23" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="23" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="23" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="23" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="23" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="23" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="23" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="23" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="23" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="23" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="23" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="23" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="23" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="23" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="23" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="23" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="23" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1">
-      <c r="A31" s="24" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" thickBot="1">
+      <c r="A31" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4549,118 +5152,1082 @@
     </row>
   </sheetData>
   <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21">
+      <c r="A1" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1">
+      <c r="A2" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1">
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.6">
+      <c r="A4" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="35">
+        <v>1</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="35">
+        <v>2</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="35">
+        <v>3</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="35">
+        <v>4</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="35">
+        <v>5</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="35">
+        <v>6</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="35">
+        <v>7</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1">
+      <c r="A13" s="38">
+        <v>8</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6">
+      <c r="A15" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="75"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="32">
+        <v>1</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="K17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="32">
+        <v>2</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="32">
+        <v>3</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="32">
+        <v>4</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="32">
+        <v>5</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="32">
+        <v>6</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="32">
+        <v>7</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="32">
+        <v>8</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="32">
+        <v>9</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1">
+      <c r="A26" s="33">
+        <v>10</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
-      <c r="K3" t="s">
+    <row r="1" spans="1:17" ht="21">
+      <c r="A1" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1">
+      <c r="A2" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="67"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1"/>
+    <row r="4" spans="1:17" ht="15.6">
+      <c r="A4" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="56" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1"/>
-    <row r="6" spans="1:11">
-      <c r="A6" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
+      <c r="E5" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="31.8">
+      <c r="A6" s="35">
+        <v>1</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="35">
+        <v>2</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="35">
+        <v>3</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="35">
+        <v>4</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="35">
+        <v>5</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="35">
+        <v>6</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="35">
+        <v>7</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" thickBot="1">
+      <c r="A13" s="38">
+        <v>8</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" thickBot="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.6">
+      <c r="A15" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="75"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="32">
+        <v>1</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:11" ht="28.8">
+      <c r="A18" s="32">
+        <v>2</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="1:11" ht="43.2">
+      <c r="A19" s="32">
+        <v>3</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="K19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="32">
+        <v>4</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="32">
+        <v>5</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="K21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="32">
+        <v>6</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="32">
+        <v>7</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="32">
+        <v>8</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="32">
+        <v>9</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1">
+      <c r="A26" s="33">
+        <v>10</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
     </row>
   </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A5:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:3">
+      <c r="A5" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8">
+      <c r="A7" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57.6">
+      <c r="A8" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8">
+      <c r="A9" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.2">
+      <c r="A10" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="77"/>
+    </row>
+    <row r="15" spans="1:3" ht="109.8" customHeight="1">
+      <c r="A15" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="81"/>
+    </row>
+    <row r="16" spans="1:3" ht="79.2" customHeight="1">
+      <c r="A16" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="81"/>
+    </row>
+    <row r="17" spans="1:3" ht="87" customHeight="1">
+      <c r="A17" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C5"/>
   <sheetViews>
@@ -4675,24 +6242,24 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="7.2" customHeight="1"/>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
+++ b/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18492" windowHeight="11700" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18492" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Target list" sheetId="1" r:id="rId1"/>
@@ -435,13 +435,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -507,6 +500,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -540,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -947,10 +947,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -961,82 +998,61 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1048,20 +1064,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1087,28 +1111,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1118,54 +1135,74 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1178,6 +1215,138 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>682625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>611188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect l="10867" t="8733" r="9569" b="8792"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8231188" y="7432"/>
+          <a:ext cx="571500" cy="603756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>611376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect l="10867" t="8733" r="9569" b="8792"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6766560" y="7620"/>
+          <a:ext cx="571500" cy="603756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>618996</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect l="10867" t="8733" r="9569" b="8792"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6774180" y="15240"/>
+          <a:ext cx="571500" cy="603756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1751,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J317"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1768,19 +1937,19 @@
     <col min="10" max="10" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.6" thickBot="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="49.95" customHeight="1" thickBot="1">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -1799,496 +1968,496 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="29.4" customHeight="1" thickBot="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="17"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1"/>
@@ -5156,6 +5325,7 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5164,7 +5334,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -5179,35 +5349,35 @@
     <col min="9" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:11" ht="49.95" customHeight="1">
+      <c r="A1" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="K3" t="s">
@@ -5215,150 +5385,150 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="39" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="35">
+      <c r="A6" s="28">
         <v>1</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="35">
+      <c r="A7" s="28">
         <v>2</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="35">
+      <c r="A8" s="28">
         <v>3</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="35">
+      <c r="A9" s="28">
         <v>4</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="35">
+      <c r="A10" s="28">
         <v>5</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="35">
+      <c r="A11" s="28">
         <v>6</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="35">
+      <c r="A12" s="28">
         <v>7</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1">
-      <c r="A13" s="38">
+      <c r="A13" s="31">
         <v>8</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1">
       <c r="A14" s="1"/>
@@ -5372,183 +5542,181 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15.6">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="75"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="28" t="s">
+      <c r="F16" s="70"/>
+      <c r="G16" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="32">
+      <c r="A17" s="26">
         <v>1</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
       <c r="K17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="32">
+      <c r="A18" s="26">
         <v>2</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="32">
+      <c r="A19" s="26">
         <v>3</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="32">
+      <c r="A20" s="26">
         <v>4</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="32">
+      <c r="A21" s="26">
         <v>5</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="32">
+      <c r="A22" s="26">
         <v>6</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="32">
+      <c r="A23" s="26">
         <v>7</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="32">
+      <c r="A24" s="26">
         <v>8</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="32">
+      <c r="A25" s="26">
         <v>9</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1">
-      <c r="A26" s="33">
+      <c r="A26" s="27">
         <v>10</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="D2:G2"/>
@@ -5565,14 +5733,17 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5580,8 +5751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -5596,78 +5767,78 @@
     <col min="9" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:17" ht="49.95" customHeight="1">
+      <c r="A1" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="67"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.6">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="39" t="s">
         <v>66</v>
       </c>
       <c r="K5" t="s">
@@ -5675,174 +5846,174 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="31.8">
-      <c r="A6" s="35">
+      <c r="A6" s="28">
         <v>1</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="35">
+      <c r="A7" s="28">
         <v>2</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="35">
+      <c r="A8" s="28">
         <v>3</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="35">
+      <c r="A9" s="28">
         <v>4</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="35">
+      <c r="A10" s="28">
         <v>5</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="35">
+      <c r="A11" s="28">
         <v>6</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="35">
+      <c r="A12" s="28">
         <v>7</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:17" ht="15" thickBot="1">
-      <c r="A13" s="38">
+      <c r="A13" s="31">
         <v>8</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="1"/>
@@ -5856,209 +6027,223 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="15.6">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="75"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="28" t="s">
+      <c r="F16" s="70"/>
+      <c r="G16" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="32">
+      <c r="A17" s="26">
         <v>1</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="42" t="s">
+      <c r="F17" s="66"/>
+      <c r="G17" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
     </row>
     <row r="18" spans="1:11" ht="28.8">
-      <c r="A18" s="32">
+      <c r="A18" s="26">
         <v>2</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="42" t="s">
+      <c r="F18" s="66"/>
+      <c r="G18" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
     </row>
     <row r="19" spans="1:11" ht="43.2">
-      <c r="A19" s="32">
+      <c r="A19" s="26">
         <v>3</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="42" t="s">
+      <c r="F19" s="66"/>
+      <c r="G19" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
       <c r="K19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="32">
+      <c r="A20" s="26">
         <v>4</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="32">
+      <c r="A21" s="26">
         <v>5</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
       <c r="K21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="32">
+      <c r="A22" s="26">
         <v>6</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="32">
+      <c r="A23" s="26">
         <v>7</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="32">
+      <c r="A24" s="26">
         <v>8</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="32">
+      <c r="A25" s="26">
         <v>9</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1">
-      <c r="A26" s="33">
+      <c r="A26" s="27">
         <v>10</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -6075,23 +6260,10 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6099,8 +6271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -6110,118 +6282,118 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:3">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="41" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="42" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="57.6">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="42" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="42" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.2">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="77"/>
+      <c r="C14" s="74"/>
     </row>
     <row r="15" spans="1:3" ht="109.8" customHeight="1">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="81"/>
+      <c r="C15" s="75"/>
     </row>
     <row r="16" spans="1:3" ht="79.2" customHeight="1">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="81"/>
+      <c r="C16" s="75"/>
     </row>
     <row r="17" spans="1:3" ht="87" customHeight="1">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="81"/>
+      <c r="C17" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
+++ b/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
@@ -992,7 +992,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1087,6 +1087,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1120,89 +1129,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1218,16 +1230,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>87313</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7432</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>682625</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>658813</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>611188</xdr:rowOff>
+      <xdr:rowOff>603756</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1245,8 +1257,47 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8231188" y="7432"/>
+          <a:off x="87313" y="0"/>
           <a:ext cx="571500" cy="603756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>771867</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>580031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect l="5045" t="7763" r="8763" b="8014"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8310563" y="0"/>
+          <a:ext cx="581367" cy="580031"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1262,14 +1313,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>611376</xdr:rowOff>
     </xdr:to>
@@ -1289,8 +1340,47 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6766560" y="7620"/>
+          <a:off x="30480" y="7620"/>
           <a:ext cx="571500" cy="603756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>649947</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>602891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect l="5045" t="7763" r="8763" b="8014"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6789420" y="22860"/>
+          <a:ext cx="581367" cy="580031"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1306,16 +1396,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>618996</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1776</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1333,8 +1423,47 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6774180" y="15240"/>
+          <a:off x="99060" y="30480"/>
           <a:ext cx="571500" cy="603756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28233</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>595271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect l="5045" t="7763" r="8763" b="8014"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6749073" y="15240"/>
+          <a:ext cx="581367" cy="580031"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1921,7 +2050,7 @@
   <dimension ref="A1:J317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1938,18 +2067,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -5334,7 +5463,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -5350,34 +5479,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.95" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="72"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="K3" t="s">
@@ -5385,17 +5514,17 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="38" t="s">
@@ -5542,17 +5671,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15.6">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="25" t="s">
@@ -5567,15 +5696,15 @@
       <c r="D16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="67" t="s">
+      <c r="F16" s="71"/>
+      <c r="G16" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="26">
@@ -5584,11 +5713,11 @@
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
       <c r="K17" t="s">
         <v>68</v>
       </c>
@@ -5600,11 +5729,11 @@
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="26">
@@ -5613,11 +5742,11 @@
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="26">
@@ -5626,11 +5755,11 @@
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="26">
@@ -5639,11 +5768,11 @@
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="57"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="26">
@@ -5652,11 +5781,11 @@
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="26">
@@ -5665,11 +5794,11 @@
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="26">
@@ -5678,11 +5807,11 @@
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="26">
@@ -5691,11 +5820,11 @@
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="27">
@@ -5704,27 +5833,22 @@
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="G24:I24"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G18:I18"/>
@@ -5733,6 +5857,9 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E26:F26"/>
@@ -5740,6 +5867,8 @@
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5752,7 +5881,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -5768,50 +5897,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.95" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="72"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="55" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="56"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="38" t="s">
@@ -5873,15 +6002,15 @@
       <c r="I6" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="73" t="s">
+      <c r="K6" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="28">
@@ -5911,15 +6040,15 @@
       <c r="I7" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="73" t="s">
+      <c r="K7" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="28">
@@ -6027,17 +6156,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="15.6">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="25" t="s">
@@ -6052,84 +6181,84 @@
       <c r="D16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="67" t="s">
+      <c r="F16" s="71"/>
+      <c r="G16" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="26">
         <v>1</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="52" t="s">
+      <c r="F17" s="81"/>
+      <c r="G17" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
-    </row>
-    <row r="18" spans="1:11" ht="28.8">
+      <c r="H17" s="82"/>
+      <c r="I17" s="83"/>
+    </row>
+    <row r="18" spans="1:11" ht="21.6">
       <c r="A18" s="26">
         <v>2</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="52" t="s">
+      <c r="F18" s="81"/>
+      <c r="G18" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
-    </row>
-    <row r="19" spans="1:11" ht="43.2">
+      <c r="H18" s="82"/>
+      <c r="I18" s="83"/>
+    </row>
+    <row r="19" spans="1:11" ht="31.8">
       <c r="A19" s="26">
         <v>3</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="52" t="s">
+      <c r="F19" s="81"/>
+      <c r="G19" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="83"/>
       <c r="K19" t="s">
         <v>68</v>
       </c>
@@ -6141,11 +6270,11 @@
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="26">
@@ -6154,11 +6283,11 @@
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="57"/>
       <c r="K21" t="s">
         <v>93</v>
       </c>
@@ -6170,11 +6299,11 @@
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="26">
@@ -6183,11 +6312,11 @@
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="26">
@@ -6196,11 +6325,11 @@
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="26">
@@ -6209,11 +6338,11 @@
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="27">
@@ -6222,11 +6351,11 @@
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -6282,11 +6411,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:3">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="41" t="s">
@@ -6344,47 +6473,47 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="85"/>
     </row>
     <row r="15" spans="1:3" ht="109.8" customHeight="1">
       <c r="A15" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="75"/>
+      <c r="C15" s="84"/>
     </row>
     <row r="16" spans="1:3" ht="79.2" customHeight="1">
       <c r="A16" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="75"/>
+      <c r="C16" s="84"/>
     </row>
     <row r="17" spans="1:3" ht="87" customHeight="1">
       <c r="A17" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
+++ b/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18492" windowHeight="11700"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Target list" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Explanation" sheetId="6" r:id="rId4"/>
     <sheet name="Example_support" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="131">
   <si>
     <t>OP ACTIVE RESOLVE TARGET LIST</t>
   </si>
@@ -412,6 +412,21 @@
   </si>
   <si>
     <t>Target folders may be produced (Should?)</t>
+  </si>
+  <si>
+    <t>EXPLANATION</t>
+  </si>
+  <si>
+    <t>EXPLANATION /SIGNIFICANCE</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Target of oppertunity if other targets not suitable for this ATO
+- It will have minor contributions to the operation
+- It may be required for targeting, but is not time critical
+- If not targeted, no negative consequences</t>
   </si>
 </sst>
 </file>
@@ -508,7 +523,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,8 +554,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -982,6 +1003,74 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -992,7 +1081,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1012,13 +1101,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1087,6 +1169,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1129,23 +1245,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1155,9 +1256,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1190,6 +1288,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1272,13 +1388,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>771867</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>580031</xdr:rowOff>
+      <xdr:rowOff>599875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1296,7 +1412,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8310563" y="0"/>
+          <a:off x="8128000" y="19844"/>
           <a:ext cx="581367" cy="580031"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1479,6 +1595,58 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>695325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8191500" y="3095625"/>
+          <a:ext cx="6877050" cy="3181350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1498,7 +1666,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1545,7 +1713,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1592,7 +1760,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1639,7 +1807,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1686,7 +1854,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1733,7 +1901,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1743,6 +1911,53 @@
         <a:xfrm>
           <a:off x="1760220" y="1600200"/>
           <a:ext cx="5806440" cy="6743700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6800850" y="4286250"/>
+          <a:ext cx="7600950" cy="5334000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2047,40 +2262,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J317"/>
+  <dimension ref="A1:N317"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:14" ht="49.9" customHeight="1" thickBot="1">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="67"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -2095,68 +2320,97 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="29.4" customHeight="1" thickBot="1">
-      <c r="A3" s="23" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
+    </row>
+    <row r="3" spans="1:14" ht="29.45" customHeight="1" thickBot="1">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="18" t="s">
+      <c r="K3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="62" t="str">
+        <f>A4</f>
+        <v>OPARTGT001</v>
+      </c>
+      <c r="L4" s="63" t="str">
+        <f>B4</f>
+        <v>922nd SSM Regiment</v>
+      </c>
+      <c r="M4" s="63" t="str">
+        <f>C4</f>
+        <v>SCUDs</v>
+      </c>
+      <c r="N4" s="43"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -2183,8 +2437,21 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="62" t="str">
+        <f t="shared" ref="K5:K29" si="0">A5</f>
+        <v>OPARTGT002</v>
+      </c>
+      <c r="L5" s="63" t="str">
+        <f t="shared" ref="L5:L29" si="1">B5</f>
+        <v>923rd SSM Regiment</v>
+      </c>
+      <c r="M5" s="63" t="str">
+        <f t="shared" ref="M5:M29" si="2">C5</f>
+        <v>SCUDs</v>
+      </c>
+      <c r="N5" s="44"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -2207,8 +2474,21 @@
       <c r="H6" s="8"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT003</v>
+      </c>
+      <c r="L6" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>141st Heavy Rocket Artillery BN</v>
+      </c>
+      <c r="M6" s="63" t="str">
+        <f t="shared" si="2"/>
+        <v>MLRS</v>
+      </c>
+      <c r="N6" s="44"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -2231,8 +2511,21 @@
       <c r="H7" s="8"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT004</v>
+      </c>
+      <c r="L7" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>142nd Heavy Rocket Artillery BN</v>
+      </c>
+      <c r="M7" s="63" t="str">
+        <f t="shared" si="2"/>
+        <v>MLRS</v>
+      </c>
+      <c r="N7" s="44"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -2255,8 +2548,21 @@
       <c r="H8" s="8"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT005</v>
+      </c>
+      <c r="L8" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>341st Heavy Rocket Artillery BN</v>
+      </c>
+      <c r="M8" s="63" t="str">
+        <f t="shared" si="2"/>
+        <v>MLRS</v>
+      </c>
+      <c r="N8" s="44"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -2279,8 +2585,21 @@
       <c r="H9" s="8"/>
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT006</v>
+      </c>
+      <c r="L9" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>342nd Heavy Rocket Artillery BN</v>
+      </c>
+      <c r="M9" s="63" t="str">
+        <f t="shared" si="2"/>
+        <v>MLRS</v>
+      </c>
+      <c r="N9" s="44"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
@@ -2293,8 +2612,21 @@
       <c r="H10" s="8"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT007</v>
+      </c>
+      <c r="L10" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="44"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -2307,8 +2639,21 @@
       <c r="H11" s="8"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT008</v>
+      </c>
+      <c r="L11" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="44"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
@@ -2321,8 +2666,21 @@
       <c r="H12" s="8"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT009</v>
+      </c>
+      <c r="L12" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="44"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -2335,8 +2693,21 @@
       <c r="H13" s="8"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT010</v>
+      </c>
+      <c r="L13" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="44"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -2349,8 +2720,21 @@
       <c r="H14" s="8"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT011</v>
+      </c>
+      <c r="L14" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="44"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -2363,8 +2747,21 @@
       <c r="H15" s="8"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT012</v>
+      </c>
+      <c r="L15" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="44"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
@@ -2377,8 +2774,21 @@
       <c r="H16" s="8"/>
       <c r="I16" s="10"/>
       <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT013</v>
+      </c>
+      <c r="L16" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="44"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
@@ -2391,8 +2801,21 @@
       <c r="H17" s="8"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT014</v>
+      </c>
+      <c r="L17" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="44"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -2405,8 +2828,21 @@
       <c r="H18" s="8"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT015</v>
+      </c>
+      <c r="L18" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="44"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
@@ -2419,8 +2855,21 @@
       <c r="H19" s="8"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT016</v>
+      </c>
+      <c r="L19" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="44"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
@@ -2433,8 +2882,21 @@
       <c r="H20" s="8"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT017</v>
+      </c>
+      <c r="L20" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="44"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
@@ -2447,8 +2909,21 @@
       <c r="H21" s="8"/>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT018</v>
+      </c>
+      <c r="L21" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="44"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
         <v>31</v>
       </c>
@@ -2461,8 +2936,21 @@
       <c r="H22" s="8"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT019</v>
+      </c>
+      <c r="L22" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="44"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="7" t="s">
         <v>32</v>
       </c>
@@ -2475,8 +2963,21 @@
       <c r="H23" s="8"/>
       <c r="I23" s="10"/>
       <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT020</v>
+      </c>
+      <c r="L23" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="44"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
         <v>33</v>
       </c>
@@ -2489,8 +2990,21 @@
       <c r="H24" s="8"/>
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT021</v>
+      </c>
+      <c r="L24" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="44"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
@@ -2503,8 +3017,21 @@
       <c r="H25" s="8"/>
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT022</v>
+      </c>
+      <c r="L25" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="44"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
         <v>35</v>
       </c>
@@ -2517,8 +3044,21 @@
       <c r="H26" s="8"/>
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT023</v>
+      </c>
+      <c r="L26" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="44"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
         <v>36</v>
       </c>
@@ -2531,8 +3071,21 @@
       <c r="H27" s="8"/>
       <c r="I27" s="10"/>
       <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT024</v>
+      </c>
+      <c r="L27" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="44"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
@@ -2545,360 +3098,580 @@
       <c r="H28" s="8"/>
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="7" t="s">
+      <c r="K28" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT025</v>
+      </c>
+      <c r="L28" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="44"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A29" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="7" t="s">
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>OPARTGT026</v>
+      </c>
+      <c r="L29" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="52"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1">
-      <c r="A31" s="13" t="s">
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="58"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="17"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="44"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="59"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="44"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="59"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="44"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="59"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="44"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="59"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="44"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="59"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="44"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="59"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="44"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="59"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="44"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="59"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="44"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="59"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="44"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="59"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="44"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="59"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="44"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="59"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="44"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="59"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="44"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="59"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="44"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="59"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="44"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="59"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="44"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="59"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="44"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="59"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="44"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="59"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="44"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="59"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="44"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="59"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="44"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="59"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="44"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="59"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="44"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="59"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="44"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="59"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="44"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="59"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="44"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="59"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="44"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="59"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="44"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="59"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="44"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="59"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="44"/>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A62" s="60"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="45"/>
+      <c r="N62" s="46"/>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2908,7 +3681,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:14">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -5449,8 +6222,9 @@
       <c r="H317" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5466,200 +6240,200 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="49.95" customHeight="1">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:11" ht="49.9" customHeight="1">
+      <c r="A1" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
-      <c r="A2" s="75" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A2" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="93"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="K3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6">
-      <c r="A4" s="61" t="s">
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="34" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="28">
+      <c r="A6" s="23">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="28">
+      <c r="A7" s="23">
         <v>2</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="28">
+      <c r="A8" s="23">
         <v>3</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="28">
+      <c r="A9" s="23">
         <v>4</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="28">
+      <c r="A10" s="23">
         <v>5</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="28">
+      <c r="A11" s="23">
         <v>6</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="28">
+      <c r="A12" s="23">
         <v>7</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1">
-      <c r="A13" s="31">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A13" s="26">
         <v>8</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5670,21 +6444,21 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6">
-      <c r="A15" s="64" t="s">
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="A15" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -5696,148 +6470,148 @@
       <c r="D16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="68" t="s">
+      <c r="F16" s="86"/>
+      <c r="G16" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="70"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="85"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="26">
+      <c r="A17" s="21">
         <v>1</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
       <c r="K17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="26">
+      <c r="A18" s="21">
         <v>2</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="57"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="78"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="26">
+      <c r="A19" s="21">
         <v>3</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="78"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="26">
+      <c r="A20" s="21">
         <v>4</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="78"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="26">
+      <c r="A21" s="21">
         <v>5</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="78"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="26">
+      <c r="A22" s="21">
         <v>6</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="78"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="26">
+      <c r="A23" s="21">
         <v>7</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="78"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="26">
+      <c r="A24" s="21">
         <v>8</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="57"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="78"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="26">
+      <c r="A25" s="21">
         <v>9</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1">
-      <c r="A26" s="27">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A26" s="22">
         <v>10</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -5880,271 +6654,271 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="49.95" customHeight="1">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:17" ht="49.9" customHeight="1">
+      <c r="A1" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1">
-      <c r="A2" s="75" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A2" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="77" t="s">
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="78"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1"/>
-    <row r="4" spans="1:17" ht="15.6">
-      <c r="A4" s="61" t="s">
+      <c r="I2" s="93"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:17" ht="15.75">
+      <c r="A4" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="34" t="s">
         <v>66</v>
       </c>
       <c r="K5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="31.8">
-      <c r="A6" s="28">
+    <row r="6" spans="1:17" ht="34.5">
+      <c r="A6" s="23">
         <v>1</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="79" t="s">
+      <c r="K6" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="28">
+      <c r="A7" s="23">
         <v>2</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="79" t="s">
+      <c r="K7" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="28">
+      <c r="A8" s="23">
         <v>3</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="28">
+      <c r="A9" s="23">
         <v>4</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="28">
+      <c r="A10" s="23">
         <v>5</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="28">
+      <c r="A11" s="23">
         <v>6</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="28">
+      <c r="A12" s="23">
         <v>7</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1">
-      <c r="A13" s="31">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A13" s="26">
         <v>8</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6155,21 +6929,21 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.6">
-      <c r="A15" s="64" t="s">
+    <row r="15" spans="1:17" ht="15.75">
+      <c r="A15" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -6181,181 +6955,181 @@
       <c r="D16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="68" t="s">
+      <c r="F16" s="86"/>
+      <c r="G16" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="70"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="85"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="26">
+      <c r="A17" s="21">
         <v>1</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="80" t="s">
+      <c r="E17" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="81"/>
-      <c r="G17" s="80" t="s">
+      <c r="F17" s="102"/>
+      <c r="G17" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="82"/>
-      <c r="I17" s="83"/>
-    </row>
-    <row r="18" spans="1:11" ht="21.6">
-      <c r="A18" s="26">
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
+    </row>
+    <row r="18" spans="1:11" ht="23.25">
+      <c r="A18" s="21">
         <v>2</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="81"/>
-      <c r="G18" s="80" t="s">
+      <c r="F18" s="102"/>
+      <c r="G18" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="82"/>
-      <c r="I18" s="83"/>
-    </row>
-    <row r="19" spans="1:11" ht="31.8">
-      <c r="A19" s="26">
+      <c r="H18" s="103"/>
+      <c r="I18" s="104"/>
+    </row>
+    <row r="19" spans="1:11" ht="34.5">
+      <c r="A19" s="21">
         <v>3</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="E19" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="81"/>
-      <c r="G19" s="80" t="s">
+      <c r="F19" s="102"/>
+      <c r="G19" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="82"/>
-      <c r="I19" s="83"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="104"/>
       <c r="K19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="26">
+      <c r="A20" s="21">
         <v>4</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="78"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="26">
+      <c r="A21" s="21">
         <v>5</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="78"/>
       <c r="K21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="26">
+      <c r="A22" s="21">
         <v>6</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="78"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="26">
+      <c r="A23" s="21">
         <v>7</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="78"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="26">
+      <c r="A24" s="21">
         <v>8</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="57"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="78"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="26">
+      <c r="A25" s="21">
         <v>9</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1">
-      <c r="A26" s="27">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="71"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A26" s="22">
         <v>10</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -6398,125 +7172,135 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:C17"/>
+  <dimension ref="A5:C18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="3" width="46.21875" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="36" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="37" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="57.6">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:3" ht="60">
+      <c r="A8" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="37" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:3" ht="45">
+      <c r="A9" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.2">
-      <c r="A10" s="43" t="s">
+    <row r="10" spans="1:3" ht="45">
+      <c r="A10" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="85"/>
-    </row>
-    <row r="15" spans="1:3" ht="109.8" customHeight="1">
-      <c r="A15" s="43" t="s">
+      <c r="C14" s="106"/>
+    </row>
+    <row r="15" spans="1:3" ht="109.9" customHeight="1">
+      <c r="A15" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="84"/>
-    </row>
-    <row r="16" spans="1:3" ht="79.2" customHeight="1">
-      <c r="A16" s="43" t="s">
+      <c r="C15" s="105"/>
+    </row>
+    <row r="16" spans="1:3" ht="79.150000000000006" customHeight="1">
+      <c r="A16" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="105"/>
     </row>
     <row r="17" spans="1:3" ht="87" customHeight="1">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="84"/>
+      <c r="C17" s="105"/>
+    </row>
+    <row r="18" spans="1:3" ht="96.75" customHeight="1">
+      <c r="A18" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="B15:C15"/>
@@ -6525,6 +7309,7 @@
     <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6533,12 +7318,12 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="45.109375" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -6554,7 +7339,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="7.2" customHeight="1"/>
+    <row r="4" spans="2:3" ht="7.15" customHeight="1"/>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>54</v>

--- a/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
+++ b/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18492" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Target list" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Explanation" sheetId="6" r:id="rId4"/>
     <sheet name="Example_support" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="244">
   <si>
     <t>OP ACTIVE RESOLVE TARGET LIST</t>
   </si>
@@ -427,6 +427,345 @@
 - It will have minor contributions to the operation
 - It may be required for targeting, but is not time critical
 - If not targeted, no negative consequences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammunition Factory </t>
+  </si>
+  <si>
+    <t>Rockets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shells </t>
+  </si>
+  <si>
+    <t>Missiles</t>
+  </si>
+  <si>
+    <t>Bombs</t>
+  </si>
+  <si>
+    <t>SCUD storage site</t>
+  </si>
+  <si>
+    <t>Vehicle factory</t>
+  </si>
+  <si>
+    <t>Trucks</t>
+  </si>
+  <si>
+    <t>Armored</t>
+  </si>
+  <si>
+    <t>OPARTGT029</t>
+  </si>
+  <si>
+    <t>OPARTGT030</t>
+  </si>
+  <si>
+    <t>OPARTGT031</t>
+  </si>
+  <si>
+    <t>OPARTGT032</t>
+  </si>
+  <si>
+    <t>OPARTGT033</t>
+  </si>
+  <si>
+    <t>OPARTGT034</t>
+  </si>
+  <si>
+    <t>OPARTGT035</t>
+  </si>
+  <si>
+    <t>OPARTGT036</t>
+  </si>
+  <si>
+    <t>OPARTGT037</t>
+  </si>
+  <si>
+    <t>OPARTGT038</t>
+  </si>
+  <si>
+    <t>OPARTGT039</t>
+  </si>
+  <si>
+    <t>OPARTGT040</t>
+  </si>
+  <si>
+    <t>OPARTGT041</t>
+  </si>
+  <si>
+    <t>OPARTGT042</t>
+  </si>
+  <si>
+    <t>OPARTGT043</t>
+  </si>
+  <si>
+    <t>OPARTGT044</t>
+  </si>
+  <si>
+    <t>OPARTGT045</t>
+  </si>
+  <si>
+    <t>OPARTGT046</t>
+  </si>
+  <si>
+    <t>OPARTGT047</t>
+  </si>
+  <si>
+    <t>OPARTGT048</t>
+  </si>
+  <si>
+    <t>OPARTGT049</t>
+  </si>
+  <si>
+    <t>OPARTGT050</t>
+  </si>
+  <si>
+    <t>OPARTGT051</t>
+  </si>
+  <si>
+    <t>OPARTGT052</t>
+  </si>
+  <si>
+    <t>OPARTGT053</t>
+  </si>
+  <si>
+    <t>OPARTGT054</t>
+  </si>
+  <si>
+    <t>OPARTGT055</t>
+  </si>
+  <si>
+    <t>OPARTGT056</t>
+  </si>
+  <si>
+    <t>OPARTGT057</t>
+  </si>
+  <si>
+    <t>OPARTGT058</t>
+  </si>
+  <si>
+    <t>OPARTGT059</t>
+  </si>
+  <si>
+    <t>OPARTGT060</t>
+  </si>
+  <si>
+    <t>OPARTGT061</t>
+  </si>
+  <si>
+    <t>OPARTGT062</t>
+  </si>
+  <si>
+    <t>OPARTGT063</t>
+  </si>
+  <si>
+    <t>OPARTGT064</t>
+  </si>
+  <si>
+    <t>OPARTGT065</t>
+  </si>
+  <si>
+    <t>OPARTGT066</t>
+  </si>
+  <si>
+    <t>OPARTGT067</t>
+  </si>
+  <si>
+    <t>OPARTGT068</t>
+  </si>
+  <si>
+    <t>OPARTGT069</t>
+  </si>
+  <si>
+    <t>OPARTGT070</t>
+  </si>
+  <si>
+    <t>OPARTGT071</t>
+  </si>
+  <si>
+    <t>OPARTGT072</t>
+  </si>
+  <si>
+    <t>OPARTGT073</t>
+  </si>
+  <si>
+    <t>OPARTGT074</t>
+  </si>
+  <si>
+    <t>OPARTGT075</t>
+  </si>
+  <si>
+    <t>OPARTGT076</t>
+  </si>
+  <si>
+    <t>OPARTGT077</t>
+  </si>
+  <si>
+    <t>OPARTGT078</t>
+  </si>
+  <si>
+    <t>OPARTGT079</t>
+  </si>
+  <si>
+    <t>OPARTGT080</t>
+  </si>
+  <si>
+    <t>OPARTGT081</t>
+  </si>
+  <si>
+    <t>OPARTGT082</t>
+  </si>
+  <si>
+    <t>OPARTGT083</t>
+  </si>
+  <si>
+    <t>OPARTGT084</t>
+  </si>
+  <si>
+    <t>OPARTGT085</t>
+  </si>
+  <si>
+    <t>OPARTGT086</t>
+  </si>
+  <si>
+    <t>OPARTGT087</t>
+  </si>
+  <si>
+    <t>OPARTGT088</t>
+  </si>
+  <si>
+    <t>OPARTGT089</t>
+  </si>
+  <si>
+    <t>OPARTGT090</t>
+  </si>
+  <si>
+    <t>OPARTGT091</t>
+  </si>
+  <si>
+    <t>OPARTGT092</t>
+  </si>
+  <si>
+    <t>OPARTGT093</t>
+  </si>
+  <si>
+    <t>OPARTGT094</t>
+  </si>
+  <si>
+    <t>OPARTGT095</t>
+  </si>
+  <si>
+    <t>OPARTGT096</t>
+  </si>
+  <si>
+    <t>OPARTGT097</t>
+  </si>
+  <si>
+    <t>OPARTGT098</t>
+  </si>
+  <si>
+    <t>OPARTGT099</t>
+  </si>
+  <si>
+    <t>OPARTGT100</t>
+  </si>
+  <si>
+    <t>Aircraft parts factory</t>
+  </si>
+  <si>
+    <t>Damascus radio tower</t>
+  </si>
+  <si>
+    <t>International communication center</t>
+  </si>
+  <si>
+    <t>Minhak Airbase</t>
+  </si>
+  <si>
+    <t>Aleppo International Airport</t>
+  </si>
+  <si>
+    <t>Kuweires Airbase</t>
+  </si>
+  <si>
+    <t>Jirah Airbase</t>
+  </si>
+  <si>
+    <t>Tabqa Airbase</t>
+  </si>
+  <si>
+    <t>Abu al-Duhur Airbase</t>
+  </si>
+  <si>
+    <t>Taftanaz Airbase</t>
+  </si>
+  <si>
+    <t>Bassel Al-Assad Int Airport</t>
+  </si>
+  <si>
+    <t>Rus prescence</t>
+  </si>
+  <si>
+    <t>Hama Military Airport</t>
+  </si>
+  <si>
+    <t>Palmyra Airport</t>
+  </si>
+  <si>
+    <t>An Nasiriyah Airbase</t>
+  </si>
+  <si>
+    <t>Al-Dumary Military Airport</t>
+  </si>
+  <si>
+    <t>Maji Al Sultan Heliport</t>
+  </si>
+  <si>
+    <t>Der Salman Heliport</t>
+  </si>
+  <si>
+    <t>Damascus Int Airport</t>
+  </si>
+  <si>
+    <t>Qabr al-Sitt Heliport</t>
+  </si>
+  <si>
+    <t>Mezzeh Military Airport</t>
+  </si>
+  <si>
+    <t>Marj Ruhayyil Airbase</t>
+  </si>
+  <si>
+    <t>Khalkhalah Airbase</t>
+  </si>
+  <si>
+    <t>Syr Naval Base Latakia</t>
+  </si>
+  <si>
+    <t>Tartus Naval Base</t>
+  </si>
+  <si>
+    <t>XXX Chemical Weapon storage</t>
+  </si>
+  <si>
+    <t>XXX Chemical Weapon research facility</t>
+  </si>
+  <si>
+    <t>XXX Chemical Weapon production facility</t>
+  </si>
+  <si>
+    <t>XXX Chemical Weapon Storage</t>
+  </si>
+  <si>
+    <t>Air Defence Acadamey</t>
+  </si>
+  <si>
+    <t>Used for training new SAM and AAA units as part of the Syrian Air Defence. Neutralization of the target will reduce Syrian ability to reinforce their Air Defense units</t>
+  </si>
+  <si>
+    <t>Homs</t>
   </si>
 </sst>
 </file>
@@ -561,7 +900,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1020,56 +1359,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1081,7 +1370,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1177,24 +1466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1211,63 +1483,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1308,8 +1523,62 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1323,6 +1592,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1331,6 +1603,41 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2264,48 +2571,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N317"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="78.42578125" customWidth="1"/>
+    <col min="14" max="14" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="49.9" customHeight="1" thickBot="1">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="65" t="s">
+    <row r="1" spans="1:14" ht="49.95" customHeight="1" thickBot="1">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="67"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -2325,7 +2632,7 @@
       <c r="M2" s="41"/>
       <c r="N2" s="42"/>
     </row>
-    <row r="3" spans="1:14" ht="29.45" customHeight="1" thickBot="1">
+    <row r="3" spans="1:14" ht="29.4" customHeight="1" thickBot="1">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
@@ -2396,15 +2703,15 @@
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="62" t="str">
+      <c r="K4" s="49" t="str">
         <f>A4</f>
         <v>OPARTGT001</v>
       </c>
-      <c r="L4" s="63" t="str">
+      <c r="L4" s="50" t="str">
         <f>B4</f>
         <v>922nd SSM Regiment</v>
       </c>
-      <c r="M4" s="63" t="str">
+      <c r="M4" s="50" t="str">
         <f>C4</f>
         <v>SCUDs</v>
       </c>
@@ -2437,15 +2744,15 @@
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="62" t="str">
+      <c r="K5" s="49" t="str">
         <f t="shared" ref="K5:K29" si="0">A5</f>
         <v>OPARTGT002</v>
       </c>
-      <c r="L5" s="63" t="str">
+      <c r="L5" s="50" t="str">
         <f t="shared" ref="L5:L29" si="1">B5</f>
         <v>923rd SSM Regiment</v>
       </c>
-      <c r="M5" s="63" t="str">
+      <c r="M5" s="50" t="str">
         <f t="shared" ref="M5:M29" si="2">C5</f>
         <v>SCUDs</v>
       </c>
@@ -2474,15 +2781,15 @@
       <c r="H6" s="8"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="62" t="str">
+      <c r="K6" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT003</v>
       </c>
-      <c r="L6" s="63" t="str">
+      <c r="L6" s="50" t="str">
         <f t="shared" si="1"/>
         <v>141st Heavy Rocket Artillery BN</v>
       </c>
-      <c r="M6" s="63" t="str">
+      <c r="M6" s="50" t="str">
         <f t="shared" si="2"/>
         <v>MLRS</v>
       </c>
@@ -2511,15 +2818,15 @@
       <c r="H7" s="8"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="62" t="str">
+      <c r="K7" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT004</v>
       </c>
-      <c r="L7" s="63" t="str">
+      <c r="L7" s="50" t="str">
         <f t="shared" si="1"/>
         <v>142nd Heavy Rocket Artillery BN</v>
       </c>
-      <c r="M7" s="63" t="str">
+      <c r="M7" s="50" t="str">
         <f t="shared" si="2"/>
         <v>MLRS</v>
       </c>
@@ -2548,15 +2855,15 @@
       <c r="H8" s="8"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="62" t="str">
+      <c r="K8" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT005</v>
       </c>
-      <c r="L8" s="63" t="str">
+      <c r="L8" s="50" t="str">
         <f t="shared" si="1"/>
         <v>341st Heavy Rocket Artillery BN</v>
       </c>
-      <c r="M8" s="63" t="str">
+      <c r="M8" s="50" t="str">
         <f t="shared" si="2"/>
         <v>MLRS</v>
       </c>
@@ -2585,15 +2892,15 @@
       <c r="H9" s="8"/>
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="62" t="str">
+      <c r="K9" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT006</v>
       </c>
-      <c r="L9" s="63" t="str">
+      <c r="L9" s="50" t="str">
         <f t="shared" si="1"/>
         <v>342nd Heavy Rocket Artillery BN</v>
       </c>
-      <c r="M9" s="63" t="str">
+      <c r="M9" s="50" t="str">
         <f t="shared" si="2"/>
         <v>MLRS</v>
       </c>
@@ -2603,24 +2910,28 @@
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="62" t="str">
+      <c r="K10" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT007</v>
       </c>
-      <c r="L10" s="63">
+      <c r="L10" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="63">
+        <v xml:space="preserve">Ammunition Factory </v>
+      </c>
+      <c r="M10" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2630,24 +2941,28 @@
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="62" t="str">
+      <c r="K11" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT008</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="63">
+        <v xml:space="preserve">Ammunition Factory </v>
+      </c>
+      <c r="M11" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2657,24 +2972,28 @@
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="62" t="str">
+      <c r="K12" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT009</v>
       </c>
-      <c r="L12" s="63">
+      <c r="L12" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="63">
+        <v xml:space="preserve">Ammunition Factory </v>
+      </c>
+      <c r="M12" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2684,24 +3003,28 @@
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="62" t="str">
+      <c r="K13" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT010</v>
       </c>
-      <c r="L13" s="63">
+      <c r="L13" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="63">
+        <v xml:space="preserve">Ammunition Factory </v>
+      </c>
+      <c r="M13" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2711,24 +3034,28 @@
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="62" t="str">
+      <c r="K14" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT011</v>
       </c>
-      <c r="L14" s="63">
+      <c r="L14" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="63">
+        <v xml:space="preserve">Ammunition Factory </v>
+      </c>
+      <c r="M14" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2738,24 +3065,28 @@
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="62" t="str">
+      <c r="K15" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT012</v>
       </c>
-      <c r="L15" s="63">
+      <c r="L15" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="63">
+        <v xml:space="preserve">Ammunition Factory </v>
+      </c>
+      <c r="M15" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2765,24 +3096,28 @@
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="62" t="str">
+      <c r="K16" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT013</v>
       </c>
-      <c r="L16" s="63">
+      <c r="L16" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="63">
+        <v xml:space="preserve">Ammunition Factory </v>
+      </c>
+      <c r="M16" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2792,24 +3127,28 @@
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="62" t="str">
+      <c r="K17" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT014</v>
       </c>
-      <c r="L17" s="63">
+      <c r="L17" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="63">
+        <v xml:space="preserve">Ammunition Factory </v>
+      </c>
+      <c r="M17" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2819,24 +3158,28 @@
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="62" t="str">
+      <c r="K18" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT015</v>
       </c>
-      <c r="L18" s="63">
+      <c r="L18" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="63">
+        <v xml:space="preserve">Ammunition Factory </v>
+      </c>
+      <c r="M18" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2846,24 +3189,28 @@
       <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="62" t="str">
+      <c r="K19" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT016</v>
       </c>
-      <c r="L19" s="63">
+      <c r="L19" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="63">
+        <v xml:space="preserve">Ammunition Factory </v>
+      </c>
+      <c r="M19" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2873,24 +3220,28 @@
       <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="62" t="str">
+      <c r="K20" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT017</v>
       </c>
-      <c r="L20" s="63">
+      <c r="L20" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="63">
+        <v xml:space="preserve">Ammunition Factory </v>
+      </c>
+      <c r="M20" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2900,24 +3251,28 @@
       <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="62" t="str">
+      <c r="K21" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT018</v>
       </c>
-      <c r="L21" s="63">
+      <c r="L21" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="63">
+        <v xml:space="preserve">Ammunition Factory </v>
+      </c>
+      <c r="M21" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2927,7 +3282,9 @@
       <c r="A22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2936,15 +3293,15 @@
       <c r="H22" s="8"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="62" t="str">
+      <c r="K22" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT019</v>
       </c>
-      <c r="L22" s="63">
+      <c r="L22" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="63">
+        <v>SCUD storage site</v>
+      </c>
+      <c r="M22" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2954,7 +3311,9 @@
       <c r="A23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2963,15 +3322,15 @@
       <c r="H23" s="8"/>
       <c r="I23" s="10"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="62" t="str">
+      <c r="K23" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT020</v>
       </c>
-      <c r="L23" s="63">
+      <c r="L23" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="63">
+        <v>SCUD storage site</v>
+      </c>
+      <c r="M23" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2981,24 +3340,28 @@
       <c r="A24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="8"/>
+      <c r="H24" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="62" t="str">
+      <c r="K24" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT021</v>
       </c>
-      <c r="L24" s="63">
+      <c r="L24" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="63">
+        <v>Vehicle factory</v>
+      </c>
+      <c r="M24" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3008,24 +3371,28 @@
       <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="8"/>
+      <c r="H25" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="62" t="str">
+      <c r="K25" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT022</v>
       </c>
-      <c r="L25" s="63">
+      <c r="L25" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="63">
+        <v>Vehicle factory</v>
+      </c>
+      <c r="M25" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3035,24 +3402,28 @@
       <c r="A26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="62" t="str">
+      <c r="K26" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT023</v>
       </c>
-      <c r="L26" s="63">
+      <c r="L26" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="63">
+        <v>Vehicle factory</v>
+      </c>
+      <c r="M26" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3062,24 +3433,28 @@
       <c r="A27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="8"/>
+      <c r="H27" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="I27" s="10"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="62" t="str">
+      <c r="K27" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT024</v>
       </c>
-      <c r="L27" s="63">
+      <c r="L27" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="63">
+        <v>Vehicle factory</v>
+      </c>
+      <c r="M27" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3089,999 +3464,2065 @@
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="62" t="str">
+      <c r="K28" s="49" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT025</v>
       </c>
-      <c r="L28" s="63">
+      <c r="L28" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="63">
+        <v>Vehicle factory</v>
+      </c>
+      <c r="M28" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N28" s="44"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A29" s="47" t="s">
+    <row r="29" spans="1:14" ht="15" thickBot="1">
+      <c r="A29" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="62" t="str">
+      <c r="B29" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="I29" s="98"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="100" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT026</v>
       </c>
-      <c r="L29" s="63">
+      <c r="L29" s="101" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="63">
+        <v>Vehicle factory</v>
+      </c>
+      <c r="M29" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="52"/>
+      <c r="N29" s="46"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="58"/>
+      <c r="B30" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="49" t="str">
+        <f>A30</f>
+        <v>OPARTGT027</v>
+      </c>
+      <c r="L30" s="50" t="str">
+        <f>B30</f>
+        <v>Vehicle factory</v>
+      </c>
+      <c r="M30" s="50">
+        <f>C30</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="43"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
+      <c r="K31" s="49" t="str">
+        <f t="shared" ref="K31" si="3">A31</f>
+        <v>OPARTGT028</v>
+      </c>
+      <c r="L31" s="50" t="str">
+        <f t="shared" ref="L31" si="4">B31</f>
+        <v>Vehicle factory</v>
+      </c>
+      <c r="M31" s="50">
+        <f t="shared" ref="M31" si="5">C31</f>
+        <v>0</v>
+      </c>
       <c r="N31" s="44"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="59"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
+      <c r="A32" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I32" s="39"/>
       <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
+      <c r="K32" s="49" t="str">
+        <f>A32</f>
+        <v>OPARTGT029</v>
+      </c>
+      <c r="L32" s="50" t="str">
+        <f>B32</f>
+        <v>Vehicle factory</v>
+      </c>
+      <c r="M32" s="50">
+        <f>C32</f>
+        <v>0</v>
+      </c>
       <c r="N32" s="44"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="59"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
+      <c r="A33" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="39"/>
       <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
+      <c r="K33" s="49" t="str">
+        <f t="shared" ref="K33:K64" si="6">A33</f>
+        <v>OPARTGT030</v>
+      </c>
+      <c r="L33" s="50" t="str">
+        <f t="shared" ref="L33:L64" si="7">B33</f>
+        <v>Aircraft parts factory</v>
+      </c>
+      <c r="M33" s="50">
+        <f t="shared" ref="M33:M64" si="8">C33</f>
+        <v>0</v>
+      </c>
       <c r="N33" s="44"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="59"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
+      <c r="A34" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="39"/>
       <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
+      <c r="K34" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT031</v>
+      </c>
+      <c r="L34" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Aircraft parts factory</v>
+      </c>
+      <c r="M34" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N34" s="44"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="59"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
+      <c r="A35" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="8"/>
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
+      <c r="K35" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT032</v>
+      </c>
+      <c r="L35" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Aircraft parts factory</v>
+      </c>
+      <c r="M35" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N35" s="44"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="59"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="A36" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="8"/>
       <c r="I36" s="39"/>
       <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
+      <c r="K36" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT033</v>
+      </c>
+      <c r="L36" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Aircraft parts factory</v>
+      </c>
+      <c r="M36" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="59"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
+      <c r="A37" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="8"/>
       <c r="I37" s="39"/>
       <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
+      <c r="K37" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT034</v>
+      </c>
+      <c r="L37" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Damascus radio tower</v>
+      </c>
+      <c r="M37" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N37" s="44"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="59"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
+      <c r="A38" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="39"/>
       <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
+      <c r="K38" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT035</v>
+      </c>
+      <c r="L38" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>International communication center</v>
+      </c>
+      <c r="M38" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N38" s="44"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="59"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
+      <c r="A39" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="8"/>
       <c r="I39" s="39"/>
       <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
+      <c r="K39" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT036</v>
+      </c>
+      <c r="L39" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Minhak Airbase</v>
+      </c>
+      <c r="M39" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N39" s="44"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="59"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
+      <c r="A40" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
+      <c r="K40" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT037</v>
+      </c>
+      <c r="L40" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Aleppo International Airport</v>
+      </c>
+      <c r="M40" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N40" s="44"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="59"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
+      <c r="A41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="39"/>
       <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
+      <c r="K41" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT038</v>
+      </c>
+      <c r="L41" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Kuweires Airbase</v>
+      </c>
+      <c r="M41" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N41" s="44"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="59"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
+      <c r="A42" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="8"/>
       <c r="I42" s="39"/>
       <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
+      <c r="K42" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT039</v>
+      </c>
+      <c r="L42" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Jirah Airbase</v>
+      </c>
+      <c r="M42" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N42" s="44"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="59"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
+      <c r="A43" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="8"/>
       <c r="I43" s="39"/>
       <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
+      <c r="K43" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT040</v>
+      </c>
+      <c r="L43" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Tabqa Airbase</v>
+      </c>
+      <c r="M43" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N43" s="44"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="59"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
+      <c r="A44" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="8"/>
       <c r="I44" s="39"/>
       <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
+      <c r="K44" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT041</v>
+      </c>
+      <c r="L44" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Abu al-Duhur Airbase</v>
+      </c>
+      <c r="M44" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N44" s="44"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="59"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
+      <c r="A45" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="8"/>
       <c r="I45" s="39"/>
       <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
+      <c r="K45" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT042</v>
+      </c>
+      <c r="L45" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Taftanaz Airbase</v>
+      </c>
+      <c r="M45" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N45" s="44"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="59"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
+      <c r="A46" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="I46" s="39"/>
       <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
+      <c r="K46" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT043</v>
+      </c>
+      <c r="L46" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Bassel Al-Assad Int Airport</v>
+      </c>
+      <c r="M46" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N46" s="44"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="59"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
+      <c r="A47" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="8"/>
       <c r="I47" s="39"/>
       <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
+      <c r="K47" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT044</v>
+      </c>
+      <c r="L47" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Hama Military Airport</v>
+      </c>
+      <c r="M47" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N47" s="44"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="59"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
+      <c r="A48" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="39"/>
       <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
+      <c r="K48" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT045</v>
+      </c>
+      <c r="L48" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Palmyra Airport</v>
+      </c>
+      <c r="M48" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N48" s="44"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="59"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
+      <c r="A49" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="8"/>
       <c r="I49" s="39"/>
       <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
+      <c r="K49" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT046</v>
+      </c>
+      <c r="L49" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>An Nasiriyah Airbase</v>
+      </c>
+      <c r="M49" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N49" s="44"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="59"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
+      <c r="A50" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="8"/>
       <c r="I50" s="39"/>
       <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
+      <c r="K50" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT047</v>
+      </c>
+      <c r="L50" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Al-Dumary Military Airport</v>
+      </c>
+      <c r="M50" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N50" s="44"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="59"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
+      <c r="A51" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="8"/>
       <c r="I51" s="39"/>
       <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
+      <c r="K51" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT048</v>
+      </c>
+      <c r="L51" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Maji Al Sultan Heliport</v>
+      </c>
+      <c r="M51" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N51" s="44"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="59"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
+      <c r="A52" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="8"/>
       <c r="I52" s="39"/>
       <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
+      <c r="K52" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT049</v>
+      </c>
+      <c r="L52" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Der Salman Heliport</v>
+      </c>
+      <c r="M52" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N52" s="44"/>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="59"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
+      <c r="A53" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="8"/>
       <c r="I53" s="39"/>
       <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
+      <c r="K53" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT050</v>
+      </c>
+      <c r="L53" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Damascus Int Airport</v>
+      </c>
+      <c r="M53" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N53" s="44"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="59"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
+      <c r="A54" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="8"/>
       <c r="I54" s="39"/>
       <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
+      <c r="K54" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT051</v>
+      </c>
+      <c r="L54" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Qabr al-Sitt Heliport</v>
+      </c>
+      <c r="M54" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N54" s="44"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="59"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
+      <c r="A55" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="8"/>
       <c r="I55" s="39"/>
       <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
+      <c r="K55" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT052</v>
+      </c>
+      <c r="L55" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Mezzeh Military Airport</v>
+      </c>
+      <c r="M55" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N55" s="44"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="59"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
+      <c r="A56" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="8"/>
       <c r="I56" s="39"/>
       <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
+      <c r="K56" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT053</v>
+      </c>
+      <c r="L56" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Marj Ruhayyil Airbase</v>
+      </c>
+      <c r="M56" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N56" s="44"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="59"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
+      <c r="A57" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="8"/>
       <c r="I57" s="39"/>
       <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
+      <c r="K57" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT054</v>
+      </c>
+      <c r="L57" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Khalkhalah Airbase</v>
+      </c>
+      <c r="M57" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N57" s="44"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="59"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
+      <c r="A58" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="8"/>
       <c r="I58" s="39"/>
       <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
+      <c r="K58" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT055</v>
+      </c>
+      <c r="L58" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Syr Naval Base Latakia</v>
+      </c>
+      <c r="M58" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N58" s="44"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="59"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
+      <c r="A59" s="108" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="I59" s="39"/>
       <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
+      <c r="K59" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT056</v>
+      </c>
+      <c r="L59" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>Tartus Naval Base</v>
+      </c>
+      <c r="M59" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N59" s="44"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="59"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
+      <c r="A60" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="8"/>
       <c r="I60" s="39"/>
       <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
+      <c r="K60" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT057</v>
+      </c>
+      <c r="L60" s="50" t="str">
+        <f t="shared" si="7"/>
+        <v>XXX Chemical Weapon storage</v>
+      </c>
+      <c r="M60" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N60" s="44"/>
     </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="59"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
+    <row r="61" spans="1:14" ht="24">
+      <c r="A61" s="108" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="8"/>
       <c r="I61" s="39"/>
       <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
+      <c r="K61" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT058</v>
+      </c>
+      <c r="L61" s="103" t="str">
+        <f t="shared" si="7"/>
+        <v>XXX Chemical Weapon research facility</v>
+      </c>
+      <c r="M61" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N61" s="44"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A62" s="60"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
+    <row r="62" spans="1:14" ht="24.6" thickBot="1">
+      <c r="A62" s="108" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="8"/>
       <c r="I62" s="45"/>
       <c r="J62" s="45"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="45"/>
+      <c r="K62" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT059</v>
+      </c>
+      <c r="L62" s="103" t="str">
+        <f t="shared" si="7"/>
+        <v>XXX Chemical Weapon research facility</v>
+      </c>
+      <c r="M62" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="N62" s="46"/>
     </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+    <row r="63" spans="1:14" ht="24">
+      <c r="A63" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="102" t="s">
+        <v>239</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="H63" s="8"/>
+      <c r="K63" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT060</v>
+      </c>
+      <c r="L63" s="103" t="str">
+        <f t="shared" si="7"/>
+        <v>XXX Chemical Weapon production facility</v>
+      </c>
+      <c r="M63" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="A64" s="108" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" s="102" t="s">
+        <v>240</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="H64" s="8"/>
+      <c r="K64" s="49" t="str">
+        <f t="shared" si="6"/>
+        <v>OPARTGT061</v>
+      </c>
+      <c r="L64" s="103" t="str">
+        <f t="shared" si="7"/>
+        <v>XXX Chemical Weapon Storage</v>
+      </c>
+      <c r="M64" s="50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="28.8">
+      <c r="A65" s="108" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="105" t="s">
+        <v>241</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="H65" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="K65" s="107" t="str">
+        <f t="shared" ref="K65:K103" si="9">A65</f>
+        <v>OPARTGT062</v>
+      </c>
+      <c r="L65" s="106" t="str">
+        <f t="shared" ref="L65:L103" si="10">B65</f>
+        <v>Air Defence Acadamey</v>
+      </c>
+      <c r="M65" s="50">
+        <f t="shared" ref="M65:M103" si="11">C65</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="104" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="102"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="H66" s="8"/>
+      <c r="K66" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT063</v>
+      </c>
+      <c r="L66" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="104"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" s="102"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="H67" s="8"/>
+      <c r="K67" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT064</v>
+      </c>
+      <c r="L67" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="104"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="102"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="H68" s="8"/>
+      <c r="K68" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT065</v>
+      </c>
+      <c r="L68" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="104"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" s="102"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="H69" s="8"/>
+      <c r="K69" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT066</v>
+      </c>
+      <c r="L69" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="104"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" s="102"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="H70" s="8"/>
+      <c r="K70" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT067</v>
+      </c>
+      <c r="L70" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="104"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" s="102"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="H71" s="8"/>
+      <c r="K71" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT068</v>
+      </c>
+      <c r="L71" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="104"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" s="102"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="H72" s="8"/>
+      <c r="K72" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT069</v>
+      </c>
+      <c r="L72" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="104"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="102"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="H73" s="8"/>
+      <c r="K73" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT070</v>
+      </c>
+      <c r="L73" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="104"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="102"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="H74" s="8"/>
+      <c r="K74" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT071</v>
+      </c>
+      <c r="L74" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="104"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="102"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="H75" s="8"/>
+      <c r="K75" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT072</v>
+      </c>
+      <c r="L75" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="104"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" s="102"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="H76" s="8"/>
+      <c r="K76" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT073</v>
+      </c>
+      <c r="L76" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="104"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" s="102"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="H77" s="8"/>
+      <c r="K77" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT074</v>
+      </c>
+      <c r="L77" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="104"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" s="102"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="H78" s="8"/>
+      <c r="K78" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT075</v>
+      </c>
+      <c r="L78" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="104"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" s="102"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="H79" s="8"/>
+      <c r="K79" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT076</v>
+      </c>
+      <c r="L79" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="104"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B80" s="102"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="H80" s="8"/>
+      <c r="K80" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT077</v>
+      </c>
+      <c r="L80" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="104"/>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="102"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="H81" s="8"/>
+      <c r="K81" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT078</v>
+      </c>
+      <c r="L81" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="104"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="102"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="H82" s="8"/>
+      <c r="K82" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT079</v>
+      </c>
+      <c r="L82" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="104"/>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="102"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+      <c r="H83" s="8"/>
+      <c r="K83" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT080</v>
+      </c>
+      <c r="L83" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="104"/>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" s="102"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="H84" s="8"/>
+      <c r="K84" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT081</v>
+      </c>
+      <c r="L84" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="104"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B85" s="102"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="H85" s="8"/>
+      <c r="K85" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT082</v>
+      </c>
+      <c r="L85" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="104"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86" s="102"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="H86" s="8"/>
+      <c r="K86" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT083</v>
+      </c>
+      <c r="L86" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="104"/>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="102"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="H87" s="8"/>
+      <c r="K87" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT084</v>
+      </c>
+      <c r="L87" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M87" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="104"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="102"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="H88" s="8"/>
+      <c r="K88" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT085</v>
+      </c>
+      <c r="L88" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="104"/>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" s="102"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="H89" s="8"/>
+      <c r="K89" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT086</v>
+      </c>
+      <c r="L89" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="104"/>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B90" s="102"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+      <c r="H90" s="8"/>
+      <c r="K90" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT087</v>
+      </c>
+      <c r="L90" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="104"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" s="102"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+      <c r="H91" s="8"/>
+      <c r="K91" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT088</v>
+      </c>
+      <c r="L91" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="104"/>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="102"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+      <c r="H92" s="8"/>
+      <c r="K92" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT089</v>
+      </c>
+      <c r="L92" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="104"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" s="102"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="H93" s="8"/>
+      <c r="K93" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT090</v>
+      </c>
+      <c r="L93" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="104"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" s="102"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="H94" s="8"/>
+      <c r="K94" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT091</v>
+      </c>
+      <c r="L94" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="104"/>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" s="102"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="H95" s="8"/>
+      <c r="K95" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT092</v>
+      </c>
+      <c r="L95" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="104"/>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" s="102"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="H96" s="8"/>
+      <c r="K96" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT093</v>
+      </c>
+      <c r="L96" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="104"/>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B97" s="102"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="H97" s="8"/>
+      <c r="K97" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT094</v>
+      </c>
+      <c r="L97" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="104"/>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="102"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="H98" s="8"/>
+      <c r="K98" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT095</v>
+      </c>
+      <c r="L98" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="104"/>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B99" s="102"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="H99" s="8"/>
+      <c r="K99" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT096</v>
+      </c>
+      <c r="L99" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N99" s="104"/>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" s="102"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="H100" s="8"/>
+      <c r="K100" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT097</v>
+      </c>
+      <c r="L100" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="104"/>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B101" s="102"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="H101" s="8"/>
+      <c r="K101" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT098</v>
+      </c>
+      <c r="L101" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="104"/>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" s="102"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="H102" s="8"/>
+      <c r="K102" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT099</v>
+      </c>
+      <c r="L102" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="104"/>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="102"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="H103" s="8"/>
+      <c r="K103" s="49" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT100</v>
+      </c>
+      <c r="L103" s="103">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M103" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N103" s="104"/>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4091,7 +5532,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:14">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4101,7 +5542,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:14">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4111,7 +5552,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:14">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4121,7 +5562,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:14">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4131,7 +5572,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:14">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4141,7 +5582,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:14">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4151,7 +5592,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:14">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4161,7 +5602,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:14">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -6240,65 +7681,65 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:11" ht="49.95" customHeight="1">
+      <c r="A1" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="89"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="90" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1">
+      <c r="A2" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="91"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="93"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="K3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="97" t="s">
+    <row r="4" spans="1:11" ht="15.6">
+      <c r="A4" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="33" t="s">
@@ -6420,7 +7861,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1">
+    <row r="13" spans="1:11" ht="15" thickBot="1">
       <c r="A13" s="26">
         <v>8</v>
       </c>
@@ -6433,7 +7874,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+    <row r="14" spans="1:11" ht="15" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6444,18 +7885,18 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="80" t="s">
+    <row r="15" spans="1:11" ht="15.6">
+      <c r="A15" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="20" t="s">
@@ -6470,15 +7911,15 @@
       <c r="D16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="83" t="s">
+      <c r="F16" s="78"/>
+      <c r="G16" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="85"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="75"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="21">
@@ -6487,11 +7928,11 @@
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="77"/>
       <c r="K17" t="s">
         <v>68</v>
       </c>
@@ -6503,11 +7944,11 @@
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="78"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="77"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="21">
@@ -6516,11 +7957,11 @@
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="78"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="77"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="21">
@@ -6529,11 +7970,11 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="78"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="77"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="21">
@@ -6542,11 +7983,11 @@
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="77"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="21">
@@ -6555,11 +7996,11 @@
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="78"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="77"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="21">
@@ -6568,11 +8009,11 @@
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="78"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="77"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="21">
@@ -6581,11 +8022,11 @@
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="78"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="77"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="21">
@@ -6594,32 +8035,36 @@
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="71"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E25" s="79"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="22">
         <v>10</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -6634,15 +8079,11 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6654,67 +8095,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:17" ht="49.95" customHeight="1">
+      <c r="A1" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="89"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="90" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1">
+      <c r="A2" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="91"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="92" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="93"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="97" t="s">
+      <c r="I2" s="61"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1"/>
+    <row r="4" spans="1:17" ht="15.6">
+      <c r="A4" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="33" t="s">
@@ -6748,7 +8189,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="34.5">
+    <row r="6" spans="1:17" ht="31.8">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -6776,15 +8217,15 @@
       <c r="I6" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="100" t="s">
+      <c r="K6" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="23">
@@ -6814,15 +8255,15 @@
       <c r="I7" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="100" t="s">
+      <c r="K7" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="23">
@@ -6905,7 +8346,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1">
+    <row r="13" spans="1:17" ht="15" thickBot="1">
       <c r="A13" s="26">
         <v>8</v>
       </c>
@@ -6918,7 +8359,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6929,18 +8370,18 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="80" t="s">
+    <row r="15" spans="1:17" ht="15.6">
+      <c r="A15" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="20" t="s">
@@ -6955,15 +8396,15 @@
       <c r="D16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="83" t="s">
+      <c r="F16" s="78"/>
+      <c r="G16" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="85"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="75"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="21">
@@ -6978,17 +8419,17 @@
       <c r="D17" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="101" t="s">
+      <c r="E17" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="102"/>
-      <c r="G17" s="101" t="s">
+      <c r="F17" s="88"/>
+      <c r="G17" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="103"/>
-      <c r="I17" s="104"/>
-    </row>
-    <row r="18" spans="1:11" ht="23.25">
+      <c r="H17" s="89"/>
+      <c r="I17" s="90"/>
+    </row>
+    <row r="18" spans="1:11" ht="21.6">
       <c r="A18" s="21">
         <v>2</v>
       </c>
@@ -7001,17 +8442,17 @@
       <c r="D18" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="101" t="s">
+      <c r="E18" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="102"/>
-      <c r="G18" s="101" t="s">
+      <c r="F18" s="88"/>
+      <c r="G18" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="103"/>
-      <c r="I18" s="104"/>
-    </row>
-    <row r="19" spans="1:11" ht="34.5">
+      <c r="H18" s="89"/>
+      <c r="I18" s="90"/>
+    </row>
+    <row r="19" spans="1:11" ht="31.8">
       <c r="A19" s="21">
         <v>3</v>
       </c>
@@ -7024,15 +8465,15 @@
       <c r="D19" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="101" t="s">
+      <c r="E19" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="102"/>
-      <c r="G19" s="101" t="s">
+      <c r="F19" s="88"/>
+      <c r="G19" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="103"/>
-      <c r="I19" s="104"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="90"/>
       <c r="K19" t="s">
         <v>68</v>
       </c>
@@ -7044,11 +8485,11 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="78"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="77"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="21">
@@ -7057,11 +8498,11 @@
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="77"/>
       <c r="K21" t="s">
         <v>93</v>
       </c>
@@ -7073,11 +8514,11 @@
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="78"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="77"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="21">
@@ -7086,11 +8527,11 @@
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="78"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="77"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="21">
@@ -7099,11 +8540,11 @@
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="78"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="77"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="21">
@@ -7112,41 +8553,27 @@
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="71"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E25" s="79"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="22">
         <v>10</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -7163,6 +8590,20 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7175,21 +8616,21 @@
   <dimension ref="A5:C18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:3">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="36" t="s">
@@ -7202,7 +8643,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="38" t="s">
         <v>88</v>
       </c>
@@ -7213,7 +8654,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60">
+    <row r="8" spans="1:3" ht="57.6">
       <c r="A8" s="38" t="s">
         <v>81</v>
       </c>
@@ -7224,7 +8665,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45">
+    <row r="9" spans="1:3" ht="28.8">
       <c r="A9" s="38" t="s">
         <v>73</v>
       </c>
@@ -7235,7 +8676,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45">
+    <row r="10" spans="1:3" ht="43.2">
       <c r="A10" s="38" t="s">
         <v>101</v>
       </c>
@@ -7247,56 +8688,56 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="106"/>
-    </row>
-    <row r="15" spans="1:3" ht="109.9" customHeight="1">
+      <c r="C14" s="93"/>
+    </row>
+    <row r="15" spans="1:3" ht="109.95" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="105"/>
-    </row>
-    <row r="16" spans="1:3" ht="79.150000000000006" customHeight="1">
+      <c r="C15" s="92"/>
+    </row>
+    <row r="16" spans="1:3" ht="79.2" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="105"/>
+      <c r="C16" s="92"/>
     </row>
     <row r="17" spans="1:3" ht="87" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="105"/>
+      <c r="C17" s="92"/>
     </row>
     <row r="18" spans="1:3" ht="96.75" customHeight="1">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="105"/>
+      <c r="C18" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7321,9 +8762,9 @@
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -7339,7 +8780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="7.15" customHeight="1"/>
+    <row r="4" spans="2:3" ht="7.2" customHeight="1"/>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>54</v>

--- a/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
+++ b/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="251">
   <si>
     <t>OP ACTIVE RESOLVE TARGET LIST</t>
   </si>
@@ -766,6 +766,27 @@
   </si>
   <si>
     <t>Homs</t>
+  </si>
+  <si>
+    <t>Rocket motor facility</t>
+  </si>
+  <si>
+    <t>SCUD / MLRS</t>
+  </si>
+  <si>
+    <t>MLRS and SCUD rocket engines. Repair and construction of rocket engines</t>
+  </si>
+  <si>
+    <t>Rocket research facility</t>
+  </si>
+  <si>
+    <t>Research into rockets</t>
+  </si>
+  <si>
+    <t>Syrian Intelligence Agency</t>
+  </si>
+  <si>
+    <t>Syrian Intelligence Agency HQ building</t>
   </si>
 </sst>
 </file>
@@ -1475,6 +1496,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,6 +1539,63 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1523,62 +1636,8 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1592,9 +1651,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1603,41 +1659,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2571,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2593,24 +2614,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="52" t="s">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="69"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3492,31 +3513,31 @@
       <c r="N28" s="44"/>
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="96" t="s">
+      <c r="B29" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="96" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="I29" s="98"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="100" t="str">
+      <c r="I29" s="55"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT026</v>
       </c>
-      <c r="L29" s="101" t="str">
+      <c r="L29" s="58" t="str">
         <f t="shared" si="1"/>
         <v>Vehicle factory</v>
       </c>
-      <c r="M29" s="101">
+      <c r="M29" s="58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4372,7 +4393,7 @@
       <c r="N58" s="44"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="108" t="s">
+      <c r="A59" s="65" t="s">
         <v>167</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -4403,7 +4424,7 @@
       <c r="N59" s="44"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="109" t="s">
+      <c r="A60" s="66" t="s">
         <v>168</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -4432,10 +4453,10 @@
       <c r="N60" s="44"/>
     </row>
     <row r="61" spans="1:14" ht="24">
-      <c r="A61" s="108" t="s">
+      <c r="A61" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="59" t="s">
         <v>238</v>
       </c>
       <c r="C61" s="47"/>
@@ -4450,7 +4471,7 @@
         <f t="shared" si="6"/>
         <v>OPARTGT058</v>
       </c>
-      <c r="L61" s="103" t="str">
+      <c r="L61" s="60" t="str">
         <f t="shared" si="7"/>
         <v>XXX Chemical Weapon research facility</v>
       </c>
@@ -4461,10 +4482,10 @@
       <c r="N61" s="44"/>
     </row>
     <row r="62" spans="1:14" ht="24.6" thickBot="1">
-      <c r="A62" s="108" t="s">
+      <c r="A62" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="B62" s="102" t="s">
+      <c r="B62" s="59" t="s">
         <v>238</v>
       </c>
       <c r="C62" s="48"/>
@@ -4479,7 +4500,7 @@
         <f t="shared" si="6"/>
         <v>OPARTGT059</v>
       </c>
-      <c r="L62" s="103" t="str">
+      <c r="L62" s="60" t="str">
         <f t="shared" si="7"/>
         <v>XXX Chemical Weapon research facility</v>
       </c>
@@ -4490,10 +4511,10 @@
       <c r="N62" s="46"/>
     </row>
     <row r="63" spans="1:14" ht="24">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="B63" s="102" t="s">
+      <c r="B63" s="59" t="s">
         <v>239</v>
       </c>
       <c r="C63" s="1"/>
@@ -4506,7 +4527,7 @@
         <f t="shared" si="6"/>
         <v>OPARTGT060</v>
       </c>
-      <c r="L63" s="103" t="str">
+      <c r="L63" s="60" t="str">
         <f t="shared" si="7"/>
         <v>XXX Chemical Weapon production facility</v>
       </c>
@@ -4516,10 +4537,10 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="108" t="s">
+      <c r="A64" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="B64" s="102" t="s">
+      <c r="B64" s="59" t="s">
         <v>240</v>
       </c>
       <c r="C64" s="1"/>
@@ -4532,7 +4553,7 @@
         <f t="shared" si="6"/>
         <v>OPARTGT061</v>
       </c>
-      <c r="L64" s="103" t="str">
+      <c r="L64" s="60" t="str">
         <f t="shared" si="7"/>
         <v>XXX Chemical Weapon Storage</v>
       </c>
@@ -4542,10 +4563,10 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="28.8">
-      <c r="A65" s="108" t="s">
+      <c r="A65" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="B65" s="105" t="s">
+      <c r="B65" s="62" t="s">
         <v>241</v>
       </c>
       <c r="C65" s="1"/>
@@ -4556,11 +4577,11 @@
       <c r="H65" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="K65" s="107" t="str">
+      <c r="K65" s="64" t="str">
         <f t="shared" ref="K65:K103" si="9">A65</f>
         <v>OPARTGT062</v>
       </c>
-      <c r="L65" s="106" t="str">
+      <c r="L65" s="63" t="str">
         <f t="shared" ref="L65:L103" si="10">B65</f>
         <v>Air Defence Acadamey</v>
       </c>
@@ -4568,7 +4589,7 @@
         <f t="shared" ref="M65:M103" si="11">C65</f>
         <v>0</v>
       </c>
-      <c r="N65" s="104" t="s">
+      <c r="N65" s="61" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4576,32 +4597,40 @@
       <c r="A66" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B66" s="102"/>
+      <c r="B66" s="59" t="s">
+        <v>244</v>
+      </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="8"/>
+      <c r="H66" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="K66" s="49" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT063</v>
       </c>
-      <c r="L66" s="103">
+      <c r="L66" s="60" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>Rocket motor facility</v>
       </c>
       <c r="M66" s="50">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N66" s="104"/>
+      <c r="N66" s="61" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B67" s="102"/>
+      <c r="B67" s="59" t="s">
+        <v>247</v>
+      </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -4612,21 +4641,25 @@
         <f t="shared" si="9"/>
         <v>OPARTGT064</v>
       </c>
-      <c r="L67" s="103">
+      <c r="L67" s="60" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>Rocket research facility</v>
       </c>
       <c r="M67" s="50">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N67" s="104"/>
+      <c r="N67" s="61" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B68" s="102"/>
+      <c r="B68" s="59" t="s">
+        <v>249</v>
+      </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -4637,21 +4670,23 @@
         <f t="shared" si="9"/>
         <v>OPARTGT065</v>
       </c>
-      <c r="L68" s="103">
+      <c r="L68" s="60" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>Syrian Intelligence Agency</v>
       </c>
       <c r="M68" s="50">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N68" s="104"/>
+      <c r="N68" s="61" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B69" s="102"/>
+      <c r="B69" s="59"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -4662,7 +4697,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT066</v>
       </c>
-      <c r="L69" s="103">
+      <c r="L69" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -4670,13 +4705,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N69" s="104"/>
+      <c r="N69" s="61"/>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B70" s="102"/>
+      <c r="B70" s="59"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -4687,7 +4722,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT067</v>
       </c>
-      <c r="L70" s="103">
+      <c r="L70" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -4695,13 +4730,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N70" s="104"/>
+      <c r="N70" s="61"/>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B71" s="102"/>
+      <c r="B71" s="59"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -4712,7 +4747,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT068</v>
       </c>
-      <c r="L71" s="103">
+      <c r="L71" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -4720,13 +4755,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N71" s="104"/>
+      <c r="N71" s="61"/>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B72" s="102"/>
+      <c r="B72" s="59"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -4737,7 +4772,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT069</v>
       </c>
-      <c r="L72" s="103">
+      <c r="L72" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -4745,13 +4780,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N72" s="104"/>
+      <c r="N72" s="61"/>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B73" s="102"/>
+      <c r="B73" s="59"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -4762,7 +4797,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT070</v>
       </c>
-      <c r="L73" s="103">
+      <c r="L73" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -4770,13 +4805,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N73" s="104"/>
+      <c r="N73" s="61"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B74" s="102"/>
+      <c r="B74" s="59"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -4787,7 +4822,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT071</v>
       </c>
-      <c r="L74" s="103">
+      <c r="L74" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -4795,13 +4830,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N74" s="104"/>
+      <c r="N74" s="61"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B75" s="102"/>
+      <c r="B75" s="59"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -4812,7 +4847,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT072</v>
       </c>
-      <c r="L75" s="103">
+      <c r="L75" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -4820,13 +4855,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N75" s="104"/>
+      <c r="N75" s="61"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B76" s="102"/>
+      <c r="B76" s="59"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -4837,7 +4872,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT073</v>
       </c>
-      <c r="L76" s="103">
+      <c r="L76" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -4845,13 +4880,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N76" s="104"/>
+      <c r="N76" s="61"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B77" s="102"/>
+      <c r="B77" s="59"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -4862,7 +4897,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT074</v>
       </c>
-      <c r="L77" s="103">
+      <c r="L77" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -4870,13 +4905,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N77" s="104"/>
+      <c r="N77" s="61"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B78" s="102"/>
+      <c r="B78" s="59"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -4887,7 +4922,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT075</v>
       </c>
-      <c r="L78" s="103">
+      <c r="L78" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -4895,13 +4930,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N78" s="104"/>
+      <c r="N78" s="61"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B79" s="102"/>
+      <c r="B79" s="59"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -4912,7 +4947,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT076</v>
       </c>
-      <c r="L79" s="103">
+      <c r="L79" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -4920,13 +4955,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N79" s="104"/>
+      <c r="N79" s="61"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B80" s="102"/>
+      <c r="B80" s="59"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -4937,7 +4972,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT077</v>
       </c>
-      <c r="L80" s="103">
+      <c r="L80" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -4945,13 +4980,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N80" s="104"/>
+      <c r="N80" s="61"/>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B81" s="102"/>
+      <c r="B81" s="59"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -4962,7 +4997,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT078</v>
       </c>
-      <c r="L81" s="103">
+      <c r="L81" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -4970,13 +5005,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N81" s="104"/>
+      <c r="N81" s="61"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B82" s="102"/>
+      <c r="B82" s="59"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -4987,7 +5022,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT079</v>
       </c>
-      <c r="L82" s="103">
+      <c r="L82" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -4995,13 +5030,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N82" s="104"/>
+      <c r="N82" s="61"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B83" s="102"/>
+      <c r="B83" s="59"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -5012,7 +5047,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT080</v>
       </c>
-      <c r="L83" s="103">
+      <c r="L83" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5020,13 +5055,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N83" s="104"/>
+      <c r="N83" s="61"/>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B84" s="102"/>
+      <c r="B84" s="59"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -5037,7 +5072,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT081</v>
       </c>
-      <c r="L84" s="103">
+      <c r="L84" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5045,13 +5080,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N84" s="104"/>
+      <c r="N84" s="61"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B85" s="102"/>
+      <c r="B85" s="59"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -5062,7 +5097,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT082</v>
       </c>
-      <c r="L85" s="103">
+      <c r="L85" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5070,13 +5105,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N85" s="104"/>
+      <c r="N85" s="61"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B86" s="102"/>
+      <c r="B86" s="59"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -5087,7 +5122,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT083</v>
       </c>
-      <c r="L86" s="103">
+      <c r="L86" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5095,13 +5130,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N86" s="104"/>
+      <c r="N86" s="61"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B87" s="102"/>
+      <c r="B87" s="59"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -5112,7 +5147,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT084</v>
       </c>
-      <c r="L87" s="103">
+      <c r="L87" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5120,13 +5155,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N87" s="104"/>
+      <c r="N87" s="61"/>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B88" s="102"/>
+      <c r="B88" s="59"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -5137,7 +5172,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT085</v>
       </c>
-      <c r="L88" s="103">
+      <c r="L88" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5145,13 +5180,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N88" s="104"/>
+      <c r="N88" s="61"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B89" s="102"/>
+      <c r="B89" s="59"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -5162,7 +5197,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT086</v>
       </c>
-      <c r="L89" s="103">
+      <c r="L89" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5170,13 +5205,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N89" s="104"/>
+      <c r="N89" s="61"/>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B90" s="102"/>
+      <c r="B90" s="59"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -5187,7 +5222,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT087</v>
       </c>
-      <c r="L90" s="103">
+      <c r="L90" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5195,13 +5230,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N90" s="104"/>
+      <c r="N90" s="61"/>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B91" s="102"/>
+      <c r="B91" s="59"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -5212,7 +5247,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT088</v>
       </c>
-      <c r="L91" s="103">
+      <c r="L91" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5220,13 +5255,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N91" s="104"/>
+      <c r="N91" s="61"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B92" s="102"/>
+      <c r="B92" s="59"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -5237,7 +5272,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT089</v>
       </c>
-      <c r="L92" s="103">
+      <c r="L92" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5245,13 +5280,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N92" s="104"/>
+      <c r="N92" s="61"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B93" s="102"/>
+      <c r="B93" s="59"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -5262,7 +5297,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT090</v>
       </c>
-      <c r="L93" s="103">
+      <c r="L93" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5270,13 +5305,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N93" s="104"/>
+      <c r="N93" s="61"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B94" s="102"/>
+      <c r="B94" s="59"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -5287,7 +5322,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT091</v>
       </c>
-      <c r="L94" s="103">
+      <c r="L94" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5295,13 +5330,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N94" s="104"/>
+      <c r="N94" s="61"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B95" s="102"/>
+      <c r="B95" s="59"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -5312,7 +5347,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT092</v>
       </c>
-      <c r="L95" s="103">
+      <c r="L95" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5320,13 +5355,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N95" s="104"/>
+      <c r="N95" s="61"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B96" s="102"/>
+      <c r="B96" s="59"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -5337,7 +5372,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT093</v>
       </c>
-      <c r="L96" s="103">
+      <c r="L96" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5345,13 +5380,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N96" s="104"/>
+      <c r="N96" s="61"/>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B97" s="102"/>
+      <c r="B97" s="59"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -5362,7 +5397,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT094</v>
       </c>
-      <c r="L97" s="103">
+      <c r="L97" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5370,13 +5405,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N97" s="104"/>
+      <c r="N97" s="61"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B98" s="102"/>
+      <c r="B98" s="59"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -5387,7 +5422,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT095</v>
       </c>
-      <c r="L98" s="103">
+      <c r="L98" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5395,13 +5430,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N98" s="104"/>
+      <c r="N98" s="61"/>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B99" s="102"/>
+      <c r="B99" s="59"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -5412,7 +5447,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT096</v>
       </c>
-      <c r="L99" s="103">
+      <c r="L99" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5420,13 +5455,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N99" s="104"/>
+      <c r="N99" s="61"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B100" s="102"/>
+      <c r="B100" s="59"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -5437,7 +5472,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT097</v>
       </c>
-      <c r="L100" s="103">
+      <c r="L100" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5445,13 +5480,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N100" s="104"/>
+      <c r="N100" s="61"/>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B101" s="102"/>
+      <c r="B101" s="59"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -5462,7 +5497,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT098</v>
       </c>
-      <c r="L101" s="103">
+      <c r="L101" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5470,13 +5505,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N101" s="104"/>
+      <c r="N101" s="61"/>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B102" s="102"/>
+      <c r="B102" s="59"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -5487,7 +5522,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT099</v>
       </c>
-      <c r="L102" s="103">
+      <c r="L102" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5495,13 +5530,13 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N102" s="104"/>
+      <c r="N102" s="61"/>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B103" s="102"/>
+      <c r="B103" s="59"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -5512,7 +5547,7 @@
         <f t="shared" si="9"/>
         <v>OPARTGT100</v>
       </c>
-      <c r="L103" s="103">
+      <c r="L103" s="60">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -5520,7 +5555,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N103" s="104"/>
+      <c r="N103" s="61"/>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1"/>
@@ -7694,34 +7729,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.95" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="93"/>
       <c r="C2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="K3" t="s">
@@ -7729,17 +7764,17 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="101"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="33" t="s">
@@ -7886,17 +7921,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15.6">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="20" t="s">
@@ -7911,15 +7946,15 @@
       <c r="D16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="78"/>
-      <c r="G16" s="73" t="s">
+      <c r="F16" s="88"/>
+      <c r="G16" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="74"/>
-      <c r="I16" s="75"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="87"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="21">
@@ -7928,11 +7963,11 @@
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="77"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="80"/>
       <c r="K17" t="s">
         <v>68</v>
       </c>
@@ -7944,11 +7979,11 @@
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="77"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="80"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="21">
@@ -7957,11 +7992,11 @@
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="77"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="80"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="21">
@@ -7970,11 +8005,11 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="77"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="80"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="21">
@@ -7983,11 +8018,11 @@
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="77"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="80"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="21">
@@ -7996,11 +8031,11 @@
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="77"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="80"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="21">
@@ -8009,11 +8044,11 @@
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="77"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="80"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="21">
@@ -8022,11 +8057,11 @@
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="77"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="21">
@@ -8035,11 +8070,11 @@
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="82"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="22">
@@ -8048,23 +8083,19 @@
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="86"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -8079,11 +8110,15 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8112,50 +8147,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.95" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="93"/>
       <c r="C2" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="60" t="s">
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="61"/>
+      <c r="I2" s="95"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.6">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="101"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="33" t="s">
@@ -8217,15 +8252,15 @@
       <c r="I6" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="91" t="s">
+      <c r="K6" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="23">
@@ -8255,15 +8290,15 @@
       <c r="I7" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="91" t="s">
+      <c r="K7" s="102" t="s">
         <v>126</v>
       </c>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="23">
@@ -8371,17 +8406,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="15.6">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="20" t="s">
@@ -8396,15 +8431,15 @@
       <c r="D16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="78"/>
-      <c r="G16" s="73" t="s">
+      <c r="F16" s="88"/>
+      <c r="G16" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="74"/>
-      <c r="I16" s="75"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="87"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="21">
@@ -8419,15 +8454,15 @@
       <c r="D17" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="87" t="s">
+      <c r="F17" s="104"/>
+      <c r="G17" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="89"/>
-      <c r="I17" s="90"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="106"/>
     </row>
     <row r="18" spans="1:11" ht="21.6">
       <c r="A18" s="21">
@@ -8442,15 +8477,15 @@
       <c r="D18" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="87" t="s">
+      <c r="E18" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="88"/>
-      <c r="G18" s="87" t="s">
+      <c r="F18" s="104"/>
+      <c r="G18" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="89"/>
-      <c r="I18" s="90"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="106"/>
     </row>
     <row r="19" spans="1:11" ht="31.8">
       <c r="A19" s="21">
@@ -8465,15 +8500,15 @@
       <c r="D19" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="87" t="s">
+      <c r="E19" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="87" t="s">
+      <c r="F19" s="104"/>
+      <c r="G19" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="89"/>
-      <c r="I19" s="90"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="106"/>
       <c r="K19" t="s">
         <v>68</v>
       </c>
@@ -8485,11 +8520,11 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="77"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="80"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="21">
@@ -8498,11 +8533,11 @@
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="77"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="80"/>
       <c r="K21" t="s">
         <v>93</v>
       </c>
@@ -8514,11 +8549,11 @@
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="77"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="80"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="21">
@@ -8527,11 +8562,11 @@
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="77"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="80"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="21">
@@ -8540,11 +8575,11 @@
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="77"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="80"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="21">
@@ -8553,11 +8588,11 @@
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="82"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="22">
@@ -8566,14 +8601,28 @@
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="86"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -8590,20 +8639,6 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8626,11 +8661,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:3">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="36" t="s">
@@ -8688,56 +8723,56 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="93"/>
+      <c r="C14" s="108"/>
     </row>
     <row r="15" spans="1:3" ht="109.95" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="92"/>
+      <c r="C15" s="107"/>
     </row>
     <row r="16" spans="1:3" ht="79.2" customHeight="1">
       <c r="A16" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="107"/>
     </row>
     <row r="17" spans="1:3" ht="87" customHeight="1">
       <c r="A17" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="92"/>
+      <c r="C17" s="107"/>
     </row>
     <row r="18" spans="1:3" ht="96.75" customHeight="1">
       <c r="A18" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="92"/>
+      <c r="C18" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
+++ b/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18492" windowHeight="11700"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Target list" sheetId="1" r:id="rId1"/>
     <sheet name="JPTL D+X" sheetId="3" r:id="rId2"/>
     <sheet name="JPTL D+X EXAMPLE" sheetId="5" r:id="rId3"/>
-    <sheet name="Explanation" sheetId="6" r:id="rId4"/>
-    <sheet name="Example_support" sheetId="4" r:id="rId5"/>
+    <sheet name="Explanation Risk levels" sheetId="6" r:id="rId4"/>
+    <sheet name="Explanation Target Categories" sheetId="8" r:id="rId5"/>
+    <sheet name="Explanation Target Priorities" sheetId="7" r:id="rId6"/>
+    <sheet name="Explanation Target Effetcs" sheetId="9" r:id="rId7"/>
+    <sheet name="Example_support" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="265">
   <si>
     <t>OP ACTIVE RESOLVE TARGET LIST</t>
   </si>
@@ -158,9 +161,6 @@
     <t>342nd Heavy Rocket Artillery BN</t>
   </si>
   <si>
-    <t>High Value Target</t>
-  </si>
-  <si>
     <t>BDA</t>
   </si>
   <si>
@@ -353,9 +353,6 @@
     <t>Losses only at expected training or peactime attrition rates</t>
   </si>
   <si>
-    <t>losses expected at historical combat rates. Accept neutral or disadvantegous engagements can withdraw to prevent heavy losses</t>
-  </si>
-  <si>
     <t>Accept losses to achieve objective. Preserve future capability if able</t>
   </si>
   <si>
@@ -365,12 +362,6 @@
     <t>Force survival high priority</t>
   </si>
   <si>
-    <t>Whenever possible, provide SEAD support to operations in known SAM envelopes and position recovery forces at FOBs</t>
-  </si>
-  <si>
-    <t>Operations in known SAM envelopes without SEAD support. PR missions and recovery forces at FOL/FARP</t>
-  </si>
-  <si>
     <t>Defense against WMD, where consequences of failure unaceptable.</t>
   </si>
   <si>
@@ -383,34 +374,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Targets absolutely must be tasked for attack on this ATO because:
-- The target is essential for mission success in support of current objectives (or is a designated HPT, High Payoff Target, or TST
-- It is crucial to the overall success of the operation
-- It will have immediate and compelling effects
-- Its timeliness as an urgent target may not exist in the future
-- If not targeted, negative consequences may seriously jeopardize future CJTF operations</t>
-  </si>
-  <si>
-    <t>CRITERIA</t>
-  </si>
-  <si>
-    <t>CATEGORY</t>
-  </si>
-  <si>
-    <t>Targets desired to be tasked for attack on this ATO because:
-- It will contribute to the battle, but it is not critical to mission success
-- It will further the success of the operation
-- It will eventually require targetding due to JFC future plans
-- If not targeted on this ATO, negative consequences will probably not impede operations</t>
-  </si>
-  <si>
-    <t>Targets need to be tasked for attack on this ATO because:
-- Targets have substantial, but not immediate impact on the battle
-- The cascading effects this target provides may not be realized in the future
-- If not targeted on this ATO, a significant level of effort may be required later
-- If not targeted , negative consequence smay significantly hamper CJTF operations</t>
-  </si>
-  <si>
     <t>Target folders may be produced (Should?)</t>
   </si>
   <si>
@@ -423,377 +386,456 @@
     <t>D</t>
   </si>
   <si>
-    <t>Target of oppertunity if other targets not suitable for this ATO
+    <t xml:space="preserve">Ammunition Factory </t>
+  </si>
+  <si>
+    <t>Rockets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shells </t>
+  </si>
+  <si>
+    <t>Missiles</t>
+  </si>
+  <si>
+    <t>Bombs</t>
+  </si>
+  <si>
+    <t>SCUD storage site</t>
+  </si>
+  <si>
+    <t>Vehicle factory</t>
+  </si>
+  <si>
+    <t>Trucks</t>
+  </si>
+  <si>
+    <t>Armored</t>
+  </si>
+  <si>
+    <t>OPARTGT029</t>
+  </si>
+  <si>
+    <t>OPARTGT030</t>
+  </si>
+  <si>
+    <t>OPARTGT031</t>
+  </si>
+  <si>
+    <t>OPARTGT032</t>
+  </si>
+  <si>
+    <t>OPARTGT033</t>
+  </si>
+  <si>
+    <t>OPARTGT034</t>
+  </si>
+  <si>
+    <t>OPARTGT035</t>
+  </si>
+  <si>
+    <t>OPARTGT036</t>
+  </si>
+  <si>
+    <t>OPARTGT037</t>
+  </si>
+  <si>
+    <t>OPARTGT038</t>
+  </si>
+  <si>
+    <t>OPARTGT039</t>
+  </si>
+  <si>
+    <t>OPARTGT040</t>
+  </si>
+  <si>
+    <t>OPARTGT041</t>
+  </si>
+  <si>
+    <t>OPARTGT042</t>
+  </si>
+  <si>
+    <t>OPARTGT043</t>
+  </si>
+  <si>
+    <t>OPARTGT044</t>
+  </si>
+  <si>
+    <t>OPARTGT045</t>
+  </si>
+  <si>
+    <t>OPARTGT046</t>
+  </si>
+  <si>
+    <t>OPARTGT047</t>
+  </si>
+  <si>
+    <t>OPARTGT048</t>
+  </si>
+  <si>
+    <t>OPARTGT049</t>
+  </si>
+  <si>
+    <t>OPARTGT050</t>
+  </si>
+  <si>
+    <t>OPARTGT051</t>
+  </si>
+  <si>
+    <t>OPARTGT052</t>
+  </si>
+  <si>
+    <t>OPARTGT053</t>
+  </si>
+  <si>
+    <t>OPARTGT054</t>
+  </si>
+  <si>
+    <t>OPARTGT055</t>
+  </si>
+  <si>
+    <t>OPARTGT056</t>
+  </si>
+  <si>
+    <t>OPARTGT057</t>
+  </si>
+  <si>
+    <t>OPARTGT058</t>
+  </si>
+  <si>
+    <t>OPARTGT059</t>
+  </si>
+  <si>
+    <t>OPARTGT060</t>
+  </si>
+  <si>
+    <t>OPARTGT061</t>
+  </si>
+  <si>
+    <t>OPARTGT062</t>
+  </si>
+  <si>
+    <t>OPARTGT063</t>
+  </si>
+  <si>
+    <t>OPARTGT064</t>
+  </si>
+  <si>
+    <t>OPARTGT065</t>
+  </si>
+  <si>
+    <t>OPARTGT066</t>
+  </si>
+  <si>
+    <t>OPARTGT067</t>
+  </si>
+  <si>
+    <t>OPARTGT068</t>
+  </si>
+  <si>
+    <t>OPARTGT069</t>
+  </si>
+  <si>
+    <t>OPARTGT070</t>
+  </si>
+  <si>
+    <t>OPARTGT071</t>
+  </si>
+  <si>
+    <t>OPARTGT072</t>
+  </si>
+  <si>
+    <t>OPARTGT073</t>
+  </si>
+  <si>
+    <t>OPARTGT074</t>
+  </si>
+  <si>
+    <t>OPARTGT075</t>
+  </si>
+  <si>
+    <t>OPARTGT076</t>
+  </si>
+  <si>
+    <t>OPARTGT077</t>
+  </si>
+  <si>
+    <t>OPARTGT078</t>
+  </si>
+  <si>
+    <t>OPARTGT079</t>
+  </si>
+  <si>
+    <t>OPARTGT080</t>
+  </si>
+  <si>
+    <t>OPARTGT081</t>
+  </si>
+  <si>
+    <t>OPARTGT082</t>
+  </si>
+  <si>
+    <t>OPARTGT083</t>
+  </si>
+  <si>
+    <t>OPARTGT084</t>
+  </si>
+  <si>
+    <t>OPARTGT085</t>
+  </si>
+  <si>
+    <t>OPARTGT086</t>
+  </si>
+  <si>
+    <t>OPARTGT087</t>
+  </si>
+  <si>
+    <t>OPARTGT088</t>
+  </si>
+  <si>
+    <t>OPARTGT089</t>
+  </si>
+  <si>
+    <t>OPARTGT090</t>
+  </si>
+  <si>
+    <t>OPARTGT091</t>
+  </si>
+  <si>
+    <t>OPARTGT092</t>
+  </si>
+  <si>
+    <t>OPARTGT093</t>
+  </si>
+  <si>
+    <t>OPARTGT094</t>
+  </si>
+  <si>
+    <t>OPARTGT095</t>
+  </si>
+  <si>
+    <t>OPARTGT096</t>
+  </si>
+  <si>
+    <t>OPARTGT097</t>
+  </si>
+  <si>
+    <t>OPARTGT098</t>
+  </si>
+  <si>
+    <t>OPARTGT099</t>
+  </si>
+  <si>
+    <t>OPARTGT100</t>
+  </si>
+  <si>
+    <t>Aircraft parts factory</t>
+  </si>
+  <si>
+    <t>Damascus radio tower</t>
+  </si>
+  <si>
+    <t>International communication center</t>
+  </si>
+  <si>
+    <t>Minhak Airbase</t>
+  </si>
+  <si>
+    <t>Aleppo International Airport</t>
+  </si>
+  <si>
+    <t>Kuweires Airbase</t>
+  </si>
+  <si>
+    <t>Jirah Airbase</t>
+  </si>
+  <si>
+    <t>Tabqa Airbase</t>
+  </si>
+  <si>
+    <t>Abu al-Duhur Airbase</t>
+  </si>
+  <si>
+    <t>Taftanaz Airbase</t>
+  </si>
+  <si>
+    <t>Bassel Al-Assad Int Airport</t>
+  </si>
+  <si>
+    <t>Rus prescence</t>
+  </si>
+  <si>
+    <t>Hama Military Airport</t>
+  </si>
+  <si>
+    <t>Palmyra Airport</t>
+  </si>
+  <si>
+    <t>An Nasiriyah Airbase</t>
+  </si>
+  <si>
+    <t>Al-Dumary Military Airport</t>
+  </si>
+  <si>
+    <t>Maji Al Sultan Heliport</t>
+  </si>
+  <si>
+    <t>Der Salman Heliport</t>
+  </si>
+  <si>
+    <t>Damascus Int Airport</t>
+  </si>
+  <si>
+    <t>Qabr al-Sitt Heliport</t>
+  </si>
+  <si>
+    <t>Mezzeh Military Airport</t>
+  </si>
+  <si>
+    <t>Marj Ruhayyil Airbase</t>
+  </si>
+  <si>
+    <t>Khalkhalah Airbase</t>
+  </si>
+  <si>
+    <t>Syr Naval Base Latakia</t>
+  </si>
+  <si>
+    <t>Tartus Naval Base</t>
+  </si>
+  <si>
+    <t>XXX Chemical Weapon storage</t>
+  </si>
+  <si>
+    <t>XXX Chemical Weapon research facility</t>
+  </si>
+  <si>
+    <t>XXX Chemical Weapon production facility</t>
+  </si>
+  <si>
+    <t>XXX Chemical Weapon Storage</t>
+  </si>
+  <si>
+    <t>Air Defence Acadamey</t>
+  </si>
+  <si>
+    <t>Used for training new SAM and AAA units as part of the Syrian Air Defence. Neutralization of the target will reduce Syrian ability to reinforce their Air Defense units</t>
+  </si>
+  <si>
+    <t>Homs</t>
+  </si>
+  <si>
+    <t>Rocket motor facility</t>
+  </si>
+  <si>
+    <t>SCUD / MLRS</t>
+  </si>
+  <si>
+    <t>MLRS and SCUD rocket engines. Repair and construction of rocket engines</t>
+  </si>
+  <si>
+    <t>Rocket research facility</t>
+  </si>
+  <si>
+    <t>Research into rockets</t>
+  </si>
+  <si>
+    <t>Syrian Intelligence Agency</t>
+  </si>
+  <si>
+    <t>Syrian Intelligence Agency HQ building</t>
+  </si>
+  <si>
+    <t>Syrian ADCC</t>
+  </si>
+  <si>
+    <t>Syrian Air Defence Command Center (controls IADS). High Value Target</t>
+  </si>
+  <si>
+    <t>SCC SOUTH</t>
+  </si>
+  <si>
+    <t>SCC WEST</t>
+  </si>
+  <si>
+    <t>SCC EAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syrian Sector Command Center South. Controls South sector of IADS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syrian Sector Command Center East. Controls East sector of IADS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syrian Sector Command Center West. Controls West sector of IADS. </t>
+  </si>
+  <si>
+    <t>TV signals in and out of Syria. Central Communication node. Dual use, also used for military command and control</t>
+  </si>
+  <si>
+    <t>HVT</t>
+  </si>
+  <si>
+    <t>TARGET PRIORITY</t>
+  </si>
+  <si>
+    <t>SCUD</t>
+  </si>
+  <si>
+    <t>TARGET PRIORITIES</t>
+  </si>
+  <si>
+    <t>Targets have substantial, but not immediate impact on the battle
+The cascading effects this target provides may not be realized in the future
+If not targeted on this ATO, a significant level of effort may be required later
+If not targeted , negative consequence smay significantly hamper CJTF operations</t>
+  </si>
+  <si>
+    <t>It will contribute to the battle, but it is not critical to mission success
+It will further the success of the operation
+It will eventually require targetding due to JFC future plans
+If not targeted on this ATO, negative consequences will probably not impede operations</t>
+  </si>
+  <si>
+    <t>Operations in known SAM envelopes without SEAD support. PR missions and recovery forces at FARP.</t>
+  </si>
+  <si>
+    <t>Whenever possible, provide SEAD support to operations in known SAM envelopes and position PR forces at at alert on FOBs/airfields</t>
+  </si>
+  <si>
+    <t>Losses expected at historical combat rates. Accept neutral or disadvantegous engagements.  Can withdraw to prevent heavy losses</t>
+  </si>
+  <si>
+    <t>The target is essential for mission success in support of current objectives (or is a designated High Value Target, High Payoff Target, or TST)
+It is crucial to the overall success of the operation
+It will have immediate and compelling effects
+Its timeliness as an urgent target may not exist in the future
+If not targeted, negative consequences may seriously jeopardize future CJTF operations</t>
+  </si>
+  <si>
+    <t>CRITERIAS</t>
+  </si>
+  <si>
+    <t>Target of oppertunity if a) other targets not suitable for this ATO. Or b) as a backup target
 - It will have minor contributions to the operation
 - It may be required for targeting, but is not time critical
 - If not targeted, no negative consequences</t>
   </si>
   <si>
-    <t xml:space="preserve">Ammunition Factory </t>
-  </si>
-  <si>
-    <t>Rockets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shells </t>
-  </si>
-  <si>
-    <t>Missiles</t>
-  </si>
-  <si>
-    <t>Bombs</t>
-  </si>
-  <si>
-    <t>SCUD storage site</t>
-  </si>
-  <si>
-    <t>Vehicle factory</t>
-  </si>
-  <si>
-    <t>Trucks</t>
-  </si>
-  <si>
-    <t>Armored</t>
-  </si>
-  <si>
-    <t>OPARTGT029</t>
-  </si>
-  <si>
-    <t>OPARTGT030</t>
-  </si>
-  <si>
-    <t>OPARTGT031</t>
-  </si>
-  <si>
-    <t>OPARTGT032</t>
-  </si>
-  <si>
-    <t>OPARTGT033</t>
-  </si>
-  <si>
-    <t>OPARTGT034</t>
-  </si>
-  <si>
-    <t>OPARTGT035</t>
-  </si>
-  <si>
-    <t>OPARTGT036</t>
-  </si>
-  <si>
-    <t>OPARTGT037</t>
-  </si>
-  <si>
-    <t>OPARTGT038</t>
-  </si>
-  <si>
-    <t>OPARTGT039</t>
-  </si>
-  <si>
-    <t>OPARTGT040</t>
-  </si>
-  <si>
-    <t>OPARTGT041</t>
-  </si>
-  <si>
-    <t>OPARTGT042</t>
-  </si>
-  <si>
-    <t>OPARTGT043</t>
-  </si>
-  <si>
-    <t>OPARTGT044</t>
-  </si>
-  <si>
-    <t>OPARTGT045</t>
-  </si>
-  <si>
-    <t>OPARTGT046</t>
-  </si>
-  <si>
-    <t>OPARTGT047</t>
-  </si>
-  <si>
-    <t>OPARTGT048</t>
-  </si>
-  <si>
-    <t>OPARTGT049</t>
-  </si>
-  <si>
-    <t>OPARTGT050</t>
-  </si>
-  <si>
-    <t>OPARTGT051</t>
-  </si>
-  <si>
-    <t>OPARTGT052</t>
-  </si>
-  <si>
-    <t>OPARTGT053</t>
-  </si>
-  <si>
-    <t>OPARTGT054</t>
-  </si>
-  <si>
-    <t>OPARTGT055</t>
-  </si>
-  <si>
-    <t>OPARTGT056</t>
-  </si>
-  <si>
-    <t>OPARTGT057</t>
-  </si>
-  <si>
-    <t>OPARTGT058</t>
-  </si>
-  <si>
-    <t>OPARTGT059</t>
-  </si>
-  <si>
-    <t>OPARTGT060</t>
-  </si>
-  <si>
-    <t>OPARTGT061</t>
-  </si>
-  <si>
-    <t>OPARTGT062</t>
-  </si>
-  <si>
-    <t>OPARTGT063</t>
-  </si>
-  <si>
-    <t>OPARTGT064</t>
-  </si>
-  <si>
-    <t>OPARTGT065</t>
-  </si>
-  <si>
-    <t>OPARTGT066</t>
-  </si>
-  <si>
-    <t>OPARTGT067</t>
-  </si>
-  <si>
-    <t>OPARTGT068</t>
-  </si>
-  <si>
-    <t>OPARTGT069</t>
-  </si>
-  <si>
-    <t>OPARTGT070</t>
-  </si>
-  <si>
-    <t>OPARTGT071</t>
-  </si>
-  <si>
-    <t>OPARTGT072</t>
-  </si>
-  <si>
-    <t>OPARTGT073</t>
-  </si>
-  <si>
-    <t>OPARTGT074</t>
-  </si>
-  <si>
-    <t>OPARTGT075</t>
-  </si>
-  <si>
-    <t>OPARTGT076</t>
-  </si>
-  <si>
-    <t>OPARTGT077</t>
-  </si>
-  <si>
-    <t>OPARTGT078</t>
-  </si>
-  <si>
-    <t>OPARTGT079</t>
-  </si>
-  <si>
-    <t>OPARTGT080</t>
-  </si>
-  <si>
-    <t>OPARTGT081</t>
-  </si>
-  <si>
-    <t>OPARTGT082</t>
-  </si>
-  <si>
-    <t>OPARTGT083</t>
-  </si>
-  <si>
-    <t>OPARTGT084</t>
-  </si>
-  <si>
-    <t>OPARTGT085</t>
-  </si>
-  <si>
-    <t>OPARTGT086</t>
-  </si>
-  <si>
-    <t>OPARTGT087</t>
-  </si>
-  <si>
-    <t>OPARTGT088</t>
-  </si>
-  <si>
-    <t>OPARTGT089</t>
-  </si>
-  <si>
-    <t>OPARTGT090</t>
-  </si>
-  <si>
-    <t>OPARTGT091</t>
-  </si>
-  <si>
-    <t>OPARTGT092</t>
-  </si>
-  <si>
-    <t>OPARTGT093</t>
-  </si>
-  <si>
-    <t>OPARTGT094</t>
-  </si>
-  <si>
-    <t>OPARTGT095</t>
-  </si>
-  <si>
-    <t>OPARTGT096</t>
-  </si>
-  <si>
-    <t>OPARTGT097</t>
-  </si>
-  <si>
-    <t>OPARTGT098</t>
-  </si>
-  <si>
-    <t>OPARTGT099</t>
-  </si>
-  <si>
-    <t>OPARTGT100</t>
-  </si>
-  <si>
-    <t>Aircraft parts factory</t>
-  </si>
-  <si>
-    <t>Damascus radio tower</t>
-  </si>
-  <si>
-    <t>International communication center</t>
-  </si>
-  <si>
-    <t>Minhak Airbase</t>
-  </si>
-  <si>
-    <t>Aleppo International Airport</t>
-  </si>
-  <si>
-    <t>Kuweires Airbase</t>
-  </si>
-  <si>
-    <t>Jirah Airbase</t>
-  </si>
-  <si>
-    <t>Tabqa Airbase</t>
-  </si>
-  <si>
-    <t>Abu al-Duhur Airbase</t>
-  </si>
-  <si>
-    <t>Taftanaz Airbase</t>
-  </si>
-  <si>
-    <t>Bassel Al-Assad Int Airport</t>
-  </si>
-  <si>
-    <t>Rus prescence</t>
-  </si>
-  <si>
-    <t>Hama Military Airport</t>
-  </si>
-  <si>
-    <t>Palmyra Airport</t>
-  </si>
-  <si>
-    <t>An Nasiriyah Airbase</t>
-  </si>
-  <si>
-    <t>Al-Dumary Military Airport</t>
-  </si>
-  <si>
-    <t>Maji Al Sultan Heliport</t>
-  </si>
-  <si>
-    <t>Der Salman Heliport</t>
-  </si>
-  <si>
-    <t>Damascus Int Airport</t>
-  </si>
-  <si>
-    <t>Qabr al-Sitt Heliport</t>
-  </si>
-  <si>
-    <t>Mezzeh Military Airport</t>
-  </si>
-  <si>
-    <t>Marj Ruhayyil Airbase</t>
-  </si>
-  <si>
-    <t>Khalkhalah Airbase</t>
-  </si>
-  <si>
-    <t>Syr Naval Base Latakia</t>
-  </si>
-  <si>
-    <t>Tartus Naval Base</t>
-  </si>
-  <si>
-    <t>XXX Chemical Weapon storage</t>
-  </si>
-  <si>
-    <t>XXX Chemical Weapon research facility</t>
-  </si>
-  <si>
-    <t>XXX Chemical Weapon production facility</t>
-  </si>
-  <si>
-    <t>XXX Chemical Weapon Storage</t>
-  </si>
-  <si>
-    <t>Air Defence Acadamey</t>
-  </si>
-  <si>
-    <t>Used for training new SAM and AAA units as part of the Syrian Air Defence. Neutralization of the target will reduce Syrian ability to reinforce their Air Defense units</t>
-  </si>
-  <si>
-    <t>Homs</t>
-  </si>
-  <si>
-    <t>Rocket motor facility</t>
-  </si>
-  <si>
-    <t>SCUD / MLRS</t>
-  </si>
-  <si>
-    <t>MLRS and SCUD rocket engines. Repair and construction of rocket engines</t>
-  </si>
-  <si>
-    <t>Rocket research facility</t>
-  </si>
-  <si>
-    <t>Research into rockets</t>
-  </si>
-  <si>
-    <t>Syrian Intelligence Agency</t>
-  </si>
-  <si>
-    <t>Syrian Intelligence Agency HQ building</t>
+    <t>CATEGORIES</t>
+  </si>
+  <si>
+    <t>TARGET EFFECTS DEFINITIONS</t>
+  </si>
+  <si>
+    <t>EFFECT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,6 +924,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -921,7 +971,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1380,6 +1430,32 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1391,7 +1467,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1469,7 +1545,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1483,12 +1558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1513,23 +1583,23 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1539,63 +1609,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1636,8 +1649,62 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1651,14 +1718,46 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1924,19 +2023,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>695325</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>59055</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>537210</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="4" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1950,8 +2049,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8191500" y="3095625"/>
-          <a:ext cx="6877050" cy="3181350"/>
+          <a:off x="8334375" y="438150"/>
+          <a:ext cx="3992880" cy="2813685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1972,6 +2071,256 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5467350" y="19050"/>
+          <a:ext cx="3505200" cy="7058025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9115425" y="762000"/>
+          <a:ext cx="6877050" cy="3181350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>344805</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9115425" y="3848100"/>
+          <a:ext cx="5021580" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12306300" y="0"/>
+          <a:ext cx="4792980" cy="6410325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect l="8181" t="8551" r="8039" b="1608"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6496050" y="47625"/>
+          <a:ext cx="5657850" cy="4257675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2210,16 +2559,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>967740</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>748665</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>253365</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2237,8 +2586,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1760220" y="1600200"/>
-          <a:ext cx="5806440" cy="6743700"/>
+          <a:off x="5282565" y="2474595"/>
+          <a:ext cx="5600700" cy="7025640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2257,16 +2606,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2284,7 +2633,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6800850" y="4286250"/>
+          <a:off x="9258300" y="4229100"/>
           <a:ext cx="7600950" cy="5334000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2592,50 +2941,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A52" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="78.44140625" customWidth="1"/>
+    <col min="14" max="14" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A1" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="69"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1">
+    <row r="1" spans="1:14" ht="49.9" customHeight="1" thickBot="1">
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2644,16 +2993,16 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
-    </row>
-    <row r="3" spans="1:14" ht="29.4" customHeight="1" thickBot="1">
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+    </row>
+    <row r="3" spans="1:14" ht="29.45" customHeight="1" thickBot="1">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
@@ -2661,10 +3010,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>63</v>
+        <v>251</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>3</v>
@@ -2679,10 +3028,10 @@
         <v>9</v>
       </c>
       <c r="I3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>48</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>12</v>
@@ -2694,7 +3043,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2708,7 +3057,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>10</v>
@@ -2720,23 +3069,25 @@
         <v>8</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="49" t="str">
+      <c r="K4" s="43" t="str">
         <f>A4</f>
         <v>OPARTGT001</v>
       </c>
-      <c r="L4" s="50" t="str">
+      <c r="L4" s="44" t="str">
         <f>B4</f>
         <v>922nd SSM Regiment</v>
       </c>
-      <c r="M4" s="50" t="str">
+      <c r="M4" s="44" t="str">
         <f>C4</f>
         <v>SCUDs</v>
       </c>
-      <c r="N4" s="43"/>
+      <c r="N4" s="103" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
@@ -2749,7 +3100,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>10</v>
@@ -2761,23 +3112,25 @@
         <v>8</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="49" t="str">
+      <c r="K5" s="43" t="str">
         <f t="shared" ref="K5:K29" si="0">A5</f>
         <v>OPARTGT002</v>
       </c>
-      <c r="L5" s="50" t="str">
+      <c r="L5" s="44" t="str">
         <f t="shared" ref="L5:L29" si="1">B5</f>
         <v>923rd SSM Regiment</v>
       </c>
-      <c r="M5" s="50" t="str">
+      <c r="M5" s="44" t="str">
         <f t="shared" ref="M5:M29" si="2">C5</f>
         <v>SCUDs</v>
       </c>
-      <c r="N5" s="44"/>
+      <c r="N5" s="104" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="7" t="s">
@@ -2802,19 +3155,21 @@
       <c r="H6" s="8"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="49" t="str">
+      <c r="K6" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT003</v>
       </c>
-      <c r="L6" s="50" t="str">
+      <c r="L6" s="44" t="str">
         <f t="shared" si="1"/>
         <v>141st Heavy Rocket Artillery BN</v>
       </c>
-      <c r="M6" s="50" t="str">
+      <c r="M6" s="44" t="str">
         <f t="shared" si="2"/>
         <v>MLRS</v>
       </c>
-      <c r="N6" s="44"/>
+      <c r="N6" s="104" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
@@ -2839,19 +3194,21 @@
       <c r="H7" s="8"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="49" t="str">
+      <c r="K7" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT004</v>
       </c>
-      <c r="L7" s="50" t="str">
+      <c r="L7" s="44" t="str">
         <f t="shared" si="1"/>
         <v>142nd Heavy Rocket Artillery BN</v>
       </c>
-      <c r="M7" s="50" t="str">
+      <c r="M7" s="44" t="str">
         <f t="shared" si="2"/>
         <v>MLRS</v>
       </c>
-      <c r="N7" s="44"/>
+      <c r="N7" s="104" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
@@ -2876,19 +3233,21 @@
       <c r="H8" s="8"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="49" t="str">
+      <c r="K8" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT005</v>
       </c>
-      <c r="L8" s="50" t="str">
+      <c r="L8" s="44" t="str">
         <f t="shared" si="1"/>
         <v>341st Heavy Rocket Artillery BN</v>
       </c>
-      <c r="M8" s="50" t="str">
+      <c r="M8" s="44" t="str">
         <f t="shared" si="2"/>
         <v>MLRS</v>
       </c>
-      <c r="N8" s="44"/>
+      <c r="N8" s="104" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="7" t="s">
@@ -2913,26 +3272,28 @@
       <c r="H9" s="8"/>
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="49" t="str">
+      <c r="K9" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT006</v>
       </c>
-      <c r="L9" s="50" t="str">
+      <c r="L9" s="44" t="str">
         <f t="shared" si="1"/>
         <v>342nd Heavy Rocket Artillery BN</v>
       </c>
-      <c r="M9" s="50" t="str">
+      <c r="M9" s="44" t="str">
         <f t="shared" si="2"/>
         <v>MLRS</v>
       </c>
-      <c r="N9" s="44"/>
+      <c r="N9" s="104" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2940,30 +3301,30 @@
       <c r="F10" s="8"/>
       <c r="G10" s="12"/>
       <c r="H10" s="8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="49" t="str">
+      <c r="K10" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT007</v>
       </c>
-      <c r="L10" s="50" t="str">
+      <c r="L10" s="44" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Ammunition Factory </v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="44"/>
+      <c r="N10" s="104"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -2971,30 +3332,30 @@
       <c r="F11" s="8"/>
       <c r="G11" s="12"/>
       <c r="H11" s="8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="49" t="str">
+      <c r="K11" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT008</v>
       </c>
-      <c r="L11" s="50" t="str">
+      <c r="L11" s="44" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Ammunition Factory </v>
       </c>
-      <c r="M11" s="50">
+      <c r="M11" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N11" s="44"/>
+      <c r="N11" s="104"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -3002,30 +3363,30 @@
       <c r="F12" s="8"/>
       <c r="G12" s="12"/>
       <c r="H12" s="8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="49" t="str">
+      <c r="K12" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT009</v>
       </c>
-      <c r="L12" s="50" t="str">
+      <c r="L12" s="44" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Ammunition Factory </v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N12" s="44"/>
+      <c r="N12" s="104"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3033,30 +3394,30 @@
       <c r="F13" s="8"/>
       <c r="G13" s="12"/>
       <c r="H13" s="8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="49" t="str">
+      <c r="K13" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT010</v>
       </c>
-      <c r="L13" s="50" t="str">
+      <c r="L13" s="44" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Ammunition Factory </v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="44"/>
+      <c r="N13" s="104"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -3064,30 +3425,30 @@
       <c r="F14" s="8"/>
       <c r="G14" s="12"/>
       <c r="H14" s="8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="49" t="str">
+      <c r="K14" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT011</v>
       </c>
-      <c r="L14" s="50" t="str">
+      <c r="L14" s="44" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Ammunition Factory </v>
       </c>
-      <c r="M14" s="50">
+      <c r="M14" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="44"/>
+      <c r="N14" s="104"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -3095,30 +3456,30 @@
       <c r="F15" s="8"/>
       <c r="G15" s="12"/>
       <c r="H15" s="8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="49" t="str">
+      <c r="K15" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT012</v>
       </c>
-      <c r="L15" s="50" t="str">
+      <c r="L15" s="44" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Ammunition Factory </v>
       </c>
-      <c r="M15" s="50">
+      <c r="M15" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N15" s="44"/>
+      <c r="N15" s="104"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -3126,30 +3487,30 @@
       <c r="F16" s="8"/>
       <c r="G16" s="12"/>
       <c r="H16" s="8" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="49" t="str">
+      <c r="K16" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT013</v>
       </c>
-      <c r="L16" s="50" t="str">
+      <c r="L16" s="44" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Ammunition Factory </v>
       </c>
-      <c r="M16" s="50">
+      <c r="M16" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16" s="44"/>
+      <c r="N16" s="104"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -3157,30 +3518,30 @@
       <c r="F17" s="8"/>
       <c r="G17" s="12"/>
       <c r="H17" s="8" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="49" t="str">
+      <c r="K17" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT014</v>
       </c>
-      <c r="L17" s="50" t="str">
+      <c r="L17" s="44" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Ammunition Factory </v>
       </c>
-      <c r="M17" s="50">
+      <c r="M17" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="44"/>
+      <c r="N17" s="104"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -3188,30 +3549,30 @@
       <c r="F18" s="8"/>
       <c r="G18" s="12"/>
       <c r="H18" s="8" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="49" t="str">
+      <c r="K18" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT015</v>
       </c>
-      <c r="L18" s="50" t="str">
+      <c r="L18" s="44" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Ammunition Factory </v>
       </c>
-      <c r="M18" s="50">
+      <c r="M18" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N18" s="44"/>
+      <c r="N18" s="104"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -3219,30 +3580,30 @@
       <c r="F19" s="8"/>
       <c r="G19" s="12"/>
       <c r="H19" s="8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="49" t="str">
+      <c r="K19" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT016</v>
       </c>
-      <c r="L19" s="50" t="str">
+      <c r="L19" s="44" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Ammunition Factory </v>
       </c>
-      <c r="M19" s="50">
+      <c r="M19" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N19" s="44"/>
+      <c r="N19" s="104"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -3250,30 +3611,30 @@
       <c r="F20" s="8"/>
       <c r="G20" s="12"/>
       <c r="H20" s="8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="49" t="str">
+      <c r="K20" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT017</v>
       </c>
-      <c r="L20" s="50" t="str">
+      <c r="L20" s="44" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Ammunition Factory </v>
       </c>
-      <c r="M20" s="50">
+      <c r="M20" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N20" s="44"/>
+      <c r="N20" s="104"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -3281,30 +3642,30 @@
       <c r="F21" s="8"/>
       <c r="G21" s="12"/>
       <c r="H21" s="8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="49" t="str">
+      <c r="K21" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT018</v>
       </c>
-      <c r="L21" s="50" t="str">
+      <c r="L21" s="44" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Ammunition Factory </v>
       </c>
-      <c r="M21" s="50">
+      <c r="M21" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21" s="44"/>
+      <c r="N21" s="104"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -3314,26 +3675,26 @@
       <c r="H22" s="8"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="49" t="str">
+      <c r="K22" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT019</v>
       </c>
-      <c r="L22" s="50" t="str">
+      <c r="L22" s="44" t="str">
         <f t="shared" si="1"/>
         <v>SCUD storage site</v>
       </c>
-      <c r="M22" s="50">
+      <c r="M22" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="44"/>
+      <c r="N22" s="104"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -3343,26 +3704,26 @@
       <c r="H23" s="8"/>
       <c r="I23" s="10"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="49" t="str">
+      <c r="K23" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT020</v>
       </c>
-      <c r="L23" s="50" t="str">
+      <c r="L23" s="44" t="str">
         <f t="shared" si="1"/>
         <v>SCUD storage site</v>
       </c>
-      <c r="M23" s="50">
+      <c r="M23" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N23" s="44"/>
+      <c r="N23" s="104"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -3370,30 +3731,30 @@
       <c r="F24" s="8"/>
       <c r="G24" s="12"/>
       <c r="H24" s="8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="49" t="str">
+      <c r="K24" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT021</v>
       </c>
-      <c r="L24" s="50" t="str">
+      <c r="L24" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Vehicle factory</v>
       </c>
-      <c r="M24" s="50">
+      <c r="M24" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N24" s="44"/>
+      <c r="N24" s="104"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -3401,30 +3762,30 @@
       <c r="F25" s="8"/>
       <c r="G25" s="12"/>
       <c r="H25" s="8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="49" t="str">
+      <c r="K25" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT022</v>
       </c>
-      <c r="L25" s="50" t="str">
+      <c r="L25" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Vehicle factory</v>
       </c>
-      <c r="M25" s="50">
+      <c r="M25" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N25" s="44"/>
+      <c r="N25" s="104"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -3432,30 +3793,30 @@
       <c r="F26" s="8"/>
       <c r="G26" s="12"/>
       <c r="H26" s="8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="49" t="str">
+      <c r="K26" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT023</v>
       </c>
-      <c r="L26" s="50" t="str">
+      <c r="L26" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Vehicle factory</v>
       </c>
-      <c r="M26" s="50">
+      <c r="M26" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26" s="44"/>
+      <c r="N26" s="104"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -3463,30 +3824,30 @@
       <c r="F27" s="8"/>
       <c r="G27" s="12"/>
       <c r="H27" s="8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="49" t="str">
+      <c r="K27" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT024</v>
       </c>
-      <c r="L27" s="50" t="str">
+      <c r="L27" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Vehicle factory</v>
       </c>
-      <c r="M27" s="50">
+      <c r="M27" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="44"/>
+      <c r="N27" s="104"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -3494,61 +3855,61 @@
       <c r="F28" s="8"/>
       <c r="G28" s="12"/>
       <c r="H28" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="49" t="str">
+      <c r="K28" s="43" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT025</v>
       </c>
-      <c r="L28" s="50" t="str">
+      <c r="L28" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Vehicle factory</v>
       </c>
-      <c r="M28" s="50">
+      <c r="M28" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="44"/>
-    </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1">
-      <c r="A29" s="52" t="s">
+      <c r="N28" s="104"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A29" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57" t="str">
+      <c r="B29" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT026</v>
       </c>
-      <c r="L29" s="58" t="str">
+      <c r="L29" s="52" t="str">
         <f t="shared" si="1"/>
         <v>Vehicle factory</v>
       </c>
-      <c r="M29" s="58">
+      <c r="M29" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="46"/>
+      <c r="N29" s="105"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -3556,30 +3917,30 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="49" t="str">
+      <c r="K30" s="43" t="str">
         <f>A30</f>
         <v>OPARTGT027</v>
       </c>
-      <c r="L30" s="50" t="str">
+      <c r="L30" s="44" t="str">
         <f>B30</f>
         <v>Vehicle factory</v>
       </c>
-      <c r="M30" s="50">
+      <c r="M30" s="44">
         <f>C30</f>
         <v>0</v>
       </c>
-      <c r="N30" s="43"/>
+      <c r="N30" s="103"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -3587,1975 +3948,2077 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="49" t="str">
+      <c r="K31" s="43" t="str">
         <f t="shared" ref="K31" si="3">A31</f>
         <v>OPARTGT028</v>
       </c>
-      <c r="L31" s="50" t="str">
+      <c r="L31" s="44" t="str">
         <f t="shared" ref="L31" si="4">B31</f>
         <v>Vehicle factory</v>
       </c>
-      <c r="M31" s="50">
+      <c r="M31" s="44">
         <f t="shared" ref="M31" si="5">C31</f>
         <v>0</v>
       </c>
-      <c r="N31" s="44"/>
+      <c r="N31" s="104"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
+        <v>127</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
       <c r="H32" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="49" t="str">
+        <v>129</v>
+      </c>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="43" t="str">
         <f>A32</f>
         <v>OPARTGT029</v>
       </c>
-      <c r="L32" s="50" t="str">
+      <c r="L32" s="44" t="str">
         <f>B32</f>
         <v>Vehicle factory</v>
       </c>
-      <c r="M32" s="50">
+      <c r="M32" s="44">
         <f>C32</f>
         <v>0</v>
       </c>
-      <c r="N32" s="44"/>
+      <c r="N32" s="104"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
+        <v>202</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="49" t="str">
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="43" t="str">
         <f t="shared" ref="K33:K64" si="6">A33</f>
         <v>OPARTGT030</v>
       </c>
-      <c r="L33" s="50" t="str">
+      <c r="L33" s="44" t="str">
         <f t="shared" ref="L33:L64" si="7">B33</f>
         <v>Aircraft parts factory</v>
       </c>
-      <c r="M33" s="50">
+      <c r="M33" s="44">
         <f t="shared" ref="M33:M64" si="8">C33</f>
         <v>0</v>
       </c>
-      <c r="N33" s="44"/>
+      <c r="N33" s="104"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
+        <v>202</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="49" t="str">
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT031</v>
       </c>
-      <c r="L34" s="50" t="str">
+      <c r="L34" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Aircraft parts factory</v>
       </c>
-      <c r="M34" s="50">
+      <c r="M34" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N34" s="44"/>
+      <c r="N34" s="104"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+        <v>202</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="49" t="str">
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT032</v>
       </c>
-      <c r="L35" s="50" t="str">
+      <c r="L35" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Aircraft parts factory</v>
       </c>
-      <c r="M35" s="50">
+      <c r="M35" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N35" s="44"/>
+      <c r="N35" s="104"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+        <v>202</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="49" t="str">
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT033</v>
       </c>
-      <c r="L36" s="50" t="str">
+      <c r="L36" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Aircraft parts factory</v>
       </c>
-      <c r="M36" s="50">
+      <c r="M36" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N36" s="44"/>
+      <c r="N36" s="104"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
+        <v>203</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="49" t="str">
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT034</v>
       </c>
-      <c r="L37" s="50" t="str">
+      <c r="L37" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Damascus radio tower</v>
       </c>
-      <c r="M37" s="50">
+      <c r="M37" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N37" s="44"/>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="N37" s="104"/>
+    </row>
+    <row r="38" spans="1:14" ht="30">
       <c r="A38" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
+        <v>204</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="49" t="str">
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT035</v>
       </c>
-      <c r="L38" s="50" t="str">
+      <c r="L38" s="44" t="str">
         <f t="shared" si="7"/>
         <v>International communication center</v>
       </c>
-      <c r="M38" s="50">
+      <c r="M38" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N38" s="44"/>
+      <c r="N38" s="104" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
+        <v>205</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="49" t="str">
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT036</v>
       </c>
-      <c r="L39" s="50" t="str">
+      <c r="L39" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Minhak Airbase</v>
       </c>
-      <c r="M39" s="50">
+      <c r="M39" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N39" s="44"/>
+      <c r="N39" s="104"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
+        <v>206</v>
+      </c>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="49" t="str">
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT037</v>
       </c>
-      <c r="L40" s="50" t="str">
+      <c r="L40" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Aleppo International Airport</v>
       </c>
-      <c r="M40" s="50">
+      <c r="M40" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N40" s="44"/>
+      <c r="N40" s="104"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
+        <v>207</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="49" t="str">
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT038</v>
       </c>
-      <c r="L41" s="50" t="str">
+      <c r="L41" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Kuweires Airbase</v>
       </c>
-      <c r="M41" s="50">
+      <c r="M41" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N41" s="44"/>
+      <c r="N41" s="104"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
+        <v>208</v>
+      </c>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="49" t="str">
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT039</v>
       </c>
-      <c r="L42" s="50" t="str">
+      <c r="L42" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Jirah Airbase</v>
       </c>
-      <c r="M42" s="50">
+      <c r="M42" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N42" s="44"/>
+      <c r="N42" s="104"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
+        <v>209</v>
+      </c>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="49" t="str">
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT040</v>
       </c>
-      <c r="L43" s="50" t="str">
+      <c r="L43" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Tabqa Airbase</v>
       </c>
-      <c r="M43" s="50">
+      <c r="M43" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N43" s="44"/>
+      <c r="N43" s="104"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
+        <v>210</v>
+      </c>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="49" t="str">
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT041</v>
       </c>
-      <c r="L44" s="50" t="str">
+      <c r="L44" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Abu al-Duhur Airbase</v>
       </c>
-      <c r="M44" s="50">
+      <c r="M44" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N44" s="44"/>
+      <c r="N44" s="104"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
+        <v>211</v>
+      </c>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="49" t="str">
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT042</v>
       </c>
-      <c r="L45" s="50" t="str">
+      <c r="L45" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Taftanaz Airbase</v>
       </c>
-      <c r="M45" s="50">
+      <c r="M45" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N45" s="44"/>
+      <c r="N45" s="104"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
+        <v>212</v>
+      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
       <c r="H46" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="49" t="str">
+        <v>213</v>
+      </c>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT043</v>
       </c>
-      <c r="L46" s="50" t="str">
+      <c r="L46" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Bassel Al-Assad Int Airport</v>
       </c>
-      <c r="M46" s="50">
+      <c r="M46" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N46" s="44"/>
+      <c r="N46" s="104"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
+        <v>214</v>
+      </c>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="49" t="str">
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT044</v>
       </c>
-      <c r="L47" s="50" t="str">
+      <c r="L47" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Hama Military Airport</v>
       </c>
-      <c r="M47" s="50">
+      <c r="M47" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N47" s="44"/>
+      <c r="N47" s="104"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
+        <v>215</v>
+      </c>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="49" t="str">
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT045</v>
       </c>
-      <c r="L48" s="50" t="str">
+      <c r="L48" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Palmyra Airport</v>
       </c>
-      <c r="M48" s="50">
+      <c r="M48" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N48" s="44"/>
+      <c r="N48" s="104"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
+        <v>216</v>
+      </c>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="49" t="str">
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT046</v>
       </c>
-      <c r="L49" s="50" t="str">
+      <c r="L49" s="44" t="str">
         <f t="shared" si="7"/>
         <v>An Nasiriyah Airbase</v>
       </c>
-      <c r="M49" s="50">
+      <c r="M49" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N49" s="44"/>
+      <c r="N49" s="104"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
+        <v>217</v>
+      </c>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="49" t="str">
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT047</v>
       </c>
-      <c r="L50" s="50" t="str">
+      <c r="L50" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Al-Dumary Military Airport</v>
       </c>
-      <c r="M50" s="50">
+      <c r="M50" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N50" s="44"/>
+      <c r="N50" s="104"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
+        <v>218</v>
+      </c>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="49" t="str">
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT048</v>
       </c>
-      <c r="L51" s="50" t="str">
+      <c r="L51" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Maji Al Sultan Heliport</v>
       </c>
-      <c r="M51" s="50">
+      <c r="M51" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N51" s="44"/>
+      <c r="N51" s="104"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
+        <v>219</v>
+      </c>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="49" t="str">
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT049</v>
       </c>
-      <c r="L52" s="50" t="str">
+      <c r="L52" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Der Salman Heliport</v>
       </c>
-      <c r="M52" s="50">
+      <c r="M52" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N52" s="44"/>
+      <c r="N52" s="104"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
+        <v>220</v>
+      </c>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="49" t="str">
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT050</v>
       </c>
-      <c r="L53" s="50" t="str">
+      <c r="L53" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Damascus Int Airport</v>
       </c>
-      <c r="M53" s="50">
+      <c r="M53" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N53" s="44"/>
+      <c r="N53" s="104"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
+        <v>221</v>
+      </c>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="49" t="str">
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT051</v>
       </c>
-      <c r="L54" s="50" t="str">
+      <c r="L54" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Qabr al-Sitt Heliport</v>
       </c>
-      <c r="M54" s="50">
+      <c r="M54" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N54" s="44"/>
+      <c r="N54" s="104"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
+        <v>222</v>
+      </c>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="49" t="str">
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT052</v>
       </c>
-      <c r="L55" s="50" t="str">
+      <c r="L55" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Mezzeh Military Airport</v>
       </c>
-      <c r="M55" s="50">
+      <c r="M55" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N55" s="44"/>
+      <c r="N55" s="104"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="9" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
+        <v>223</v>
+      </c>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="8"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="49" t="str">
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT053</v>
       </c>
-      <c r="L56" s="50" t="str">
+      <c r="L56" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Marj Ruhayyil Airbase</v>
       </c>
-      <c r="M56" s="50">
+      <c r="M56" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N56" s="44"/>
+      <c r="N56" s="104"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="9" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
+        <v>224</v>
+      </c>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="49" t="str">
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT054</v>
       </c>
-      <c r="L57" s="50" t="str">
+      <c r="L57" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Khalkhalah Airbase</v>
       </c>
-      <c r="M57" s="50">
+      <c r="M57" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N57" s="44"/>
+      <c r="N57" s="104"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="9" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
+        <v>225</v>
+      </c>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="49" t="str">
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT055</v>
       </c>
-      <c r="L58" s="50" t="str">
+      <c r="L58" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Syr Naval Base Latakia</v>
       </c>
-      <c r="M58" s="50">
+      <c r="M58" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N58" s="44"/>
+      <c r="N58" s="104"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="65" t="s">
-        <v>167</v>
+      <c r="A59" s="57" t="s">
+        <v>157</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
+        <v>226</v>
+      </c>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="49" t="str">
+        <v>213</v>
+      </c>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT056</v>
       </c>
-      <c r="L59" s="50" t="str">
+      <c r="L59" s="44" t="str">
         <f t="shared" si="7"/>
         <v>Tartus Naval Base</v>
       </c>
-      <c r="M59" s="50">
+      <c r="M59" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N59" s="44"/>
+      <c r="N59" s="104"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="66" t="s">
-        <v>168</v>
+      <c r="A60" s="58" t="s">
+        <v>158</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
+        <v>227</v>
+      </c>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="49" t="str">
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT057</v>
       </c>
-      <c r="L60" s="50" t="str">
+      <c r="L60" s="44" t="str">
         <f t="shared" si="7"/>
         <v>XXX Chemical Weapon storage</v>
       </c>
-      <c r="M60" s="50">
+      <c r="M60" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N60" s="44"/>
-    </row>
-    <row r="61" spans="1:14" ht="24">
-      <c r="A61" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="B61" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
+      <c r="N60" s="104"/>
+    </row>
+    <row r="61" spans="1:14" ht="24.75">
+      <c r="A61" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="49" t="str">
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT058</v>
       </c>
-      <c r="L61" s="60" t="str">
+      <c r="L61" s="54" t="str">
         <f t="shared" si="7"/>
         <v>XXX Chemical Weapon research facility</v>
       </c>
-      <c r="M61" s="50">
+      <c r="M61" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N61" s="44"/>
-    </row>
-    <row r="62" spans="1:14" ht="24.6" thickBot="1">
-      <c r="A62" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="B62" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
+      <c r="N61" s="104"/>
+    </row>
+    <row r="62" spans="1:14" ht="24.75">
+      <c r="A62" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="C62" s="107"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="107"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="49" t="str">
+      <c r="I62" s="110"/>
+      <c r="J62" s="110"/>
+      <c r="K62" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT059</v>
       </c>
-      <c r="L62" s="60" t="str">
+      <c r="L62" s="54" t="str">
         <f t="shared" si="7"/>
         <v>XXX Chemical Weapon research facility</v>
       </c>
-      <c r="M62" s="50">
+      <c r="M62" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N62" s="46"/>
-    </row>
-    <row r="63" spans="1:14" ht="24">
-      <c r="A63" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="B63" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="N62" s="106"/>
+    </row>
+    <row r="63" spans="1:14" ht="24.75">
+      <c r="A63" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
       <c r="H63" s="8"/>
-      <c r="K63" s="49" t="str">
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="108" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT060</v>
       </c>
-      <c r="L63" s="60" t="str">
+      <c r="L63" s="54" t="str">
         <f t="shared" si="7"/>
         <v>XXX Chemical Weapon production facility</v>
       </c>
-      <c r="M63" s="50">
+      <c r="M63" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="N63" s="29"/>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="B64" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="A64" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
       <c r="H64" s="8"/>
-      <c r="K64" s="49" t="str">
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="108" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT061</v>
       </c>
-      <c r="L64" s="60" t="str">
+      <c r="L64" s="54" t="str">
         <f t="shared" si="7"/>
         <v>XXX Chemical Weapon Storage</v>
       </c>
-      <c r="M64" s="50">
+      <c r="M64" s="44">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="28.8">
-      <c r="A65" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="B65" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="N64" s="29"/>
+    </row>
+    <row r="65" spans="1:14" ht="45">
+      <c r="A65" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
       <c r="H65" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="K65" s="64" t="str">
+        <v>233</v>
+      </c>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="109" t="str">
         <f t="shared" ref="K65:K103" si="9">A65</f>
         <v>OPARTGT062</v>
       </c>
-      <c r="L65" s="63" t="str">
+      <c r="L65" s="56" t="str">
         <f t="shared" ref="L65:L103" si="10">B65</f>
         <v>Air Defence Acadamey</v>
       </c>
-      <c r="M65" s="50">
+      <c r="M65" s="44">
         <f t="shared" ref="M65:M103" si="11">C65</f>
         <v>0</v>
       </c>
-      <c r="N65" s="61" t="s">
-        <v>242</v>
+      <c r="N65" s="29" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B66" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
       <c r="H66" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K66" s="49" t="str">
+        <v>235</v>
+      </c>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT063</v>
       </c>
-      <c r="L66" s="60" t="str">
+      <c r="L66" s="54" t="str">
         <f t="shared" si="10"/>
         <v>Rocket motor facility</v>
       </c>
-      <c r="M66" s="50">
+      <c r="M66" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N66" s="61" t="s">
-        <v>246</v>
+      <c r="N66" s="29" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B67" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
       <c r="H67" s="8"/>
-      <c r="K67" s="49" t="str">
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT064</v>
       </c>
-      <c r="L67" s="60" t="str">
+      <c r="L67" s="54" t="str">
         <f t="shared" si="10"/>
         <v>Rocket research facility</v>
       </c>
-      <c r="M67" s="50">
+      <c r="M67" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N67" s="61" t="s">
-        <v>248</v>
+      <c r="N67" s="29" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B68" s="59" t="s">
-        <v>249</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
       <c r="H68" s="8"/>
-      <c r="K68" s="49" t="str">
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT065</v>
       </c>
-      <c r="L68" s="60" t="str">
+      <c r="L68" s="54" t="str">
         <f t="shared" si="10"/>
         <v>Syrian Intelligence Agency</v>
       </c>
-      <c r="M68" s="50">
+      <c r="M68" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N68" s="61" t="s">
-        <v>250</v>
+      <c r="N68" s="29" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B69" s="59"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="B69" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
       <c r="H69" s="8"/>
-      <c r="K69" s="49" t="str">
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT066</v>
       </c>
-      <c r="L69" s="60">
+      <c r="L69" s="54" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="50">
+        <v>Syrian ADCC</v>
+      </c>
+      <c r="M69" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N69" s="61"/>
+      <c r="N69" s="29" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B70" s="59"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="B70" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
       <c r="H70" s="8"/>
-      <c r="K70" s="49" t="str">
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT067</v>
       </c>
-      <c r="L70" s="60">
+      <c r="L70" s="54" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="50">
+        <v>SCC SOUTH</v>
+      </c>
+      <c r="M70" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N70" s="61"/>
+      <c r="N70" s="29" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B71" s="59"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="B71" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
       <c r="H71" s="8"/>
-      <c r="K71" s="49" t="str">
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT068</v>
       </c>
-      <c r="L71" s="60">
+      <c r="L71" s="54" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M71" s="50">
+        <v>SCC WEST</v>
+      </c>
+      <c r="M71" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N71" s="61"/>
+      <c r="N71" s="29" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B72" s="59"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="B72" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
       <c r="H72" s="8"/>
-      <c r="K72" s="49" t="str">
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT069</v>
       </c>
-      <c r="L72" s="60">
+      <c r="L72" s="54" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M72" s="50">
+        <v>SCC EAST</v>
+      </c>
+      <c r="M72" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N72" s="61"/>
+      <c r="N72" s="29" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B73" s="59"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="B73" s="53"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
       <c r="H73" s="8"/>
-      <c r="K73" s="49" t="str">
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT070</v>
       </c>
-      <c r="L73" s="60">
+      <c r="L73" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M73" s="50">
+      <c r="M73" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N73" s="61"/>
+      <c r="N73" s="29"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B74" s="59"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="B74" s="53"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
       <c r="H74" s="8"/>
-      <c r="K74" s="49" t="str">
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT071</v>
       </c>
-      <c r="L74" s="60">
+      <c r="L74" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M74" s="50">
+      <c r="M74" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N74" s="61"/>
+      <c r="N74" s="29"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B75" s="59"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="B75" s="53"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
       <c r="H75" s="8"/>
-      <c r="K75" s="49" t="str">
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT072</v>
       </c>
-      <c r="L75" s="60">
+      <c r="L75" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M75" s="50">
+      <c r="M75" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N75" s="61"/>
+      <c r="N75" s="29"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B76" s="59"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="B76" s="53"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
       <c r="H76" s="8"/>
-      <c r="K76" s="49" t="str">
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT073</v>
       </c>
-      <c r="L76" s="60">
+      <c r="L76" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M76" s="50">
+      <c r="M76" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N76" s="61"/>
+      <c r="N76" s="29"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B77" s="59"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="B77" s="53"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
       <c r="H77" s="8"/>
-      <c r="K77" s="49" t="str">
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT074</v>
       </c>
-      <c r="L77" s="60">
+      <c r="L77" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M77" s="50">
+      <c r="M77" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N77" s="61"/>
+      <c r="N77" s="29"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B78" s="59"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="B78" s="53"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
       <c r="H78" s="8"/>
-      <c r="K78" s="49" t="str">
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT075</v>
       </c>
-      <c r="L78" s="60">
+      <c r="L78" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M78" s="50">
+      <c r="M78" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N78" s="61"/>
+      <c r="N78" s="29"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B79" s="59"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="B79" s="53"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
       <c r="H79" s="8"/>
-      <c r="K79" s="49" t="str">
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT076</v>
       </c>
-      <c r="L79" s="60">
+      <c r="L79" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M79" s="50">
+      <c r="M79" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N79" s="61"/>
+      <c r="N79" s="29"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B80" s="59"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="B80" s="53"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
       <c r="H80" s="8"/>
-      <c r="K80" s="49" t="str">
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT077</v>
       </c>
-      <c r="L80" s="60">
+      <c r="L80" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M80" s="50">
+      <c r="M80" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N80" s="61"/>
+      <c r="N80" s="29"/>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B81" s="59"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="B81" s="53"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
       <c r="H81" s="8"/>
-      <c r="K81" s="49" t="str">
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT078</v>
       </c>
-      <c r="L81" s="60">
+      <c r="L81" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M81" s="50">
+      <c r="M81" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N81" s="61"/>
+      <c r="N81" s="29"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B82" s="59"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="B82" s="53"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
       <c r="H82" s="8"/>
-      <c r="K82" s="49" t="str">
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT079</v>
       </c>
-      <c r="L82" s="60">
+      <c r="L82" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M82" s="50">
+      <c r="M82" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N82" s="61"/>
+      <c r="N82" s="29"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B83" s="59"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="B83" s="53"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
       <c r="H83" s="8"/>
-      <c r="K83" s="49" t="str">
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT080</v>
       </c>
-      <c r="L83" s="60">
+      <c r="L83" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M83" s="50">
+      <c r="M83" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N83" s="61"/>
+      <c r="N83" s="29"/>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B84" s="59"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="B84" s="53"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
       <c r="H84" s="8"/>
-      <c r="K84" s="49" t="str">
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT081</v>
       </c>
-      <c r="L84" s="60">
+      <c r="L84" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M84" s="50">
+      <c r="M84" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N84" s="61"/>
+      <c r="N84" s="29"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B85" s="59"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+        <v>183</v>
+      </c>
+      <c r="B85" s="53"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
       <c r="H85" s="8"/>
-      <c r="K85" s="49" t="str">
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT082</v>
       </c>
-      <c r="L85" s="60">
+      <c r="L85" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M85" s="50">
+      <c r="M85" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N85" s="61"/>
+      <c r="N85" s="29"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B86" s="59"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+        <v>184</v>
+      </c>
+      <c r="B86" s="53"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
       <c r="H86" s="8"/>
-      <c r="K86" s="49" t="str">
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT083</v>
       </c>
-      <c r="L86" s="60">
+      <c r="L86" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M86" s="50">
+      <c r="M86" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N86" s="61"/>
+      <c r="N86" s="29"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B87" s="59"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="B87" s="53"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
       <c r="H87" s="8"/>
-      <c r="K87" s="49" t="str">
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT084</v>
       </c>
-      <c r="L87" s="60">
+      <c r="L87" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M87" s="50">
+      <c r="M87" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N87" s="61"/>
+      <c r="N87" s="29"/>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B88" s="59"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="B88" s="53"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
       <c r="H88" s="8"/>
-      <c r="K88" s="49" t="str">
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT085</v>
       </c>
-      <c r="L88" s="60">
+      <c r="L88" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M88" s="50">
+      <c r="M88" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N88" s="61"/>
+      <c r="N88" s="29"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B89" s="59"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="B89" s="53"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
       <c r="H89" s="8"/>
-      <c r="K89" s="49" t="str">
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT086</v>
       </c>
-      <c r="L89" s="60">
+      <c r="L89" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M89" s="50">
+      <c r="M89" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N89" s="61"/>
+      <c r="N89" s="29"/>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B90" s="59"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="B90" s="53"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
       <c r="H90" s="8"/>
-      <c r="K90" s="49" t="str">
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT087</v>
       </c>
-      <c r="L90" s="60">
+      <c r="L90" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M90" s="50">
+      <c r="M90" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N90" s="61"/>
+      <c r="N90" s="29"/>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B91" s="59"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="B91" s="53"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
       <c r="H91" s="8"/>
-      <c r="K91" s="49" t="str">
+      <c r="I91" s="38"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT088</v>
       </c>
-      <c r="L91" s="60">
+      <c r="L91" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M91" s="50">
+      <c r="M91" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N91" s="61"/>
+      <c r="N91" s="29"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B92" s="59"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="B92" s="53"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
       <c r="H92" s="8"/>
-      <c r="K92" s="49" t="str">
+      <c r="I92" s="38"/>
+      <c r="J92" s="38"/>
+      <c r="K92" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT089</v>
       </c>
-      <c r="L92" s="60">
+      <c r="L92" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M92" s="50">
+      <c r="M92" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N92" s="61"/>
+      <c r="N92" s="29"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B93" s="59"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+        <v>191</v>
+      </c>
+      <c r="B93" s="53"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
       <c r="H93" s="8"/>
-      <c r="K93" s="49" t="str">
+      <c r="I93" s="38"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT090</v>
       </c>
-      <c r="L93" s="60">
+      <c r="L93" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M93" s="50">
+      <c r="M93" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N93" s="61"/>
+      <c r="N93" s="29"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B94" s="59"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="B94" s="53"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
       <c r="H94" s="8"/>
-      <c r="K94" s="49" t="str">
+      <c r="I94" s="38"/>
+      <c r="J94" s="38"/>
+      <c r="K94" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT091</v>
       </c>
-      <c r="L94" s="60">
+      <c r="L94" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M94" s="50">
+      <c r="M94" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N94" s="61"/>
+      <c r="N94" s="29"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B95" s="59"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="B95" s="53"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
       <c r="H95" s="8"/>
-      <c r="K95" s="49" t="str">
+      <c r="I95" s="38"/>
+      <c r="J95" s="38"/>
+      <c r="K95" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT092</v>
       </c>
-      <c r="L95" s="60">
+      <c r="L95" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M95" s="50">
+      <c r="M95" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N95" s="61"/>
+      <c r="N95" s="29"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B96" s="59"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="B96" s="53"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
       <c r="H96" s="8"/>
-      <c r="K96" s="49" t="str">
+      <c r="I96" s="38"/>
+      <c r="J96" s="38"/>
+      <c r="K96" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT093</v>
       </c>
-      <c r="L96" s="60">
+      <c r="L96" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M96" s="50">
+      <c r="M96" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N96" s="61"/>
+      <c r="N96" s="29"/>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B97" s="59"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="B97" s="53"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
       <c r="H97" s="8"/>
-      <c r="K97" s="49" t="str">
+      <c r="I97" s="38"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT094</v>
       </c>
-      <c r="L97" s="60">
+      <c r="L97" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M97" s="50">
+      <c r="M97" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N97" s="61"/>
+      <c r="N97" s="29"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B98" s="59"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="B98" s="53"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
       <c r="H98" s="8"/>
-      <c r="K98" s="49" t="str">
+      <c r="I98" s="38"/>
+      <c r="J98" s="38"/>
+      <c r="K98" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT095</v>
       </c>
-      <c r="L98" s="60">
+      <c r="L98" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M98" s="50">
+      <c r="M98" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N98" s="61"/>
+      <c r="N98" s="29"/>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B99" s="59"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="B99" s="53"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
       <c r="H99" s="8"/>
-      <c r="K99" s="49" t="str">
+      <c r="I99" s="38"/>
+      <c r="J99" s="38"/>
+      <c r="K99" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT096</v>
       </c>
-      <c r="L99" s="60">
+      <c r="L99" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M99" s="50">
+      <c r="M99" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N99" s="61"/>
+      <c r="N99" s="29"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B100" s="59"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
+        <v>198</v>
+      </c>
+      <c r="B100" s="53"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="42"/>
       <c r="H100" s="8"/>
-      <c r="K100" s="49" t="str">
+      <c r="I100" s="38"/>
+      <c r="J100" s="38"/>
+      <c r="K100" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT097</v>
       </c>
-      <c r="L100" s="60">
+      <c r="L100" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M100" s="50">
+      <c r="M100" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N100" s="61"/>
+      <c r="N100" s="29"/>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B101" s="59"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="B101" s="53"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42"/>
       <c r="H101" s="8"/>
-      <c r="K101" s="49" t="str">
+      <c r="I101" s="38"/>
+      <c r="J101" s="38"/>
+      <c r="K101" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT098</v>
       </c>
-      <c r="L101" s="60">
+      <c r="L101" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M101" s="50">
+      <c r="M101" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N101" s="61"/>
+      <c r="N101" s="29"/>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B102" s="59"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="B102" s="53"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
       <c r="H102" s="8"/>
-      <c r="K102" s="49" t="str">
+      <c r="I102" s="38"/>
+      <c r="J102" s="38"/>
+      <c r="K102" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT099</v>
       </c>
-      <c r="L102" s="60">
+      <c r="L102" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M102" s="50">
+      <c r="M102" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N102" s="61"/>
+      <c r="N102" s="29"/>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B103" s="59"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
+        <v>201</v>
+      </c>
+      <c r="B103" s="53"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42"/>
       <c r="H103" s="8"/>
-      <c r="K103" s="49" t="str">
+      <c r="I103" s="38"/>
+      <c r="J103" s="38"/>
+      <c r="K103" s="108" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT100</v>
       </c>
-      <c r="L103" s="60">
+      <c r="L103" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M103" s="50">
+      <c r="M103" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N103" s="61"/>
+      <c r="N103" s="29"/>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1"/>
@@ -7716,78 +8179,78 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="49.95" customHeight="1">
-      <c r="A1" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
-      <c r="A2" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="93"/>
+    <row r="1" spans="1:11" ht="49.9" customHeight="1">
+      <c r="A1" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A2" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="68"/>
       <c r="C2" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
+        <v>58</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="K3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6">
-      <c r="A4" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="101"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="31" t="s">
         <v>57</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>58</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>3</v>
@@ -7796,13 +8259,13 @@
         <v>4</v>
       </c>
       <c r="G5" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>61</v>
-      </c>
       <c r="I5" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7896,7 +8359,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1">
       <c r="A13" s="26">
         <v>8</v>
       </c>
@@ -7909,7 +8372,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -7920,41 +8383,41 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6">
-      <c r="A15" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84"/>
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="A15" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="85" t="s">
+      <c r="F16" s="87"/>
+      <c r="G16" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="87"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="21">
@@ -7963,13 +8426,13 @@
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="78"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="81"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="86"/>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7979,11 +8442,11 @@
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="78"/>
+      <c r="E18" s="80"/>
       <c r="F18" s="81"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="21">
@@ -7992,11 +8455,11 @@
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="78"/>
+      <c r="E19" s="80"/>
       <c r="F19" s="81"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="86"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="21">
@@ -8005,11 +8468,11 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="78"/>
+      <c r="E20" s="80"/>
       <c r="F20" s="81"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="86"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="21">
@@ -8018,11 +8481,11 @@
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="78"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="81"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="86"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="21">
@@ -8031,11 +8494,11 @@
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="78"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="81"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="86"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="21">
@@ -8044,11 +8507,11 @@
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="78"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="81"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="86"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="21">
@@ -8057,11 +8520,11 @@
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="78"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="81"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="86"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="21">
@@ -8070,32 +8533,36 @@
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1">
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="91"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="22">
         <v>10</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="77"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -8110,15 +8577,11 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8134,76 +8597,76 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="49.95" customHeight="1">
-      <c r="A1" s="89" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1">
-      <c r="A2" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="93"/>
+    <row r="1" spans="1:17" ht="49.9" customHeight="1">
+      <c r="A1" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A2" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="68"/>
       <c r="C2" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="95"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1"/>
-    <row r="4" spans="1:17" ht="15.6">
-      <c r="A4" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="101"/>
+      <c r="I2" s="70"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:17" ht="15.75">
+      <c r="A4" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="31" t="s">
         <v>57</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>58</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>3</v>
@@ -8212,121 +8675,121 @@
         <v>4</v>
       </c>
       <c r="G5" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>61</v>
-      </c>
       <c r="I5" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="31.8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="34.5">
       <c r="A6" s="23">
         <v>1</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="F6" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="23">
         <v>2</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="D7" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="E7" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="F7" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="G7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="H7" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
+      <c r="K7" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="23">
         <v>3</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>90</v>
-      </c>
       <c r="D8" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="24" t="s">
+      <c r="H8" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>100</v>
-      </c>
       <c r="I8" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -8381,7 +8844,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1">
       <c r="A13" s="26">
         <v>8</v>
       </c>
@@ -8394,7 +8857,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -8405,41 +8868,41 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.6">
-      <c r="A15" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84"/>
+    <row r="15" spans="1:17" ht="15.75">
+      <c r="A15" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="85" t="s">
+      <c r="F16" s="87"/>
+      <c r="G16" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="87"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="21">
@@ -8449,68 +8912,68 @@
         <v>11</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="103" t="s">
+      <c r="E17" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="97"/>
+      <c r="G17" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="105"/>
-      <c r="I17" s="106"/>
-    </row>
-    <row r="18" spans="1:11" ht="21.6">
+      <c r="H17" s="98"/>
+      <c r="I17" s="99"/>
+    </row>
+    <row r="18" spans="1:11" ht="23.25">
       <c r="A18" s="21">
         <v>2</v>
       </c>
       <c r="B18" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="97"/>
+      <c r="G18" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="105"/>
-      <c r="I18" s="106"/>
-    </row>
-    <row r="19" spans="1:11" ht="31.8">
+      <c r="H18" s="98"/>
+      <c r="I18" s="99"/>
+    </row>
+    <row r="19" spans="1:11" ht="34.5">
       <c r="A19" s="21">
         <v>3</v>
       </c>
       <c r="B19" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="103" t="s">
+      <c r="F19" s="97"/>
+      <c r="G19" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="103" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="105"/>
-      <c r="I19" s="106"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="99"/>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -8520,11 +8983,11 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="78"/>
+      <c r="E20" s="80"/>
       <c r="F20" s="81"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="86"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="21">
@@ -8533,13 +8996,13 @@
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="78"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="81"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="86"/>
       <c r="K21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -8549,11 +9012,11 @@
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="78"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="81"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="86"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="21">
@@ -8562,11 +9025,11 @@
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="78"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="81"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="86"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="21">
@@ -8575,11 +9038,11 @@
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="78"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="81"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="86"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="21">
@@ -8588,41 +9051,27 @@
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1">
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="91"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="22">
         <v>10</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="77"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -8639,6 +9088,20 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8648,141 +9111,84 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:C18"/>
+  <dimension ref="A5:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:3">
-      <c r="A5" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
+      <c r="A5" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="36" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8">
-      <c r="A7" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="29" t="s">
+      <c r="C7" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60">
+      <c r="A8" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A9" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="57.6">
-      <c r="A8" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="29" t="s">
+      <c r="C9" s="36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45">
+      <c r="A10" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8">
-      <c r="A9" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.2">
-      <c r="A10" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="29" t="s">
+      <c r="C10" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="109" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="108" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="108"/>
-    </row>
-    <row r="15" spans="1:3" ht="109.95" customHeight="1">
-      <c r="A15" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="107" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="107"/>
-    </row>
-    <row r="16" spans="1:3" ht="79.2" customHeight="1">
-      <c r="A16" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="107"/>
-    </row>
-    <row r="17" spans="1:3" ht="87" customHeight="1">
-      <c r="A17" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="107" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="107"/>
-    </row>
-    <row r="18" spans="1:3" ht="96.75" customHeight="1">
-      <c r="A18" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="107"/>
-    </row>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
+  <mergeCells count="1">
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8791,37 +9197,324 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15.75">
+      <c r="B2" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="111"/>
+    </row>
+    <row r="3" spans="2:3" ht="15" customHeight="1">
+      <c r="B3" s="114" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+    </row>
+    <row r="13" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="A3" s="111" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="102"/>
+    </row>
+    <row r="5" spans="1:3" ht="96" customHeight="1">
+      <c r="A5" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="101"/>
+    </row>
+    <row r="6" spans="1:3" ht="64.5" customHeight="1">
+      <c r="A6" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="101"/>
+    </row>
+    <row r="7" spans="1:3" ht="67.5" customHeight="1">
+      <c r="A7" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="101"/>
+    </row>
+    <row r="8" spans="1:3" ht="72.75" customHeight="1">
+      <c r="A8" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="101" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="B14:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15.75">
+      <c r="B2" s="111" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="111"/>
+    </row>
+    <row r="3" spans="2:3" ht="15" customHeight="1">
+      <c r="B3" s="113" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+    </row>
+    <row r="13" spans="2:3" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="45.109375" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="7.2" customHeight="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="7.15" customHeight="1"/>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
+++ b/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18492" windowHeight="11700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Target list" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="Explanation Target Effetcs" sheetId="9" r:id="rId7"/>
     <sheet name="Example_support" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="290">
   <si>
     <t>OP ACTIVE RESOLVE TARGET LIST</t>
   </si>
@@ -829,6 +829,81 @@
   </si>
   <si>
     <t>EFFECT</t>
+  </si>
+  <si>
+    <t>Syrian Broadcasting Headquarter</t>
+  </si>
+  <si>
+    <t>Used for propaganda, and for spreading the message for the Syrian regime</t>
+  </si>
+  <si>
+    <t>Naval Base</t>
+  </si>
+  <si>
+    <t>Nuclear weapons</t>
+  </si>
+  <si>
+    <t>Chemical weapons</t>
+  </si>
+  <si>
+    <t>Biological weapons</t>
+  </si>
+  <si>
+    <t>Command, Control and Communications</t>
+  </si>
+  <si>
+    <t>Airforces and airfields</t>
+  </si>
+  <si>
+    <t>Air Defence</t>
+  </si>
+  <si>
+    <t>Ground forces and facilities</t>
+  </si>
+  <si>
+    <t>Naval forces and ports</t>
+  </si>
+  <si>
+    <t>Military supply and storage</t>
+  </si>
+  <si>
+    <t>Transportation / lines of communications</t>
+  </si>
+  <si>
+    <t>Political leadership</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Petroleum industry</t>
+  </si>
+  <si>
+    <t>Fuel production</t>
+  </si>
+  <si>
+    <t>Fuel storage</t>
+  </si>
+  <si>
+    <t>Pipelines</t>
+  </si>
+  <si>
+    <t>Electric power</t>
+  </si>
+  <si>
+    <t>Powerplants, powerlines</t>
+  </si>
+  <si>
+    <t>Ammunition storage, warehouses, factories</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>General industry not covered by other categories</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1542,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1601,6 +1676,35 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1609,6 +1713,63 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1649,62 +1810,8 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1718,46 +1825,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2074,16 +2155,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>706755</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2101,8 +2182,55 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5467350" y="19050"/>
-          <a:ext cx="3505200" cy="7058025"/>
+          <a:off x="7945755" y="175260"/>
+          <a:ext cx="3657600" cy="6800850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>150242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9144000" y="1285622"/>
+          <a:ext cx="5052060" cy="3682618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2941,48 +3069,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N317"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="78.42578125" customWidth="1"/>
+    <col min="14" max="14" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="49.9" customHeight="1" thickBot="1">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="61" t="s">
+    <row r="1" spans="1:14" ht="49.95" customHeight="1" thickBot="1">
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="63"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="74"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
@@ -3002,14 +3130,14 @@
       <c r="M2" s="40"/>
       <c r="N2" s="41"/>
     </row>
-    <row r="3" spans="1:14" ht="29.45" customHeight="1" thickBot="1">
+    <row r="3" spans="1:14" ht="29.4" customHeight="1" thickBot="1">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -3085,7 +3213,7 @@
         <f>C4</f>
         <v>SCUDs</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="61" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3128,7 +3256,7 @@
         <f t="shared" ref="M5:M29" si="2">C5</f>
         <v>SCUDs</v>
       </c>
-      <c r="N5" s="104" t="s">
+      <c r="N5" s="62" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3167,7 +3295,7 @@
         <f t="shared" si="2"/>
         <v>MLRS</v>
       </c>
-      <c r="N6" s="104" t="s">
+      <c r="N6" s="62" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3206,7 +3334,7 @@
         <f t="shared" si="2"/>
         <v>MLRS</v>
       </c>
-      <c r="N7" s="104" t="s">
+      <c r="N7" s="62" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3245,7 +3373,7 @@
         <f t="shared" si="2"/>
         <v>MLRS</v>
       </c>
-      <c r="N8" s="104" t="s">
+      <c r="N8" s="62" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3284,7 +3412,7 @@
         <f t="shared" si="2"/>
         <v>MLRS</v>
       </c>
-      <c r="N9" s="104" t="s">
+      <c r="N9" s="62" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3317,7 +3445,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="104"/>
+      <c r="N10" s="62"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
@@ -3348,7 +3476,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N11" s="104"/>
+      <c r="N11" s="62"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
@@ -3379,7 +3507,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N12" s="104"/>
+      <c r="N12" s="62"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
@@ -3410,7 +3538,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="104"/>
+      <c r="N13" s="62"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="7" t="s">
@@ -3441,7 +3569,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="104"/>
+      <c r="N14" s="62"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="7" t="s">
@@ -3472,7 +3600,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N15" s="104"/>
+      <c r="N15" s="62"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="7" t="s">
@@ -3503,7 +3631,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16" s="104"/>
+      <c r="N16" s="62"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="7" t="s">
@@ -3534,7 +3662,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="104"/>
+      <c r="N17" s="62"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
@@ -3565,7 +3693,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N18" s="104"/>
+      <c r="N18" s="62"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="7" t="s">
@@ -3596,7 +3724,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N19" s="104"/>
+      <c r="N19" s="62"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
@@ -3627,7 +3755,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N20" s="104"/>
+      <c r="N20" s="62"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="7" t="s">
@@ -3658,7 +3786,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21" s="104"/>
+      <c r="N21" s="62"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
@@ -3687,7 +3815,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="104"/>
+      <c r="N22" s="62"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="7" t="s">
@@ -3716,7 +3844,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N23" s="104"/>
+      <c r="N23" s="62"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
@@ -3747,7 +3875,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N24" s="104"/>
+      <c r="N24" s="62"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="7" t="s">
@@ -3778,7 +3906,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N25" s="104"/>
+      <c r="N25" s="62"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
@@ -3809,7 +3937,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26" s="104"/>
+      <c r="N26" s="62"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
@@ -3840,7 +3968,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="104"/>
+      <c r="N27" s="62"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
@@ -3871,9 +3999,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="104"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" thickBot="1">
+      <c r="N28" s="62"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" thickBot="1">
       <c r="A29" s="46" t="s">
         <v>38</v>
       </c>
@@ -3902,7 +4030,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="105"/>
+      <c r="N29" s="63"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="13" t="s">
@@ -3933,7 +4061,7 @@
         <f>C30</f>
         <v>0</v>
       </c>
-      <c r="N30" s="103"/>
+      <c r="N30" s="61"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="7" t="s">
@@ -3964,7 +4092,7 @@
         <f t="shared" ref="M31" si="5">C31</f>
         <v>0</v>
       </c>
-      <c r="N31" s="104"/>
+      <c r="N31" s="62"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="13" t="s">
@@ -3995,7 +4123,7 @@
         <f>C32</f>
         <v>0</v>
       </c>
-      <c r="N32" s="104"/>
+      <c r="N32" s="62"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="7" t="s">
@@ -4024,7 +4152,7 @@
         <f t="shared" ref="M33:M64" si="8">C33</f>
         <v>0</v>
       </c>
-      <c r="N33" s="104"/>
+      <c r="N33" s="62"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="7" t="s">
@@ -4053,7 +4181,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N34" s="104"/>
+      <c r="N34" s="62"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="7" t="s">
@@ -4082,7 +4210,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N35" s="104"/>
+      <c r="N35" s="62"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="7" t="s">
@@ -4111,7 +4239,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N36" s="104"/>
+      <c r="N36" s="62"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="7" t="s">
@@ -4140,9 +4268,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N37" s="104"/>
-    </row>
-    <row r="38" spans="1:14" ht="30">
+      <c r="N37" s="62"/>
+    </row>
+    <row r="38" spans="1:14" ht="28.8">
       <c r="A38" s="7" t="s">
         <v>136</v>
       </c>
@@ -4169,7 +4297,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N38" s="104" t="s">
+      <c r="N38" s="62" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4200,7 +4328,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N39" s="104"/>
+      <c r="N39" s="62"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="7" t="s">
@@ -4229,7 +4357,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N40" s="104"/>
+      <c r="N40" s="62"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="7" t="s">
@@ -4258,7 +4386,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N41" s="104"/>
+      <c r="N41" s="62"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="7" t="s">
@@ -4287,7 +4415,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N42" s="104"/>
+      <c r="N42" s="62"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="7" t="s">
@@ -4316,7 +4444,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N43" s="104"/>
+      <c r="N43" s="62"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="7" t="s">
@@ -4345,7 +4473,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N44" s="104"/>
+      <c r="N44" s="62"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="7" t="s">
@@ -4374,7 +4502,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N45" s="104"/>
+      <c r="N45" s="62"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="7" t="s">
@@ -4405,7 +4533,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N46" s="104"/>
+      <c r="N46" s="62"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="7" t="s">
@@ -4434,7 +4562,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N47" s="104"/>
+      <c r="N47" s="62"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="7" t="s">
@@ -4463,7 +4591,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N48" s="104"/>
+      <c r="N48" s="62"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="7" t="s">
@@ -4492,7 +4620,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N49" s="104"/>
+      <c r="N49" s="62"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="7" t="s">
@@ -4521,7 +4649,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N50" s="104"/>
+      <c r="N50" s="62"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="7" t="s">
@@ -4550,7 +4678,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N51" s="104"/>
+      <c r="N51" s="62"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="7" t="s">
@@ -4579,7 +4707,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N52" s="104"/>
+      <c r="N52" s="62"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="7" t="s">
@@ -4608,7 +4736,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N53" s="104"/>
+      <c r="N53" s="62"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="7" t="s">
@@ -4637,7 +4765,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N54" s="104"/>
+      <c r="N54" s="62"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="7" t="s">
@@ -4666,7 +4794,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N55" s="104"/>
+      <c r="N55" s="62"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="9" t="s">
@@ -4695,7 +4823,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N56" s="104"/>
+      <c r="N56" s="62"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="9" t="s">
@@ -4724,7 +4852,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N57" s="104"/>
+      <c r="N57" s="62"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="9" t="s">
@@ -4753,7 +4881,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N58" s="104"/>
+      <c r="N58" s="62"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="57" t="s">
@@ -4784,7 +4912,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N59" s="104"/>
+      <c r="N59" s="62"/>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="58" t="s">
@@ -4813,9 +4941,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N60" s="104"/>
-    </row>
-    <row r="61" spans="1:14" ht="24.75">
+      <c r="N60" s="62"/>
+    </row>
+    <row r="61" spans="1:14" ht="24">
       <c r="A61" s="57" t="s">
         <v>159</v>
       </c>
@@ -4842,23 +4970,23 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N61" s="104"/>
-    </row>
-    <row r="62" spans="1:14" ht="24.75">
+      <c r="N61" s="62"/>
+    </row>
+    <row r="62" spans="1:14" ht="24">
       <c r="A62" s="57" t="s">
         <v>160</v>
       </c>
       <c r="B62" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="C62" s="107"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="107"/>
-      <c r="G62" s="107"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="110"/>
-      <c r="J62" s="110"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
       <c r="K62" s="43" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT059</v>
@@ -4871,9 +4999,9 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N62" s="106"/>
-    </row>
-    <row r="63" spans="1:14" ht="24.75">
+      <c r="N62" s="64"/>
+    </row>
+    <row r="63" spans="1:14" ht="24">
       <c r="A63" s="57" t="s">
         <v>161</v>
       </c>
@@ -4888,7 +5016,7 @@
       <c r="H63" s="8"/>
       <c r="I63" s="38"/>
       <c r="J63" s="38"/>
-      <c r="K63" s="108" t="str">
+      <c r="K63" s="66" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT060</v>
       </c>
@@ -4917,7 +5045,7 @@
       <c r="H64" s="8"/>
       <c r="I64" s="38"/>
       <c r="J64" s="38"/>
-      <c r="K64" s="108" t="str">
+      <c r="K64" s="66" t="str">
         <f t="shared" si="6"/>
         <v>OPARTGT061</v>
       </c>
@@ -4931,7 +5059,7 @@
       </c>
       <c r="N64" s="29"/>
     </row>
-    <row r="65" spans="1:14" ht="45">
+    <row r="65" spans="1:14" ht="28.8">
       <c r="A65" s="57" t="s">
         <v>163</v>
       </c>
@@ -4948,7 +5076,7 @@
       </c>
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
-      <c r="K65" s="109" t="str">
+      <c r="K65" s="67" t="str">
         <f t="shared" ref="K65:K103" si="9">A65</f>
         <v>OPARTGT062</v>
       </c>
@@ -4981,7 +5109,7 @@
       </c>
       <c r="I66" s="38"/>
       <c r="J66" s="38"/>
-      <c r="K66" s="108" t="str">
+      <c r="K66" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT063</v>
       </c>
@@ -5012,7 +5140,7 @@
       <c r="H67" s="8"/>
       <c r="I67" s="38"/>
       <c r="J67" s="38"/>
-      <c r="K67" s="108" t="str">
+      <c r="K67" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT064</v>
       </c>
@@ -5043,7 +5171,7 @@
       <c r="H68" s="8"/>
       <c r="I68" s="38"/>
       <c r="J68" s="38"/>
-      <c r="K68" s="108" t="str">
+      <c r="K68" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT065</v>
       </c>
@@ -5074,7 +5202,7 @@
       <c r="H69" s="8"/>
       <c r="I69" s="38"/>
       <c r="J69" s="38"/>
-      <c r="K69" s="108" t="str">
+      <c r="K69" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT066</v>
       </c>
@@ -5105,7 +5233,7 @@
       <c r="H70" s="8"/>
       <c r="I70" s="38"/>
       <c r="J70" s="38"/>
-      <c r="K70" s="108" t="str">
+      <c r="K70" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT067</v>
       </c>
@@ -5136,7 +5264,7 @@
       <c r="H71" s="8"/>
       <c r="I71" s="38"/>
       <c r="J71" s="38"/>
-      <c r="K71" s="108" t="str">
+      <c r="K71" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT068</v>
       </c>
@@ -5167,7 +5295,7 @@
       <c r="H72" s="8"/>
       <c r="I72" s="38"/>
       <c r="J72" s="38"/>
-      <c r="K72" s="108" t="str">
+      <c r="K72" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT069</v>
       </c>
@@ -5187,7 +5315,9 @@
       <c r="A73" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="53"/>
+      <c r="B73" s="53" t="s">
+        <v>265</v>
+      </c>
       <c r="C73" s="42"/>
       <c r="D73" s="42"/>
       <c r="E73" s="42"/>
@@ -5196,19 +5326,21 @@
       <c r="H73" s="8"/>
       <c r="I73" s="38"/>
       <c r="J73" s="38"/>
-      <c r="K73" s="108" t="str">
+      <c r="K73" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT070</v>
       </c>
-      <c r="L73" s="54">
+      <c r="L73" s="54" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>Syrian Broadcasting Headquarter</v>
       </c>
       <c r="M73" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N73" s="29"/>
+      <c r="N73" s="29" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="7" t="s">
@@ -5223,7 +5355,7 @@
       <c r="H74" s="8"/>
       <c r="I74" s="38"/>
       <c r="J74" s="38"/>
-      <c r="K74" s="108" t="str">
+      <c r="K74" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT071</v>
       </c>
@@ -5250,7 +5382,7 @@
       <c r="H75" s="8"/>
       <c r="I75" s="38"/>
       <c r="J75" s="38"/>
-      <c r="K75" s="108" t="str">
+      <c r="K75" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT072</v>
       </c>
@@ -5277,7 +5409,7 @@
       <c r="H76" s="8"/>
       <c r="I76" s="38"/>
       <c r="J76" s="38"/>
-      <c r="K76" s="108" t="str">
+      <c r="K76" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT073</v>
       </c>
@@ -5304,7 +5436,7 @@
       <c r="H77" s="8"/>
       <c r="I77" s="38"/>
       <c r="J77" s="38"/>
-      <c r="K77" s="108" t="str">
+      <c r="K77" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT074</v>
       </c>
@@ -5331,7 +5463,7 @@
       <c r="H78" s="8"/>
       <c r="I78" s="38"/>
       <c r="J78" s="38"/>
-      <c r="K78" s="108" t="str">
+      <c r="K78" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT075</v>
       </c>
@@ -5358,7 +5490,7 @@
       <c r="H79" s="8"/>
       <c r="I79" s="38"/>
       <c r="J79" s="38"/>
-      <c r="K79" s="108" t="str">
+      <c r="K79" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT076</v>
       </c>
@@ -5385,7 +5517,7 @@
       <c r="H80" s="8"/>
       <c r="I80" s="38"/>
       <c r="J80" s="38"/>
-      <c r="K80" s="108" t="str">
+      <c r="K80" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT077</v>
       </c>
@@ -5412,7 +5544,7 @@
       <c r="H81" s="8"/>
       <c r="I81" s="38"/>
       <c r="J81" s="38"/>
-      <c r="K81" s="108" t="str">
+      <c r="K81" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT078</v>
       </c>
@@ -5439,7 +5571,7 @@
       <c r="H82" s="8"/>
       <c r="I82" s="38"/>
       <c r="J82" s="38"/>
-      <c r="K82" s="108" t="str">
+      <c r="K82" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT079</v>
       </c>
@@ -5466,7 +5598,7 @@
       <c r="H83" s="8"/>
       <c r="I83" s="38"/>
       <c r="J83" s="38"/>
-      <c r="K83" s="108" t="str">
+      <c r="K83" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT080</v>
       </c>
@@ -5493,7 +5625,7 @@
       <c r="H84" s="8"/>
       <c r="I84" s="38"/>
       <c r="J84" s="38"/>
-      <c r="K84" s="108" t="str">
+      <c r="K84" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT081</v>
       </c>
@@ -5520,7 +5652,7 @@
       <c r="H85" s="8"/>
       <c r="I85" s="38"/>
       <c r="J85" s="38"/>
-      <c r="K85" s="108" t="str">
+      <c r="K85" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT082</v>
       </c>
@@ -5547,7 +5679,7 @@
       <c r="H86" s="8"/>
       <c r="I86" s="38"/>
       <c r="J86" s="38"/>
-      <c r="K86" s="108" t="str">
+      <c r="K86" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT083</v>
       </c>
@@ -5574,7 +5706,7 @@
       <c r="H87" s="8"/>
       <c r="I87" s="38"/>
       <c r="J87" s="38"/>
-      <c r="K87" s="108" t="str">
+      <c r="K87" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT084</v>
       </c>
@@ -5601,7 +5733,7 @@
       <c r="H88" s="8"/>
       <c r="I88" s="38"/>
       <c r="J88" s="38"/>
-      <c r="K88" s="108" t="str">
+      <c r="K88" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT085</v>
       </c>
@@ -5628,7 +5760,7 @@
       <c r="H89" s="8"/>
       <c r="I89" s="38"/>
       <c r="J89" s="38"/>
-      <c r="K89" s="108" t="str">
+      <c r="K89" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT086</v>
       </c>
@@ -5655,7 +5787,7 @@
       <c r="H90" s="8"/>
       <c r="I90" s="38"/>
       <c r="J90" s="38"/>
-      <c r="K90" s="108" t="str">
+      <c r="K90" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT087</v>
       </c>
@@ -5682,7 +5814,7 @@
       <c r="H91" s="8"/>
       <c r="I91" s="38"/>
       <c r="J91" s="38"/>
-      <c r="K91" s="108" t="str">
+      <c r="K91" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT088</v>
       </c>
@@ -5709,7 +5841,7 @@
       <c r="H92" s="8"/>
       <c r="I92" s="38"/>
       <c r="J92" s="38"/>
-      <c r="K92" s="108" t="str">
+      <c r="K92" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT089</v>
       </c>
@@ -5736,7 +5868,7 @@
       <c r="H93" s="8"/>
       <c r="I93" s="38"/>
       <c r="J93" s="38"/>
-      <c r="K93" s="108" t="str">
+      <c r="K93" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT090</v>
       </c>
@@ -5763,7 +5895,7 @@
       <c r="H94" s="8"/>
       <c r="I94" s="38"/>
       <c r="J94" s="38"/>
-      <c r="K94" s="108" t="str">
+      <c r="K94" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT091</v>
       </c>
@@ -5790,7 +5922,7 @@
       <c r="H95" s="8"/>
       <c r="I95" s="38"/>
       <c r="J95" s="38"/>
-      <c r="K95" s="108" t="str">
+      <c r="K95" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT092</v>
       </c>
@@ -5817,7 +5949,7 @@
       <c r="H96" s="8"/>
       <c r="I96" s="38"/>
       <c r="J96" s="38"/>
-      <c r="K96" s="108" t="str">
+      <c r="K96" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT093</v>
       </c>
@@ -5844,7 +5976,7 @@
       <c r="H97" s="8"/>
       <c r="I97" s="38"/>
       <c r="J97" s="38"/>
-      <c r="K97" s="108" t="str">
+      <c r="K97" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT094</v>
       </c>
@@ -5871,7 +6003,7 @@
       <c r="H98" s="8"/>
       <c r="I98" s="38"/>
       <c r="J98" s="38"/>
-      <c r="K98" s="108" t="str">
+      <c r="K98" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT095</v>
       </c>
@@ -5898,7 +6030,7 @@
       <c r="H99" s="8"/>
       <c r="I99" s="38"/>
       <c r="J99" s="38"/>
-      <c r="K99" s="108" t="str">
+      <c r="K99" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT096</v>
       </c>
@@ -5925,7 +6057,7 @@
       <c r="H100" s="8"/>
       <c r="I100" s="38"/>
       <c r="J100" s="38"/>
-      <c r="K100" s="108" t="str">
+      <c r="K100" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT097</v>
       </c>
@@ -5952,7 +6084,7 @@
       <c r="H101" s="8"/>
       <c r="I101" s="38"/>
       <c r="J101" s="38"/>
-      <c r="K101" s="108" t="str">
+      <c r="K101" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT098</v>
       </c>
@@ -5979,7 +6111,7 @@
       <c r="H102" s="8"/>
       <c r="I102" s="38"/>
       <c r="J102" s="38"/>
-      <c r="K102" s="108" t="str">
+      <c r="K102" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT099</v>
       </c>
@@ -6006,7 +6138,7 @@
       <c r="H103" s="8"/>
       <c r="I103" s="38"/>
       <c r="J103" s="38"/>
-      <c r="K103" s="108" t="str">
+      <c r="K103" s="66" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT100</v>
       </c>
@@ -8179,65 +8311,65 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:11" ht="49.95" customHeight="1">
+      <c r="A1" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="67" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="96"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1">
+      <c r="A2" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="K3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="74" t="s">
+    <row r="4" spans="1:11" ht="15.6">
+      <c r="A4" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="33" t="s">
@@ -8359,7 +8491,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1">
+    <row r="13" spans="1:11" ht="15" thickBot="1">
       <c r="A13" s="26">
         <v>8</v>
       </c>
@@ -8372,7 +8504,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+    <row r="14" spans="1:11" ht="15" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -8383,18 +8515,18 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="77" t="s">
+    <row r="15" spans="1:11" ht="15.6">
+      <c r="A15" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="89"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="20" t="s">
@@ -8409,15 +8541,15 @@
       <c r="D16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="82" t="s">
+      <c r="F16" s="93"/>
+      <c r="G16" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="21">
@@ -8426,11 +8558,11 @@
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="86"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="85"/>
       <c r="K17" t="s">
         <v>67</v>
       </c>
@@ -8442,11 +8574,11 @@
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="86"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="85"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="21">
@@ -8455,11 +8587,11 @@
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="86"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="85"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="21">
@@ -8468,11 +8600,11 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="86"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="21">
@@ -8481,11 +8613,11 @@
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="86"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="85"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="21">
@@ -8494,11 +8626,11 @@
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="86"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="85"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="21">
@@ -8507,11 +8639,11 @@
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="86"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="85"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="21">
@@ -8520,11 +8652,11 @@
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="86"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="85"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="21">
@@ -8533,36 +8665,32 @@
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="91"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="78"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="22">
         <v>10</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="95"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -8577,11 +8705,15 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8597,63 +8729,63 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:17" ht="49.95" customHeight="1">
+      <c r="A1" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="67" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="96"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1">
+      <c r="A2" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="69" t="s">
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="70"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="74" t="s">
+      <c r="I2" s="100"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1"/>
+    <row r="4" spans="1:17" ht="15.6">
+      <c r="A4" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="33" t="s">
@@ -8687,7 +8819,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="34.5">
+    <row r="6" spans="1:17" ht="31.8">
       <c r="A6" s="23">
         <v>1</v>
       </c>
@@ -8715,15 +8847,15 @@
       <c r="I6" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="100" t="s">
+      <c r="K6" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="23">
@@ -8753,15 +8885,15 @@
       <c r="I7" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="100" t="s">
+      <c r="K7" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="23">
@@ -8844,7 +8976,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1">
+    <row r="13" spans="1:17" ht="15" thickBot="1">
       <c r="A13" s="26">
         <v>8</v>
       </c>
@@ -8857,7 +8989,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -8868,18 +9000,18 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="77" t="s">
+    <row r="15" spans="1:17" ht="15.6">
+      <c r="A15" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="89"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="20" t="s">
@@ -8894,15 +9026,15 @@
       <c r="D16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="82" t="s">
+      <c r="F16" s="93"/>
+      <c r="G16" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="21">
@@ -8917,17 +9049,17 @@
       <c r="D17" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="97"/>
-      <c r="G17" s="96" t="s">
+      <c r="F17" s="109"/>
+      <c r="G17" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="98"/>
-      <c r="I17" s="99"/>
-    </row>
-    <row r="18" spans="1:11" ht="23.25">
+      <c r="H17" s="110"/>
+      <c r="I17" s="111"/>
+    </row>
+    <row r="18" spans="1:11" ht="21.6">
       <c r="A18" s="21">
         <v>2</v>
       </c>
@@ -8940,17 +9072,17 @@
       <c r="D18" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="96" t="s">
+      <c r="E18" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="96" t="s">
+      <c r="F18" s="109"/>
+      <c r="G18" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="98"/>
-      <c r="I18" s="99"/>
-    </row>
-    <row r="19" spans="1:11" ht="34.5">
+      <c r="H18" s="110"/>
+      <c r="I18" s="111"/>
+    </row>
+    <row r="19" spans="1:11" ht="31.8">
       <c r="A19" s="21">
         <v>3</v>
       </c>
@@ -8963,15 +9095,15 @@
       <c r="D19" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="E19" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="97"/>
-      <c r="G19" s="96" t="s">
+      <c r="F19" s="109"/>
+      <c r="G19" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="98"/>
-      <c r="I19" s="99"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="111"/>
       <c r="K19" t="s">
         <v>67</v>
       </c>
@@ -8983,11 +9115,11 @@
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="86"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="21">
@@ -8996,11 +9128,11 @@
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="86"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="85"/>
       <c r="K21" t="s">
         <v>92</v>
       </c>
@@ -9012,11 +9144,11 @@
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="86"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="85"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="21">
@@ -9025,11 +9157,11 @@
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="86"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="85"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="21">
@@ -9038,11 +9170,11 @@
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="86"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="85"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="21">
@@ -9051,27 +9183,41 @@
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="91"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="78"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="22">
         <v>10</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="95"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -9088,20 +9234,6 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9117,18 +9249,18 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:3">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="35" t="s">
@@ -9141,7 +9273,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="37" t="s">
         <v>87</v>
       </c>
@@ -9152,11 +9284,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60">
+    <row r="8" spans="1:3" ht="57.6">
       <c r="A8" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="69" t="s">
         <v>258</v>
       </c>
       <c r="C8" s="36" t="s">
@@ -9174,7 +9306,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45">
+    <row r="10" spans="1:3" ht="43.2">
       <c r="A10" s="37" t="s">
         <v>100</v>
       </c>
@@ -9197,131 +9329,222 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C28"/>
+  <dimension ref="B2:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.75">
-      <c r="B2" s="111" t="s">
+    <row r="2" spans="2:6" ht="15.6">
+      <c r="B2" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="111"/>
-    </row>
-    <row r="3" spans="2:3" ht="15" customHeight="1">
-      <c r="B3" s="114" t="s">
+      <c r="C2" s="113"/>
+    </row>
+    <row r="3" spans="2:6" ht="15" customHeight="1">
+      <c r="B3" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="70" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-    </row>
-    <row r="13" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="38"/>
+    <row r="4" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B4" s="115">
+        <v>1</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="115">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="115">
+        <v>3</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="115">
+        <v>4</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="115">
+        <v>5</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="115">
+        <v>6</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="115">
+        <v>7</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="115">
+        <v>8</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="115">
+        <v>9</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B13" s="115">
+        <v>10</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="115">
+        <v>11</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="115">
+        <v>12</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="115">
+        <v>13</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="115">
+        <v>14</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="115">
+        <v>15</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="115">
+        <v>16</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="115"/>
       <c r="C20" s="38"/>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="38"/>
+    <row r="21" spans="2:4">
+      <c r="B21" s="115"/>
       <c r="C21" s="38"/>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="38"/>
+    <row r="22" spans="2:4">
+      <c r="B22" s="115"/>
       <c r="C22" s="38"/>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="38"/>
+    <row r="23" spans="2:4">
+      <c r="B23" s="115"/>
       <c r="C23" s="38"/>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="38"/>
+    <row r="24" spans="2:4">
+      <c r="B24" s="115"/>
       <c r="C24" s="38"/>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="38"/>
+    <row r="25" spans="2:4">
+      <c r="B25" s="115"/>
       <c r="C25" s="38"/>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="38"/>
+    <row r="26" spans="2:4">
+      <c r="B26" s="115"/>
       <c r="C26" s="38"/>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="38"/>
+    <row r="27" spans="2:4">
+      <c r="B27" s="115"/>
       <c r="C27" s="38"/>
     </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="38"/>
+    <row r="28" spans="2:4">
+      <c r="B28" s="115"/>
       <c r="C28" s="38"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="116"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>267</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9340,63 +9563,63 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="15.75">
-      <c r="A3" s="111" t="s">
+    <row r="3" spans="1:3" ht="15.6">
+      <c r="A3" s="113" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="112" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="112"/>
     </row>
     <row r="5" spans="1:3" ht="96" customHeight="1">
       <c r="A5" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="114" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="101"/>
+      <c r="C5" s="114"/>
     </row>
     <row r="6" spans="1:3" ht="64.5" customHeight="1">
       <c r="A6" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="114" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="101"/>
+      <c r="C6" s="114"/>
     </row>
     <row r="7" spans="1:3" ht="67.5" customHeight="1">
       <c r="A7" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="C7" s="101"/>
+      <c r="C7" s="114"/>
     </row>
     <row r="8" spans="1:3" ht="72.75" customHeight="1">
       <c r="A8" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="114" t="s">
         <v>261</v>
       </c>
-      <c r="C8" s="101"/>
+      <c r="C8" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9420,23 +9643,23 @@
       <selection activeCell="C14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.75">
-      <c r="B2" s="111" t="s">
+    <row r="2" spans="2:3" ht="15.6">
+      <c r="B2" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="111"/>
+      <c r="C2" s="113"/>
     </row>
     <row r="3" spans="2:3" ht="15" customHeight="1">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="70" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9490,9 +9713,9 @@
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -9508,7 +9731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="7.15" customHeight="1"/>
+    <row r="4" spans="2:3" ht="7.2" customHeight="1"/>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>53</v>

--- a/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
+++ b/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18492" windowHeight="11700"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18492" windowHeight="11700" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Target List" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="342">
   <si>
     <t>OP ACTIVE RESOLVE TARGET LIST</t>
   </si>
@@ -1047,6 +1047,30 @@
   </si>
   <si>
     <t>Typically used againts enemy ground formations or air units. Attack parts of the enemy units, but does not need to be successful and destroy. It is primarily for reducing the moral by inducing fear on the enemy that they may be next or may be hit soon</t>
+  </si>
+  <si>
+    <t>Syrian Air Force Headquarter</t>
+  </si>
+  <si>
+    <t>A-A</t>
+  </si>
+  <si>
+    <t>60th Air Division Headquarter</t>
+  </si>
+  <si>
+    <t>A-G</t>
+  </si>
+  <si>
+    <t>70th Air Division Headquarter</t>
+  </si>
+  <si>
+    <t>80th Air Division Headquarter</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -1868,135 +1892,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2067,23 +1962,176 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2093,74 +2141,13 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -3776,15 +3763,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N317"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView topLeftCell="A70" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="127" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="127" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="122" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="84" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="84" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="79" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" style="67" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
@@ -3798,32 +3785,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="68" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="70"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="106"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="111"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3844,7 +3831,7 @@
       <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="75" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -3885,10 +3872,10 @@
       <c r="A4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="119">
+      <c r="C4" s="76">
         <v>5</v>
       </c>
       <c r="D4" s="11"/>
@@ -3926,10 +3913,10 @@
       <c r="A5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="116">
+      <c r="C5" s="73">
         <v>5</v>
       </c>
       <c r="D5" s="7"/>
@@ -3967,10 +3954,10 @@
       <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="116">
+      <c r="C6" s="73">
         <v>5</v>
       </c>
       <c r="D6" s="7"/>
@@ -4006,10 +3993,10 @@
       <c r="A7" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="116">
+      <c r="C7" s="73">
         <v>5</v>
       </c>
       <c r="D7" s="7"/>
@@ -4045,10 +4032,10 @@
       <c r="A8" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="116">
+      <c r="C8" s="73">
         <v>5</v>
       </c>
       <c r="D8" s="7"/>
@@ -4084,10 +4071,10 @@
       <c r="A9" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="116">
+      <c r="C9" s="73">
         <v>5</v>
       </c>
       <c r="D9" s="7"/>
@@ -4123,10 +4110,10 @@
       <c r="A10" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="116">
+      <c r="C10" s="73">
         <v>9</v>
       </c>
       <c r="D10" s="7"/>
@@ -4158,10 +4145,10 @@
       <c r="A11" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="116">
+      <c r="C11" s="73">
         <v>9</v>
       </c>
       <c r="D11" s="7"/>
@@ -4193,10 +4180,10 @@
       <c r="A12" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="116">
+      <c r="C12" s="73">
         <v>9</v>
       </c>
       <c r="D12" s="7"/>
@@ -4228,10 +4215,10 @@
       <c r="A13" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="116">
+      <c r="C13" s="73">
         <v>9</v>
       </c>
       <c r="D13" s="7"/>
@@ -4263,10 +4250,10 @@
       <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="116">
+      <c r="C14" s="73">
         <v>9</v>
       </c>
       <c r="D14" s="7"/>
@@ -4298,10 +4285,10 @@
       <c r="A15" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="116">
+      <c r="C15" s="73">
         <v>9</v>
       </c>
       <c r="D15" s="7"/>
@@ -4333,10 +4320,10 @@
       <c r="A16" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="116">
+      <c r="C16" s="73">
         <v>9</v>
       </c>
       <c r="D16" s="7"/>
@@ -4368,10 +4355,10 @@
       <c r="A17" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="116">
+      <c r="C17" s="73">
         <v>9</v>
       </c>
       <c r="D17" s="7"/>
@@ -4403,10 +4390,10 @@
       <c r="A18" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="116">
+      <c r="C18" s="73">
         <v>9</v>
       </c>
       <c r="D18" s="7"/>
@@ -4438,10 +4425,10 @@
       <c r="A19" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="116">
+      <c r="C19" s="73">
         <v>9</v>
       </c>
       <c r="D19" s="7"/>
@@ -4473,10 +4460,10 @@
       <c r="A20" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="116">
+      <c r="C20" s="73">
         <v>9</v>
       </c>
       <c r="D20" s="7"/>
@@ -4508,10 +4495,10 @@
       <c r="A21" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="116">
+      <c r="C21" s="73">
         <v>9</v>
       </c>
       <c r="D21" s="7"/>
@@ -4543,10 +4530,10 @@
       <c r="A22" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="130" t="s">
+      <c r="B22" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="116">
+      <c r="C22" s="73">
         <v>9</v>
       </c>
       <c r="D22" s="7"/>
@@ -4574,10 +4561,10 @@
       <c r="A23" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="116">
+      <c r="C23" s="73">
         <v>9</v>
       </c>
       <c r="D23" s="7"/>
@@ -4605,10 +4592,10 @@
       <c r="A24" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="116">
+      <c r="C24" s="73">
         <v>9</v>
       </c>
       <c r="D24" s="7"/>
@@ -4640,10 +4627,10 @@
       <c r="A25" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="116" t="s">
+      <c r="C25" s="73" t="s">
         <v>310</v>
       </c>
       <c r="D25" s="7"/>
@@ -4675,10 +4662,10 @@
       <c r="A26" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="73" t="s">
         <v>310</v>
       </c>
       <c r="D26" s="7"/>
@@ -4710,10 +4697,10 @@
       <c r="A27" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="116">
+      <c r="C27" s="73">
         <v>9</v>
       </c>
       <c r="D27" s="7"/>
@@ -4745,10 +4732,10 @@
       <c r="A28" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="130" t="s">
+      <c r="B28" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="116">
+      <c r="C28" s="73">
         <v>9</v>
       </c>
       <c r="D28" s="7"/>
@@ -4777,16 +4764,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1">
-      <c r="A29" s="124" t="s">
+      <c r="A29" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="133">
+      <c r="C29" s="90">
         <v>9</v>
       </c>
-      <c r="D29" s="112"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
       <c r="G29" s="42"/>
@@ -4815,10 +4802,10 @@
       <c r="A30" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="129" t="s">
+      <c r="B30" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="119">
+      <c r="C30" s="76">
         <v>9</v>
       </c>
       <c r="D30" s="11"/>
@@ -4850,10 +4837,10 @@
       <c r="A31" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="116">
+      <c r="C31" s="73">
         <v>9</v>
       </c>
       <c r="D31" s="7"/>
@@ -4885,13 +4872,13 @@
       <c r="A32" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="130" t="s">
+      <c r="B32" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="116">
+      <c r="C32" s="73">
         <v>9</v>
       </c>
-      <c r="D32" s="113"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -4920,13 +4907,13 @@
       <c r="A33" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="116">
+      <c r="C33" s="73">
         <v>9</v>
       </c>
-      <c r="D33" s="113"/>
+      <c r="D33" s="70"/>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -4951,13 +4938,13 @@
       <c r="A34" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="130" t="s">
+      <c r="B34" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="C34" s="116">
+      <c r="C34" s="73">
         <v>9</v>
       </c>
-      <c r="D34" s="113"/>
+      <c r="D34" s="70"/>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -4982,13 +4969,13 @@
       <c r="A35" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="130" t="s">
+      <c r="B35" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="116">
+      <c r="C35" s="73">
         <v>9</v>
       </c>
-      <c r="D35" s="113"/>
+      <c r="D35" s="70"/>
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
@@ -5013,13 +5000,13 @@
       <c r="A36" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="130" t="s">
+      <c r="B36" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="116">
+      <c r="C36" s="73">
         <v>9</v>
       </c>
-      <c r="D36" s="113"/>
+      <c r="D36" s="70"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -5044,13 +5031,13 @@
       <c r="A37" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="130" t="s">
+      <c r="B37" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="116" t="s">
+      <c r="C37" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="D37" s="113"/>
+      <c r="D37" s="70"/>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -5077,13 +5064,13 @@
       <c r="A38" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="130" t="s">
+      <c r="B38" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="116" t="s">
+      <c r="C38" s="73" t="s">
         <v>307</v>
       </c>
-      <c r="D38" s="113"/>
+      <c r="D38" s="70"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -5110,13 +5097,13 @@
       <c r="A39" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="130" t="s">
+      <c r="B39" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="C39" s="116">
+      <c r="C39" s="73">
         <v>3</v>
       </c>
-      <c r="D39" s="113"/>
+      <c r="D39" s="70"/>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -5141,13 +5128,13 @@
       <c r="A40" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="B40" s="130" t="s">
+      <c r="B40" s="87" t="s">
         <v>205</v>
       </c>
-      <c r="C40" s="116">
+      <c r="C40" s="73">
         <v>3</v>
       </c>
-      <c r="D40" s="113"/>
+      <c r="D40" s="70"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -5172,13 +5159,13 @@
       <c r="A41" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="B41" s="130" t="s">
+      <c r="B41" s="87" t="s">
         <v>206</v>
       </c>
-      <c r="C41" s="116">
+      <c r="C41" s="73">
         <v>3</v>
       </c>
-      <c r="D41" s="113"/>
+      <c r="D41" s="70"/>
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -5203,13 +5190,13 @@
       <c r="A42" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="130" t="s">
+      <c r="B42" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="116">
+      <c r="C42" s="73">
         <v>3</v>
       </c>
-      <c r="D42" s="113"/>
+      <c r="D42" s="70"/>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -5234,13 +5221,13 @@
       <c r="A43" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="130" t="s">
+      <c r="B43" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C43" s="116">
+      <c r="C43" s="73">
         <v>3</v>
       </c>
-      <c r="D43" s="113"/>
+      <c r="D43" s="70"/>
       <c r="E43" s="37"/>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -5265,13 +5252,13 @@
       <c r="A44" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="130" t="s">
+      <c r="B44" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="C44" s="116">
+      <c r="C44" s="73">
         <v>3</v>
       </c>
-      <c r="D44" s="113"/>
+      <c r="D44" s="70"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -5296,13 +5283,13 @@
       <c r="A45" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="B45" s="130" t="s">
+      <c r="B45" s="87" t="s">
         <v>210</v>
       </c>
-      <c r="C45" s="116">
+      <c r="C45" s="73">
         <v>3</v>
       </c>
-      <c r="D45" s="113"/>
+      <c r="D45" s="70"/>
       <c r="E45" s="37"/>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -5327,13 +5314,13 @@
       <c r="A46" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="130" t="s">
+      <c r="B46" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C46" s="116">
+      <c r="C46" s="73">
         <v>3</v>
       </c>
-      <c r="D46" s="113"/>
+      <c r="D46" s="70"/>
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -5360,13 +5347,13 @@
       <c r="A47" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="B47" s="130" t="s">
+      <c r="B47" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="C47" s="116">
+      <c r="C47" s="73">
         <v>3</v>
       </c>
-      <c r="D47" s="113"/>
+      <c r="D47" s="70"/>
       <c r="E47" s="37"/>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -5391,13 +5378,13 @@
       <c r="A48" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="130" t="s">
+      <c r="B48" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="C48" s="116">
+      <c r="C48" s="73">
         <v>3</v>
       </c>
-      <c r="D48" s="113"/>
+      <c r="D48" s="70"/>
       <c r="E48" s="37"/>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -5422,13 +5409,13 @@
       <c r="A49" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="B49" s="130" t="s">
+      <c r="B49" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="C49" s="116">
+      <c r="C49" s="73">
         <v>3</v>
       </c>
-      <c r="D49" s="113"/>
+      <c r="D49" s="70"/>
       <c r="E49" s="37"/>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -5453,13 +5440,13 @@
       <c r="A50" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="130" t="s">
+      <c r="B50" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="C50" s="116">
+      <c r="C50" s="73">
         <v>3</v>
       </c>
-      <c r="D50" s="113"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -5484,13 +5471,13 @@
       <c r="A51" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="130" t="s">
+      <c r="B51" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="C51" s="116">
+      <c r="C51" s="73">
         <v>3</v>
       </c>
-      <c r="D51" s="113"/>
+      <c r="D51" s="70"/>
       <c r="E51" s="37"/>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -5515,13 +5502,13 @@
       <c r="A52" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B52" s="130" t="s">
+      <c r="B52" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="C52" s="116">
+      <c r="C52" s="73">
         <v>3</v>
       </c>
-      <c r="D52" s="113"/>
+      <c r="D52" s="70"/>
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -5548,13 +5535,13 @@
       <c r="A53" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="130" t="s">
+      <c r="B53" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="C53" s="116">
+      <c r="C53" s="73">
         <v>3</v>
       </c>
-      <c r="D53" s="113"/>
+      <c r="D53" s="70"/>
       <c r="E53" s="37"/>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -5569,7 +5556,7 @@
         <f t="shared" si="7"/>
         <v>Damascus Int Airport</v>
       </c>
-      <c r="M53" s="132">
+      <c r="M53" s="89">
         <f>C53</f>
         <v>3</v>
       </c>
@@ -5579,13 +5566,13 @@
       <c r="A54" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="130" t="s">
+      <c r="B54" s="87" t="s">
         <v>220</v>
       </c>
-      <c r="C54" s="116">
+      <c r="C54" s="73">
         <v>3</v>
       </c>
-      <c r="D54" s="113"/>
+      <c r="D54" s="70"/>
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -5610,13 +5597,13 @@
       <c r="A55" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="130" t="s">
+      <c r="B55" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C55" s="116">
+      <c r="C55" s="73">
         <v>3</v>
       </c>
-      <c r="D55" s="113"/>
+      <c r="D55" s="70"/>
       <c r="E55" s="37"/>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -5638,16 +5625,16 @@
       <c r="N55" s="54"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="125" t="s">
+      <c r="A56" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="130" t="s">
+      <c r="B56" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="C56" s="116">
+      <c r="C56" s="73">
         <v>3</v>
       </c>
-      <c r="D56" s="113"/>
+      <c r="D56" s="70"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -5669,16 +5656,16 @@
       <c r="N56" s="54"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="125" t="s">
+      <c r="A57" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="B57" s="130" t="s">
+      <c r="B57" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="C57" s="116">
+      <c r="C57" s="73">
         <v>3</v>
       </c>
-      <c r="D57" s="113"/>
+      <c r="D57" s="70"/>
       <c r="E57" s="37"/>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
@@ -5700,16 +5687,16 @@
       <c r="N57" s="54"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="125" t="s">
+      <c r="A58" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="B58" s="130" t="s">
+      <c r="B58" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="C58" s="116">
+      <c r="C58" s="73">
         <v>6</v>
       </c>
-      <c r="D58" s="113"/>
+      <c r="D58" s="70"/>
       <c r="E58" s="37"/>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
@@ -5734,13 +5721,13 @@
       <c r="A59" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B59" s="130" t="s">
+      <c r="B59" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="C59" s="116">
+      <c r="C59" s="73">
         <v>6</v>
       </c>
-      <c r="D59" s="113"/>
+      <c r="D59" s="70"/>
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
@@ -5767,13 +5754,13 @@
       <c r="A60" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B60" s="130" t="s">
+      <c r="B60" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="C60" s="116">
+      <c r="C60" s="73">
         <v>1</v>
       </c>
-      <c r="D60" s="113"/>
+      <c r="D60" s="70"/>
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -5801,10 +5788,10 @@
       <c r="B61" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="C61" s="116">
+      <c r="C61" s="73">
         <v>1</v>
       </c>
-      <c r="D61" s="113"/>
+      <c r="D61" s="70"/>
       <c r="E61" s="37"/>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
@@ -5832,10 +5819,10 @@
       <c r="B62" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="C62" s="120">
+      <c r="C62" s="77">
         <v>1</v>
       </c>
-      <c r="D62" s="114"/>
+      <c r="D62" s="71"/>
       <c r="E62" s="57"/>
       <c r="F62" s="57"/>
       <c r="G62" s="57"/>
@@ -5863,10 +5850,10 @@
       <c r="B63" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="C63" s="116">
+      <c r="C63" s="73">
         <v>1</v>
       </c>
-      <c r="D63" s="113"/>
+      <c r="D63" s="70"/>
       <c r="E63" s="37"/>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
@@ -5894,10 +5881,10 @@
       <c r="B64" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="C64" s="116">
+      <c r="C64" s="73">
         <v>1</v>
       </c>
-      <c r="D64" s="113"/>
+      <c r="D64" s="70"/>
       <c r="E64" s="37"/>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
@@ -5925,10 +5912,10 @@
       <c r="B65" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="C65" s="116">
+      <c r="C65" s="73">
         <v>4</v>
       </c>
-      <c r="D65" s="113"/>
+      <c r="D65" s="70"/>
       <c r="E65" s="37"/>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
@@ -5960,10 +5947,10 @@
       <c r="B66" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="C66" s="116">
+      <c r="C66" s="73">
         <v>9</v>
       </c>
-      <c r="D66" s="113"/>
+      <c r="D66" s="70"/>
       <c r="E66" s="37"/>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
@@ -5995,10 +5982,10 @@
       <c r="B67" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="C67" s="116">
+      <c r="C67" s="73">
         <v>5</v>
       </c>
-      <c r="D67" s="113"/>
+      <c r="D67" s="70"/>
       <c r="E67" s="37"/>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
@@ -6028,10 +6015,10 @@
       <c r="B68" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="C68" s="116">
+      <c r="C68" s="73">
         <v>5</v>
       </c>
-      <c r="D68" s="113"/>
+      <c r="D68" s="70"/>
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
@@ -6061,10 +6048,10 @@
       <c r="B69" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="C69" s="116">
+      <c r="C69" s="73">
         <v>4</v>
       </c>
-      <c r="D69" s="113"/>
+      <c r="D69" s="70"/>
       <c r="E69" s="37"/>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
@@ -6094,10 +6081,10 @@
       <c r="B70" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="C70" s="116">
+      <c r="C70" s="73">
         <v>4</v>
       </c>
-      <c r="D70" s="113"/>
+      <c r="D70" s="70"/>
       <c r="E70" s="37"/>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
@@ -6127,10 +6114,10 @@
       <c r="B71" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="C71" s="116">
+      <c r="C71" s="73">
         <v>4</v>
       </c>
-      <c r="D71" s="113"/>
+      <c r="D71" s="70"/>
       <c r="E71" s="37"/>
       <c r="F71" s="37"/>
       <c r="G71" s="37"/>
@@ -6160,10 +6147,10 @@
       <c r="B72" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="C72" s="116">
+      <c r="C72" s="73">
         <v>4</v>
       </c>
-      <c r="D72" s="113"/>
+      <c r="D72" s="70"/>
       <c r="E72" s="37"/>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
@@ -6193,10 +6180,10 @@
       <c r="B73" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="C73" s="116">
+      <c r="C73" s="73">
         <v>12</v>
       </c>
-      <c r="D73" s="113"/>
+      <c r="D73" s="70"/>
       <c r="E73" s="37"/>
       <c r="F73" s="37"/>
       <c r="G73" s="37"/>
@@ -6223,9 +6210,13 @@
       <c r="A74" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B74" s="47"/>
-      <c r="C74" s="116"/>
-      <c r="D74" s="113"/>
+      <c r="B74" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="C74" s="73" t="s">
+        <v>341</v>
+      </c>
+      <c r="D74" s="70"/>
       <c r="E74" s="37"/>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
@@ -6236,13 +6227,13 @@
         <f t="shared" si="9"/>
         <v>OPARTGT071</v>
       </c>
-      <c r="L74" s="46">
+      <c r="L74" s="46" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="39">
+        <v>Syrian Air Force Headquarter</v>
+      </c>
+      <c r="M74" s="39" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N74" s="24"/>
     </row>
@@ -6250,26 +6241,32 @@
       <c r="A75" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="B75" s="47"/>
-      <c r="C75" s="116"/>
-      <c r="D75" s="113"/>
+      <c r="B75" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="C75" s="73" t="s">
+        <v>341</v>
+      </c>
+      <c r="D75" s="70"/>
       <c r="E75" s="37"/>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
-      <c r="H75" s="6"/>
+      <c r="H75" s="6" t="s">
+        <v>335</v>
+      </c>
       <c r="I75" s="33"/>
       <c r="J75" s="8"/>
       <c r="K75" s="58" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT072</v>
       </c>
-      <c r="L75" s="46">
+      <c r="L75" s="46" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M75" s="39">
+        <v>60th Air Division Headquarter</v>
+      </c>
+      <c r="M75" s="39" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N75" s="24"/>
     </row>
@@ -6277,26 +6274,32 @@
       <c r="A76" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="B76" s="47"/>
-      <c r="C76" s="116"/>
-      <c r="D76" s="113"/>
+      <c r="B76" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="C76" s="73" t="s">
+        <v>341</v>
+      </c>
+      <c r="D76" s="70"/>
       <c r="E76" s="37"/>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
-      <c r="H76" s="6"/>
+      <c r="H76" s="6" t="s">
+        <v>337</v>
+      </c>
       <c r="I76" s="33"/>
       <c r="J76" s="8"/>
       <c r="K76" s="58" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT073</v>
       </c>
-      <c r="L76" s="46">
+      <c r="L76" s="46" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M76" s="39">
+        <v>70th Air Division Headquarter</v>
+      </c>
+      <c r="M76" s="39" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N76" s="24"/>
     </row>
@@ -6304,26 +6307,32 @@
       <c r="A77" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="B77" s="47"/>
-      <c r="C77" s="116"/>
-      <c r="D77" s="113"/>
+      <c r="B77" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="C77" s="73" t="s">
+        <v>341</v>
+      </c>
+      <c r="D77" s="70"/>
       <c r="E77" s="37"/>
       <c r="F77" s="37"/>
       <c r="G77" s="37"/>
-      <c r="H77" s="6"/>
+      <c r="H77" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="I77" s="33"/>
       <c r="J77" s="8"/>
       <c r="K77" s="58" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT074</v>
       </c>
-      <c r="L77" s="46">
+      <c r="L77" s="46" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="39">
+        <v>80th Air Division Headquarter</v>
+      </c>
+      <c r="M77" s="39" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N77" s="24"/>
     </row>
@@ -6332,8 +6341,8 @@
         <v>175</v>
       </c>
       <c r="B78" s="47"/>
-      <c r="C78" s="116"/>
-      <c r="D78" s="113"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="70"/>
       <c r="E78" s="37"/>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
@@ -6359,8 +6368,8 @@
         <v>176</v>
       </c>
       <c r="B79" s="47"/>
-      <c r="C79" s="116"/>
-      <c r="D79" s="113"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="70"/>
       <c r="E79" s="37"/>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
@@ -6386,8 +6395,8 @@
         <v>177</v>
       </c>
       <c r="B80" s="47"/>
-      <c r="C80" s="116"/>
-      <c r="D80" s="113"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="70"/>
       <c r="E80" s="37"/>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -6413,8 +6422,8 @@
         <v>178</v>
       </c>
       <c r="B81" s="47"/>
-      <c r="C81" s="116"/>
-      <c r="D81" s="113"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="70"/>
       <c r="E81" s="37"/>
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
@@ -6440,8 +6449,8 @@
         <v>179</v>
       </c>
       <c r="B82" s="47"/>
-      <c r="C82" s="116"/>
-      <c r="D82" s="113"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="70"/>
       <c r="E82" s="37"/>
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
@@ -6467,8 +6476,8 @@
         <v>180</v>
       </c>
       <c r="B83" s="47"/>
-      <c r="C83" s="116"/>
-      <c r="D83" s="113"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="70"/>
       <c r="E83" s="37"/>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
@@ -6490,12 +6499,12 @@
       <c r="N83" s="24"/>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="125" t="s">
+      <c r="A84" s="82" t="s">
         <v>181</v>
       </c>
       <c r="B84" s="47"/>
-      <c r="C84" s="116"/>
-      <c r="D84" s="113"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="70"/>
       <c r="E84" s="37"/>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -6517,12 +6526,12 @@
       <c r="N84" s="24"/>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="125" t="s">
+      <c r="A85" s="82" t="s">
         <v>182</v>
       </c>
       <c r="B85" s="47"/>
-      <c r="C85" s="116"/>
-      <c r="D85" s="113"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="70"/>
       <c r="E85" s="37"/>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -6544,12 +6553,12 @@
       <c r="N85" s="24"/>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="125" t="s">
+      <c r="A86" s="82" t="s">
         <v>183</v>
       </c>
       <c r="B86" s="47"/>
-      <c r="C86" s="116"/>
-      <c r="D86" s="113"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="70"/>
       <c r="E86" s="37"/>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -6571,12 +6580,12 @@
       <c r="N86" s="24"/>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="125" t="s">
+      <c r="A87" s="82" t="s">
         <v>184</v>
       </c>
       <c r="B87" s="47"/>
-      <c r="C87" s="116"/>
-      <c r="D87" s="113"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="70"/>
       <c r="E87" s="37"/>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -6602,8 +6611,8 @@
         <v>185</v>
       </c>
       <c r="B88" s="47"/>
-      <c r="C88" s="116"/>
-      <c r="D88" s="113"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="70"/>
       <c r="E88" s="37"/>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
@@ -6629,8 +6638,8 @@
         <v>186</v>
       </c>
       <c r="B89" s="47"/>
-      <c r="C89" s="116"/>
-      <c r="D89" s="113"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="70"/>
       <c r="E89" s="37"/>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
@@ -6656,8 +6665,8 @@
         <v>187</v>
       </c>
       <c r="B90" s="47"/>
-      <c r="C90" s="116"/>
-      <c r="D90" s="113"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="70"/>
       <c r="E90" s="37"/>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -6683,8 +6692,8 @@
         <v>188</v>
       </c>
       <c r="B91" s="47"/>
-      <c r="C91" s="116"/>
-      <c r="D91" s="113"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="70"/>
       <c r="E91" s="37"/>
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
@@ -6710,8 +6719,8 @@
         <v>189</v>
       </c>
       <c r="B92" s="47"/>
-      <c r="C92" s="116"/>
-      <c r="D92" s="113"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="70"/>
       <c r="E92" s="37"/>
       <c r="F92" s="37"/>
       <c r="G92" s="37"/>
@@ -6737,8 +6746,8 @@
         <v>190</v>
       </c>
       <c r="B93" s="47"/>
-      <c r="C93" s="116"/>
-      <c r="D93" s="113"/>
+      <c r="C93" s="73"/>
+      <c r="D93" s="70"/>
       <c r="E93" s="37"/>
       <c r="F93" s="37"/>
       <c r="G93" s="37"/>
@@ -6764,8 +6773,8 @@
         <v>191</v>
       </c>
       <c r="B94" s="47"/>
-      <c r="C94" s="116"/>
-      <c r="D94" s="113"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="70"/>
       <c r="E94" s="37"/>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
@@ -6791,8 +6800,8 @@
         <v>192</v>
       </c>
       <c r="B95" s="47"/>
-      <c r="C95" s="116"/>
-      <c r="D95" s="113"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="70"/>
       <c r="E95" s="37"/>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -6818,8 +6827,8 @@
         <v>193</v>
       </c>
       <c r="B96" s="47"/>
-      <c r="C96" s="116"/>
-      <c r="D96" s="113"/>
+      <c r="C96" s="73"/>
+      <c r="D96" s="70"/>
       <c r="E96" s="37"/>
       <c r="F96" s="37"/>
       <c r="G96" s="37"/>
@@ -6845,8 +6854,8 @@
         <v>194</v>
       </c>
       <c r="B97" s="47"/>
-      <c r="C97" s="116"/>
-      <c r="D97" s="113"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="70"/>
       <c r="E97" s="37"/>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -6872,8 +6881,8 @@
         <v>195</v>
       </c>
       <c r="B98" s="47"/>
-      <c r="C98" s="116"/>
-      <c r="D98" s="113"/>
+      <c r="C98" s="73"/>
+      <c r="D98" s="70"/>
       <c r="E98" s="37"/>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -6899,8 +6908,8 @@
         <v>196</v>
       </c>
       <c r="B99" s="47"/>
-      <c r="C99" s="116"/>
-      <c r="D99" s="113"/>
+      <c r="C99" s="73"/>
+      <c r="D99" s="70"/>
       <c r="E99" s="37"/>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -6926,8 +6935,8 @@
         <v>197</v>
       </c>
       <c r="B100" s="47"/>
-      <c r="C100" s="116"/>
-      <c r="D100" s="113"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="70"/>
       <c r="E100" s="37"/>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
@@ -6953,8 +6962,8 @@
         <v>198</v>
       </c>
       <c r="B101" s="47"/>
-      <c r="C101" s="116"/>
-      <c r="D101" s="113"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="70"/>
       <c r="E101" s="37"/>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -6980,8 +6989,8 @@
         <v>199</v>
       </c>
       <c r="B102" s="47"/>
-      <c r="C102" s="116"/>
-      <c r="D102" s="113"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="70"/>
       <c r="E102" s="37"/>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -7007,8 +7016,8 @@
         <v>200</v>
       </c>
       <c r="B103" s="47"/>
-      <c r="C103" s="116"/>
-      <c r="D103" s="113"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="70"/>
       <c r="E103" s="37"/>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -7030,2140 +7039,2140 @@
       <c r="N103" s="24"/>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="126"/>
-      <c r="B104" s="126"/>
-      <c r="C104" s="121"/>
-      <c r="D104" s="115"/>
+      <c r="A104" s="83"/>
+      <c r="B104" s="83"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="72"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="126"/>
-      <c r="B105" s="126"/>
-      <c r="C105" s="121"/>
-      <c r="D105" s="115"/>
+      <c r="A105" s="83"/>
+      <c r="B105" s="83"/>
+      <c r="C105" s="78"/>
+      <c r="D105" s="72"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="126"/>
-      <c r="B106" s="126"/>
-      <c r="C106" s="121"/>
-      <c r="D106" s="115"/>
+      <c r="A106" s="83"/>
+      <c r="B106" s="83"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="72"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:14">
-      <c r="A107" s="126"/>
-      <c r="B107" s="126"/>
-      <c r="C107" s="121"/>
-      <c r="D107" s="115"/>
+      <c r="A107" s="83"/>
+      <c r="B107" s="83"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="72"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="126"/>
-      <c r="B108" s="126"/>
-      <c r="C108" s="121"/>
-      <c r="D108" s="115"/>
+      <c r="A108" s="83"/>
+      <c r="B108" s="83"/>
+      <c r="C108" s="78"/>
+      <c r="D108" s="72"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:14">
-      <c r="A109" s="126"/>
-      <c r="B109" s="126"/>
-      <c r="C109" s="121"/>
-      <c r="D109" s="115"/>
+      <c r="A109" s="83"/>
+      <c r="B109" s="83"/>
+      <c r="C109" s="78"/>
+      <c r="D109" s="72"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:14">
-      <c r="A110" s="126"/>
-      <c r="B110" s="126"/>
-      <c r="C110" s="121"/>
-      <c r="D110" s="115"/>
+      <c r="A110" s="83"/>
+      <c r="B110" s="83"/>
+      <c r="C110" s="78"/>
+      <c r="D110" s="72"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:14">
-      <c r="A111" s="126"/>
-      <c r="B111" s="126"/>
-      <c r="C111" s="121"/>
-      <c r="D111" s="115"/>
+      <c r="A111" s="83"/>
+      <c r="B111" s="83"/>
+      <c r="C111" s="78"/>
+      <c r="D111" s="72"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:14">
-      <c r="A112" s="126"/>
-      <c r="B112" s="126"/>
-      <c r="C112" s="121"/>
-      <c r="D112" s="115"/>
+      <c r="A112" s="83"/>
+      <c r="B112" s="83"/>
+      <c r="C112" s="78"/>
+      <c r="D112" s="72"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="126"/>
-      <c r="B113" s="126"/>
-      <c r="C113" s="121"/>
-      <c r="D113" s="115"/>
+      <c r="A113" s="83"/>
+      <c r="B113" s="83"/>
+      <c r="C113" s="78"/>
+      <c r="D113" s="72"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="126"/>
-      <c r="B114" s="126"/>
-      <c r="C114" s="121"/>
-      <c r="D114" s="115"/>
+      <c r="A114" s="83"/>
+      <c r="B114" s="83"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="72"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="126"/>
-      <c r="B115" s="126"/>
-      <c r="C115" s="121"/>
-      <c r="D115" s="115"/>
+      <c r="A115" s="83"/>
+      <c r="B115" s="83"/>
+      <c r="C115" s="78"/>
+      <c r="D115" s="72"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="126"/>
-      <c r="B116" s="126"/>
-      <c r="C116" s="121"/>
-      <c r="D116" s="115"/>
+      <c r="A116" s="83"/>
+      <c r="B116" s="83"/>
+      <c r="C116" s="78"/>
+      <c r="D116" s="72"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="126"/>
-      <c r="B117" s="126"/>
-      <c r="C117" s="121"/>
-      <c r="D117" s="115"/>
+      <c r="A117" s="83"/>
+      <c r="B117" s="83"/>
+      <c r="C117" s="78"/>
+      <c r="D117" s="72"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="126"/>
-      <c r="B118" s="126"/>
-      <c r="C118" s="121"/>
-      <c r="D118" s="115"/>
+      <c r="A118" s="83"/>
+      <c r="B118" s="83"/>
+      <c r="C118" s="78"/>
+      <c r="D118" s="72"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="126"/>
-      <c r="B119" s="126"/>
-      <c r="C119" s="121"/>
-      <c r="D119" s="115"/>
+      <c r="A119" s="83"/>
+      <c r="B119" s="83"/>
+      <c r="C119" s="78"/>
+      <c r="D119" s="72"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="126"/>
-      <c r="B120" s="126"/>
-      <c r="C120" s="121"/>
-      <c r="D120" s="115"/>
+      <c r="A120" s="83"/>
+      <c r="B120" s="83"/>
+      <c r="C120" s="78"/>
+      <c r="D120" s="72"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="126"/>
-      <c r="B121" s="126"/>
-      <c r="C121" s="121"/>
-      <c r="D121" s="115"/>
+      <c r="A121" s="83"/>
+      <c r="B121" s="83"/>
+      <c r="C121" s="78"/>
+      <c r="D121" s="72"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="126"/>
-      <c r="B122" s="126"/>
-      <c r="C122" s="121"/>
-      <c r="D122" s="115"/>
+      <c r="A122" s="83"/>
+      <c r="B122" s="83"/>
+      <c r="C122" s="78"/>
+      <c r="D122" s="72"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="126"/>
-      <c r="B123" s="126"/>
-      <c r="C123" s="121"/>
-      <c r="D123" s="115"/>
+      <c r="A123" s="83"/>
+      <c r="B123" s="83"/>
+      <c r="C123" s="78"/>
+      <c r="D123" s="72"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="126"/>
-      <c r="B124" s="126"/>
-      <c r="C124" s="121"/>
-      <c r="D124" s="115"/>
+      <c r="A124" s="83"/>
+      <c r="B124" s="83"/>
+      <c r="C124" s="78"/>
+      <c r="D124" s="72"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="126"/>
-      <c r="B125" s="126"/>
-      <c r="C125" s="121"/>
-      <c r="D125" s="115"/>
+      <c r="A125" s="83"/>
+      <c r="B125" s="83"/>
+      <c r="C125" s="78"/>
+      <c r="D125" s="72"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="126"/>
-      <c r="B126" s="126"/>
-      <c r="C126" s="121"/>
-      <c r="D126" s="115"/>
+      <c r="A126" s="83"/>
+      <c r="B126" s="83"/>
+      <c r="C126" s="78"/>
+      <c r="D126" s="72"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="126"/>
-      <c r="B127" s="126"/>
-      <c r="C127" s="121"/>
-      <c r="D127" s="115"/>
+      <c r="A127" s="83"/>
+      <c r="B127" s="83"/>
+      <c r="C127" s="78"/>
+      <c r="D127" s="72"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="126"/>
-      <c r="B128" s="126"/>
-      <c r="C128" s="121"/>
-      <c r="D128" s="115"/>
+      <c r="A128" s="83"/>
+      <c r="B128" s="83"/>
+      <c r="C128" s="78"/>
+      <c r="D128" s="72"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="126"/>
-      <c r="B129" s="126"/>
-      <c r="C129" s="121"/>
-      <c r="D129" s="115"/>
+      <c r="A129" s="83"/>
+      <c r="B129" s="83"/>
+      <c r="C129" s="78"/>
+      <c r="D129" s="72"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="126"/>
-      <c r="B130" s="126"/>
-      <c r="C130" s="121"/>
-      <c r="D130" s="115"/>
+      <c r="A130" s="83"/>
+      <c r="B130" s="83"/>
+      <c r="C130" s="78"/>
+      <c r="D130" s="72"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="126"/>
-      <c r="B131" s="126"/>
-      <c r="C131" s="121"/>
-      <c r="D131" s="115"/>
+      <c r="A131" s="83"/>
+      <c r="B131" s="83"/>
+      <c r="C131" s="78"/>
+      <c r="D131" s="72"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="126"/>
-      <c r="B132" s="126"/>
-      <c r="C132" s="121"/>
-      <c r="D132" s="115"/>
+      <c r="A132" s="83"/>
+      <c r="B132" s="83"/>
+      <c r="C132" s="78"/>
+      <c r="D132" s="72"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="126"/>
-      <c r="B133" s="126"/>
-      <c r="C133" s="121"/>
-      <c r="D133" s="115"/>
+      <c r="A133" s="83"/>
+      <c r="B133" s="83"/>
+      <c r="C133" s="78"/>
+      <c r="D133" s="72"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="126"/>
-      <c r="B134" s="126"/>
-      <c r="C134" s="121"/>
-      <c r="D134" s="115"/>
+      <c r="A134" s="83"/>
+      <c r="B134" s="83"/>
+      <c r="C134" s="78"/>
+      <c r="D134" s="72"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="126"/>
-      <c r="B135" s="126"/>
-      <c r="C135" s="121"/>
-      <c r="D135" s="115"/>
+      <c r="A135" s="83"/>
+      <c r="B135" s="83"/>
+      <c r="C135" s="78"/>
+      <c r="D135" s="72"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="126"/>
-      <c r="B136" s="126"/>
-      <c r="C136" s="121"/>
-      <c r="D136" s="115"/>
+      <c r="A136" s="83"/>
+      <c r="B136" s="83"/>
+      <c r="C136" s="78"/>
+      <c r="D136" s="72"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="126"/>
-      <c r="B137" s="126"/>
-      <c r="C137" s="121"/>
-      <c r="D137" s="115"/>
+      <c r="A137" s="83"/>
+      <c r="B137" s="83"/>
+      <c r="C137" s="78"/>
+      <c r="D137" s="72"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="126"/>
-      <c r="B138" s="126"/>
-      <c r="C138" s="121"/>
-      <c r="D138" s="115"/>
+      <c r="A138" s="83"/>
+      <c r="B138" s="83"/>
+      <c r="C138" s="78"/>
+      <c r="D138" s="72"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="126"/>
-      <c r="B139" s="126"/>
-      <c r="C139" s="121"/>
-      <c r="D139" s="115"/>
+      <c r="A139" s="83"/>
+      <c r="B139" s="83"/>
+      <c r="C139" s="78"/>
+      <c r="D139" s="72"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="126"/>
-      <c r="B140" s="126"/>
-      <c r="C140" s="121"/>
-      <c r="D140" s="115"/>
+      <c r="A140" s="83"/>
+      <c r="B140" s="83"/>
+      <c r="C140" s="78"/>
+      <c r="D140" s="72"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="126"/>
-      <c r="B141" s="126"/>
-      <c r="C141" s="121"/>
-      <c r="D141" s="115"/>
+      <c r="A141" s="83"/>
+      <c r="B141" s="83"/>
+      <c r="C141" s="78"/>
+      <c r="D141" s="72"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="126"/>
-      <c r="B142" s="126"/>
-      <c r="C142" s="121"/>
-      <c r="D142" s="115"/>
+      <c r="A142" s="83"/>
+      <c r="B142" s="83"/>
+      <c r="C142" s="78"/>
+      <c r="D142" s="72"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="126"/>
-      <c r="B143" s="126"/>
-      <c r="C143" s="121"/>
-      <c r="D143" s="115"/>
+      <c r="A143" s="83"/>
+      <c r="B143" s="83"/>
+      <c r="C143" s="78"/>
+      <c r="D143" s="72"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="126"/>
-      <c r="B144" s="126"/>
-      <c r="C144" s="121"/>
-      <c r="D144" s="115"/>
+      <c r="A144" s="83"/>
+      <c r="B144" s="83"/>
+      <c r="C144" s="78"/>
+      <c r="D144" s="72"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="126"/>
-      <c r="B145" s="126"/>
-      <c r="C145" s="121"/>
-      <c r="D145" s="115"/>
+      <c r="A145" s="83"/>
+      <c r="B145" s="83"/>
+      <c r="C145" s="78"/>
+      <c r="D145" s="72"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="126"/>
-      <c r="B146" s="126"/>
-      <c r="C146" s="121"/>
-      <c r="D146" s="115"/>
+      <c r="A146" s="83"/>
+      <c r="B146" s="83"/>
+      <c r="C146" s="78"/>
+      <c r="D146" s="72"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="126"/>
-      <c r="B147" s="126"/>
-      <c r="C147" s="121"/>
-      <c r="D147" s="115"/>
+      <c r="A147" s="83"/>
+      <c r="B147" s="83"/>
+      <c r="C147" s="78"/>
+      <c r="D147" s="72"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="126"/>
-      <c r="B148" s="126"/>
-      <c r="C148" s="121"/>
-      <c r="D148" s="115"/>
+      <c r="A148" s="83"/>
+      <c r="B148" s="83"/>
+      <c r="C148" s="78"/>
+      <c r="D148" s="72"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="126"/>
-      <c r="B149" s="126"/>
-      <c r="C149" s="121"/>
-      <c r="D149" s="115"/>
+      <c r="A149" s="83"/>
+      <c r="B149" s="83"/>
+      <c r="C149" s="78"/>
+      <c r="D149" s="72"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="126"/>
-      <c r="B150" s="126"/>
-      <c r="C150" s="121"/>
-      <c r="D150" s="115"/>
+      <c r="A150" s="83"/>
+      <c r="B150" s="83"/>
+      <c r="C150" s="78"/>
+      <c r="D150" s="72"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="126"/>
-      <c r="B151" s="126"/>
-      <c r="C151" s="121"/>
-      <c r="D151" s="115"/>
+      <c r="A151" s="83"/>
+      <c r="B151" s="83"/>
+      <c r="C151" s="78"/>
+      <c r="D151" s="72"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="126"/>
-      <c r="B152" s="126"/>
-      <c r="C152" s="121"/>
-      <c r="D152" s="115"/>
+      <c r="A152" s="83"/>
+      <c r="B152" s="83"/>
+      <c r="C152" s="78"/>
+      <c r="D152" s="72"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="126"/>
-      <c r="B153" s="126"/>
-      <c r="C153" s="121"/>
-      <c r="D153" s="115"/>
+      <c r="A153" s="83"/>
+      <c r="B153" s="83"/>
+      <c r="C153" s="78"/>
+      <c r="D153" s="72"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="126"/>
-      <c r="B154" s="126"/>
-      <c r="C154" s="121"/>
-      <c r="D154" s="115"/>
+      <c r="A154" s="83"/>
+      <c r="B154" s="83"/>
+      <c r="C154" s="78"/>
+      <c r="D154" s="72"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="126"/>
-      <c r="B155" s="126"/>
-      <c r="C155" s="121"/>
-      <c r="D155" s="115"/>
+      <c r="A155" s="83"/>
+      <c r="B155" s="83"/>
+      <c r="C155" s="78"/>
+      <c r="D155" s="72"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="126"/>
-      <c r="B156" s="126"/>
-      <c r="C156" s="121"/>
-      <c r="D156" s="115"/>
+      <c r="A156" s="83"/>
+      <c r="B156" s="83"/>
+      <c r="C156" s="78"/>
+      <c r="D156" s="72"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="126"/>
-      <c r="B157" s="126"/>
-      <c r="C157" s="121"/>
-      <c r="D157" s="115"/>
+      <c r="A157" s="83"/>
+      <c r="B157" s="83"/>
+      <c r="C157" s="78"/>
+      <c r="D157" s="72"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="126"/>
-      <c r="B158" s="126"/>
-      <c r="C158" s="121"/>
-      <c r="D158" s="115"/>
+      <c r="A158" s="83"/>
+      <c r="B158" s="83"/>
+      <c r="C158" s="78"/>
+      <c r="D158" s="72"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="126"/>
-      <c r="B159" s="126"/>
-      <c r="C159" s="121"/>
-      <c r="D159" s="115"/>
+      <c r="A159" s="83"/>
+      <c r="B159" s="83"/>
+      <c r="C159" s="78"/>
+      <c r="D159" s="72"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="126"/>
-      <c r="B160" s="126"/>
-      <c r="C160" s="121"/>
-      <c r="D160" s="115"/>
+      <c r="A160" s="83"/>
+      <c r="B160" s="83"/>
+      <c r="C160" s="78"/>
+      <c r="D160" s="72"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="126"/>
-      <c r="B161" s="126"/>
-      <c r="C161" s="121"/>
-      <c r="D161" s="115"/>
+      <c r="A161" s="83"/>
+      <c r="B161" s="83"/>
+      <c r="C161" s="78"/>
+      <c r="D161" s="72"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="126"/>
-      <c r="B162" s="126"/>
-      <c r="C162" s="121"/>
-      <c r="D162" s="115"/>
+      <c r="A162" s="83"/>
+      <c r="B162" s="83"/>
+      <c r="C162" s="78"/>
+      <c r="D162" s="72"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="126"/>
-      <c r="B163" s="126"/>
-      <c r="C163" s="121"/>
-      <c r="D163" s="115"/>
+      <c r="A163" s="83"/>
+      <c r="B163" s="83"/>
+      <c r="C163" s="78"/>
+      <c r="D163" s="72"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="126"/>
-      <c r="B164" s="126"/>
-      <c r="C164" s="121"/>
-      <c r="D164" s="115"/>
+      <c r="A164" s="83"/>
+      <c r="B164" s="83"/>
+      <c r="C164" s="78"/>
+      <c r="D164" s="72"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="126"/>
-      <c r="B165" s="126"/>
-      <c r="C165" s="121"/>
-      <c r="D165" s="115"/>
+      <c r="A165" s="83"/>
+      <c r="B165" s="83"/>
+      <c r="C165" s="78"/>
+      <c r="D165" s="72"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="126"/>
-      <c r="B166" s="126"/>
-      <c r="C166" s="121"/>
-      <c r="D166" s="115"/>
+      <c r="A166" s="83"/>
+      <c r="B166" s="83"/>
+      <c r="C166" s="78"/>
+      <c r="D166" s="72"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="126"/>
-      <c r="B167" s="126"/>
-      <c r="C167" s="121"/>
-      <c r="D167" s="115"/>
+      <c r="A167" s="83"/>
+      <c r="B167" s="83"/>
+      <c r="C167" s="78"/>
+      <c r="D167" s="72"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="126"/>
-      <c r="B168" s="126"/>
-      <c r="C168" s="121"/>
-      <c r="D168" s="115"/>
+      <c r="A168" s="83"/>
+      <c r="B168" s="83"/>
+      <c r="C168" s="78"/>
+      <c r="D168" s="72"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="126"/>
-      <c r="B169" s="126"/>
-      <c r="C169" s="121"/>
-      <c r="D169" s="115"/>
+      <c r="A169" s="83"/>
+      <c r="B169" s="83"/>
+      <c r="C169" s="78"/>
+      <c r="D169" s="72"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="126"/>
-      <c r="B170" s="126"/>
-      <c r="C170" s="121"/>
-      <c r="D170" s="115"/>
+      <c r="A170" s="83"/>
+      <c r="B170" s="83"/>
+      <c r="C170" s="78"/>
+      <c r="D170" s="72"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="126"/>
-      <c r="B171" s="126"/>
-      <c r="C171" s="121"/>
-      <c r="D171" s="115"/>
+      <c r="A171" s="83"/>
+      <c r="B171" s="83"/>
+      <c r="C171" s="78"/>
+      <c r="D171" s="72"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="126"/>
-      <c r="B172" s="126"/>
-      <c r="C172" s="121"/>
-      <c r="D172" s="115"/>
+      <c r="A172" s="83"/>
+      <c r="B172" s="83"/>
+      <c r="C172" s="78"/>
+      <c r="D172" s="72"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="126"/>
-      <c r="B173" s="126"/>
-      <c r="C173" s="121"/>
-      <c r="D173" s="115"/>
+      <c r="A173" s="83"/>
+      <c r="B173" s="83"/>
+      <c r="C173" s="78"/>
+      <c r="D173" s="72"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="126"/>
-      <c r="B174" s="126"/>
-      <c r="C174" s="121"/>
-      <c r="D174" s="115"/>
+      <c r="A174" s="83"/>
+      <c r="B174" s="83"/>
+      <c r="C174" s="78"/>
+      <c r="D174" s="72"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="126"/>
-      <c r="B175" s="126"/>
-      <c r="C175" s="121"/>
-      <c r="D175" s="115"/>
+      <c r="A175" s="83"/>
+      <c r="B175" s="83"/>
+      <c r="C175" s="78"/>
+      <c r="D175" s="72"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="126"/>
-      <c r="B176" s="126"/>
-      <c r="C176" s="121"/>
-      <c r="D176" s="115"/>
+      <c r="A176" s="83"/>
+      <c r="B176" s="83"/>
+      <c r="C176" s="78"/>
+      <c r="D176" s="72"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="126"/>
-      <c r="B177" s="126"/>
-      <c r="C177" s="121"/>
-      <c r="D177" s="115"/>
+      <c r="A177" s="83"/>
+      <c r="B177" s="83"/>
+      <c r="C177" s="78"/>
+      <c r="D177" s="72"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="126"/>
-      <c r="B178" s="126"/>
-      <c r="C178" s="121"/>
-      <c r="D178" s="115"/>
+      <c r="A178" s="83"/>
+      <c r="B178" s="83"/>
+      <c r="C178" s="78"/>
+      <c r="D178" s="72"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="126"/>
-      <c r="B179" s="126"/>
-      <c r="C179" s="121"/>
-      <c r="D179" s="115"/>
+      <c r="A179" s="83"/>
+      <c r="B179" s="83"/>
+      <c r="C179" s="78"/>
+      <c r="D179" s="72"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="126"/>
-      <c r="B180" s="126"/>
-      <c r="C180" s="121"/>
-      <c r="D180" s="115"/>
+      <c r="A180" s="83"/>
+      <c r="B180" s="83"/>
+      <c r="C180" s="78"/>
+      <c r="D180" s="72"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="126"/>
-      <c r="B181" s="126"/>
-      <c r="C181" s="121"/>
-      <c r="D181" s="115"/>
+      <c r="A181" s="83"/>
+      <c r="B181" s="83"/>
+      <c r="C181" s="78"/>
+      <c r="D181" s="72"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="126"/>
-      <c r="B182" s="126"/>
-      <c r="C182" s="121"/>
-      <c r="D182" s="115"/>
+      <c r="A182" s="83"/>
+      <c r="B182" s="83"/>
+      <c r="C182" s="78"/>
+      <c r="D182" s="72"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="126"/>
-      <c r="B183" s="126"/>
-      <c r="C183" s="121"/>
-      <c r="D183" s="115"/>
+      <c r="A183" s="83"/>
+      <c r="B183" s="83"/>
+      <c r="C183" s="78"/>
+      <c r="D183" s="72"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="126"/>
-      <c r="B184" s="126"/>
-      <c r="C184" s="121"/>
-      <c r="D184" s="115"/>
+      <c r="A184" s="83"/>
+      <c r="B184" s="83"/>
+      <c r="C184" s="78"/>
+      <c r="D184" s="72"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="126"/>
-      <c r="B185" s="126"/>
-      <c r="C185" s="121"/>
-      <c r="D185" s="115"/>
+      <c r="A185" s="83"/>
+      <c r="B185" s="83"/>
+      <c r="C185" s="78"/>
+      <c r="D185" s="72"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="126"/>
-      <c r="B186" s="126"/>
-      <c r="C186" s="121"/>
-      <c r="D186" s="115"/>
+      <c r="A186" s="83"/>
+      <c r="B186" s="83"/>
+      <c r="C186" s="78"/>
+      <c r="D186" s="72"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="126"/>
-      <c r="B187" s="126"/>
-      <c r="C187" s="121"/>
-      <c r="D187" s="115"/>
+      <c r="A187" s="83"/>
+      <c r="B187" s="83"/>
+      <c r="C187" s="78"/>
+      <c r="D187" s="72"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="126"/>
-      <c r="B188" s="126"/>
-      <c r="C188" s="121"/>
-      <c r="D188" s="115"/>
+      <c r="A188" s="83"/>
+      <c r="B188" s="83"/>
+      <c r="C188" s="78"/>
+      <c r="D188" s="72"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="126"/>
-      <c r="B189" s="126"/>
-      <c r="C189" s="121"/>
-      <c r="D189" s="115"/>
+      <c r="A189" s="83"/>
+      <c r="B189" s="83"/>
+      <c r="C189" s="78"/>
+      <c r="D189" s="72"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="126"/>
-      <c r="B190" s="126"/>
-      <c r="C190" s="121"/>
-      <c r="D190" s="115"/>
+      <c r="A190" s="83"/>
+      <c r="B190" s="83"/>
+      <c r="C190" s="78"/>
+      <c r="D190" s="72"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="126"/>
-      <c r="B191" s="126"/>
-      <c r="C191" s="121"/>
-      <c r="D191" s="115"/>
+      <c r="A191" s="83"/>
+      <c r="B191" s="83"/>
+      <c r="C191" s="78"/>
+      <c r="D191" s="72"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="126"/>
-      <c r="B192" s="126"/>
-      <c r="C192" s="121"/>
-      <c r="D192" s="115"/>
+      <c r="A192" s="83"/>
+      <c r="B192" s="83"/>
+      <c r="C192" s="78"/>
+      <c r="D192" s="72"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="126"/>
-      <c r="B193" s="126"/>
-      <c r="C193" s="121"/>
-      <c r="D193" s="115"/>
+      <c r="A193" s="83"/>
+      <c r="B193" s="83"/>
+      <c r="C193" s="78"/>
+      <c r="D193" s="72"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="126"/>
-      <c r="B194" s="126"/>
-      <c r="C194" s="121"/>
-      <c r="D194" s="115"/>
+      <c r="A194" s="83"/>
+      <c r="B194" s="83"/>
+      <c r="C194" s="78"/>
+      <c r="D194" s="72"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="126"/>
-      <c r="B195" s="126"/>
-      <c r="C195" s="121"/>
-      <c r="D195" s="115"/>
+      <c r="A195" s="83"/>
+      <c r="B195" s="83"/>
+      <c r="C195" s="78"/>
+      <c r="D195" s="72"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="126"/>
-      <c r="B196" s="126"/>
-      <c r="C196" s="121"/>
-      <c r="D196" s="115"/>
+      <c r="A196" s="83"/>
+      <c r="B196" s="83"/>
+      <c r="C196" s="78"/>
+      <c r="D196" s="72"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="126"/>
-      <c r="B197" s="126"/>
-      <c r="C197" s="121"/>
-      <c r="D197" s="115"/>
+      <c r="A197" s="83"/>
+      <c r="B197" s="83"/>
+      <c r="C197" s="78"/>
+      <c r="D197" s="72"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" s="126"/>
-      <c r="B198" s="126"/>
-      <c r="C198" s="121"/>
-      <c r="D198" s="115"/>
+      <c r="A198" s="83"/>
+      <c r="B198" s="83"/>
+      <c r="C198" s="78"/>
+      <c r="D198" s="72"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="126"/>
-      <c r="B199" s="126"/>
-      <c r="C199" s="121"/>
-      <c r="D199" s="115"/>
+      <c r="A199" s="83"/>
+      <c r="B199" s="83"/>
+      <c r="C199" s="78"/>
+      <c r="D199" s="72"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="126"/>
-      <c r="B200" s="126"/>
-      <c r="C200" s="121"/>
-      <c r="D200" s="115"/>
+      <c r="A200" s="83"/>
+      <c r="B200" s="83"/>
+      <c r="C200" s="78"/>
+      <c r="D200" s="72"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="126"/>
-      <c r="B201" s="126"/>
-      <c r="C201" s="121"/>
-      <c r="D201" s="115"/>
+      <c r="A201" s="83"/>
+      <c r="B201" s="83"/>
+      <c r="C201" s="78"/>
+      <c r="D201" s="72"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="126"/>
-      <c r="B202" s="126"/>
-      <c r="C202" s="121"/>
-      <c r="D202" s="115"/>
+      <c r="A202" s="83"/>
+      <c r="B202" s="83"/>
+      <c r="C202" s="78"/>
+      <c r="D202" s="72"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="126"/>
-      <c r="B203" s="126"/>
-      <c r="C203" s="121"/>
-      <c r="D203" s="115"/>
+      <c r="A203" s="83"/>
+      <c r="B203" s="83"/>
+      <c r="C203" s="78"/>
+      <c r="D203" s="72"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="126"/>
-      <c r="B204" s="126"/>
-      <c r="C204" s="121"/>
-      <c r="D204" s="115"/>
+      <c r="A204" s="83"/>
+      <c r="B204" s="83"/>
+      <c r="C204" s="78"/>
+      <c r="D204" s="72"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="126"/>
-      <c r="B205" s="126"/>
-      <c r="C205" s="121"/>
-      <c r="D205" s="115"/>
+      <c r="A205" s="83"/>
+      <c r="B205" s="83"/>
+      <c r="C205" s="78"/>
+      <c r="D205" s="72"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="126"/>
-      <c r="B206" s="126"/>
-      <c r="C206" s="121"/>
-      <c r="D206" s="115"/>
+      <c r="A206" s="83"/>
+      <c r="B206" s="83"/>
+      <c r="C206" s="78"/>
+      <c r="D206" s="72"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="126"/>
-      <c r="B207" s="126"/>
-      <c r="C207" s="121"/>
-      <c r="D207" s="115"/>
+      <c r="A207" s="83"/>
+      <c r="B207" s="83"/>
+      <c r="C207" s="78"/>
+      <c r="D207" s="72"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="126"/>
-      <c r="B208" s="126"/>
-      <c r="C208" s="121"/>
-      <c r="D208" s="115"/>
+      <c r="A208" s="83"/>
+      <c r="B208" s="83"/>
+      <c r="C208" s="78"/>
+      <c r="D208" s="72"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="126"/>
-      <c r="B209" s="126"/>
-      <c r="C209" s="121"/>
-      <c r="D209" s="115"/>
+      <c r="A209" s="83"/>
+      <c r="B209" s="83"/>
+      <c r="C209" s="78"/>
+      <c r="D209" s="72"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="126"/>
-      <c r="B210" s="126"/>
-      <c r="C210" s="121"/>
-      <c r="D210" s="115"/>
+      <c r="A210" s="83"/>
+      <c r="B210" s="83"/>
+      <c r="C210" s="78"/>
+      <c r="D210" s="72"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="126"/>
-      <c r="B211" s="126"/>
-      <c r="C211" s="121"/>
-      <c r="D211" s="115"/>
+      <c r="A211" s="83"/>
+      <c r="B211" s="83"/>
+      <c r="C211" s="78"/>
+      <c r="D211" s="72"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="126"/>
-      <c r="B212" s="126"/>
-      <c r="C212" s="121"/>
-      <c r="D212" s="115"/>
+      <c r="A212" s="83"/>
+      <c r="B212" s="83"/>
+      <c r="C212" s="78"/>
+      <c r="D212" s="72"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="126"/>
-      <c r="B213" s="126"/>
-      <c r="C213" s="121"/>
-      <c r="D213" s="115"/>
+      <c r="A213" s="83"/>
+      <c r="B213" s="83"/>
+      <c r="C213" s="78"/>
+      <c r="D213" s="72"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="126"/>
-      <c r="B214" s="126"/>
-      <c r="C214" s="121"/>
-      <c r="D214" s="115"/>
+      <c r="A214" s="83"/>
+      <c r="B214" s="83"/>
+      <c r="C214" s="78"/>
+      <c r="D214" s="72"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="126"/>
-      <c r="B215" s="126"/>
-      <c r="C215" s="121"/>
-      <c r="D215" s="115"/>
+      <c r="A215" s="83"/>
+      <c r="B215" s="83"/>
+      <c r="C215" s="78"/>
+      <c r="D215" s="72"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="126"/>
-      <c r="B216" s="126"/>
-      <c r="C216" s="121"/>
-      <c r="D216" s="115"/>
+      <c r="A216" s="83"/>
+      <c r="B216" s="83"/>
+      <c r="C216" s="78"/>
+      <c r="D216" s="72"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="126"/>
-      <c r="B217" s="126"/>
-      <c r="C217" s="121"/>
-      <c r="D217" s="115"/>
+      <c r="A217" s="83"/>
+      <c r="B217" s="83"/>
+      <c r="C217" s="78"/>
+      <c r="D217" s="72"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="126"/>
-      <c r="B218" s="126"/>
-      <c r="C218" s="121"/>
-      <c r="D218" s="115"/>
+      <c r="A218" s="83"/>
+      <c r="B218" s="83"/>
+      <c r="C218" s="78"/>
+      <c r="D218" s="72"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="126"/>
-      <c r="B219" s="126"/>
-      <c r="C219" s="121"/>
-      <c r="D219" s="115"/>
+      <c r="A219" s="83"/>
+      <c r="B219" s="83"/>
+      <c r="C219" s="78"/>
+      <c r="D219" s="72"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
     <row r="220" spans="1:8">
-      <c r="A220" s="126"/>
-      <c r="B220" s="126"/>
-      <c r="C220" s="121"/>
-      <c r="D220" s="115"/>
+      <c r="A220" s="83"/>
+      <c r="B220" s="83"/>
+      <c r="C220" s="78"/>
+      <c r="D220" s="72"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="126"/>
-      <c r="B221" s="126"/>
-      <c r="C221" s="121"/>
-      <c r="D221" s="115"/>
+      <c r="A221" s="83"/>
+      <c r="B221" s="83"/>
+      <c r="C221" s="78"/>
+      <c r="D221" s="72"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="126"/>
-      <c r="B222" s="126"/>
-      <c r="C222" s="121"/>
-      <c r="D222" s="115"/>
+      <c r="A222" s="83"/>
+      <c r="B222" s="83"/>
+      <c r="C222" s="78"/>
+      <c r="D222" s="72"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="126"/>
-      <c r="B223" s="126"/>
-      <c r="C223" s="121"/>
-      <c r="D223" s="115"/>
+      <c r="A223" s="83"/>
+      <c r="B223" s="83"/>
+      <c r="C223" s="78"/>
+      <c r="D223" s="72"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="126"/>
-      <c r="B224" s="126"/>
-      <c r="C224" s="121"/>
-      <c r="D224" s="115"/>
+      <c r="A224" s="83"/>
+      <c r="B224" s="83"/>
+      <c r="C224" s="78"/>
+      <c r="D224" s="72"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="126"/>
-      <c r="B225" s="126"/>
-      <c r="C225" s="121"/>
-      <c r="D225" s="115"/>
+      <c r="A225" s="83"/>
+      <c r="B225" s="83"/>
+      <c r="C225" s="78"/>
+      <c r="D225" s="72"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="126"/>
-      <c r="B226" s="126"/>
-      <c r="C226" s="121"/>
-      <c r="D226" s="115"/>
+      <c r="A226" s="83"/>
+      <c r="B226" s="83"/>
+      <c r="C226" s="78"/>
+      <c r="D226" s="72"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="126"/>
-      <c r="B227" s="126"/>
-      <c r="C227" s="121"/>
-      <c r="D227" s="115"/>
+      <c r="A227" s="83"/>
+      <c r="B227" s="83"/>
+      <c r="C227" s="78"/>
+      <c r="D227" s="72"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="126"/>
-      <c r="B228" s="126"/>
-      <c r="C228" s="121"/>
-      <c r="D228" s="115"/>
+      <c r="A228" s="83"/>
+      <c r="B228" s="83"/>
+      <c r="C228" s="78"/>
+      <c r="D228" s="72"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="126"/>
-      <c r="B229" s="126"/>
-      <c r="C229" s="121"/>
-      <c r="D229" s="115"/>
+      <c r="A229" s="83"/>
+      <c r="B229" s="83"/>
+      <c r="C229" s="78"/>
+      <c r="D229" s="72"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
     <row r="230" spans="1:8">
-      <c r="A230" s="126"/>
-      <c r="B230" s="126"/>
-      <c r="C230" s="121"/>
-      <c r="D230" s="115"/>
+      <c r="A230" s="83"/>
+      <c r="B230" s="83"/>
+      <c r="C230" s="78"/>
+      <c r="D230" s="72"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="126"/>
-      <c r="B231" s="126"/>
-      <c r="C231" s="121"/>
-      <c r="D231" s="115"/>
+      <c r="A231" s="83"/>
+      <c r="B231" s="83"/>
+      <c r="C231" s="78"/>
+      <c r="D231" s="72"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="126"/>
-      <c r="B232" s="126"/>
-      <c r="C232" s="121"/>
-      <c r="D232" s="115"/>
+      <c r="A232" s="83"/>
+      <c r="B232" s="83"/>
+      <c r="C232" s="78"/>
+      <c r="D232" s="72"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="126"/>
-      <c r="B233" s="126"/>
-      <c r="C233" s="121"/>
-      <c r="D233" s="115"/>
+      <c r="A233" s="83"/>
+      <c r="B233" s="83"/>
+      <c r="C233" s="78"/>
+      <c r="D233" s="72"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" s="126"/>
-      <c r="B234" s="126"/>
-      <c r="C234" s="121"/>
-      <c r="D234" s="115"/>
+      <c r="A234" s="83"/>
+      <c r="B234" s="83"/>
+      <c r="C234" s="78"/>
+      <c r="D234" s="72"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="126"/>
-      <c r="B235" s="126"/>
-      <c r="C235" s="121"/>
-      <c r="D235" s="115"/>
+      <c r="A235" s="83"/>
+      <c r="B235" s="83"/>
+      <c r="C235" s="78"/>
+      <c r="D235" s="72"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="126"/>
-      <c r="B236" s="126"/>
-      <c r="C236" s="121"/>
-      <c r="D236" s="115"/>
+      <c r="A236" s="83"/>
+      <c r="B236" s="83"/>
+      <c r="C236" s="78"/>
+      <c r="D236" s="72"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="126"/>
-      <c r="B237" s="126"/>
-      <c r="C237" s="121"/>
-      <c r="D237" s="115"/>
+      <c r="A237" s="83"/>
+      <c r="B237" s="83"/>
+      <c r="C237" s="78"/>
+      <c r="D237" s="72"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" s="126"/>
-      <c r="B238" s="126"/>
-      <c r="C238" s="121"/>
-      <c r="D238" s="115"/>
+      <c r="A238" s="83"/>
+      <c r="B238" s="83"/>
+      <c r="C238" s="78"/>
+      <c r="D238" s="72"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="126"/>
-      <c r="B239" s="126"/>
-      <c r="C239" s="121"/>
-      <c r="D239" s="115"/>
+      <c r="A239" s="83"/>
+      <c r="B239" s="83"/>
+      <c r="C239" s="78"/>
+      <c r="D239" s="72"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="126"/>
-      <c r="B240" s="126"/>
-      <c r="C240" s="121"/>
-      <c r="D240" s="115"/>
+      <c r="A240" s="83"/>
+      <c r="B240" s="83"/>
+      <c r="C240" s="78"/>
+      <c r="D240" s="72"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="126"/>
-      <c r="B241" s="126"/>
-      <c r="C241" s="121"/>
-      <c r="D241" s="115"/>
+      <c r="A241" s="83"/>
+      <c r="B241" s="83"/>
+      <c r="C241" s="78"/>
+      <c r="D241" s="72"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="126"/>
-      <c r="B242" s="126"/>
-      <c r="C242" s="121"/>
-      <c r="D242" s="115"/>
+      <c r="A242" s="83"/>
+      <c r="B242" s="83"/>
+      <c r="C242" s="78"/>
+      <c r="D242" s="72"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="126"/>
-      <c r="B243" s="126"/>
-      <c r="C243" s="121"/>
-      <c r="D243" s="115"/>
+      <c r="A243" s="83"/>
+      <c r="B243" s="83"/>
+      <c r="C243" s="78"/>
+      <c r="D243" s="72"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244" s="126"/>
-      <c r="B244" s="126"/>
-      <c r="C244" s="121"/>
-      <c r="D244" s="115"/>
+      <c r="A244" s="83"/>
+      <c r="B244" s="83"/>
+      <c r="C244" s="78"/>
+      <c r="D244" s="72"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="126"/>
-      <c r="B245" s="126"/>
-      <c r="C245" s="121"/>
-      <c r="D245" s="115"/>
+      <c r="A245" s="83"/>
+      <c r="B245" s="83"/>
+      <c r="C245" s="78"/>
+      <c r="D245" s="72"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="126"/>
-      <c r="B246" s="126"/>
-      <c r="C246" s="121"/>
-      <c r="D246" s="115"/>
+      <c r="A246" s="83"/>
+      <c r="B246" s="83"/>
+      <c r="C246" s="78"/>
+      <c r="D246" s="72"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="126"/>
-      <c r="B247" s="126"/>
-      <c r="C247" s="121"/>
-      <c r="D247" s="115"/>
+      <c r="A247" s="83"/>
+      <c r="B247" s="83"/>
+      <c r="C247" s="78"/>
+      <c r="D247" s="72"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" s="126"/>
-      <c r="B248" s="126"/>
-      <c r="C248" s="121"/>
-      <c r="D248" s="115"/>
+      <c r="A248" s="83"/>
+      <c r="B248" s="83"/>
+      <c r="C248" s="78"/>
+      <c r="D248" s="72"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="126"/>
-      <c r="B249" s="126"/>
-      <c r="C249" s="121"/>
-      <c r="D249" s="115"/>
+      <c r="A249" s="83"/>
+      <c r="B249" s="83"/>
+      <c r="C249" s="78"/>
+      <c r="D249" s="72"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" s="126"/>
-      <c r="B250" s="126"/>
-      <c r="C250" s="121"/>
-      <c r="D250" s="115"/>
+      <c r="A250" s="83"/>
+      <c r="B250" s="83"/>
+      <c r="C250" s="78"/>
+      <c r="D250" s="72"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="126"/>
-      <c r="B251" s="126"/>
-      <c r="C251" s="121"/>
-      <c r="D251" s="115"/>
+      <c r="A251" s="83"/>
+      <c r="B251" s="83"/>
+      <c r="C251" s="78"/>
+      <c r="D251" s="72"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="126"/>
-      <c r="B252" s="126"/>
-      <c r="C252" s="121"/>
-      <c r="D252" s="115"/>
+      <c r="A252" s="83"/>
+      <c r="B252" s="83"/>
+      <c r="C252" s="78"/>
+      <c r="D252" s="72"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="126"/>
-      <c r="B253" s="126"/>
-      <c r="C253" s="121"/>
-      <c r="D253" s="115"/>
+      <c r="A253" s="83"/>
+      <c r="B253" s="83"/>
+      <c r="C253" s="78"/>
+      <c r="D253" s="72"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="126"/>
-      <c r="B254" s="126"/>
-      <c r="C254" s="121"/>
-      <c r="D254" s="115"/>
+      <c r="A254" s="83"/>
+      <c r="B254" s="83"/>
+      <c r="C254" s="78"/>
+      <c r="D254" s="72"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="126"/>
-      <c r="B255" s="126"/>
-      <c r="C255" s="121"/>
-      <c r="D255" s="115"/>
+      <c r="A255" s="83"/>
+      <c r="B255" s="83"/>
+      <c r="C255" s="78"/>
+      <c r="D255" s="72"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="126"/>
-      <c r="B256" s="126"/>
-      <c r="C256" s="121"/>
-      <c r="D256" s="115"/>
+      <c r="A256" s="83"/>
+      <c r="B256" s="83"/>
+      <c r="C256" s="78"/>
+      <c r="D256" s="72"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" s="126"/>
-      <c r="B257" s="126"/>
-      <c r="C257" s="121"/>
-      <c r="D257" s="115"/>
+      <c r="A257" s="83"/>
+      <c r="B257" s="83"/>
+      <c r="C257" s="78"/>
+      <c r="D257" s="72"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
     <row r="258" spans="1:8">
-      <c r="A258" s="126"/>
-      <c r="B258" s="126"/>
-      <c r="C258" s="121"/>
-      <c r="D258" s="115"/>
+      <c r="A258" s="83"/>
+      <c r="B258" s="83"/>
+      <c r="C258" s="78"/>
+      <c r="D258" s="72"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" s="126"/>
-      <c r="B259" s="126"/>
-      <c r="C259" s="121"/>
-      <c r="D259" s="115"/>
+      <c r="A259" s="83"/>
+      <c r="B259" s="83"/>
+      <c r="C259" s="78"/>
+      <c r="D259" s="72"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" s="126"/>
-      <c r="B260" s="126"/>
-      <c r="C260" s="121"/>
-      <c r="D260" s="115"/>
+      <c r="A260" s="83"/>
+      <c r="B260" s="83"/>
+      <c r="C260" s="78"/>
+      <c r="D260" s="72"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
     <row r="261" spans="1:8">
-      <c r="A261" s="126"/>
-      <c r="B261" s="126"/>
-      <c r="C261" s="121"/>
-      <c r="D261" s="115"/>
+      <c r="A261" s="83"/>
+      <c r="B261" s="83"/>
+      <c r="C261" s="78"/>
+      <c r="D261" s="72"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="126"/>
-      <c r="B262" s="126"/>
-      <c r="C262" s="121"/>
-      <c r="D262" s="115"/>
+      <c r="A262" s="83"/>
+      <c r="B262" s="83"/>
+      <c r="C262" s="78"/>
+      <c r="D262" s="72"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263" s="126"/>
-      <c r="B263" s="126"/>
-      <c r="C263" s="121"/>
-      <c r="D263" s="115"/>
+      <c r="A263" s="83"/>
+      <c r="B263" s="83"/>
+      <c r="C263" s="78"/>
+      <c r="D263" s="72"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" s="126"/>
-      <c r="B264" s="126"/>
-      <c r="C264" s="121"/>
-      <c r="D264" s="115"/>
+      <c r="A264" s="83"/>
+      <c r="B264" s="83"/>
+      <c r="C264" s="78"/>
+      <c r="D264" s="72"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="126"/>
-      <c r="B265" s="126"/>
-      <c r="C265" s="121"/>
-      <c r="D265" s="115"/>
+      <c r="A265" s="83"/>
+      <c r="B265" s="83"/>
+      <c r="C265" s="78"/>
+      <c r="D265" s="72"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266" s="126"/>
-      <c r="B266" s="126"/>
-      <c r="C266" s="121"/>
-      <c r="D266" s="115"/>
+      <c r="A266" s="83"/>
+      <c r="B266" s="83"/>
+      <c r="C266" s="78"/>
+      <c r="D266" s="72"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
     <row r="267" spans="1:8">
-      <c r="A267" s="126"/>
-      <c r="B267" s="126"/>
-      <c r="C267" s="121"/>
-      <c r="D267" s="115"/>
+      <c r="A267" s="83"/>
+      <c r="B267" s="83"/>
+      <c r="C267" s="78"/>
+      <c r="D267" s="72"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
     <row r="268" spans="1:8">
-      <c r="A268" s="126"/>
-      <c r="B268" s="126"/>
-      <c r="C268" s="121"/>
-      <c r="D268" s="115"/>
+      <c r="A268" s="83"/>
+      <c r="B268" s="83"/>
+      <c r="C268" s="78"/>
+      <c r="D268" s="72"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
     <row r="269" spans="1:8">
-      <c r="A269" s="126"/>
-      <c r="B269" s="126"/>
-      <c r="C269" s="121"/>
-      <c r="D269" s="115"/>
+      <c r="A269" s="83"/>
+      <c r="B269" s="83"/>
+      <c r="C269" s="78"/>
+      <c r="D269" s="72"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
     <row r="270" spans="1:8">
-      <c r="A270" s="126"/>
-      <c r="B270" s="126"/>
-      <c r="C270" s="121"/>
-      <c r="D270" s="115"/>
+      <c r="A270" s="83"/>
+      <c r="B270" s="83"/>
+      <c r="C270" s="78"/>
+      <c r="D270" s="72"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
     <row r="271" spans="1:8">
-      <c r="A271" s="126"/>
-      <c r="B271" s="126"/>
-      <c r="C271" s="121"/>
-      <c r="D271" s="115"/>
+      <c r="A271" s="83"/>
+      <c r="B271" s="83"/>
+      <c r="C271" s="78"/>
+      <c r="D271" s="72"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
     <row r="272" spans="1:8">
-      <c r="A272" s="126"/>
-      <c r="B272" s="126"/>
-      <c r="C272" s="121"/>
-      <c r="D272" s="115"/>
+      <c r="A272" s="83"/>
+      <c r="B272" s="83"/>
+      <c r="C272" s="78"/>
+      <c r="D272" s="72"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
     <row r="273" spans="1:8">
-      <c r="A273" s="126"/>
-      <c r="B273" s="126"/>
-      <c r="C273" s="121"/>
-      <c r="D273" s="115"/>
+      <c r="A273" s="83"/>
+      <c r="B273" s="83"/>
+      <c r="C273" s="78"/>
+      <c r="D273" s="72"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
     <row r="274" spans="1:8">
-      <c r="A274" s="126"/>
-      <c r="B274" s="126"/>
-      <c r="C274" s="121"/>
-      <c r="D274" s="115"/>
+      <c r="A274" s="83"/>
+      <c r="B274" s="83"/>
+      <c r="C274" s="78"/>
+      <c r="D274" s="72"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275" s="126"/>
-      <c r="B275" s="126"/>
-      <c r="C275" s="121"/>
-      <c r="D275" s="115"/>
+      <c r="A275" s="83"/>
+      <c r="B275" s="83"/>
+      <c r="C275" s="78"/>
+      <c r="D275" s="72"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="126"/>
-      <c r="B276" s="126"/>
-      <c r="C276" s="121"/>
-      <c r="D276" s="115"/>
+      <c r="A276" s="83"/>
+      <c r="B276" s="83"/>
+      <c r="C276" s="78"/>
+      <c r="D276" s="72"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="126"/>
-      <c r="B277" s="126"/>
-      <c r="C277" s="121"/>
-      <c r="D277" s="115"/>
+      <c r="A277" s="83"/>
+      <c r="B277" s="83"/>
+      <c r="C277" s="78"/>
+      <c r="D277" s="72"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="126"/>
-      <c r="B278" s="126"/>
-      <c r="C278" s="121"/>
-      <c r="D278" s="115"/>
+      <c r="A278" s="83"/>
+      <c r="B278" s="83"/>
+      <c r="C278" s="78"/>
+      <c r="D278" s="72"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="126"/>
-      <c r="B279" s="126"/>
-      <c r="C279" s="121"/>
-      <c r="D279" s="115"/>
+      <c r="A279" s="83"/>
+      <c r="B279" s="83"/>
+      <c r="C279" s="78"/>
+      <c r="D279" s="72"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
     <row r="280" spans="1:8">
-      <c r="A280" s="126"/>
-      <c r="B280" s="126"/>
-      <c r="C280" s="121"/>
-      <c r="D280" s="115"/>
+      <c r="A280" s="83"/>
+      <c r="B280" s="83"/>
+      <c r="C280" s="78"/>
+      <c r="D280" s="72"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="126"/>
-      <c r="B281" s="126"/>
-      <c r="C281" s="121"/>
-      <c r="D281" s="115"/>
+      <c r="A281" s="83"/>
+      <c r="B281" s="83"/>
+      <c r="C281" s="78"/>
+      <c r="D281" s="72"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="126"/>
-      <c r="B282" s="126"/>
-      <c r="C282" s="121"/>
-      <c r="D282" s="115"/>
+      <c r="A282" s="83"/>
+      <c r="B282" s="83"/>
+      <c r="C282" s="78"/>
+      <c r="D282" s="72"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="126"/>
-      <c r="B283" s="126"/>
-      <c r="C283" s="121"/>
-      <c r="D283" s="115"/>
+      <c r="A283" s="83"/>
+      <c r="B283" s="83"/>
+      <c r="C283" s="78"/>
+      <c r="D283" s="72"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
     <row r="284" spans="1:8">
-      <c r="A284" s="126"/>
-      <c r="B284" s="126"/>
-      <c r="C284" s="121"/>
-      <c r="D284" s="115"/>
+      <c r="A284" s="83"/>
+      <c r="B284" s="83"/>
+      <c r="C284" s="78"/>
+      <c r="D284" s="72"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
     <row r="285" spans="1:8">
-      <c r="A285" s="126"/>
-      <c r="B285" s="126"/>
-      <c r="C285" s="121"/>
-      <c r="D285" s="115"/>
+      <c r="A285" s="83"/>
+      <c r="B285" s="83"/>
+      <c r="C285" s="78"/>
+      <c r="D285" s="72"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
     <row r="286" spans="1:8">
-      <c r="A286" s="126"/>
-      <c r="B286" s="126"/>
-      <c r="C286" s="121"/>
-      <c r="D286" s="115"/>
+      <c r="A286" s="83"/>
+      <c r="B286" s="83"/>
+      <c r="C286" s="78"/>
+      <c r="D286" s="72"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
     <row r="287" spans="1:8">
-      <c r="A287" s="126"/>
-      <c r="B287" s="126"/>
-      <c r="C287" s="121"/>
-      <c r="D287" s="115"/>
+      <c r="A287" s="83"/>
+      <c r="B287" s="83"/>
+      <c r="C287" s="78"/>
+      <c r="D287" s="72"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
     <row r="288" spans="1:8">
-      <c r="A288" s="126"/>
-      <c r="B288" s="126"/>
-      <c r="C288" s="121"/>
-      <c r="D288" s="115"/>
+      <c r="A288" s="83"/>
+      <c r="B288" s="83"/>
+      <c r="C288" s="78"/>
+      <c r="D288" s="72"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
     <row r="289" spans="1:8">
-      <c r="A289" s="126"/>
-      <c r="B289" s="126"/>
-      <c r="C289" s="121"/>
-      <c r="D289" s="115"/>
+      <c r="A289" s="83"/>
+      <c r="B289" s="83"/>
+      <c r="C289" s="78"/>
+      <c r="D289" s="72"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
     <row r="290" spans="1:8">
-      <c r="A290" s="126"/>
-      <c r="B290" s="126"/>
-      <c r="C290" s="121"/>
-      <c r="D290" s="115"/>
+      <c r="A290" s="83"/>
+      <c r="B290" s="83"/>
+      <c r="C290" s="78"/>
+      <c r="D290" s="72"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
     <row r="291" spans="1:8">
-      <c r="A291" s="126"/>
-      <c r="B291" s="126"/>
-      <c r="C291" s="121"/>
-      <c r="D291" s="115"/>
+      <c r="A291" s="83"/>
+      <c r="B291" s="83"/>
+      <c r="C291" s="78"/>
+      <c r="D291" s="72"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
     <row r="292" spans="1:8">
-      <c r="A292" s="126"/>
-      <c r="B292" s="126"/>
-      <c r="C292" s="121"/>
-      <c r="D292" s="115"/>
+      <c r="A292" s="83"/>
+      <c r="B292" s="83"/>
+      <c r="C292" s="78"/>
+      <c r="D292" s="72"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
     <row r="293" spans="1:8">
-      <c r="A293" s="126"/>
-      <c r="B293" s="126"/>
-      <c r="C293" s="121"/>
-      <c r="D293" s="115"/>
+      <c r="A293" s="83"/>
+      <c r="B293" s="83"/>
+      <c r="C293" s="78"/>
+      <c r="D293" s="72"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
     <row r="294" spans="1:8">
-      <c r="A294" s="126"/>
-      <c r="B294" s="126"/>
-      <c r="C294" s="121"/>
-      <c r="D294" s="115"/>
+      <c r="A294" s="83"/>
+      <c r="B294" s="83"/>
+      <c r="C294" s="78"/>
+      <c r="D294" s="72"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
     <row r="295" spans="1:8">
-      <c r="A295" s="126"/>
-      <c r="B295" s="126"/>
-      <c r="C295" s="121"/>
-      <c r="D295" s="115"/>
+      <c r="A295" s="83"/>
+      <c r="B295" s="83"/>
+      <c r="C295" s="78"/>
+      <c r="D295" s="72"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
     <row r="296" spans="1:8">
-      <c r="A296" s="126"/>
-      <c r="B296" s="126"/>
-      <c r="C296" s="121"/>
-      <c r="D296" s="115"/>
+      <c r="A296" s="83"/>
+      <c r="B296" s="83"/>
+      <c r="C296" s="78"/>
+      <c r="D296" s="72"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
     <row r="297" spans="1:8">
-      <c r="A297" s="126"/>
-      <c r="B297" s="126"/>
-      <c r="C297" s="121"/>
-      <c r="D297" s="115"/>
+      <c r="A297" s="83"/>
+      <c r="B297" s="83"/>
+      <c r="C297" s="78"/>
+      <c r="D297" s="72"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
     <row r="298" spans="1:8">
-      <c r="A298" s="126"/>
-      <c r="B298" s="126"/>
-      <c r="C298" s="121"/>
-      <c r="D298" s="115"/>
+      <c r="A298" s="83"/>
+      <c r="B298" s="83"/>
+      <c r="C298" s="78"/>
+      <c r="D298" s="72"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
     <row r="299" spans="1:8">
-      <c r="A299" s="126"/>
-      <c r="B299" s="126"/>
-      <c r="C299" s="121"/>
-      <c r="D299" s="115"/>
+      <c r="A299" s="83"/>
+      <c r="B299" s="83"/>
+      <c r="C299" s="78"/>
+      <c r="D299" s="72"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
     <row r="300" spans="1:8">
-      <c r="A300" s="126"/>
-      <c r="B300" s="126"/>
-      <c r="C300" s="121"/>
-      <c r="D300" s="115"/>
+      <c r="A300" s="83"/>
+      <c r="B300" s="83"/>
+      <c r="C300" s="78"/>
+      <c r="D300" s="72"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
     <row r="301" spans="1:8">
-      <c r="A301" s="126"/>
-      <c r="B301" s="126"/>
-      <c r="C301" s="121"/>
-      <c r="D301" s="115"/>
+      <c r="A301" s="83"/>
+      <c r="B301" s="83"/>
+      <c r="C301" s="78"/>
+      <c r="D301" s="72"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
     <row r="302" spans="1:8">
-      <c r="A302" s="126"/>
-      <c r="B302" s="126"/>
-      <c r="C302" s="121"/>
-      <c r="D302" s="115"/>
+      <c r="A302" s="83"/>
+      <c r="B302" s="83"/>
+      <c r="C302" s="78"/>
+      <c r="D302" s="72"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
     <row r="303" spans="1:8">
-      <c r="A303" s="126"/>
-      <c r="B303" s="126"/>
-      <c r="C303" s="121"/>
-      <c r="D303" s="115"/>
+      <c r="A303" s="83"/>
+      <c r="B303" s="83"/>
+      <c r="C303" s="78"/>
+      <c r="D303" s="72"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
     <row r="304" spans="1:8">
-      <c r="A304" s="126"/>
-      <c r="B304" s="126"/>
-      <c r="C304" s="121"/>
-      <c r="D304" s="115"/>
+      <c r="A304" s="83"/>
+      <c r="B304" s="83"/>
+      <c r="C304" s="78"/>
+      <c r="D304" s="72"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
     <row r="305" spans="1:8">
-      <c r="A305" s="126"/>
-      <c r="B305" s="126"/>
-      <c r="C305" s="121"/>
-      <c r="D305" s="115"/>
+      <c r="A305" s="83"/>
+      <c r="B305" s="83"/>
+      <c r="C305" s="78"/>
+      <c r="D305" s="72"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
     <row r="306" spans="1:8">
-      <c r="A306" s="126"/>
-      <c r="B306" s="126"/>
-      <c r="C306" s="121"/>
-      <c r="D306" s="115"/>
+      <c r="A306" s="83"/>
+      <c r="B306" s="83"/>
+      <c r="C306" s="78"/>
+      <c r="D306" s="72"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
     <row r="307" spans="1:8">
-      <c r="A307" s="126"/>
-      <c r="B307" s="126"/>
-      <c r="C307" s="121"/>
-      <c r="D307" s="115"/>
+      <c r="A307" s="83"/>
+      <c r="B307" s="83"/>
+      <c r="C307" s="78"/>
+      <c r="D307" s="72"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
     <row r="308" spans="1:8">
-      <c r="A308" s="126"/>
-      <c r="B308" s="126"/>
-      <c r="C308" s="121"/>
-      <c r="D308" s="115"/>
+      <c r="A308" s="83"/>
+      <c r="B308" s="83"/>
+      <c r="C308" s="78"/>
+      <c r="D308" s="72"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
     <row r="309" spans="1:8">
-      <c r="A309" s="126"/>
-      <c r="B309" s="126"/>
-      <c r="C309" s="121"/>
-      <c r="D309" s="115"/>
+      <c r="A309" s="83"/>
+      <c r="B309" s="83"/>
+      <c r="C309" s="78"/>
+      <c r="D309" s="72"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
     <row r="310" spans="1:8">
-      <c r="A310" s="126"/>
-      <c r="B310" s="126"/>
-      <c r="C310" s="121"/>
-      <c r="D310" s="115"/>
+      <c r="A310" s="83"/>
+      <c r="B310" s="83"/>
+      <c r="C310" s="78"/>
+      <c r="D310" s="72"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
     <row r="311" spans="1:8">
-      <c r="A311" s="126"/>
-      <c r="B311" s="126"/>
-      <c r="C311" s="121"/>
-      <c r="D311" s="115"/>
+      <c r="A311" s="83"/>
+      <c r="B311" s="83"/>
+      <c r="C311" s="78"/>
+      <c r="D311" s="72"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
     <row r="312" spans="1:8">
-      <c r="A312" s="126"/>
-      <c r="B312" s="126"/>
-      <c r="C312" s="121"/>
-      <c r="D312" s="115"/>
+      <c r="A312" s="83"/>
+      <c r="B312" s="83"/>
+      <c r="C312" s="78"/>
+      <c r="D312" s="72"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
     <row r="313" spans="1:8">
-      <c r="A313" s="126"/>
-      <c r="B313" s="126"/>
-      <c r="C313" s="121"/>
-      <c r="D313" s="115"/>
+      <c r="A313" s="83"/>
+      <c r="B313" s="83"/>
+      <c r="C313" s="78"/>
+      <c r="D313" s="72"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
     <row r="314" spans="1:8">
-      <c r="A314" s="126"/>
-      <c r="B314" s="126"/>
-      <c r="C314" s="121"/>
-      <c r="D314" s="115"/>
+      <c r="A314" s="83"/>
+      <c r="B314" s="83"/>
+      <c r="C314" s="78"/>
+      <c r="D314" s="72"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
     <row r="315" spans="1:8">
-      <c r="A315" s="126"/>
-      <c r="B315" s="126"/>
-      <c r="C315" s="121"/>
-      <c r="D315" s="115"/>
+      <c r="A315" s="83"/>
+      <c r="B315" s="83"/>
+      <c r="C315" s="78"/>
+      <c r="D315" s="72"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
     <row r="316" spans="1:8">
-      <c r="A316" s="126"/>
-      <c r="B316" s="126"/>
-      <c r="C316" s="121"/>
-      <c r="D316" s="115"/>
+      <c r="A316" s="83"/>
+      <c r="B316" s="83"/>
+      <c r="C316" s="78"/>
+      <c r="D316" s="72"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
     <row r="317" spans="1:8">
-      <c r="A317" s="126"/>
-      <c r="B317" s="126"/>
-      <c r="C317" s="121"/>
-      <c r="D317" s="115"/>
+      <c r="A317" s="83"/>
+      <c r="B317" s="83"/>
+      <c r="C317" s="78"/>
+      <c r="D317" s="72"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
@@ -9206,34 +9215,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.95" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="130"/>
       <c r="C2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="132"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="K3" t="s">
@@ -9241,17 +9250,17 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="138"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="28" t="s">
@@ -9398,17 +9407,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15.6">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="15" t="s">
@@ -9423,15 +9432,15 @@
       <c r="D16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="89" t="s">
+      <c r="E16" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="89" t="s">
+      <c r="F16" s="125"/>
+      <c r="G16" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="90"/>
-      <c r="I16" s="91"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="124"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="16">
@@ -9440,11 +9449,11 @@
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="117"/>
       <c r="K17" t="s">
         <v>67</v>
       </c>
@@ -9456,11 +9465,11 @@
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="117"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="16">
@@ -9469,11 +9478,11 @@
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="93"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="16">
@@ -9482,11 +9491,11 @@
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="93"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="117"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="16">
@@ -9495,11 +9504,11 @@
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="117"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="16">
@@ -9508,11 +9517,11 @@
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="93"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="117"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="16">
@@ -9521,11 +9530,11 @@
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="117"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="16">
@@ -9534,11 +9543,11 @@
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="117"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="16">
@@ -9547,11 +9556,11 @@
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="98"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="17">
@@ -9560,23 +9569,19 @@
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="102"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -9591,11 +9596,15 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9624,50 +9633,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.95" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="130"/>
       <c r="C2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="76" t="s">
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="77"/>
+      <c r="I2" s="132"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="138"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="28" t="s">
@@ -9729,15 +9738,15 @@
       <c r="I6" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="107" t="s">
+      <c r="K6" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="18">
@@ -9767,15 +9776,15 @@
       <c r="I7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="107" t="s">
+      <c r="K7" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="18">
@@ -9883,17 +9892,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="15.6">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="28" t="s">
@@ -9908,15 +9917,15 @@
       <c r="D16" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="135" t="s">
+      <c r="E16" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135" t="s">
+      <c r="F16" s="144"/>
+      <c r="G16" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="135"/>
-      <c r="I16" s="136"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="145"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="16">
@@ -9931,15 +9940,15 @@
       <c r="D17" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="103" t="s">
+      <c r="F17" s="141"/>
+      <c r="G17" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="105"/>
-      <c r="I17" s="106"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
     </row>
     <row r="18" spans="1:11" ht="21.6">
       <c r="A18" s="16">
@@ -9954,15 +9963,15 @@
       <c r="D18" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="103" t="s">
+      <c r="E18" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="103" t="s">
+      <c r="F18" s="141"/>
+      <c r="G18" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="105"/>
-      <c r="I18" s="106"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="143"/>
     </row>
     <row r="19" spans="1:11" ht="31.8">
       <c r="A19" s="16">
@@ -9977,15 +9986,15 @@
       <c r="D19" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="103" t="s">
+      <c r="E19" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="103" t="s">
+      <c r="F19" s="141"/>
+      <c r="G19" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="105"/>
-      <c r="I19" s="106"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
       <c r="K19" t="s">
         <v>67</v>
       </c>
@@ -9997,11 +10006,11 @@
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="93"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="117"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="16">
@@ -10010,11 +10019,11 @@
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="117"/>
       <c r="K21" t="s">
         <v>92</v>
       </c>
@@ -10026,11 +10035,11 @@
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="93"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="117"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="16">
@@ -10039,11 +10048,11 @@
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="117"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="16">
@@ -10052,11 +10061,11 @@
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="117"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="16">
@@ -10065,11 +10074,11 @@
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="98"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="110"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="17">
@@ -10078,14 +10087,28 @@
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="102"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -10102,20 +10125,6 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10143,11 +10152,11 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="146" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="30" t="s">
@@ -10161,7 +10170,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.8">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="92" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -10172,7 +10181,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="57.6">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="94" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="61" t="s">
@@ -10183,7 +10192,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="93" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="51" t="s">
@@ -10194,7 +10203,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="43.2">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="95" t="s">
         <v>100</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -10230,10 +10239,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15.6">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="109"/>
+      <c r="C2" s="147"/>
       <c r="O2" t="s">
         <v>327</v>
       </c>
@@ -10473,56 +10482,56 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="147" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="146" t="s">
         <v>257</v>
       </c>
-      <c r="C4" s="108"/>
+      <c r="C4" s="146"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="148" t="s">
         <v>256</v>
       </c>
-      <c r="C5" s="110"/>
+      <c r="C5" s="148"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="148" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="110"/>
+      <c r="C6" s="148"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="148" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="110"/>
+      <c r="C7" s="148"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="148" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="110"/>
+      <c r="C8" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10542,52 +10551,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
     <col min="3" max="3" width="64.33203125" customWidth="1"/>
-    <col min="4" max="4" width="52.44140625" style="134" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" style="91" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.6">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="149" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="143"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="151"/>
       <c r="J2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="96" t="s">
         <v>261</v>
       </c>
       <c r="C3" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="145" t="s">
+      <c r="D3" s="97" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="86.4">
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="98" t="s">
         <v>288</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="147" t="s">
+      <c r="D4" s="99" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="57.6">
-      <c r="B5" s="146" t="s">
+      <c r="B5" s="98" t="s">
         <v>291</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -10598,7 +10607,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="42" customHeight="1">
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="98" t="s">
         <v>293</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -10609,7 +10618,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="57.6">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="98" t="s">
         <v>289</v>
       </c>
       <c r="C7" s="65" t="s">
@@ -10620,7 +10629,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="72">
-      <c r="B8" s="146" t="s">
+      <c r="B8" s="98" t="s">
         <v>287</v>
       </c>
       <c r="C8" s="31" t="s">
@@ -10631,18 +10640,18 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="84" customHeight="1">
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="98" t="s">
         <v>290</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="D9" s="148" t="s">
+      <c r="D9" s="100" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="72">
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="101" t="s">
         <v>292</v>
       </c>
       <c r="C10" s="65" t="s">
@@ -10653,10 +10662,10 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1">
-      <c r="B11" s="150" t="s">
+      <c r="B11" s="102" t="s">
         <v>300</v>
       </c>
-      <c r="C11" s="151" t="s">
+      <c r="C11" s="103" t="s">
         <v>331</v>
       </c>
       <c r="D11" s="55" t="s">

--- a/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
+++ b/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18492" windowHeight="11700" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Target List" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="Effects" sheetId="9" r:id="rId7"/>
     <sheet name="Example_support" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="411">
   <si>
     <t>OP ACTIVE RESOLVE TARGET LIST</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>923rd SSM Regiment</t>
-  </si>
-  <si>
-    <t>Unlocated</t>
   </si>
   <si>
     <t>REMARKS</t>
@@ -1071,6 +1068,216 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>N34 36.000</t>
+  </si>
+  <si>
+    <t>E036 45.000</t>
+  </si>
+  <si>
+    <t>2077ft</t>
+  </si>
+  <si>
+    <t>1st Corps Base</t>
+  </si>
+  <si>
+    <t>N36 03.000</t>
+  </si>
+  <si>
+    <t>E037 20.000</t>
+  </si>
+  <si>
+    <t>1237ft</t>
+  </si>
+  <si>
+    <t>Al Safira mil base</t>
+  </si>
+  <si>
+    <t>2nd Corps Base</t>
+  </si>
+  <si>
+    <t>3rd Corps Base</t>
+  </si>
+  <si>
+    <t>4th Corps Base</t>
+  </si>
+  <si>
+    <t>5th Corps Base</t>
+  </si>
+  <si>
+    <t>Ammunition storage</t>
+  </si>
+  <si>
+    <t>N33 15.000</t>
+  </si>
+  <si>
+    <t>E036 15.500</t>
+  </si>
+  <si>
+    <t>N33 30.500</t>
+  </si>
+  <si>
+    <t>E036 12.500</t>
+  </si>
+  <si>
+    <t>3215ft</t>
+  </si>
+  <si>
+    <t>2575ft</t>
+  </si>
+  <si>
+    <t>N33 23.000</t>
+  </si>
+  <si>
+    <t>2566ft</t>
+  </si>
+  <si>
+    <t>N34 37.000</t>
+  </si>
+  <si>
+    <t>E038 15.000</t>
+  </si>
+  <si>
+    <t>1690ft</t>
+  </si>
+  <si>
+    <t>N34 35.500</t>
+  </si>
+  <si>
+    <t>E036 58.500</t>
+  </si>
+  <si>
+    <t>2497ft</t>
+  </si>
+  <si>
+    <t>Military Research</t>
+  </si>
+  <si>
+    <t>N35 59.000</t>
+  </si>
+  <si>
+    <t>E037 24.000</t>
+  </si>
+  <si>
+    <t>1385ft</t>
+  </si>
+  <si>
+    <t>N35 15.900</t>
+  </si>
+  <si>
+    <t>E036 35.000</t>
+  </si>
+  <si>
+    <t>873ft</t>
+  </si>
+  <si>
+    <t>Powerdistribution</t>
+  </si>
+  <si>
+    <t>N35 51.300</t>
+  </si>
+  <si>
+    <t>E038 33.800</t>
+  </si>
+  <si>
+    <t>1024ft</t>
+  </si>
+  <si>
+    <t>N34 39.220</t>
+  </si>
+  <si>
+    <t>E036 37.650</t>
+  </si>
+  <si>
+    <t>1634ft</t>
+  </si>
+  <si>
+    <t>Powerplant - Coal</t>
+  </si>
+  <si>
+    <t>Powerplant-Coal</t>
+  </si>
+  <si>
+    <t>Oil Storage</t>
+  </si>
+  <si>
+    <t>N34 39.500</t>
+  </si>
+  <si>
+    <t>E036 37.200</t>
+  </si>
+  <si>
+    <t>1640ft</t>
+  </si>
+  <si>
+    <t>N34 43 500</t>
+  </si>
+  <si>
+    <t>E036 38.200</t>
+  </si>
+  <si>
+    <t>1581ft</t>
+  </si>
+  <si>
+    <t>Syrian Armed Forces Commander residens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N33 30.546 </t>
+  </si>
+  <si>
+    <t>E036 651</t>
+  </si>
+  <si>
+    <t>3202ft</t>
+  </si>
+  <si>
+    <t>N33 37.300</t>
+  </si>
+  <si>
+    <t>E036 29.000</t>
+  </si>
+  <si>
+    <t>2119ft</t>
+  </si>
+  <si>
+    <t>N33 36.800</t>
+  </si>
+  <si>
+    <t>E036 27.500</t>
+  </si>
+  <si>
+    <t>2060ft</t>
+  </si>
+  <si>
+    <t>N35 10.300</t>
+  </si>
+  <si>
+    <t>E036 43.600</t>
+  </si>
+  <si>
+    <t>879ft</t>
+  </si>
+  <si>
+    <t>Bombs /Rockets/shells/Missiles</t>
+  </si>
+  <si>
+    <t>Largest ammunition factory in Syria</t>
+  </si>
+  <si>
+    <t>N35 10.700</t>
+  </si>
+  <si>
+    <t>E036 43.200</t>
+  </si>
+  <si>
+    <t>866ft</t>
+  </si>
+  <si>
+    <t>N34 43.100</t>
+  </si>
+  <si>
+    <t>E036 42.400</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1940,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1913,9 +2120,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2007,6 +2211,78 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2031,99 +2307,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2141,6 +2345,30 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2557,7 +2785,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2656,7 +2884,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -3763,59 +3991,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N317"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="84" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="84" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="79" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="67" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="83" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="83" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="78" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="67" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="78.44140625" customWidth="1"/>
+    <col min="14" max="14" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:14" ht="49.9" customHeight="1" thickBot="1">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="104" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="106"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1">
-      <c r="A2" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="85"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="105"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A2" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="84"/>
       <c r="C2" s="74"/>
       <c r="D2" s="68"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
@@ -3824,18 +4054,18 @@
       <c r="M2" s="35"/>
       <c r="N2" s="36"/>
     </row>
-    <row r="3" spans="1:14" ht="29.4" customHeight="1" thickBot="1">
+    <row r="3" spans="1:14" ht="29.45" customHeight="1" thickBot="1">
       <c r="A3" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="75" t="s">
-        <v>62</v>
+      <c r="C3" s="158" t="s">
+        <v>61</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>3</v>
@@ -3844,19 +4074,19 @@
         <v>4</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>1</v>
@@ -3865,31 +4095,29 @@
         <v>2</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="75">
         <v>5</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="8"/>
@@ -3906,14 +4134,14 @@
         <v>5</v>
       </c>
       <c r="N4" s="53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="86" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="73">
@@ -3921,16 +4149,14 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -3947,29 +4173,27 @@
         <v>5</v>
       </c>
       <c r="N5" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="87" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="73">
         <v>5</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -3986,29 +4210,27 @@
         <v>5</v>
       </c>
       <c r="N6" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="86" t="s">
+        <v>42</v>
       </c>
       <c r="C7" s="73">
         <v>5</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -4025,29 +4247,27 @@
         <v>5</v>
       </c>
       <c r="N7" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="87" t="s">
-        <v>44</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="73">
         <v>5</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -4064,29 +4284,27 @@
         <v>5</v>
       </c>
       <c r="N8" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="87" t="s">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="73">
         <v>5</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -4103,25 +4321,31 @@
         <v>5</v>
       </c>
       <c r="N9" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="87" t="s">
-        <v>120</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>119</v>
       </c>
       <c r="C10" s="73">
         <v>9</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>397</v>
+      </c>
       <c r="H10" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -4138,15 +4362,15 @@
         <v>9</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="87" t="s">
-        <v>120</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="86" t="s">
+        <v>119</v>
       </c>
       <c r="C11" s="73">
         <v>9</v>
@@ -4156,7 +4380,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="9"/>
       <c r="H11" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -4173,15 +4397,15 @@
         <v>9</v>
       </c>
       <c r="N11" s="54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>120</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>119</v>
       </c>
       <c r="C12" s="73">
         <v>9</v>
@@ -4191,7 +4415,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="9"/>
       <c r="H12" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -4208,25 +4432,31 @@
         <v>9</v>
       </c>
       <c r="N12" s="54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="87" t="s">
-        <v>120</v>
+        <v>21</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>119</v>
       </c>
       <c r="C13" s="73">
         <v>9</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1654</v>
+      </c>
       <c r="H13" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -4243,15 +4473,15 @@
         <v>9</v>
       </c>
       <c r="N13" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="87" t="s">
-        <v>120</v>
+        <v>22</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>119</v>
       </c>
       <c r="C14" s="73">
         <v>9</v>
@@ -4261,7 +4491,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="9"/>
       <c r="H14" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -4278,15 +4508,15 @@
         <v>9</v>
       </c>
       <c r="N14" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="87" t="s">
-        <v>120</v>
+        <v>23</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>119</v>
       </c>
       <c r="C15" s="73">
         <v>9</v>
@@ -4296,7 +4526,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="9"/>
       <c r="H15" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -4313,25 +4543,31 @@
         <v>9</v>
       </c>
       <c r="N15" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="87" t="s">
-        <v>120</v>
+        <v>24</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>119</v>
       </c>
       <c r="C16" s="73">
         <v>9</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="9"/>
+      <c r="E16" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>400</v>
+      </c>
       <c r="H16" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -4348,15 +4584,15 @@
         <v>9</v>
       </c>
       <c r="N16" s="54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="87" t="s">
-        <v>120</v>
+        <v>25</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>119</v>
       </c>
       <c r="C17" s="73">
         <v>9</v>
@@ -4366,7 +4602,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="9"/>
       <c r="H17" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -4383,15 +4619,15 @@
         <v>9</v>
       </c>
       <c r="N17" s="54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="87" t="s">
-        <v>120</v>
+        <v>26</v>
+      </c>
+      <c r="B18" s="86" t="s">
+        <v>119</v>
       </c>
       <c r="C18" s="73">
         <v>9</v>
@@ -4401,7 +4637,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="9"/>
       <c r="H18" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -4418,25 +4654,31 @@
         <v>9</v>
       </c>
       <c r="N18" s="54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>120</v>
+        <v>27</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>119</v>
       </c>
       <c r="C19" s="73">
         <v>9</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="9"/>
+      <c r="E19" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>381</v>
+      </c>
       <c r="H19" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -4453,15 +4695,15 @@
         <v>9</v>
       </c>
       <c r="N19" s="54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>120</v>
+        <v>28</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>119</v>
       </c>
       <c r="C20" s="73">
         <v>9</v>
@@ -4471,7 +4713,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
       <c r="H20" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -4488,50 +4730,56 @@
         <v>9</v>
       </c>
       <c r="N20" s="54" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="73">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="90" customFormat="1" ht="36.75">
+      <c r="A21" s="151" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="152">
         <v>9</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="38" t="str">
+      <c r="D21" s="153"/>
+      <c r="E21" s="154" t="s">
+        <v>401</v>
+      </c>
+      <c r="F21" s="154" t="s">
+        <v>402</v>
+      </c>
+      <c r="G21" s="155" t="s">
+        <v>403</v>
+      </c>
+      <c r="H21" s="154" t="s">
+        <v>404</v>
+      </c>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="157" t="str">
         <f t="shared" si="0"/>
         <v>OPARTGT018</v>
       </c>
-      <c r="L21" s="39" t="str">
+      <c r="L21" s="46" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Ammunition Factory </v>
       </c>
-      <c r="M21" s="39">
+      <c r="M21" s="46">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="N21" s="54" t="s">
-        <v>324</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="87" t="s">
-        <v>125</v>
+        <v>30</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>124</v>
       </c>
       <c r="C22" s="73">
         <v>9</v>
@@ -4559,10 +4807,10 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="87" t="s">
-        <v>125</v>
+        <v>31</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>124</v>
       </c>
       <c r="C23" s="73">
         <v>9</v>
@@ -4590,10 +4838,10 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="87" t="s">
-        <v>126</v>
+        <v>32</v>
+      </c>
+      <c r="B24" s="86" t="s">
+        <v>125</v>
       </c>
       <c r="C24" s="73">
         <v>9</v>
@@ -4603,7 +4851,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="9"/>
       <c r="H24" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -4620,25 +4868,25 @@
         <v>9</v>
       </c>
       <c r="N24" s="54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="87" t="s">
-        <v>126</v>
+        <v>33</v>
+      </c>
+      <c r="B25" s="86" t="s">
+        <v>125</v>
       </c>
       <c r="C25" s="73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="9"/>
       <c r="H25" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -4655,25 +4903,25 @@
         <v>9 / 13</v>
       </c>
       <c r="N25" s="54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="87" t="s">
-        <v>126</v>
+        <v>34</v>
+      </c>
+      <c r="B26" s="86" t="s">
+        <v>125</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="9"/>
       <c r="H26" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -4690,15 +4938,15 @@
         <v>9 / 13</v>
       </c>
       <c r="N26" s="54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="87" t="s">
-        <v>126</v>
+        <v>35</v>
+      </c>
+      <c r="B27" s="86" t="s">
+        <v>125</v>
       </c>
       <c r="C27" s="73">
         <v>9</v>
@@ -4708,7 +4956,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="9"/>
       <c r="H27" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -4725,15 +4973,15 @@
         <v>9</v>
       </c>
       <c r="N27" s="54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="87" t="s">
-        <v>126</v>
+        <v>36</v>
+      </c>
+      <c r="B28" s="86" t="s">
+        <v>125</v>
       </c>
       <c r="C28" s="73">
         <v>9</v>
@@ -4743,7 +4991,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="9"/>
       <c r="H28" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -4760,17 +5008,17 @@
         <v>9</v>
       </c>
       <c r="N28" s="54" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1">
-      <c r="A29" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="88" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="90">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A29" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="89">
         <v>9</v>
       </c>
       <c r="D29" s="69"/>
@@ -4778,7 +5026,7 @@
       <c r="F29" s="41"/>
       <c r="G29" s="42"/>
       <c r="H29" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I29" s="43"/>
       <c r="J29" s="8"/>
@@ -4795,17 +5043,17 @@
         <v>9</v>
       </c>
       <c r="N29" s="54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="76">
+        <v>38</v>
+      </c>
+      <c r="B30" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="75">
         <v>9</v>
       </c>
       <c r="D30" s="11"/>
@@ -4813,7 +5061,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="8"/>
@@ -4830,15 +5078,15 @@
         <v>9</v>
       </c>
       <c r="N30" s="54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="87" t="s">
-        <v>126</v>
+        <v>39</v>
+      </c>
+      <c r="B31" s="86" t="s">
+        <v>125</v>
       </c>
       <c r="C31" s="73">
         <v>9</v>
@@ -4848,7 +5096,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -4865,15 +5113,15 @@
         <v>9</v>
       </c>
       <c r="N31" s="54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="87" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>125</v>
       </c>
       <c r="C32" s="73">
         <v>9</v>
@@ -4883,7 +5131,7 @@
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
       <c r="H32" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I32" s="33"/>
       <c r="J32" s="8"/>
@@ -4900,15 +5148,15 @@
         <v>9</v>
       </c>
       <c r="N32" s="54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="87" t="s">
-        <v>201</v>
+        <v>129</v>
+      </c>
+      <c r="B33" s="86" t="s">
+        <v>200</v>
       </c>
       <c r="C33" s="73">
         <v>9</v>
@@ -4936,10 +5184,10 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="87" t="s">
-        <v>201</v>
+        <v>130</v>
+      </c>
+      <c r="B34" s="86" t="s">
+        <v>200</v>
       </c>
       <c r="C34" s="73">
         <v>9</v>
@@ -4967,10 +5215,10 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="87" t="s">
-        <v>201</v>
+        <v>131</v>
+      </c>
+      <c r="B35" s="86" t="s">
+        <v>200</v>
       </c>
       <c r="C35" s="73">
         <v>9</v>
@@ -4998,10 +5246,10 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="87" t="s">
-        <v>201</v>
+        <v>132</v>
+      </c>
+      <c r="B36" s="86" t="s">
+        <v>200</v>
       </c>
       <c r="C36" s="73">
         <v>9</v>
@@ -5027,15 +5275,15 @@
       </c>
       <c r="N36" s="54"/>
     </row>
-    <row r="37" spans="1:14" ht="28.8">
+    <row r="37" spans="1:14" ht="30">
       <c r="A37" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="87" t="s">
-        <v>202</v>
+        <v>133</v>
+      </c>
+      <c r="B37" s="86" t="s">
+        <v>201</v>
       </c>
       <c r="C37" s="73" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D37" s="70"/>
       <c r="E37" s="37"/>
@@ -5057,18 +5305,18 @@
         <v>2 /12</v>
       </c>
       <c r="N37" s="54" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="28.8">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="30">
       <c r="A38" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" s="87" t="s">
-        <v>203</v>
+        <v>134</v>
+      </c>
+      <c r="B38" s="86" t="s">
+        <v>202</v>
       </c>
       <c r="C38" s="73" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D38" s="70"/>
       <c r="E38" s="37"/>
@@ -5090,15 +5338,15 @@
         <v>2 /12</v>
       </c>
       <c r="N38" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" s="87" t="s">
-        <v>204</v>
+        <v>135</v>
+      </c>
+      <c r="B39" s="86" t="s">
+        <v>203</v>
       </c>
       <c r="C39" s="73">
         <v>3</v>
@@ -5126,10 +5374,10 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="B40" s="87" t="s">
-        <v>205</v>
+        <v>136</v>
+      </c>
+      <c r="B40" s="86" t="s">
+        <v>204</v>
       </c>
       <c r="C40" s="73">
         <v>3</v>
@@ -5157,10 +5405,10 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" s="87" t="s">
-        <v>206</v>
+        <v>137</v>
+      </c>
+      <c r="B41" s="86" t="s">
+        <v>205</v>
       </c>
       <c r="C41" s="73">
         <v>3</v>
@@ -5188,10 +5436,10 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="87" t="s">
-        <v>207</v>
+        <v>138</v>
+      </c>
+      <c r="B42" s="86" t="s">
+        <v>206</v>
       </c>
       <c r="C42" s="73">
         <v>3</v>
@@ -5219,10 +5467,10 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" s="87" t="s">
-        <v>208</v>
+        <v>139</v>
+      </c>
+      <c r="B43" s="86" t="s">
+        <v>207</v>
       </c>
       <c r="C43" s="73">
         <v>3</v>
@@ -5250,10 +5498,10 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="B44" s="87" t="s">
-        <v>209</v>
+        <v>140</v>
+      </c>
+      <c r="B44" s="86" t="s">
+        <v>208</v>
       </c>
       <c r="C44" s="73">
         <v>3</v>
@@ -5281,10 +5529,10 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" s="87" t="s">
-        <v>210</v>
+        <v>141</v>
+      </c>
+      <c r="B45" s="86" t="s">
+        <v>209</v>
       </c>
       <c r="C45" s="73">
         <v>3</v>
@@ -5312,10 +5560,10 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" s="87" t="s">
-        <v>211</v>
+        <v>142</v>
+      </c>
+      <c r="B46" s="86" t="s">
+        <v>210</v>
       </c>
       <c r="C46" s="73">
         <v>3</v>
@@ -5325,7 +5573,7 @@
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
       <c r="H46" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I46" s="33"/>
       <c r="J46" s="8"/>
@@ -5345,10 +5593,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" s="87" t="s">
-        <v>213</v>
+        <v>143</v>
+      </c>
+      <c r="B47" s="86" t="s">
+        <v>212</v>
       </c>
       <c r="C47" s="73">
         <v>3</v>
@@ -5376,10 +5624,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="B48" s="87" t="s">
-        <v>214</v>
+        <v>144</v>
+      </c>
+      <c r="B48" s="86" t="s">
+        <v>213</v>
       </c>
       <c r="C48" s="73">
         <v>3</v>
@@ -5407,10 +5655,10 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" s="87" t="s">
-        <v>215</v>
+        <v>145</v>
+      </c>
+      <c r="B49" s="86" t="s">
+        <v>214</v>
       </c>
       <c r="C49" s="73">
         <v>3</v>
@@ -5438,10 +5686,10 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="87" t="s">
-        <v>216</v>
+        <v>146</v>
+      </c>
+      <c r="B50" s="86" t="s">
+        <v>215</v>
       </c>
       <c r="C50" s="73">
         <v>3</v>
@@ -5469,10 +5717,10 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="87" t="s">
-        <v>217</v>
+        <v>147</v>
+      </c>
+      <c r="B51" s="86" t="s">
+        <v>216</v>
       </c>
       <c r="C51" s="73">
         <v>3</v>
@@ -5500,10 +5748,10 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" s="87" t="s">
-        <v>218</v>
+        <v>148</v>
+      </c>
+      <c r="B52" s="86" t="s">
+        <v>217</v>
       </c>
       <c r="C52" s="73">
         <v>3</v>
@@ -5528,15 +5776,15 @@
         <v>3</v>
       </c>
       <c r="N52" s="54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="B53" s="87" t="s">
-        <v>219</v>
+        <v>149</v>
+      </c>
+      <c r="B53" s="86" t="s">
+        <v>218</v>
       </c>
       <c r="C53" s="73">
         <v>3</v>
@@ -5556,7 +5804,7 @@
         <f t="shared" si="7"/>
         <v>Damascus Int Airport</v>
       </c>
-      <c r="M53" s="89">
+      <c r="M53" s="88">
         <f>C53</f>
         <v>3</v>
       </c>
@@ -5564,10 +5812,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="B54" s="87" t="s">
-        <v>220</v>
+        <v>150</v>
+      </c>
+      <c r="B54" s="86" t="s">
+        <v>219</v>
       </c>
       <c r="C54" s="73">
         <v>3</v>
@@ -5595,10 +5843,10 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="B55" s="87" t="s">
-        <v>221</v>
+        <v>151</v>
+      </c>
+      <c r="B55" s="86" t="s">
+        <v>220</v>
       </c>
       <c r="C55" s="73">
         <v>3</v>
@@ -5625,11 +5873,11 @@
       <c r="N55" s="54"/>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" s="87" t="s">
-        <v>222</v>
+      <c r="A56" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="86" t="s">
+        <v>221</v>
       </c>
       <c r="C56" s="73">
         <v>3</v>
@@ -5656,11 +5904,11 @@
       <c r="N56" s="54"/>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="B57" s="87" t="s">
-        <v>223</v>
+      <c r="A57" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="86" t="s">
+        <v>222</v>
       </c>
       <c r="C57" s="73">
         <v>3</v>
@@ -5687,11 +5935,11 @@
       <c r="N57" s="54"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="82" t="s">
-        <v>155</v>
-      </c>
-      <c r="B58" s="87" t="s">
-        <v>224</v>
+      <c r="A58" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="86" t="s">
+        <v>223</v>
       </c>
       <c r="C58" s="73">
         <v>6</v>
@@ -5719,10 +5967,10 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59" s="87" t="s">
-        <v>225</v>
+        <v>155</v>
+      </c>
+      <c r="B59" s="86" t="s">
+        <v>224</v>
       </c>
       <c r="C59" s="73">
         <v>6</v>
@@ -5732,7 +5980,7 @@
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
       <c r="H59" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I59" s="33"/>
       <c r="J59" s="8"/>
@@ -5752,10 +6000,10 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" s="87" t="s">
-        <v>226</v>
+        <v>156</v>
+      </c>
+      <c r="B60" s="86" t="s">
+        <v>225</v>
       </c>
       <c r="C60" s="73">
         <v>1</v>
@@ -5781,12 +6029,12 @@
       </c>
       <c r="N60" s="54"/>
     </row>
-    <row r="61" spans="1:14" ht="24">
+    <row r="61" spans="1:14" ht="24.75">
       <c r="A61" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C61" s="73">
         <v>1</v>
@@ -5812,14 +6060,14 @@
       </c>
       <c r="N61" s="54"/>
     </row>
-    <row r="62" spans="1:14" ht="24">
+    <row r="62" spans="1:14" ht="24.75">
       <c r="A62" s="49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="C62" s="77">
+        <v>226</v>
+      </c>
+      <c r="C62" s="76">
         <v>1</v>
       </c>
       <c r="D62" s="71"/>
@@ -5843,12 +6091,12 @@
       </c>
       <c r="N62" s="56"/>
     </row>
-    <row r="63" spans="1:14" ht="24">
+    <row r="63" spans="1:14" ht="24.75">
       <c r="A63" s="49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C63" s="73">
         <v>1</v>
@@ -5876,10 +6124,10 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C64" s="73">
         <v>1</v>
@@ -5905,22 +6153,28 @@
       </c>
       <c r="N64" s="24"/>
     </row>
-    <row r="65" spans="1:14" ht="28.8">
+    <row r="65" spans="1:14" ht="45">
       <c r="A65" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B65" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C65" s="73">
         <v>4</v>
       </c>
       <c r="D65" s="70"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
+      <c r="E65" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="F65" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="G65" s="37" t="s">
+        <v>343</v>
+      </c>
       <c r="H65" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I65" s="33"/>
       <c r="J65" s="8"/>
@@ -5937,15 +6191,15 @@
         <v>4</v>
       </c>
       <c r="N65" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C66" s="73">
         <v>9</v>
@@ -5955,7 +6209,7 @@
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
       <c r="H66" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I66" s="33"/>
       <c r="J66" s="8"/>
@@ -5972,15 +6226,15 @@
         <v>9</v>
       </c>
       <c r="N66" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C67" s="73">
         <v>5</v>
@@ -6005,15 +6259,15 @@
         <v>5</v>
       </c>
       <c r="N67" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C68" s="73">
         <v>5</v>
@@ -6038,15 +6292,15 @@
         <v>5</v>
       </c>
       <c r="N68" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B69" s="47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C69" s="73">
         <v>4</v>
@@ -6071,15 +6325,15 @@
         <v>4</v>
       </c>
       <c r="N69" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B70" s="47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C70" s="73">
         <v>4</v>
@@ -6104,15 +6358,15 @@
         <v>4</v>
       </c>
       <c r="N70" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B71" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C71" s="73">
         <v>4</v>
@@ -6137,15 +6391,15 @@
         <v>4</v>
       </c>
       <c r="N71" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B72" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C72" s="73">
         <v>4</v>
@@ -6170,15 +6424,15 @@
         <v>4</v>
       </c>
       <c r="N72" s="24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="24.75">
       <c r="A73" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C73" s="73">
         <v>12</v>
@@ -6203,18 +6457,18 @@
         <v>12</v>
       </c>
       <c r="N73" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C74" s="73" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D74" s="70"/>
       <c r="E74" s="37"/>
@@ -6239,20 +6493,20 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C75" s="73" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D75" s="70"/>
       <c r="E75" s="37"/>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
       <c r="H75" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I75" s="33"/>
       <c r="J75" s="8"/>
@@ -6272,20 +6526,20 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B76" s="47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C76" s="73" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D76" s="70"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
       <c r="H76" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I76" s="33"/>
       <c r="J76" s="8"/>
@@ -6305,20 +6559,20 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B77" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="C77" s="73" t="s">
+        <v>340</v>
+      </c>
+      <c r="D77" s="70"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="C77" s="73" t="s">
-        <v>341</v>
-      </c>
-      <c r="D77" s="70"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="6" t="s">
-        <v>340</v>
       </c>
       <c r="I77" s="33"/>
       <c r="J77" s="8"/>
@@ -6338,24 +6592,34 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="B78" s="47"/>
+        <v>174</v>
+      </c>
+      <c r="B78" s="47" t="s">
+        <v>344</v>
+      </c>
       <c r="C78" s="73"/>
       <c r="D78" s="70"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="6"/>
+      <c r="E78" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>348</v>
+      </c>
       <c r="I78" s="33"/>
       <c r="J78" s="8"/>
       <c r="K78" s="58" t="str">
         <f t="shared" si="9"/>
         <v>OPARTGT075</v>
       </c>
-      <c r="L78" s="46">
+      <c r="L78" s="46" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1st Corps Base</v>
       </c>
       <c r="M78" s="39">
         <f t="shared" si="11"/>
@@ -6365,14 +6629,22 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" s="47"/>
+        <v>175</v>
+      </c>
+      <c r="B79" s="47" t="s">
+        <v>349</v>
+      </c>
       <c r="C79" s="73"/>
       <c r="D79" s="70"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
+      <c r="E79" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>367</v>
+      </c>
       <c r="H79" s="6"/>
       <c r="I79" s="33"/>
       <c r="J79" s="8"/>
@@ -6380,9 +6652,9 @@
         <f t="shared" si="9"/>
         <v>OPARTGT076</v>
       </c>
-      <c r="L79" s="46">
+      <c r="L79" s="46" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2nd Corps Base</v>
       </c>
       <c r="M79" s="39">
         <f t="shared" si="11"/>
@@ -6392,14 +6664,22 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="B80" s="47"/>
+        <v>176</v>
+      </c>
+      <c r="B80" s="47" t="s">
+        <v>350</v>
+      </c>
       <c r="C80" s="73"/>
       <c r="D80" s="70"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
+      <c r="E80" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>361</v>
+      </c>
       <c r="H80" s="6"/>
       <c r="I80" s="33"/>
       <c r="J80" s="8"/>
@@ -6407,9 +6687,9 @@
         <f t="shared" si="9"/>
         <v>OPARTGT077</v>
       </c>
-      <c r="L80" s="46">
+      <c r="L80" s="46" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3rd Corps Base</v>
       </c>
       <c r="M80" s="39">
         <f t="shared" si="11"/>
@@ -6419,14 +6699,22 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="B81" s="47"/>
+        <v>177</v>
+      </c>
+      <c r="B81" s="47" t="s">
+        <v>351</v>
+      </c>
       <c r="C81" s="73"/>
       <c r="D81" s="70"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
+      <c r="E81" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>358</v>
+      </c>
       <c r="H81" s="6"/>
       <c r="I81" s="33"/>
       <c r="J81" s="8"/>
@@ -6434,9 +6722,9 @@
         <f t="shared" si="9"/>
         <v>OPARTGT078</v>
       </c>
-      <c r="L81" s="46">
+      <c r="L81" s="46" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4th Corps Base</v>
       </c>
       <c r="M81" s="39">
         <f t="shared" si="11"/>
@@ -6446,14 +6734,22 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="B82" s="47"/>
+        <v>178</v>
+      </c>
+      <c r="B82" s="47" t="s">
+        <v>352</v>
+      </c>
       <c r="C82" s="73"/>
       <c r="D82" s="70"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
+      <c r="E82" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>364</v>
+      </c>
       <c r="H82" s="6"/>
       <c r="I82" s="33"/>
       <c r="J82" s="8"/>
@@ -6461,9 +6757,9 @@
         <f t="shared" si="9"/>
         <v>OPARTGT079</v>
       </c>
-      <c r="L82" s="46">
+      <c r="L82" s="46" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5th Corps Base</v>
       </c>
       <c r="M82" s="39">
         <f t="shared" si="11"/>
@@ -6473,14 +6769,22 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="B83" s="47"/>
+        <v>179</v>
+      </c>
+      <c r="B83" s="47" t="s">
+        <v>353</v>
+      </c>
       <c r="C83" s="73"/>
       <c r="D83" s="70"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
+      <c r="E83" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>359</v>
+      </c>
       <c r="H83" s="6"/>
       <c r="I83" s="33"/>
       <c r="J83" s="8"/>
@@ -6488,9 +6792,9 @@
         <f t="shared" si="9"/>
         <v>OPARTGT080</v>
       </c>
-      <c r="L83" s="46">
+      <c r="L83" s="46" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>Ammunition storage</v>
       </c>
       <c r="M83" s="39">
         <f t="shared" si="11"/>
@@ -6499,15 +6803,23 @@
       <c r="N83" s="24"/>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="B84" s="47"/>
+      <c r="A84" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" s="47" t="s">
+        <v>368</v>
+      </c>
       <c r="C84" s="73"/>
       <c r="D84" s="70"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
+      <c r="E84" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>371</v>
+      </c>
       <c r="H84" s="6"/>
       <c r="I84" s="33"/>
       <c r="J84" s="8"/>
@@ -6515,9 +6827,9 @@
         <f t="shared" si="9"/>
         <v>OPARTGT081</v>
       </c>
-      <c r="L84" s="46">
+      <c r="L84" s="46" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>Military Research</v>
       </c>
       <c r="M84" s="39">
         <f t="shared" si="11"/>
@@ -6526,15 +6838,23 @@
       <c r="N84" s="24"/>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="B85" s="47"/>
+      <c r="A85" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" s="47" t="s">
+        <v>383</v>
+      </c>
       <c r="C85" s="73"/>
       <c r="D85" s="70"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
+      <c r="E85" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>374</v>
+      </c>
       <c r="H85" s="6"/>
       <c r="I85" s="33"/>
       <c r="J85" s="8"/>
@@ -6542,9 +6862,9 @@
         <f t="shared" si="9"/>
         <v>OPARTGT082</v>
       </c>
-      <c r="L85" s="46">
+      <c r="L85" s="46" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>Powerplant-Coal</v>
       </c>
       <c r="M85" s="39">
         <f t="shared" si="11"/>
@@ -6553,15 +6873,23 @@
       <c r="N85" s="24"/>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="B86" s="47"/>
+      <c r="A86" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86" s="47" t="s">
+        <v>375</v>
+      </c>
       <c r="C86" s="73"/>
       <c r="D86" s="70"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
+      <c r="E86" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>378</v>
+      </c>
       <c r="H86" s="6"/>
       <c r="I86" s="33"/>
       <c r="J86" s="8"/>
@@ -6569,9 +6897,9 @@
         <f t="shared" si="9"/>
         <v>OPARTGT083</v>
       </c>
-      <c r="L86" s="46">
+      <c r="L86" s="46" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>Powerdistribution</v>
       </c>
       <c r="M86" s="39">
         <f t="shared" si="11"/>
@@ -6580,15 +6908,23 @@
       <c r="N86" s="24"/>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="82" t="s">
-        <v>184</v>
-      </c>
-      <c r="B87" s="47"/>
+      <c r="A87" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" s="47" t="s">
+        <v>382</v>
+      </c>
       <c r="C87" s="73"/>
       <c r="D87" s="70"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
+      <c r="E87" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="H87" s="6"/>
       <c r="I87" s="33"/>
       <c r="J87" s="8"/>
@@ -6596,9 +6932,9 @@
         <f t="shared" si="9"/>
         <v>OPARTGT084</v>
       </c>
-      <c r="L87" s="46">
+      <c r="L87" s="46" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>Powerplant - Coal</v>
       </c>
       <c r="M87" s="39">
         <f t="shared" si="11"/>
@@ -6608,14 +6944,22 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="B88" s="47"/>
+        <v>184</v>
+      </c>
+      <c r="B88" s="47" t="s">
+        <v>384</v>
+      </c>
       <c r="C88" s="73"/>
       <c r="D88" s="70"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
+      <c r="E88" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>390</v>
+      </c>
       <c r="H88" s="6"/>
       <c r="I88" s="33"/>
       <c r="J88" s="8"/>
@@ -6623,9 +6967,9 @@
         <f t="shared" si="9"/>
         <v>OPARTGT085</v>
       </c>
-      <c r="L88" s="46">
+      <c r="L88" s="46" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>Oil Storage</v>
       </c>
       <c r="M88" s="39">
         <f t="shared" si="11"/>
@@ -6633,16 +6977,24 @@
       </c>
       <c r="N88" s="24"/>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" ht="24.75">
       <c r="A89" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="B89" s="47"/>
+        <v>185</v>
+      </c>
+      <c r="B89" s="47" t="s">
+        <v>391</v>
+      </c>
       <c r="C89" s="73"/>
       <c r="D89" s="70"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
+      <c r="E89" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>394</v>
+      </c>
       <c r="H89" s="6"/>
       <c r="I89" s="33"/>
       <c r="J89" s="8"/>
@@ -6650,9 +7002,9 @@
         <f t="shared" si="9"/>
         <v>OPARTGT086</v>
       </c>
-      <c r="L89" s="46">
+      <c r="L89" s="46" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>Syrian Armed Forces Commander residens</v>
       </c>
       <c r="M89" s="39">
         <f t="shared" si="11"/>
@@ -6662,14 +7014,22 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="B90" s="47"/>
+        <v>186</v>
+      </c>
+      <c r="B90" s="47" t="s">
+        <v>384</v>
+      </c>
       <c r="C90" s="73"/>
       <c r="D90" s="70"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
+      <c r="E90" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>408</v>
+      </c>
       <c r="H90" s="6"/>
       <c r="I90" s="33"/>
       <c r="J90" s="8"/>
@@ -6677,9 +7037,9 @@
         <f t="shared" si="9"/>
         <v>OPARTGT087</v>
       </c>
-      <c r="L90" s="46">
+      <c r="L90" s="46" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>Oil Storage</v>
       </c>
       <c r="M90" s="39">
         <f t="shared" si="11"/>
@@ -6689,14 +7049,14 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B91" s="47"/>
       <c r="C91" s="73"/>
       <c r="D91" s="70"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="33"/>
       <c r="J91" s="8"/>
@@ -6716,14 +7076,14 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B92" s="47"/>
       <c r="C92" s="73"/>
       <c r="D92" s="70"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="33"/>
       <c r="J92" s="8"/>
@@ -6743,14 +7103,14 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B93" s="47"/>
       <c r="C93" s="73"/>
       <c r="D93" s="70"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="33"/>
       <c r="J93" s="33"/>
@@ -6770,14 +7130,14 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B94" s="47"/>
       <c r="C94" s="73"/>
       <c r="D94" s="70"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="33"/>
       <c r="J94" s="33"/>
@@ -6797,14 +7157,14 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B95" s="47"/>
       <c r="C95" s="73"/>
       <c r="D95" s="70"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="33"/>
       <c r="J95" s="33"/>
@@ -6824,14 +7184,14 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B96" s="47"/>
       <c r="C96" s="73"/>
       <c r="D96" s="70"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="33"/>
       <c r="J96" s="33"/>
@@ -6851,14 +7211,14 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B97" s="47"/>
       <c r="C97" s="73"/>
       <c r="D97" s="70"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="33"/>
       <c r="J97" s="33"/>
@@ -6878,14 +7238,14 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B98" s="47"/>
       <c r="C98" s="73"/>
       <c r="D98" s="70"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="33"/>
       <c r="J98" s="33"/>
@@ -6905,14 +7265,14 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B99" s="47"/>
       <c r="C99" s="73"/>
       <c r="D99" s="70"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="33"/>
       <c r="J99" s="33"/>
@@ -6932,14 +7292,14 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B100" s="47"/>
       <c r="C100" s="73"/>
       <c r="D100" s="70"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="37"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="33"/>
       <c r="J100" s="33"/>
@@ -6959,14 +7319,14 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B101" s="47"/>
       <c r="C101" s="73"/>
       <c r="D101" s="70"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="33"/>
       <c r="J101" s="33"/>
@@ -6986,14 +7346,14 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B102" s="47"/>
       <c r="C102" s="73"/>
       <c r="D102" s="70"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" s="33"/>
       <c r="J102" s="33"/>
@@ -7013,14 +7373,14 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B103" s="47"/>
       <c r="C103" s="73"/>
       <c r="D103" s="70"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="33"/>
       <c r="J103" s="33"/>
@@ -7039,9 +7399,9 @@
       <c r="N103" s="24"/>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="83"/>
-      <c r="B104" s="83"/>
-      <c r="C104" s="78"/>
+      <c r="A104" s="82"/>
+      <c r="B104" s="82"/>
+      <c r="C104" s="77"/>
       <c r="D104" s="72"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -7049,9 +7409,9 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="83"/>
-      <c r="B105" s="83"/>
-      <c r="C105" s="78"/>
+      <c r="A105" s="82"/>
+      <c r="B105" s="82"/>
+      <c r="C105" s="77"/>
       <c r="D105" s="72"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -7059,9 +7419,9 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="83"/>
-      <c r="B106" s="83"/>
-      <c r="C106" s="78"/>
+      <c r="A106" s="82"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="77"/>
       <c r="D106" s="72"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -7069,9 +7429,9 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:14">
-      <c r="A107" s="83"/>
-      <c r="B107" s="83"/>
-      <c r="C107" s="78"/>
+      <c r="A107" s="82"/>
+      <c r="B107" s="82"/>
+      <c r="C107" s="77"/>
       <c r="D107" s="72"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -7079,9 +7439,9 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="83"/>
-      <c r="B108" s="83"/>
-      <c r="C108" s="78"/>
+      <c r="A108" s="82"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="77"/>
       <c r="D108" s="72"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -7089,9 +7449,9 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:14">
-      <c r="A109" s="83"/>
-      <c r="B109" s="83"/>
-      <c r="C109" s="78"/>
+      <c r="A109" s="82"/>
+      <c r="B109" s="82"/>
+      <c r="C109" s="77"/>
       <c r="D109" s="72"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -7099,9 +7459,9 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:14">
-      <c r="A110" s="83"/>
-      <c r="B110" s="83"/>
-      <c r="C110" s="78"/>
+      <c r="A110" s="82"/>
+      <c r="B110" s="82"/>
+      <c r="C110" s="77"/>
       <c r="D110" s="72"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -7109,9 +7469,9 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:14">
-      <c r="A111" s="83"/>
-      <c r="B111" s="83"/>
-      <c r="C111" s="78"/>
+      <c r="A111" s="82"/>
+      <c r="B111" s="82"/>
+      <c r="C111" s="77"/>
       <c r="D111" s="72"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -7119,9 +7479,9 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:14">
-      <c r="A112" s="83"/>
-      <c r="B112" s="83"/>
-      <c r="C112" s="78"/>
+      <c r="A112" s="82"/>
+      <c r="B112" s="82"/>
+      <c r="C112" s="77"/>
       <c r="D112" s="72"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -7129,9 +7489,9 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="83"/>
-      <c r="B113" s="83"/>
-      <c r="C113" s="78"/>
+      <c r="A113" s="82"/>
+      <c r="B113" s="82"/>
+      <c r="C113" s="77"/>
       <c r="D113" s="72"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -7139,9 +7499,9 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="83"/>
-      <c r="B114" s="83"/>
-      <c r="C114" s="78"/>
+      <c r="A114" s="82"/>
+      <c r="B114" s="82"/>
+      <c r="C114" s="77"/>
       <c r="D114" s="72"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -7149,9 +7509,9 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="83"/>
-      <c r="B115" s="83"/>
-      <c r="C115" s="78"/>
+      <c r="A115" s="82"/>
+      <c r="B115" s="82"/>
+      <c r="C115" s="77"/>
       <c r="D115" s="72"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -7159,9 +7519,9 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="83"/>
-      <c r="B116" s="83"/>
-      <c r="C116" s="78"/>
+      <c r="A116" s="82"/>
+      <c r="B116" s="82"/>
+      <c r="C116" s="77"/>
       <c r="D116" s="72"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -7169,9 +7529,9 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="83"/>
-      <c r="B117" s="83"/>
-      <c r="C117" s="78"/>
+      <c r="A117" s="82"/>
+      <c r="B117" s="82"/>
+      <c r="C117" s="77"/>
       <c r="D117" s="72"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -7179,9 +7539,9 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="83"/>
-      <c r="B118" s="83"/>
-      <c r="C118" s="78"/>
+      <c r="A118" s="82"/>
+      <c r="B118" s="82"/>
+      <c r="C118" s="77"/>
       <c r="D118" s="72"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -7189,9 +7549,9 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="83"/>
-      <c r="B119" s="83"/>
-      <c r="C119" s="78"/>
+      <c r="A119" s="82"/>
+      <c r="B119" s="82"/>
+      <c r="C119" s="77"/>
       <c r="D119" s="72"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -7199,9 +7559,9 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="83"/>
-      <c r="B120" s="83"/>
-      <c r="C120" s="78"/>
+      <c r="A120" s="82"/>
+      <c r="B120" s="82"/>
+      <c r="C120" s="77"/>
       <c r="D120" s="72"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -7209,9 +7569,9 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="83"/>
-      <c r="B121" s="83"/>
-      <c r="C121" s="78"/>
+      <c r="A121" s="82"/>
+      <c r="B121" s="82"/>
+      <c r="C121" s="77"/>
       <c r="D121" s="72"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -7219,9 +7579,9 @@
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="83"/>
-      <c r="B122" s="83"/>
-      <c r="C122" s="78"/>
+      <c r="A122" s="82"/>
+      <c r="B122" s="82"/>
+      <c r="C122" s="77"/>
       <c r="D122" s="72"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -7229,9 +7589,9 @@
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="83"/>
-      <c r="B123" s="83"/>
-      <c r="C123" s="78"/>
+      <c r="A123" s="82"/>
+      <c r="B123" s="82"/>
+      <c r="C123" s="77"/>
       <c r="D123" s="72"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -7239,9 +7599,9 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="83"/>
-      <c r="B124" s="83"/>
-      <c r="C124" s="78"/>
+      <c r="A124" s="82"/>
+      <c r="B124" s="82"/>
+      <c r="C124" s="77"/>
       <c r="D124" s="72"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -7249,9 +7609,9 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="83"/>
-      <c r="B125" s="83"/>
-      <c r="C125" s="78"/>
+      <c r="A125" s="82"/>
+      <c r="B125" s="82"/>
+      <c r="C125" s="77"/>
       <c r="D125" s="72"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -7259,9 +7619,9 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="83"/>
-      <c r="B126" s="83"/>
-      <c r="C126" s="78"/>
+      <c r="A126" s="82"/>
+      <c r="B126" s="82"/>
+      <c r="C126" s="77"/>
       <c r="D126" s="72"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -7269,9 +7629,9 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="83"/>
-      <c r="B127" s="83"/>
-      <c r="C127" s="78"/>
+      <c r="A127" s="82"/>
+      <c r="B127" s="82"/>
+      <c r="C127" s="77"/>
       <c r="D127" s="72"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -7279,9 +7639,9 @@
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="83"/>
-      <c r="B128" s="83"/>
-      <c r="C128" s="78"/>
+      <c r="A128" s="82"/>
+      <c r="B128" s="82"/>
+      <c r="C128" s="77"/>
       <c r="D128" s="72"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -7289,9 +7649,9 @@
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="83"/>
-      <c r="B129" s="83"/>
-      <c r="C129" s="78"/>
+      <c r="A129" s="82"/>
+      <c r="B129" s="82"/>
+      <c r="C129" s="77"/>
       <c r="D129" s="72"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -7299,9 +7659,9 @@
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="83"/>
-      <c r="B130" s="83"/>
-      <c r="C130" s="78"/>
+      <c r="A130" s="82"/>
+      <c r="B130" s="82"/>
+      <c r="C130" s="77"/>
       <c r="D130" s="72"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -7309,9 +7669,9 @@
       <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="83"/>
-      <c r="B131" s="83"/>
-      <c r="C131" s="78"/>
+      <c r="A131" s="82"/>
+      <c r="B131" s="82"/>
+      <c r="C131" s="77"/>
       <c r="D131" s="72"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -7319,9 +7679,9 @@
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="83"/>
-      <c r="B132" s="83"/>
-      <c r="C132" s="78"/>
+      <c r="A132" s="82"/>
+      <c r="B132" s="82"/>
+      <c r="C132" s="77"/>
       <c r="D132" s="72"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -7329,9 +7689,9 @@
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="83"/>
-      <c r="B133" s="83"/>
-      <c r="C133" s="78"/>
+      <c r="A133" s="82"/>
+      <c r="B133" s="82"/>
+      <c r="C133" s="77"/>
       <c r="D133" s="72"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -7339,9 +7699,9 @@
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="83"/>
-      <c r="B134" s="83"/>
-      <c r="C134" s="78"/>
+      <c r="A134" s="82"/>
+      <c r="B134" s="82"/>
+      <c r="C134" s="77"/>
       <c r="D134" s="72"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -7349,9 +7709,9 @@
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="83"/>
-      <c r="B135" s="83"/>
-      <c r="C135" s="78"/>
+      <c r="A135" s="82"/>
+      <c r="B135" s="82"/>
+      <c r="C135" s="77"/>
       <c r="D135" s="72"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -7359,9 +7719,9 @@
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="83"/>
-      <c r="B136" s="83"/>
-      <c r="C136" s="78"/>
+      <c r="A136" s="82"/>
+      <c r="B136" s="82"/>
+      <c r="C136" s="77"/>
       <c r="D136" s="72"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -7369,9 +7729,9 @@
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="83"/>
-      <c r="B137" s="83"/>
-      <c r="C137" s="78"/>
+      <c r="A137" s="82"/>
+      <c r="B137" s="82"/>
+      <c r="C137" s="77"/>
       <c r="D137" s="72"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -7379,9 +7739,9 @@
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="83"/>
-      <c r="B138" s="83"/>
-      <c r="C138" s="78"/>
+      <c r="A138" s="82"/>
+      <c r="B138" s="82"/>
+      <c r="C138" s="77"/>
       <c r="D138" s="72"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -7389,9 +7749,9 @@
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="83"/>
-      <c r="B139" s="83"/>
-      <c r="C139" s="78"/>
+      <c r="A139" s="82"/>
+      <c r="B139" s="82"/>
+      <c r="C139" s="77"/>
       <c r="D139" s="72"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -7399,9 +7759,9 @@
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="83"/>
-      <c r="B140" s="83"/>
-      <c r="C140" s="78"/>
+      <c r="A140" s="82"/>
+      <c r="B140" s="82"/>
+      <c r="C140" s="77"/>
       <c r="D140" s="72"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -7409,9 +7769,9 @@
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="83"/>
-      <c r="B141" s="83"/>
-      <c r="C141" s="78"/>
+      <c r="A141" s="82"/>
+      <c r="B141" s="82"/>
+      <c r="C141" s="77"/>
       <c r="D141" s="72"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -7419,9 +7779,9 @@
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="83"/>
-      <c r="B142" s="83"/>
-      <c r="C142" s="78"/>
+      <c r="A142" s="82"/>
+      <c r="B142" s="82"/>
+      <c r="C142" s="77"/>
       <c r="D142" s="72"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -7429,9 +7789,9 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="83"/>
-      <c r="B143" s="83"/>
-      <c r="C143" s="78"/>
+      <c r="A143" s="82"/>
+      <c r="B143" s="82"/>
+      <c r="C143" s="77"/>
       <c r="D143" s="72"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -7439,9 +7799,9 @@
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="83"/>
-      <c r="B144" s="83"/>
-      <c r="C144" s="78"/>
+      <c r="A144" s="82"/>
+      <c r="B144" s="82"/>
+      <c r="C144" s="77"/>
       <c r="D144" s="72"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -7449,9 +7809,9 @@
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="83"/>
-      <c r="B145" s="83"/>
-      <c r="C145" s="78"/>
+      <c r="A145" s="82"/>
+      <c r="B145" s="82"/>
+      <c r="C145" s="77"/>
       <c r="D145" s="72"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -7459,9 +7819,9 @@
       <c r="H145" s="1"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="83"/>
-      <c r="B146" s="83"/>
-      <c r="C146" s="78"/>
+      <c r="A146" s="82"/>
+      <c r="B146" s="82"/>
+      <c r="C146" s="77"/>
       <c r="D146" s="72"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -7469,9 +7829,9 @@
       <c r="H146" s="1"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="83"/>
-      <c r="B147" s="83"/>
-      <c r="C147" s="78"/>
+      <c r="A147" s="82"/>
+      <c r="B147" s="82"/>
+      <c r="C147" s="77"/>
       <c r="D147" s="72"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -7479,9 +7839,9 @@
       <c r="H147" s="1"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="83"/>
-      <c r="B148" s="83"/>
-      <c r="C148" s="78"/>
+      <c r="A148" s="82"/>
+      <c r="B148" s="82"/>
+      <c r="C148" s="77"/>
       <c r="D148" s="72"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -7489,9 +7849,9 @@
       <c r="H148" s="1"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="83"/>
-      <c r="B149" s="83"/>
-      <c r="C149" s="78"/>
+      <c r="A149" s="82"/>
+      <c r="B149" s="82"/>
+      <c r="C149" s="77"/>
       <c r="D149" s="72"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -7499,9 +7859,9 @@
       <c r="H149" s="1"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="83"/>
-      <c r="B150" s="83"/>
-      <c r="C150" s="78"/>
+      <c r="A150" s="82"/>
+      <c r="B150" s="82"/>
+      <c r="C150" s="77"/>
       <c r="D150" s="72"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -7509,9 +7869,9 @@
       <c r="H150" s="1"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="83"/>
-      <c r="B151" s="83"/>
-      <c r="C151" s="78"/>
+      <c r="A151" s="82"/>
+      <c r="B151" s="82"/>
+      <c r="C151" s="77"/>
       <c r="D151" s="72"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -7519,9 +7879,9 @@
       <c r="H151" s="1"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="83"/>
-      <c r="B152" s="83"/>
-      <c r="C152" s="78"/>
+      <c r="A152" s="82"/>
+      <c r="B152" s="82"/>
+      <c r="C152" s="77"/>
       <c r="D152" s="72"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -7529,9 +7889,9 @@
       <c r="H152" s="1"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="83"/>
-      <c r="B153" s="83"/>
-      <c r="C153" s="78"/>
+      <c r="A153" s="82"/>
+      <c r="B153" s="82"/>
+      <c r="C153" s="77"/>
       <c r="D153" s="72"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -7539,9 +7899,9 @@
       <c r="H153" s="1"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="83"/>
-      <c r="B154" s="83"/>
-      <c r="C154" s="78"/>
+      <c r="A154" s="82"/>
+      <c r="B154" s="82"/>
+      <c r="C154" s="77"/>
       <c r="D154" s="72"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -7549,9 +7909,9 @@
       <c r="H154" s="1"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="83"/>
-      <c r="B155" s="83"/>
-      <c r="C155" s="78"/>
+      <c r="A155" s="82"/>
+      <c r="B155" s="82"/>
+      <c r="C155" s="77"/>
       <c r="D155" s="72"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -7559,9 +7919,9 @@
       <c r="H155" s="1"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="83"/>
-      <c r="B156" s="83"/>
-      <c r="C156" s="78"/>
+      <c r="A156" s="82"/>
+      <c r="B156" s="82"/>
+      <c r="C156" s="77"/>
       <c r="D156" s="72"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -7569,9 +7929,9 @@
       <c r="H156" s="1"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="83"/>
-      <c r="B157" s="83"/>
-      <c r="C157" s="78"/>
+      <c r="A157" s="82"/>
+      <c r="B157" s="82"/>
+      <c r="C157" s="77"/>
       <c r="D157" s="72"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -7579,9 +7939,9 @@
       <c r="H157" s="1"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="83"/>
-      <c r="B158" s="83"/>
-      <c r="C158" s="78"/>
+      <c r="A158" s="82"/>
+      <c r="B158" s="82"/>
+      <c r="C158" s="77"/>
       <c r="D158" s="72"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -7589,9 +7949,9 @@
       <c r="H158" s="1"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="83"/>
-      <c r="B159" s="83"/>
-      <c r="C159" s="78"/>
+      <c r="A159" s="82"/>
+      <c r="B159" s="82"/>
+      <c r="C159" s="77"/>
       <c r="D159" s="72"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -7599,9 +7959,9 @@
       <c r="H159" s="1"/>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="83"/>
-      <c r="B160" s="83"/>
-      <c r="C160" s="78"/>
+      <c r="A160" s="82"/>
+      <c r="B160" s="82"/>
+      <c r="C160" s="77"/>
       <c r="D160" s="72"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -7609,9 +7969,9 @@
       <c r="H160" s="1"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="83"/>
-      <c r="B161" s="83"/>
-      <c r="C161" s="78"/>
+      <c r="A161" s="82"/>
+      <c r="B161" s="82"/>
+      <c r="C161" s="77"/>
       <c r="D161" s="72"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -7619,9 +7979,9 @@
       <c r="H161" s="1"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="83"/>
-      <c r="B162" s="83"/>
-      <c r="C162" s="78"/>
+      <c r="A162" s="82"/>
+      <c r="B162" s="82"/>
+      <c r="C162" s="77"/>
       <c r="D162" s="72"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -7629,9 +7989,9 @@
       <c r="H162" s="1"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="83"/>
-      <c r="B163" s="83"/>
-      <c r="C163" s="78"/>
+      <c r="A163" s="82"/>
+      <c r="B163" s="82"/>
+      <c r="C163" s="77"/>
       <c r="D163" s="72"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -7639,9 +7999,9 @@
       <c r="H163" s="1"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="83"/>
-      <c r="B164" s="83"/>
-      <c r="C164" s="78"/>
+      <c r="A164" s="82"/>
+      <c r="B164" s="82"/>
+      <c r="C164" s="77"/>
       <c r="D164" s="72"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -7649,9 +8009,9 @@
       <c r="H164" s="1"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="83"/>
-      <c r="B165" s="83"/>
-      <c r="C165" s="78"/>
+      <c r="A165" s="82"/>
+      <c r="B165" s="82"/>
+      <c r="C165" s="77"/>
       <c r="D165" s="72"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -7659,9 +8019,9 @@
       <c r="H165" s="1"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="83"/>
-      <c r="B166" s="83"/>
-      <c r="C166" s="78"/>
+      <c r="A166" s="82"/>
+      <c r="B166" s="82"/>
+      <c r="C166" s="77"/>
       <c r="D166" s="72"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -7669,9 +8029,9 @@
       <c r="H166" s="1"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="83"/>
-      <c r="B167" s="83"/>
-      <c r="C167" s="78"/>
+      <c r="A167" s="82"/>
+      <c r="B167" s="82"/>
+      <c r="C167" s="77"/>
       <c r="D167" s="72"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -7679,9 +8039,9 @@
       <c r="H167" s="1"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="83"/>
-      <c r="B168" s="83"/>
-      <c r="C168" s="78"/>
+      <c r="A168" s="82"/>
+      <c r="B168" s="82"/>
+      <c r="C168" s="77"/>
       <c r="D168" s="72"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -7689,9 +8049,9 @@
       <c r="H168" s="1"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="83"/>
-      <c r="B169" s="83"/>
-      <c r="C169" s="78"/>
+      <c r="A169" s="82"/>
+      <c r="B169" s="82"/>
+      <c r="C169" s="77"/>
       <c r="D169" s="72"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -7699,9 +8059,9 @@
       <c r="H169" s="1"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="83"/>
-      <c r="B170" s="83"/>
-      <c r="C170" s="78"/>
+      <c r="A170" s="82"/>
+      <c r="B170" s="82"/>
+      <c r="C170" s="77"/>
       <c r="D170" s="72"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -7709,9 +8069,9 @@
       <c r="H170" s="1"/>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="83"/>
-      <c r="B171" s="83"/>
-      <c r="C171" s="78"/>
+      <c r="A171" s="82"/>
+      <c r="B171" s="82"/>
+      <c r="C171" s="77"/>
       <c r="D171" s="72"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -7719,9 +8079,9 @@
       <c r="H171" s="1"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="83"/>
-      <c r="B172" s="83"/>
-      <c r="C172" s="78"/>
+      <c r="A172" s="82"/>
+      <c r="B172" s="82"/>
+      <c r="C172" s="77"/>
       <c r="D172" s="72"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -7729,9 +8089,9 @@
       <c r="H172" s="1"/>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="83"/>
-      <c r="B173" s="83"/>
-      <c r="C173" s="78"/>
+      <c r="A173" s="82"/>
+      <c r="B173" s="82"/>
+      <c r="C173" s="77"/>
       <c r="D173" s="72"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -7739,9 +8099,9 @@
       <c r="H173" s="1"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="83"/>
-      <c r="B174" s="83"/>
-      <c r="C174" s="78"/>
+      <c r="A174" s="82"/>
+      <c r="B174" s="82"/>
+      <c r="C174" s="77"/>
       <c r="D174" s="72"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -7749,9 +8109,9 @@
       <c r="H174" s="1"/>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="83"/>
-      <c r="B175" s="83"/>
-      <c r="C175" s="78"/>
+      <c r="A175" s="82"/>
+      <c r="B175" s="82"/>
+      <c r="C175" s="77"/>
       <c r="D175" s="72"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -7759,9 +8119,9 @@
       <c r="H175" s="1"/>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="83"/>
-      <c r="B176" s="83"/>
-      <c r="C176" s="78"/>
+      <c r="A176" s="82"/>
+      <c r="B176" s="82"/>
+      <c r="C176" s="77"/>
       <c r="D176" s="72"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -7769,9 +8129,9 @@
       <c r="H176" s="1"/>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="83"/>
-      <c r="B177" s="83"/>
-      <c r="C177" s="78"/>
+      <c r="A177" s="82"/>
+      <c r="B177" s="82"/>
+      <c r="C177" s="77"/>
       <c r="D177" s="72"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -7779,9 +8139,9 @@
       <c r="H177" s="1"/>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="83"/>
-      <c r="B178" s="83"/>
-      <c r="C178" s="78"/>
+      <c r="A178" s="82"/>
+      <c r="B178" s="82"/>
+      <c r="C178" s="77"/>
       <c r="D178" s="72"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -7789,9 +8149,9 @@
       <c r="H178" s="1"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="83"/>
-      <c r="B179" s="83"/>
-      <c r="C179" s="78"/>
+      <c r="A179" s="82"/>
+      <c r="B179" s="82"/>
+      <c r="C179" s="77"/>
       <c r="D179" s="72"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -7799,9 +8159,9 @@
       <c r="H179" s="1"/>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="83"/>
-      <c r="B180" s="83"/>
-      <c r="C180" s="78"/>
+      <c r="A180" s="82"/>
+      <c r="B180" s="82"/>
+      <c r="C180" s="77"/>
       <c r="D180" s="72"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -7809,9 +8169,9 @@
       <c r="H180" s="1"/>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="83"/>
-      <c r="B181" s="83"/>
-      <c r="C181" s="78"/>
+      <c r="A181" s="82"/>
+      <c r="B181" s="82"/>
+      <c r="C181" s="77"/>
       <c r="D181" s="72"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -7819,9 +8179,9 @@
       <c r="H181" s="1"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="83"/>
-      <c r="B182" s="83"/>
-      <c r="C182" s="78"/>
+      <c r="A182" s="82"/>
+      <c r="B182" s="82"/>
+      <c r="C182" s="77"/>
       <c r="D182" s="72"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -7829,9 +8189,9 @@
       <c r="H182" s="1"/>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="83"/>
-      <c r="B183" s="83"/>
-      <c r="C183" s="78"/>
+      <c r="A183" s="82"/>
+      <c r="B183" s="82"/>
+      <c r="C183" s="77"/>
       <c r="D183" s="72"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -7839,9 +8199,9 @@
       <c r="H183" s="1"/>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="83"/>
-      <c r="B184" s="83"/>
-      <c r="C184" s="78"/>
+      <c r="A184" s="82"/>
+      <c r="B184" s="82"/>
+      <c r="C184" s="77"/>
       <c r="D184" s="72"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -7849,9 +8209,9 @@
       <c r="H184" s="1"/>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="83"/>
-      <c r="B185" s="83"/>
-      <c r="C185" s="78"/>
+      <c r="A185" s="82"/>
+      <c r="B185" s="82"/>
+      <c r="C185" s="77"/>
       <c r="D185" s="72"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -7859,9 +8219,9 @@
       <c r="H185" s="1"/>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="83"/>
-      <c r="B186" s="83"/>
-      <c r="C186" s="78"/>
+      <c r="A186" s="82"/>
+      <c r="B186" s="82"/>
+      <c r="C186" s="77"/>
       <c r="D186" s="72"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -7869,9 +8229,9 @@
       <c r="H186" s="1"/>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="83"/>
-      <c r="B187" s="83"/>
-      <c r="C187" s="78"/>
+      <c r="A187" s="82"/>
+      <c r="B187" s="82"/>
+      <c r="C187" s="77"/>
       <c r="D187" s="72"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -7879,9 +8239,9 @@
       <c r="H187" s="1"/>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="83"/>
-      <c r="B188" s="83"/>
-      <c r="C188" s="78"/>
+      <c r="A188" s="82"/>
+      <c r="B188" s="82"/>
+      <c r="C188" s="77"/>
       <c r="D188" s="72"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -7889,9 +8249,9 @@
       <c r="H188" s="1"/>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="83"/>
-      <c r="B189" s="83"/>
-      <c r="C189" s="78"/>
+      <c r="A189" s="82"/>
+      <c r="B189" s="82"/>
+      <c r="C189" s="77"/>
       <c r="D189" s="72"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -7899,9 +8259,9 @@
       <c r="H189" s="1"/>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="83"/>
-      <c r="B190" s="83"/>
-      <c r="C190" s="78"/>
+      <c r="A190" s="82"/>
+      <c r="B190" s="82"/>
+      <c r="C190" s="77"/>
       <c r="D190" s="72"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -7909,9 +8269,9 @@
       <c r="H190" s="1"/>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="83"/>
-      <c r="B191" s="83"/>
-      <c r="C191" s="78"/>
+      <c r="A191" s="82"/>
+      <c r="B191" s="82"/>
+      <c r="C191" s="77"/>
       <c r="D191" s="72"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
@@ -7919,9 +8279,9 @@
       <c r="H191" s="1"/>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="83"/>
-      <c r="B192" s="83"/>
-      <c r="C192" s="78"/>
+      <c r="A192" s="82"/>
+      <c r="B192" s="82"/>
+      <c r="C192" s="77"/>
       <c r="D192" s="72"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -7929,9 +8289,9 @@
       <c r="H192" s="1"/>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="83"/>
-      <c r="B193" s="83"/>
-      <c r="C193" s="78"/>
+      <c r="A193" s="82"/>
+      <c r="B193" s="82"/>
+      <c r="C193" s="77"/>
       <c r="D193" s="72"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -7939,9 +8299,9 @@
       <c r="H193" s="1"/>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="83"/>
-      <c r="B194" s="83"/>
-      <c r="C194" s="78"/>
+      <c r="A194" s="82"/>
+      <c r="B194" s="82"/>
+      <c r="C194" s="77"/>
       <c r="D194" s="72"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
@@ -7949,9 +8309,9 @@
       <c r="H194" s="1"/>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="83"/>
-      <c r="B195" s="83"/>
-      <c r="C195" s="78"/>
+      <c r="A195" s="82"/>
+      <c r="B195" s="82"/>
+      <c r="C195" s="77"/>
       <c r="D195" s="72"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
@@ -7959,9 +8319,9 @@
       <c r="H195" s="1"/>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="83"/>
-      <c r="B196" s="83"/>
-      <c r="C196" s="78"/>
+      <c r="A196" s="82"/>
+      <c r="B196" s="82"/>
+      <c r="C196" s="77"/>
       <c r="D196" s="72"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -7969,9 +8329,9 @@
       <c r="H196" s="1"/>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="83"/>
-      <c r="B197" s="83"/>
-      <c r="C197" s="78"/>
+      <c r="A197" s="82"/>
+      <c r="B197" s="82"/>
+      <c r="C197" s="77"/>
       <c r="D197" s="72"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
@@ -7979,9 +8339,9 @@
       <c r="H197" s="1"/>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" s="83"/>
-      <c r="B198" s="83"/>
-      <c r="C198" s="78"/>
+      <c r="A198" s="82"/>
+      <c r="B198" s="82"/>
+      <c r="C198" s="77"/>
       <c r="D198" s="72"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -7989,9 +8349,9 @@
       <c r="H198" s="1"/>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="83"/>
-      <c r="B199" s="83"/>
-      <c r="C199" s="78"/>
+      <c r="A199" s="82"/>
+      <c r="B199" s="82"/>
+      <c r="C199" s="77"/>
       <c r="D199" s="72"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
@@ -7999,9 +8359,9 @@
       <c r="H199" s="1"/>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="83"/>
-      <c r="B200" s="83"/>
-      <c r="C200" s="78"/>
+      <c r="A200" s="82"/>
+      <c r="B200" s="82"/>
+      <c r="C200" s="77"/>
       <c r="D200" s="72"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
@@ -8009,9 +8369,9 @@
       <c r="H200" s="1"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="83"/>
-      <c r="B201" s="83"/>
-      <c r="C201" s="78"/>
+      <c r="A201" s="82"/>
+      <c r="B201" s="82"/>
+      <c r="C201" s="77"/>
       <c r="D201" s="72"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -8019,9 +8379,9 @@
       <c r="H201" s="1"/>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="83"/>
-      <c r="B202" s="83"/>
-      <c r="C202" s="78"/>
+      <c r="A202" s="82"/>
+      <c r="B202" s="82"/>
+      <c r="C202" s="77"/>
       <c r="D202" s="72"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -8029,9 +8389,9 @@
       <c r="H202" s="1"/>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="83"/>
-      <c r="B203" s="83"/>
-      <c r="C203" s="78"/>
+      <c r="A203" s="82"/>
+      <c r="B203" s="82"/>
+      <c r="C203" s="77"/>
       <c r="D203" s="72"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
@@ -8039,9 +8399,9 @@
       <c r="H203" s="1"/>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="83"/>
-      <c r="B204" s="83"/>
-      <c r="C204" s="78"/>
+      <c r="A204" s="82"/>
+      <c r="B204" s="82"/>
+      <c r="C204" s="77"/>
       <c r="D204" s="72"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -8049,9 +8409,9 @@
       <c r="H204" s="1"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="83"/>
-      <c r="B205" s="83"/>
-      <c r="C205" s="78"/>
+      <c r="A205" s="82"/>
+      <c r="B205" s="82"/>
+      <c r="C205" s="77"/>
       <c r="D205" s="72"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
@@ -8059,9 +8419,9 @@
       <c r="H205" s="1"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="83"/>
-      <c r="B206" s="83"/>
-      <c r="C206" s="78"/>
+      <c r="A206" s="82"/>
+      <c r="B206" s="82"/>
+      <c r="C206" s="77"/>
       <c r="D206" s="72"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
@@ -8069,9 +8429,9 @@
       <c r="H206" s="1"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="83"/>
-      <c r="B207" s="83"/>
-      <c r="C207" s="78"/>
+      <c r="A207" s="82"/>
+      <c r="B207" s="82"/>
+      <c r="C207" s="77"/>
       <c r="D207" s="72"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
@@ -8079,9 +8439,9 @@
       <c r="H207" s="1"/>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="83"/>
-      <c r="B208" s="83"/>
-      <c r="C208" s="78"/>
+      <c r="A208" s="82"/>
+      <c r="B208" s="82"/>
+      <c r="C208" s="77"/>
       <c r="D208" s="72"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
@@ -8089,9 +8449,9 @@
       <c r="H208" s="1"/>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="83"/>
-      <c r="B209" s="83"/>
-      <c r="C209" s="78"/>
+      <c r="A209" s="82"/>
+      <c r="B209" s="82"/>
+      <c r="C209" s="77"/>
       <c r="D209" s="72"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -8099,9 +8459,9 @@
       <c r="H209" s="1"/>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="83"/>
-      <c r="B210" s="83"/>
-      <c r="C210" s="78"/>
+      <c r="A210" s="82"/>
+      <c r="B210" s="82"/>
+      <c r="C210" s="77"/>
       <c r="D210" s="72"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
@@ -8109,9 +8469,9 @@
       <c r="H210" s="1"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="83"/>
-      <c r="B211" s="83"/>
-      <c r="C211" s="78"/>
+      <c r="A211" s="82"/>
+      <c r="B211" s="82"/>
+      <c r="C211" s="77"/>
       <c r="D211" s="72"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
@@ -8119,9 +8479,9 @@
       <c r="H211" s="1"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="83"/>
-      <c r="B212" s="83"/>
-      <c r="C212" s="78"/>
+      <c r="A212" s="82"/>
+      <c r="B212" s="82"/>
+      <c r="C212" s="77"/>
       <c r="D212" s="72"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
@@ -8129,9 +8489,9 @@
       <c r="H212" s="1"/>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="83"/>
-      <c r="B213" s="83"/>
-      <c r="C213" s="78"/>
+      <c r="A213" s="82"/>
+      <c r="B213" s="82"/>
+      <c r="C213" s="77"/>
       <c r="D213" s="72"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
@@ -8139,9 +8499,9 @@
       <c r="H213" s="1"/>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="83"/>
-      <c r="B214" s="83"/>
-      <c r="C214" s="78"/>
+      <c r="A214" s="82"/>
+      <c r="B214" s="82"/>
+      <c r="C214" s="77"/>
       <c r="D214" s="72"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
@@ -8149,9 +8509,9 @@
       <c r="H214" s="1"/>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="83"/>
-      <c r="B215" s="83"/>
-      <c r="C215" s="78"/>
+      <c r="A215" s="82"/>
+      <c r="B215" s="82"/>
+      <c r="C215" s="77"/>
       <c r="D215" s="72"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
@@ -8159,9 +8519,9 @@
       <c r="H215" s="1"/>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="83"/>
-      <c r="B216" s="83"/>
-      <c r="C216" s="78"/>
+      <c r="A216" s="82"/>
+      <c r="B216" s="82"/>
+      <c r="C216" s="77"/>
       <c r="D216" s="72"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -8169,9 +8529,9 @@
       <c r="H216" s="1"/>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="83"/>
-      <c r="B217" s="83"/>
-      <c r="C217" s="78"/>
+      <c r="A217" s="82"/>
+      <c r="B217" s="82"/>
+      <c r="C217" s="77"/>
       <c r="D217" s="72"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
@@ -8179,9 +8539,9 @@
       <c r="H217" s="1"/>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="83"/>
-      <c r="B218" s="83"/>
-      <c r="C218" s="78"/>
+      <c r="A218" s="82"/>
+      <c r="B218" s="82"/>
+      <c r="C218" s="77"/>
       <c r="D218" s="72"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
@@ -8189,9 +8549,9 @@
       <c r="H218" s="1"/>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="83"/>
-      <c r="B219" s="83"/>
-      <c r="C219" s="78"/>
+      <c r="A219" s="82"/>
+      <c r="B219" s="82"/>
+      <c r="C219" s="77"/>
       <c r="D219" s="72"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
@@ -8199,9 +8559,9 @@
       <c r="H219" s="1"/>
     </row>
     <row r="220" spans="1:8">
-      <c r="A220" s="83"/>
-      <c r="B220" s="83"/>
-      <c r="C220" s="78"/>
+      <c r="A220" s="82"/>
+      <c r="B220" s="82"/>
+      <c r="C220" s="77"/>
       <c r="D220" s="72"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
@@ -8209,9 +8569,9 @@
       <c r="H220" s="1"/>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="83"/>
-      <c r="B221" s="83"/>
-      <c r="C221" s="78"/>
+      <c r="A221" s="82"/>
+      <c r="B221" s="82"/>
+      <c r="C221" s="77"/>
       <c r="D221" s="72"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
@@ -8219,9 +8579,9 @@
       <c r="H221" s="1"/>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="83"/>
-      <c r="B222" s="83"/>
-      <c r="C222" s="78"/>
+      <c r="A222" s="82"/>
+      <c r="B222" s="82"/>
+      <c r="C222" s="77"/>
       <c r="D222" s="72"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
@@ -8229,9 +8589,9 @@
       <c r="H222" s="1"/>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="83"/>
-      <c r="B223" s="83"/>
-      <c r="C223" s="78"/>
+      <c r="A223" s="82"/>
+      <c r="B223" s="82"/>
+      <c r="C223" s="77"/>
       <c r="D223" s="72"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
@@ -8239,9 +8599,9 @@
       <c r="H223" s="1"/>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="83"/>
-      <c r="B224" s="83"/>
-      <c r="C224" s="78"/>
+      <c r="A224" s="82"/>
+      <c r="B224" s="82"/>
+      <c r="C224" s="77"/>
       <c r="D224" s="72"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
@@ -8249,9 +8609,9 @@
       <c r="H224" s="1"/>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="83"/>
-      <c r="B225" s="83"/>
-      <c r="C225" s="78"/>
+      <c r="A225" s="82"/>
+      <c r="B225" s="82"/>
+      <c r="C225" s="77"/>
       <c r="D225" s="72"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
@@ -8259,9 +8619,9 @@
       <c r="H225" s="1"/>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="83"/>
-      <c r="B226" s="83"/>
-      <c r="C226" s="78"/>
+      <c r="A226" s="82"/>
+      <c r="B226" s="82"/>
+      <c r="C226" s="77"/>
       <c r="D226" s="72"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
@@ -8269,9 +8629,9 @@
       <c r="H226" s="1"/>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="83"/>
-      <c r="B227" s="83"/>
-      <c r="C227" s="78"/>
+      <c r="A227" s="82"/>
+      <c r="B227" s="82"/>
+      <c r="C227" s="77"/>
       <c r="D227" s="72"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
@@ -8279,9 +8639,9 @@
       <c r="H227" s="1"/>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="83"/>
-      <c r="B228" s="83"/>
-      <c r="C228" s="78"/>
+      <c r="A228" s="82"/>
+      <c r="B228" s="82"/>
+      <c r="C228" s="77"/>
       <c r="D228" s="72"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
@@ -8289,9 +8649,9 @@
       <c r="H228" s="1"/>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="83"/>
-      <c r="B229" s="83"/>
-      <c r="C229" s="78"/>
+      <c r="A229" s="82"/>
+      <c r="B229" s="82"/>
+      <c r="C229" s="77"/>
       <c r="D229" s="72"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
@@ -8299,9 +8659,9 @@
       <c r="H229" s="1"/>
     </row>
     <row r="230" spans="1:8">
-      <c r="A230" s="83"/>
-      <c r="B230" s="83"/>
-      <c r="C230" s="78"/>
+      <c r="A230" s="82"/>
+      <c r="B230" s="82"/>
+      <c r="C230" s="77"/>
       <c r="D230" s="72"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
@@ -8309,9 +8669,9 @@
       <c r="H230" s="1"/>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="83"/>
-      <c r="B231" s="83"/>
-      <c r="C231" s="78"/>
+      <c r="A231" s="82"/>
+      <c r="B231" s="82"/>
+      <c r="C231" s="77"/>
       <c r="D231" s="72"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
@@ -8319,9 +8679,9 @@
       <c r="H231" s="1"/>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="83"/>
-      <c r="B232" s="83"/>
-      <c r="C232" s="78"/>
+      <c r="A232" s="82"/>
+      <c r="B232" s="82"/>
+      <c r="C232" s="77"/>
       <c r="D232" s="72"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
@@ -8329,9 +8689,9 @@
       <c r="H232" s="1"/>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="83"/>
-      <c r="B233" s="83"/>
-      <c r="C233" s="78"/>
+      <c r="A233" s="82"/>
+      <c r="B233" s="82"/>
+      <c r="C233" s="77"/>
       <c r="D233" s="72"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
@@ -8339,9 +8699,9 @@
       <c r="H233" s="1"/>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" s="83"/>
-      <c r="B234" s="83"/>
-      <c r="C234" s="78"/>
+      <c r="A234" s="82"/>
+      <c r="B234" s="82"/>
+      <c r="C234" s="77"/>
       <c r="D234" s="72"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
@@ -8349,9 +8709,9 @@
       <c r="H234" s="1"/>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="83"/>
-      <c r="B235" s="83"/>
-      <c r="C235" s="78"/>
+      <c r="A235" s="82"/>
+      <c r="B235" s="82"/>
+      <c r="C235" s="77"/>
       <c r="D235" s="72"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
@@ -8359,9 +8719,9 @@
       <c r="H235" s="1"/>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="83"/>
-      <c r="B236" s="83"/>
-      <c r="C236" s="78"/>
+      <c r="A236" s="82"/>
+      <c r="B236" s="82"/>
+      <c r="C236" s="77"/>
       <c r="D236" s="72"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
@@ -8369,9 +8729,9 @@
       <c r="H236" s="1"/>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="83"/>
-      <c r="B237" s="83"/>
-      <c r="C237" s="78"/>
+      <c r="A237" s="82"/>
+      <c r="B237" s="82"/>
+      <c r="C237" s="77"/>
       <c r="D237" s="72"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
@@ -8379,9 +8739,9 @@
       <c r="H237" s="1"/>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" s="83"/>
-      <c r="B238" s="83"/>
-      <c r="C238" s="78"/>
+      <c r="A238" s="82"/>
+      <c r="B238" s="82"/>
+      <c r="C238" s="77"/>
       <c r="D238" s="72"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
@@ -8389,9 +8749,9 @@
       <c r="H238" s="1"/>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="83"/>
-      <c r="B239" s="83"/>
-      <c r="C239" s="78"/>
+      <c r="A239" s="82"/>
+      <c r="B239" s="82"/>
+      <c r="C239" s="77"/>
       <c r="D239" s="72"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
@@ -8399,9 +8759,9 @@
       <c r="H239" s="1"/>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="83"/>
-      <c r="B240" s="83"/>
-      <c r="C240" s="78"/>
+      <c r="A240" s="82"/>
+      <c r="B240" s="82"/>
+      <c r="C240" s="77"/>
       <c r="D240" s="72"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
@@ -8409,9 +8769,9 @@
       <c r="H240" s="1"/>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="83"/>
-      <c r="B241" s="83"/>
-      <c r="C241" s="78"/>
+      <c r="A241" s="82"/>
+      <c r="B241" s="82"/>
+      <c r="C241" s="77"/>
       <c r="D241" s="72"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
@@ -8419,9 +8779,9 @@
       <c r="H241" s="1"/>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="83"/>
-      <c r="B242" s="83"/>
-      <c r="C242" s="78"/>
+      <c r="A242" s="82"/>
+      <c r="B242" s="82"/>
+      <c r="C242" s="77"/>
       <c r="D242" s="72"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
@@ -8429,9 +8789,9 @@
       <c r="H242" s="1"/>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="83"/>
-      <c r="B243" s="83"/>
-      <c r="C243" s="78"/>
+      <c r="A243" s="82"/>
+      <c r="B243" s="82"/>
+      <c r="C243" s="77"/>
       <c r="D243" s="72"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
@@ -8439,9 +8799,9 @@
       <c r="H243" s="1"/>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244" s="83"/>
-      <c r="B244" s="83"/>
-      <c r="C244" s="78"/>
+      <c r="A244" s="82"/>
+      <c r="B244" s="82"/>
+      <c r="C244" s="77"/>
       <c r="D244" s="72"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
@@ -8449,9 +8809,9 @@
       <c r="H244" s="1"/>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="83"/>
-      <c r="B245" s="83"/>
-      <c r="C245" s="78"/>
+      <c r="A245" s="82"/>
+      <c r="B245" s="82"/>
+      <c r="C245" s="77"/>
       <c r="D245" s="72"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
@@ -8459,9 +8819,9 @@
       <c r="H245" s="1"/>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="83"/>
-      <c r="B246" s="83"/>
-      <c r="C246" s="78"/>
+      <c r="A246" s="82"/>
+      <c r="B246" s="82"/>
+      <c r="C246" s="77"/>
       <c r="D246" s="72"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
@@ -8469,9 +8829,9 @@
       <c r="H246" s="1"/>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="83"/>
-      <c r="B247" s="83"/>
-      <c r="C247" s="78"/>
+      <c r="A247" s="82"/>
+      <c r="B247" s="82"/>
+      <c r="C247" s="77"/>
       <c r="D247" s="72"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
@@ -8479,9 +8839,9 @@
       <c r="H247" s="1"/>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" s="83"/>
-      <c r="B248" s="83"/>
-      <c r="C248" s="78"/>
+      <c r="A248" s="82"/>
+      <c r="B248" s="82"/>
+      <c r="C248" s="77"/>
       <c r="D248" s="72"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
@@ -8489,9 +8849,9 @@
       <c r="H248" s="1"/>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="83"/>
-      <c r="B249" s="83"/>
-      <c r="C249" s="78"/>
+      <c r="A249" s="82"/>
+      <c r="B249" s="82"/>
+      <c r="C249" s="77"/>
       <c r="D249" s="72"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
@@ -8499,9 +8859,9 @@
       <c r="H249" s="1"/>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" s="83"/>
-      <c r="B250" s="83"/>
-      <c r="C250" s="78"/>
+      <c r="A250" s="82"/>
+      <c r="B250" s="82"/>
+      <c r="C250" s="77"/>
       <c r="D250" s="72"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
@@ -8509,9 +8869,9 @@
       <c r="H250" s="1"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="83"/>
-      <c r="B251" s="83"/>
-      <c r="C251" s="78"/>
+      <c r="A251" s="82"/>
+      <c r="B251" s="82"/>
+      <c r="C251" s="77"/>
       <c r="D251" s="72"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
@@ -8519,9 +8879,9 @@
       <c r="H251" s="1"/>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="83"/>
-      <c r="B252" s="83"/>
-      <c r="C252" s="78"/>
+      <c r="A252" s="82"/>
+      <c r="B252" s="82"/>
+      <c r="C252" s="77"/>
       <c r="D252" s="72"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
@@ -8529,9 +8889,9 @@
       <c r="H252" s="1"/>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="83"/>
-      <c r="B253" s="83"/>
-      <c r="C253" s="78"/>
+      <c r="A253" s="82"/>
+      <c r="B253" s="82"/>
+      <c r="C253" s="77"/>
       <c r="D253" s="72"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
@@ -8539,9 +8899,9 @@
       <c r="H253" s="1"/>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="83"/>
-      <c r="B254" s="83"/>
-      <c r="C254" s="78"/>
+      <c r="A254" s="82"/>
+      <c r="B254" s="82"/>
+      <c r="C254" s="77"/>
       <c r="D254" s="72"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
@@ -8549,9 +8909,9 @@
       <c r="H254" s="1"/>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="83"/>
-      <c r="B255" s="83"/>
-      <c r="C255" s="78"/>
+      <c r="A255" s="82"/>
+      <c r="B255" s="82"/>
+      <c r="C255" s="77"/>
       <c r="D255" s="72"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -8559,9 +8919,9 @@
       <c r="H255" s="1"/>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="83"/>
-      <c r="B256" s="83"/>
-      <c r="C256" s="78"/>
+      <c r="A256" s="82"/>
+      <c r="B256" s="82"/>
+      <c r="C256" s="77"/>
       <c r="D256" s="72"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
@@ -8569,9 +8929,9 @@
       <c r="H256" s="1"/>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" s="83"/>
-      <c r="B257" s="83"/>
-      <c r="C257" s="78"/>
+      <c r="A257" s="82"/>
+      <c r="B257" s="82"/>
+      <c r="C257" s="77"/>
       <c r="D257" s="72"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
@@ -8579,9 +8939,9 @@
       <c r="H257" s="1"/>
     </row>
     <row r="258" spans="1:8">
-      <c r="A258" s="83"/>
-      <c r="B258" s="83"/>
-      <c r="C258" s="78"/>
+      <c r="A258" s="82"/>
+      <c r="B258" s="82"/>
+      <c r="C258" s="77"/>
       <c r="D258" s="72"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
@@ -8589,9 +8949,9 @@
       <c r="H258" s="1"/>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" s="83"/>
-      <c r="B259" s="83"/>
-      <c r="C259" s="78"/>
+      <c r="A259" s="82"/>
+      <c r="B259" s="82"/>
+      <c r="C259" s="77"/>
       <c r="D259" s="72"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
@@ -8599,9 +8959,9 @@
       <c r="H259" s="1"/>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" s="83"/>
-      <c r="B260" s="83"/>
-      <c r="C260" s="78"/>
+      <c r="A260" s="82"/>
+      <c r="B260" s="82"/>
+      <c r="C260" s="77"/>
       <c r="D260" s="72"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
@@ -8609,9 +8969,9 @@
       <c r="H260" s="1"/>
     </row>
     <row r="261" spans="1:8">
-      <c r="A261" s="83"/>
-      <c r="B261" s="83"/>
-      <c r="C261" s="78"/>
+      <c r="A261" s="82"/>
+      <c r="B261" s="82"/>
+      <c r="C261" s="77"/>
       <c r="D261" s="72"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
@@ -8619,9 +8979,9 @@
       <c r="H261" s="1"/>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="83"/>
-      <c r="B262" s="83"/>
-      <c r="C262" s="78"/>
+      <c r="A262" s="82"/>
+      <c r="B262" s="82"/>
+      <c r="C262" s="77"/>
       <c r="D262" s="72"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
@@ -8629,9 +8989,9 @@
       <c r="H262" s="1"/>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263" s="83"/>
-      <c r="B263" s="83"/>
-      <c r="C263" s="78"/>
+      <c r="A263" s="82"/>
+      <c r="B263" s="82"/>
+      <c r="C263" s="77"/>
       <c r="D263" s="72"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
@@ -8639,9 +8999,9 @@
       <c r="H263" s="1"/>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" s="83"/>
-      <c r="B264" s="83"/>
-      <c r="C264" s="78"/>
+      <c r="A264" s="82"/>
+      <c r="B264" s="82"/>
+      <c r="C264" s="77"/>
       <c r="D264" s="72"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
@@ -8649,9 +9009,9 @@
       <c r="H264" s="1"/>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="83"/>
-      <c r="B265" s="83"/>
-      <c r="C265" s="78"/>
+      <c r="A265" s="82"/>
+      <c r="B265" s="82"/>
+      <c r="C265" s="77"/>
       <c r="D265" s="72"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
@@ -8659,9 +9019,9 @@
       <c r="H265" s="1"/>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266" s="83"/>
-      <c r="B266" s="83"/>
-      <c r="C266" s="78"/>
+      <c r="A266" s="82"/>
+      <c r="B266" s="82"/>
+      <c r="C266" s="77"/>
       <c r="D266" s="72"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
@@ -8669,9 +9029,9 @@
       <c r="H266" s="1"/>
     </row>
     <row r="267" spans="1:8">
-      <c r="A267" s="83"/>
-      <c r="B267" s="83"/>
-      <c r="C267" s="78"/>
+      <c r="A267" s="82"/>
+      <c r="B267" s="82"/>
+      <c r="C267" s="77"/>
       <c r="D267" s="72"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
@@ -8679,9 +9039,9 @@
       <c r="H267" s="1"/>
     </row>
     <row r="268" spans="1:8">
-      <c r="A268" s="83"/>
-      <c r="B268" s="83"/>
-      <c r="C268" s="78"/>
+      <c r="A268" s="82"/>
+      <c r="B268" s="82"/>
+      <c r="C268" s="77"/>
       <c r="D268" s="72"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
@@ -8689,9 +9049,9 @@
       <c r="H268" s="1"/>
     </row>
     <row r="269" spans="1:8">
-      <c r="A269" s="83"/>
-      <c r="B269" s="83"/>
-      <c r="C269" s="78"/>
+      <c r="A269" s="82"/>
+      <c r="B269" s="82"/>
+      <c r="C269" s="77"/>
       <c r="D269" s="72"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
@@ -8699,9 +9059,9 @@
       <c r="H269" s="1"/>
     </row>
     <row r="270" spans="1:8">
-      <c r="A270" s="83"/>
-      <c r="B270" s="83"/>
-      <c r="C270" s="78"/>
+      <c r="A270" s="82"/>
+      <c r="B270" s="82"/>
+      <c r="C270" s="77"/>
       <c r="D270" s="72"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
@@ -8709,9 +9069,9 @@
       <c r="H270" s="1"/>
     </row>
     <row r="271" spans="1:8">
-      <c r="A271" s="83"/>
-      <c r="B271" s="83"/>
-      <c r="C271" s="78"/>
+      <c r="A271" s="82"/>
+      <c r="B271" s="82"/>
+      <c r="C271" s="77"/>
       <c r="D271" s="72"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
@@ -8719,9 +9079,9 @@
       <c r="H271" s="1"/>
     </row>
     <row r="272" spans="1:8">
-      <c r="A272" s="83"/>
-      <c r="B272" s="83"/>
-      <c r="C272" s="78"/>
+      <c r="A272" s="82"/>
+      <c r="B272" s="82"/>
+      <c r="C272" s="77"/>
       <c r="D272" s="72"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
@@ -8729,9 +9089,9 @@
       <c r="H272" s="1"/>
     </row>
     <row r="273" spans="1:8">
-      <c r="A273" s="83"/>
-      <c r="B273" s="83"/>
-      <c r="C273" s="78"/>
+      <c r="A273" s="82"/>
+      <c r="B273" s="82"/>
+      <c r="C273" s="77"/>
       <c r="D273" s="72"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
@@ -8739,9 +9099,9 @@
       <c r="H273" s="1"/>
     </row>
     <row r="274" spans="1:8">
-      <c r="A274" s="83"/>
-      <c r="B274" s="83"/>
-      <c r="C274" s="78"/>
+      <c r="A274" s="82"/>
+      <c r="B274" s="82"/>
+      <c r="C274" s="77"/>
       <c r="D274" s="72"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
@@ -8749,9 +9109,9 @@
       <c r="H274" s="1"/>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275" s="83"/>
-      <c r="B275" s="83"/>
-      <c r="C275" s="78"/>
+      <c r="A275" s="82"/>
+      <c r="B275" s="82"/>
+      <c r="C275" s="77"/>
       <c r="D275" s="72"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
@@ -8759,9 +9119,9 @@
       <c r="H275" s="1"/>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="83"/>
-      <c r="B276" s="83"/>
-      <c r="C276" s="78"/>
+      <c r="A276" s="82"/>
+      <c r="B276" s="82"/>
+      <c r="C276" s="77"/>
       <c r="D276" s="72"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
@@ -8769,9 +9129,9 @@
       <c r="H276" s="1"/>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="83"/>
-      <c r="B277" s="83"/>
-      <c r="C277" s="78"/>
+      <c r="A277" s="82"/>
+      <c r="B277" s="82"/>
+      <c r="C277" s="77"/>
       <c r="D277" s="72"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
@@ -8779,9 +9139,9 @@
       <c r="H277" s="1"/>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="83"/>
-      <c r="B278" s="83"/>
-      <c r="C278" s="78"/>
+      <c r="A278" s="82"/>
+      <c r="B278" s="82"/>
+      <c r="C278" s="77"/>
       <c r="D278" s="72"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
@@ -8789,9 +9149,9 @@
       <c r="H278" s="1"/>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="83"/>
-      <c r="B279" s="83"/>
-      <c r="C279" s="78"/>
+      <c r="A279" s="82"/>
+      <c r="B279" s="82"/>
+      <c r="C279" s="77"/>
       <c r="D279" s="72"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
@@ -8799,9 +9159,9 @@
       <c r="H279" s="1"/>
     </row>
     <row r="280" spans="1:8">
-      <c r="A280" s="83"/>
-      <c r="B280" s="83"/>
-      <c r="C280" s="78"/>
+      <c r="A280" s="82"/>
+      <c r="B280" s="82"/>
+      <c r="C280" s="77"/>
       <c r="D280" s="72"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
@@ -8809,9 +9169,9 @@
       <c r="H280" s="1"/>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="83"/>
-      <c r="B281" s="83"/>
-      <c r="C281" s="78"/>
+      <c r="A281" s="82"/>
+      <c r="B281" s="82"/>
+      <c r="C281" s="77"/>
       <c r="D281" s="72"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
@@ -8819,9 +9179,9 @@
       <c r="H281" s="1"/>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="83"/>
-      <c r="B282" s="83"/>
-      <c r="C282" s="78"/>
+      <c r="A282" s="82"/>
+      <c r="B282" s="82"/>
+      <c r="C282" s="77"/>
       <c r="D282" s="72"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
@@ -8829,9 +9189,9 @@
       <c r="H282" s="1"/>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="83"/>
-      <c r="B283" s="83"/>
-      <c r="C283" s="78"/>
+      <c r="A283" s="82"/>
+      <c r="B283" s="82"/>
+      <c r="C283" s="77"/>
       <c r="D283" s="72"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
@@ -8839,9 +9199,9 @@
       <c r="H283" s="1"/>
     </row>
     <row r="284" spans="1:8">
-      <c r="A284" s="83"/>
-      <c r="B284" s="83"/>
-      <c r="C284" s="78"/>
+      <c r="A284" s="82"/>
+      <c r="B284" s="82"/>
+      <c r="C284" s="77"/>
       <c r="D284" s="72"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
@@ -8849,9 +9209,9 @@
       <c r="H284" s="1"/>
     </row>
     <row r="285" spans="1:8">
-      <c r="A285" s="83"/>
-      <c r="B285" s="83"/>
-      <c r="C285" s="78"/>
+      <c r="A285" s="82"/>
+      <c r="B285" s="82"/>
+      <c r="C285" s="77"/>
       <c r="D285" s="72"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
@@ -8859,9 +9219,9 @@
       <c r="H285" s="1"/>
     </row>
     <row r="286" spans="1:8">
-      <c r="A286" s="83"/>
-      <c r="B286" s="83"/>
-      <c r="C286" s="78"/>
+      <c r="A286" s="82"/>
+      <c r="B286" s="82"/>
+      <c r="C286" s="77"/>
       <c r="D286" s="72"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
@@ -8869,9 +9229,9 @@
       <c r="H286" s="1"/>
     </row>
     <row r="287" spans="1:8">
-      <c r="A287" s="83"/>
-      <c r="B287" s="83"/>
-      <c r="C287" s="78"/>
+      <c r="A287" s="82"/>
+      <c r="B287" s="82"/>
+      <c r="C287" s="77"/>
       <c r="D287" s="72"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
@@ -8879,9 +9239,9 @@
       <c r="H287" s="1"/>
     </row>
     <row r="288" spans="1:8">
-      <c r="A288" s="83"/>
-      <c r="B288" s="83"/>
-      <c r="C288" s="78"/>
+      <c r="A288" s="82"/>
+      <c r="B288" s="82"/>
+      <c r="C288" s="77"/>
       <c r="D288" s="72"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
@@ -8889,9 +9249,9 @@
       <c r="H288" s="1"/>
     </row>
     <row r="289" spans="1:8">
-      <c r="A289" s="83"/>
-      <c r="B289" s="83"/>
-      <c r="C289" s="78"/>
+      <c r="A289" s="82"/>
+      <c r="B289" s="82"/>
+      <c r="C289" s="77"/>
       <c r="D289" s="72"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
@@ -8899,9 +9259,9 @@
       <c r="H289" s="1"/>
     </row>
     <row r="290" spans="1:8">
-      <c r="A290" s="83"/>
-      <c r="B290" s="83"/>
-      <c r="C290" s="78"/>
+      <c r="A290" s="82"/>
+      <c r="B290" s="82"/>
+      <c r="C290" s="77"/>
       <c r="D290" s="72"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
@@ -8909,9 +9269,9 @@
       <c r="H290" s="1"/>
     </row>
     <row r="291" spans="1:8">
-      <c r="A291" s="83"/>
-      <c r="B291" s="83"/>
-      <c r="C291" s="78"/>
+      <c r="A291" s="82"/>
+      <c r="B291" s="82"/>
+      <c r="C291" s="77"/>
       <c r="D291" s="72"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
@@ -8919,9 +9279,9 @@
       <c r="H291" s="1"/>
     </row>
     <row r="292" spans="1:8">
-      <c r="A292" s="83"/>
-      <c r="B292" s="83"/>
-      <c r="C292" s="78"/>
+      <c r="A292" s="82"/>
+      <c r="B292" s="82"/>
+      <c r="C292" s="77"/>
       <c r="D292" s="72"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
@@ -8929,9 +9289,9 @@
       <c r="H292" s="1"/>
     </row>
     <row r="293" spans="1:8">
-      <c r="A293" s="83"/>
-      <c r="B293" s="83"/>
-      <c r="C293" s="78"/>
+      <c r="A293" s="82"/>
+      <c r="B293" s="82"/>
+      <c r="C293" s="77"/>
       <c r="D293" s="72"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
@@ -8939,9 +9299,9 @@
       <c r="H293" s="1"/>
     </row>
     <row r="294" spans="1:8">
-      <c r="A294" s="83"/>
-      <c r="B294" s="83"/>
-      <c r="C294" s="78"/>
+      <c r="A294" s="82"/>
+      <c r="B294" s="82"/>
+      <c r="C294" s="77"/>
       <c r="D294" s="72"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
@@ -8949,9 +9309,9 @@
       <c r="H294" s="1"/>
     </row>
     <row r="295" spans="1:8">
-      <c r="A295" s="83"/>
-      <c r="B295" s="83"/>
-      <c r="C295" s="78"/>
+      <c r="A295" s="82"/>
+      <c r="B295" s="82"/>
+      <c r="C295" s="77"/>
       <c r="D295" s="72"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
@@ -8959,9 +9319,9 @@
       <c r="H295" s="1"/>
     </row>
     <row r="296" spans="1:8">
-      <c r="A296" s="83"/>
-      <c r="B296" s="83"/>
-      <c r="C296" s="78"/>
+      <c r="A296" s="82"/>
+      <c r="B296" s="82"/>
+      <c r="C296" s="77"/>
       <c r="D296" s="72"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
@@ -8969,9 +9329,9 @@
       <c r="H296" s="1"/>
     </row>
     <row r="297" spans="1:8">
-      <c r="A297" s="83"/>
-      <c r="B297" s="83"/>
-      <c r="C297" s="78"/>
+      <c r="A297" s="82"/>
+      <c r="B297" s="82"/>
+      <c r="C297" s="77"/>
       <c r="D297" s="72"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
@@ -8979,9 +9339,9 @@
       <c r="H297" s="1"/>
     </row>
     <row r="298" spans="1:8">
-      <c r="A298" s="83"/>
-      <c r="B298" s="83"/>
-      <c r="C298" s="78"/>
+      <c r="A298" s="82"/>
+      <c r="B298" s="82"/>
+      <c r="C298" s="77"/>
       <c r="D298" s="72"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
@@ -8989,9 +9349,9 @@
       <c r="H298" s="1"/>
     </row>
     <row r="299" spans="1:8">
-      <c r="A299" s="83"/>
-      <c r="B299" s="83"/>
-      <c r="C299" s="78"/>
+      <c r="A299" s="82"/>
+      <c r="B299" s="82"/>
+      <c r="C299" s="77"/>
       <c r="D299" s="72"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
@@ -8999,9 +9359,9 @@
       <c r="H299" s="1"/>
     </row>
     <row r="300" spans="1:8">
-      <c r="A300" s="83"/>
-      <c r="B300" s="83"/>
-      <c r="C300" s="78"/>
+      <c r="A300" s="82"/>
+      <c r="B300" s="82"/>
+      <c r="C300" s="77"/>
       <c r="D300" s="72"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
@@ -9009,9 +9369,9 @@
       <c r="H300" s="1"/>
     </row>
     <row r="301" spans="1:8">
-      <c r="A301" s="83"/>
-      <c r="B301" s="83"/>
-      <c r="C301" s="78"/>
+      <c r="A301" s="82"/>
+      <c r="B301" s="82"/>
+      <c r="C301" s="77"/>
       <c r="D301" s="72"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
@@ -9019,9 +9379,9 @@
       <c r="H301" s="1"/>
     </row>
     <row r="302" spans="1:8">
-      <c r="A302" s="83"/>
-      <c r="B302" s="83"/>
-      <c r="C302" s="78"/>
+      <c r="A302" s="82"/>
+      <c r="B302" s="82"/>
+      <c r="C302" s="77"/>
       <c r="D302" s="72"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
@@ -9029,9 +9389,9 @@
       <c r="H302" s="1"/>
     </row>
     <row r="303" spans="1:8">
-      <c r="A303" s="83"/>
-      <c r="B303" s="83"/>
-      <c r="C303" s="78"/>
+      <c r="A303" s="82"/>
+      <c r="B303" s="82"/>
+      <c r="C303" s="77"/>
       <c r="D303" s="72"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
@@ -9039,9 +9399,9 @@
       <c r="H303" s="1"/>
     </row>
     <row r="304" spans="1:8">
-      <c r="A304" s="83"/>
-      <c r="B304" s="83"/>
-      <c r="C304" s="78"/>
+      <c r="A304" s="82"/>
+      <c r="B304" s="82"/>
+      <c r="C304" s="77"/>
       <c r="D304" s="72"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
@@ -9049,9 +9409,9 @@
       <c r="H304" s="1"/>
     </row>
     <row r="305" spans="1:8">
-      <c r="A305" s="83"/>
-      <c r="B305" s="83"/>
-      <c r="C305" s="78"/>
+      <c r="A305" s="82"/>
+      <c r="B305" s="82"/>
+      <c r="C305" s="77"/>
       <c r="D305" s="72"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
@@ -9059,9 +9419,9 @@
       <c r="H305" s="1"/>
     </row>
     <row r="306" spans="1:8">
-      <c r="A306" s="83"/>
-      <c r="B306" s="83"/>
-      <c r="C306" s="78"/>
+      <c r="A306" s="82"/>
+      <c r="B306" s="82"/>
+      <c r="C306" s="77"/>
       <c r="D306" s="72"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
@@ -9069,9 +9429,9 @@
       <c r="H306" s="1"/>
     </row>
     <row r="307" spans="1:8">
-      <c r="A307" s="83"/>
-      <c r="B307" s="83"/>
-      <c r="C307" s="78"/>
+      <c r="A307" s="82"/>
+      <c r="B307" s="82"/>
+      <c r="C307" s="77"/>
       <c r="D307" s="72"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
@@ -9079,9 +9439,9 @@
       <c r="H307" s="1"/>
     </row>
     <row r="308" spans="1:8">
-      <c r="A308" s="83"/>
-      <c r="B308" s="83"/>
-      <c r="C308" s="78"/>
+      <c r="A308" s="82"/>
+      <c r="B308" s="82"/>
+      <c r="C308" s="77"/>
       <c r="D308" s="72"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
@@ -9089,9 +9449,9 @@
       <c r="H308" s="1"/>
     </row>
     <row r="309" spans="1:8">
-      <c r="A309" s="83"/>
-      <c r="B309" s="83"/>
-      <c r="C309" s="78"/>
+      <c r="A309" s="82"/>
+      <c r="B309" s="82"/>
+      <c r="C309" s="77"/>
       <c r="D309" s="72"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
@@ -9099,9 +9459,9 @@
       <c r="H309" s="1"/>
     </row>
     <row r="310" spans="1:8">
-      <c r="A310" s="83"/>
-      <c r="B310" s="83"/>
-      <c r="C310" s="78"/>
+      <c r="A310" s="82"/>
+      <c r="B310" s="82"/>
+      <c r="C310" s="77"/>
       <c r="D310" s="72"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
@@ -9109,9 +9469,9 @@
       <c r="H310" s="1"/>
     </row>
     <row r="311" spans="1:8">
-      <c r="A311" s="83"/>
-      <c r="B311" s="83"/>
-      <c r="C311" s="78"/>
+      <c r="A311" s="82"/>
+      <c r="B311" s="82"/>
+      <c r="C311" s="77"/>
       <c r="D311" s="72"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
@@ -9119,9 +9479,9 @@
       <c r="H311" s="1"/>
     </row>
     <row r="312" spans="1:8">
-      <c r="A312" s="83"/>
-      <c r="B312" s="83"/>
-      <c r="C312" s="78"/>
+      <c r="A312" s="82"/>
+      <c r="B312" s="82"/>
+      <c r="C312" s="77"/>
       <c r="D312" s="72"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
@@ -9129,9 +9489,9 @@
       <c r="H312" s="1"/>
     </row>
     <row r="313" spans="1:8">
-      <c r="A313" s="83"/>
-      <c r="B313" s="83"/>
-      <c r="C313" s="78"/>
+      <c r="A313" s="82"/>
+      <c r="B313" s="82"/>
+      <c r="C313" s="77"/>
       <c r="D313" s="72"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
@@ -9139,9 +9499,9 @@
       <c r="H313" s="1"/>
     </row>
     <row r="314" spans="1:8">
-      <c r="A314" s="83"/>
-      <c r="B314" s="83"/>
-      <c r="C314" s="78"/>
+      <c r="A314" s="82"/>
+      <c r="B314" s="82"/>
+      <c r="C314" s="77"/>
       <c r="D314" s="72"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
@@ -9149,9 +9509,9 @@
       <c r="H314" s="1"/>
     </row>
     <row r="315" spans="1:8">
-      <c r="A315" s="83"/>
-      <c r="B315" s="83"/>
-      <c r="C315" s="78"/>
+      <c r="A315" s="82"/>
+      <c r="B315" s="82"/>
+      <c r="C315" s="77"/>
       <c r="D315" s="72"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
@@ -9159,9 +9519,9 @@
       <c r="H315" s="1"/>
     </row>
     <row r="316" spans="1:8">
-      <c r="A316" s="83"/>
-      <c r="B316" s="83"/>
-      <c r="C316" s="78"/>
+      <c r="A316" s="82"/>
+      <c r="B316" s="82"/>
+      <c r="C316" s="77"/>
       <c r="D316" s="72"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
@@ -9169,9 +9529,9 @@
       <c r="H316" s="1"/>
     </row>
     <row r="317" spans="1:8">
-      <c r="A317" s="83"/>
-      <c r="B317" s="83"/>
-      <c r="C317" s="78"/>
+      <c r="A317" s="82"/>
+      <c r="B317" s="82"/>
+      <c r="C317" s="77"/>
       <c r="D317" s="72"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
@@ -9202,78 +9562,78 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="49.95" customHeight="1">
-      <c r="A1" s="126" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="128"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
-      <c r="A2" s="129" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="130"/>
+    <row r="1" spans="1:11" ht="49.9" customHeight="1">
+      <c r="A1" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A2" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="110"/>
       <c r="C2" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="132"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
+        <v>57</v>
+      </c>
+      <c r="D2" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="K3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6">
-      <c r="A4" s="136" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="138"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="118"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="26" t="s">
+      <c r="D5" s="26" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>57</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>3</v>
@@ -9282,13 +9642,13 @@
         <v>4</v>
       </c>
       <c r="G5" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>60</v>
-      </c>
       <c r="I5" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -9382,7 +9742,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1">
       <c r="A13" s="21">
         <v>8</v>
       </c>
@@ -9395,7 +9755,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -9406,9 +9766,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6">
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="120"/>
       <c r="C15" s="120"/>
@@ -9421,26 +9781,26 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="125"/>
-      <c r="G16" s="122" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="123"/>
-      <c r="I16" s="124"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="16">
@@ -9449,13 +9809,13 @@
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="117"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9465,11 +9825,11 @@
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="117"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="128"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="16">
@@ -9478,11 +9838,11 @@
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="128"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="16">
@@ -9491,11 +9851,11 @@
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="117"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="128"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="16">
@@ -9504,11 +9864,11 @@
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="117"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="128"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="16">
@@ -9517,11 +9877,11 @@
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="117"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="128"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="16">
@@ -9530,11 +9890,11 @@
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="117"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="128"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="16">
@@ -9543,11 +9903,11 @@
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="117"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="128"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="16">
@@ -9556,32 +9916,36 @@
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="110"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1">
+      <c r="E25" s="130"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="133"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="17">
         <v>10</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -9596,15 +9960,11 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9620,76 +9980,76 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="49.95" customHeight="1">
-      <c r="A1" s="126" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="128"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1">
-      <c r="A2" s="129" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="130"/>
+    <row r="1" spans="1:17" ht="49.9" customHeight="1">
+      <c r="A1" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A2" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="110"/>
       <c r="C2" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="132"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1"/>
-    <row r="4" spans="1:17" ht="15.6">
-      <c r="A4" s="136" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="138"/>
+      <c r="I2" s="112"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:17" ht="15.75">
+      <c r="A4" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="118"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="26" t="s">
+      <c r="D5" s="26" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>57</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>3</v>
@@ -9698,121 +10058,121 @@
         <v>4</v>
       </c>
       <c r="G5" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>60</v>
-      </c>
       <c r="I5" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="31.8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="34.5">
       <c r="A6" s="18">
         <v>1</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="F6" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="139" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="144"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="18">
         <v>2</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="139" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
+      <c r="K7" s="144" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="18">
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>89</v>
-      </c>
       <c r="D8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="H8" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>99</v>
-      </c>
       <c r="I8" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -9867,7 +10227,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1">
       <c r="A13" s="21">
         <v>8</v>
       </c>
@@ -9880,7 +10240,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -9891,9 +10251,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.6">
+    <row r="15" spans="1:17" ht="15.75">
       <c r="A15" s="119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="120"/>
       <c r="C15" s="120"/>
@@ -9906,42 +10266,42 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="144"/>
-      <c r="I16" s="145"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="138"/>
+      <c r="I16" s="139"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="16">
         <v>1</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="141"/>
       <c r="G17" s="140" t="s">
@@ -9950,53 +10310,53 @@
       <c r="H17" s="142"/>
       <c r="I17" s="143"/>
     </row>
-    <row r="18" spans="1:11" ht="21.6">
+    <row r="18" spans="1:11" ht="23.25">
       <c r="A18" s="16">
         <v>2</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="140" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="141"/>
       <c r="G18" s="140" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H18" s="142"/>
       <c r="I18" s="143"/>
     </row>
-    <row r="19" spans="1:11" ht="31.8">
+    <row r="19" spans="1:11" ht="34.5">
       <c r="A19" s="16">
         <v>3</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="140" t="s">
         <v>101</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="140" t="s">
-        <v>102</v>
       </c>
       <c r="F19" s="141"/>
       <c r="G19" s="140" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H19" s="142"/>
       <c r="I19" s="143"/>
       <c r="K19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -10006,11 +10366,11 @@
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="117"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="128"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="16">
@@ -10019,13 +10379,13 @@
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="117"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="128"/>
       <c r="K21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -10035,11 +10395,11 @@
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="117"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="128"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="16">
@@ -10048,11 +10408,11 @@
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="117"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="128"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="16">
@@ -10061,11 +10421,11 @@
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="117"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="128"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="16">
@@ -10074,41 +10434,27 @@
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="110"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1">
+      <c r="E25" s="130"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="133"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="17">
         <v>10</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -10125,6 +10471,20 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10140,77 +10500,77 @@
       <selection activeCell="I11" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="J1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="146" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
+      <c r="A5" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="30" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="30">
+      <c r="A7" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.8">
-      <c r="A7" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="C7" s="31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60">
+      <c r="A8" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A9" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="57.6">
-      <c r="A8" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A9" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="51" t="s">
+      <c r="C9" s="31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45">
+      <c r="A10" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="43.2">
-      <c r="A10" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>111</v>
-      </c>
       <c r="C10" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
@@ -10231,25 +10591,25 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="58.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.6">
-      <c r="B2" s="147" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="147"/>
+    <row r="2" spans="2:15" ht="15.75">
+      <c r="B2" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="146"/>
       <c r="O2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1">
       <c r="B3" s="63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C3" s="62" t="s">
         <v>2</v>
@@ -10260,10 +10620,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -10271,10 +10631,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -10282,10 +10642,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -10293,10 +10653,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -10304,10 +10664,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -10315,10 +10675,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -10326,10 +10686,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" customHeight="1">
@@ -10337,10 +10697,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" t="s">
         <v>274</v>
-      </c>
-      <c r="D11" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -10348,10 +10708,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -10359,10 +10719,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -10370,10 +10730,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -10381,10 +10741,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -10392,10 +10752,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -10403,10 +10763,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -10450,7 +10810,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="C31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -10470,68 +10830,68 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
       <c r="J2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="147" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="146" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="146" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" s="146"/>
+        <v>54</v>
+      </c>
+      <c r="B4" s="145" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="145"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="148" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="148"/>
+        <v>114</v>
+      </c>
+      <c r="B5" s="147" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="147"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1">
       <c r="A6" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="148" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="148"/>
+        <v>62</v>
+      </c>
+      <c r="B6" s="147" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="147"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1">
       <c r="A7" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="148" t="s">
-        <v>252</v>
-      </c>
-      <c r="C7" s="148"/>
+        <v>63</v>
+      </c>
+      <c r="B7" s="147" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="147"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="148" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="148"/>
+        <v>118</v>
+      </c>
+      <c r="B8" s="147" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10551,125 +10911,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="64.33203125" customWidth="1"/>
-    <col min="4" max="4" width="52.44140625" style="91" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" style="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1"/>
-    <row r="2" spans="2:10" ht="15.6">
-      <c r="B2" s="149" t="s">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:10" ht="15.75">
+      <c r="B2" s="148" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="149"/>
+      <c r="D2" s="150"/>
+      <c r="J2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15" customHeight="1">
+      <c r="B3" s="95" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="151"/>
-      <c r="J2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1">
-      <c r="B3" s="96" t="s">
-        <v>261</v>
-      </c>
       <c r="C3" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="97" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="86.4">
-      <c r="B4" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="90">
+      <c r="B4" s="97" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="98" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="75">
+      <c r="B5" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="42" customHeight="1">
+      <c r="B6" s="97" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="75">
+      <c r="B7" s="97" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="D4" s="99" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="57.6">
-      <c r="B5" s="98" t="s">
+      <c r="C7" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="75">
+      <c r="B8" s="97" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="84" customHeight="1">
+      <c r="B9" s="97" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="99" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="75">
+      <c r="B10" s="100" t="s">
         <v>291</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="42" customHeight="1">
-      <c r="B6" s="98" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="57.6">
-      <c r="B7" s="98" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="72">
-      <c r="B8" s="98" t="s">
-        <v>287</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" s="54" t="s">
+      <c r="C10" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1">
+      <c r="B11" s="101" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="102" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="84" customHeight="1">
-      <c r="B9" s="98" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="D9" s="100" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="72">
-      <c r="B10" s="101" t="s">
-        <v>292</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>299</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1">
-      <c r="B11" s="102" t="s">
-        <v>300</v>
-      </c>
-      <c r="C11" s="103" t="s">
+      <c r="D11" s="55" t="s">
         <v>331</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1"/>
@@ -10691,31 +11051,31 @@
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="45.109375" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="7.2" customHeight="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="7.15" customHeight="1"/>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
+++ b/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="498">
   <si>
     <t>OP ACTIVE RESOLVE TARGET LIST</t>
   </si>
@@ -1503,6 +1503,42 @@
   </si>
   <si>
     <t>Chemical Weapon research facility</t>
+  </si>
+  <si>
+    <t>N33 28.702</t>
+  </si>
+  <si>
+    <t>E036 17.716</t>
+  </si>
+  <si>
+    <t>2215ft</t>
+  </si>
+  <si>
+    <t>N33 37.178</t>
+  </si>
+  <si>
+    <t>E036 44.844</t>
+  </si>
+  <si>
+    <t>2067ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N35 44.175 </t>
+  </si>
+  <si>
+    <t>E037 05.603</t>
+  </si>
+  <si>
+    <t>814ft</t>
+  </si>
+  <si>
+    <t>N35 45.818</t>
+  </si>
+  <si>
+    <t>E038 34.937</t>
+  </si>
+  <si>
+    <t>1027ft</t>
   </si>
 </sst>
 </file>
@@ -2453,6 +2489,78 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2477,98 +2585,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4210,8 +4246,8 @@
   <dimension ref="A1:N317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6606,9 +6642,15 @@
         <v>4</v>
       </c>
       <c r="D69" s="66"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="7"/>
+      <c r="E69" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>488</v>
+      </c>
       <c r="H69" s="6"/>
       <c r="I69" s="32"/>
       <c r="J69" s="8"/>
@@ -6639,9 +6681,15 @@
         <v>4</v>
       </c>
       <c r="D70" s="66"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="7"/>
+      <c r="E70" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>491</v>
+      </c>
       <c r="H70" s="6"/>
       <c r="I70" s="32"/>
       <c r="J70" s="8"/>
@@ -6666,15 +6714,21 @@
         <v>167</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C71" s="69">
         <v>4</v>
       </c>
       <c r="D71" s="66"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="7"/>
+      <c r="E71" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>497</v>
+      </c>
       <c r="H71" s="6"/>
       <c r="I71" s="32"/>
       <c r="J71" s="8"/>
@@ -6684,7 +6738,7 @@
       </c>
       <c r="L71" s="43" t="str">
         <f t="shared" si="10"/>
-        <v>SCC WEST</v>
+        <v>SCC EAST</v>
       </c>
       <c r="M71" s="37">
         <f t="shared" si="11"/>
@@ -6699,15 +6753,21 @@
         <v>168</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C72" s="69">
         <v>4</v>
       </c>
       <c r="D72" s="66"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="7"/>
+      <c r="E72" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>494</v>
+      </c>
       <c r="H72" s="6"/>
       <c r="I72" s="32"/>
       <c r="J72" s="8"/>
@@ -6717,7 +6777,7 @@
       </c>
       <c r="L72" s="43" t="str">
         <f t="shared" si="10"/>
-        <v>SCC EAST</v>
+        <v>SCC WEST</v>
       </c>
       <c r="M72" s="37">
         <f t="shared" si="11"/>
@@ -7380,7 +7440,9 @@
       <c r="B91" s="44" t="s">
         <v>413</v>
       </c>
-      <c r="C91" s="69"/>
+      <c r="C91" s="69" t="s">
+        <v>408</v>
+      </c>
       <c r="D91" s="66"/>
       <c r="E91" s="6" t="s">
         <v>414</v>
@@ -7402,9 +7464,9 @@
         <f t="shared" si="10"/>
         <v>Syrian Intelligence office</v>
       </c>
-      <c r="M91" s="37">
+      <c r="M91" s="37" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N91" s="23" t="s">
         <v>417</v>
@@ -7495,7 +7557,9 @@
       <c r="B94" s="44" t="s">
         <v>413</v>
       </c>
-      <c r="C94" s="69"/>
+      <c r="C94" s="69" t="s">
+        <v>408</v>
+      </c>
       <c r="D94" s="66"/>
       <c r="E94" s="6" t="s">
         <v>441</v>
@@ -7517,9 +7581,9 @@
         <f t="shared" si="10"/>
         <v>Syrian Intelligence office</v>
       </c>
-      <c r="M94" s="37">
+      <c r="M94" s="37" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N94" s="23" t="s">
         <v>440</v>
@@ -9969,34 +10033,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="132"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="134"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="K3" t="s">
@@ -10004,17 +10068,17 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="27" t="s">
@@ -10161,17 +10225,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="14" t="s">
@@ -10186,15 +10250,15 @@
       <c r="D16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="124" t="s">
+      <c r="E16" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="127"/>
-      <c r="G16" s="124" t="s">
+      <c r="F16" s="132"/>
+      <c r="G16" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="129"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15">
@@ -10203,11 +10267,11 @@
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
       <c r="K17" t="s">
         <v>66</v>
       </c>
@@ -10219,11 +10283,11 @@
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="119"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="131"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="15">
@@ -10232,11 +10296,11 @@
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="131"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="15">
@@ -10245,11 +10309,11 @@
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="131"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="15">
@@ -10258,11 +10322,11 @@
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="15">
@@ -10271,11 +10335,11 @@
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="131"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="15">
@@ -10284,11 +10348,11 @@
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="131"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15">
@@ -10297,11 +10361,11 @@
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="131"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15">
@@ -10310,11 +10374,11 @@
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="112"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="136"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="16">
@@ -10323,19 +10387,23 @@
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -10350,15 +10418,11 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10387,50 +10451,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="132"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="133" t="s">
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="134"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="27" t="s">
@@ -10492,15 +10556,15 @@
       <c r="I6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="141" t="s">
+      <c r="K6" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="17">
@@ -10530,15 +10594,15 @@
       <c r="I7" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="141" t="s">
+      <c r="K7" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="141"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="17">
@@ -10646,17 +10710,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="27" t="s">
@@ -10671,15 +10735,15 @@
       <c r="D16" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="146" t="s">
+      <c r="E16" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146" t="s">
+      <c r="F16" s="141"/>
+      <c r="G16" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="146"/>
-      <c r="I16" s="147"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="142"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15">
@@ -10694,15 +10758,15 @@
       <c r="D17" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="142" t="s">
+      <c r="E17" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="143"/>
-      <c r="G17" s="142" t="s">
+      <c r="F17" s="144"/>
+      <c r="G17" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="144"/>
-      <c r="I17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="146"/>
     </row>
     <row r="18" spans="1:11" ht="23.25">
       <c r="A18" s="15">
@@ -10717,15 +10781,15 @@
       <c r="D18" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="142" t="s">
+      <c r="E18" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="143"/>
-      <c r="G18" s="142" t="s">
+      <c r="F18" s="144"/>
+      <c r="G18" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="146"/>
     </row>
     <row r="19" spans="1:11" ht="34.5">
       <c r="A19" s="15">
@@ -10740,15 +10804,15 @@
       <c r="D19" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="142" t="s">
+      <c r="E19" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="142" t="s">
+      <c r="F19" s="144"/>
+      <c r="G19" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="144"/>
-      <c r="I19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="146"/>
       <c r="K19" t="s">
         <v>66</v>
       </c>
@@ -10760,11 +10824,11 @@
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="131"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="15">
@@ -10773,11 +10837,11 @@
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
       <c r="K21" t="s">
         <v>91</v>
       </c>
@@ -10789,11 +10853,11 @@
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="131"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="15">
@@ -10802,11 +10866,11 @@
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="131"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15">
@@ -10815,11 +10879,11 @@
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="131"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15">
@@ -10828,11 +10892,11 @@
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="112"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="136"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="16">
@@ -10841,28 +10905,14 @@
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -10879,6 +10929,20 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
+++ b/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="524">
   <si>
     <t>OP ACTIVE RESOLVE TARGET LIST</t>
   </si>
@@ -726,9 +726,6 @@
   </si>
   <si>
     <t>Syrian Intelligence Agency</t>
-  </si>
-  <si>
-    <t>Syrian Intelligence Agency HQ building</t>
   </si>
   <si>
     <t>Syrian ADCC</t>
@@ -970,9 +967,6 @@
     <t>Dual use. Both civilian and military traffic</t>
   </si>
   <si>
-    <t>Dual use. TV signals in and out of Syria. Central Communication node. Dual use, also used for military command and control</t>
-  </si>
-  <si>
     <t>Dual use. Used for radiobroadcast by Syrian national media, but also used for military command and control</t>
   </si>
   <si>
@@ -1214,9 +1208,6 @@
     <t xml:space="preserve">N33 30.546 </t>
   </si>
   <si>
-    <t>E036 651</t>
-  </si>
-  <si>
     <t>3202ft</t>
   </si>
   <si>
@@ -1539,6 +1530,93 @@
   </si>
   <si>
     <t>1027ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N33 30.742 </t>
+  </si>
+  <si>
+    <t>E036 16.697</t>
+  </si>
+  <si>
+    <t>2260ft</t>
+  </si>
+  <si>
+    <t>Dual use. Damascus. CDE close by. TV signals in and out of Syria. Central Communication node. Dual use, also used for military command and control</t>
+  </si>
+  <si>
+    <t>Syrian Intelligence Internet Agency</t>
+  </si>
+  <si>
+    <t>N33 30.874</t>
+  </si>
+  <si>
+    <t>E036 16.083</t>
+  </si>
+  <si>
+    <t>2264ft</t>
+  </si>
+  <si>
+    <t>Damascus. Used by Syrian to conduct cyber warfare, hacking, etc.. Collateral issues close by</t>
+  </si>
+  <si>
+    <t>Syrian Ministry of Defence</t>
+  </si>
+  <si>
+    <t>N33 30.892</t>
+  </si>
+  <si>
+    <t>E036 16.656</t>
+  </si>
+  <si>
+    <t>Damascus. Collateral issues, downtown Damascus</t>
+  </si>
+  <si>
+    <t>Syrian Ministry of Finance</t>
+  </si>
+  <si>
+    <t>N33 30.165</t>
+  </si>
+  <si>
+    <t>E036 16.184</t>
+  </si>
+  <si>
+    <t>2323ft</t>
+  </si>
+  <si>
+    <t>Syrian Ministry of Foreign Affairs</t>
+  </si>
+  <si>
+    <t>N33 31.278</t>
+  </si>
+  <si>
+    <t>E036 17.774</t>
+  </si>
+  <si>
+    <t>2274ft</t>
+  </si>
+  <si>
+    <t>E036 13.651</t>
+  </si>
+  <si>
+    <t>N33 29.700</t>
+  </si>
+  <si>
+    <t>E036 19.200</t>
+  </si>
+  <si>
+    <t>2205ft</t>
+  </si>
+  <si>
+    <t>Produce missiles. Damscus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N33 30.741 </t>
+  </si>
+  <si>
+    <t>E036 16,538</t>
+  </si>
+  <si>
+    <t>Syrian Intelligence Agency HQ building. Downtown Damascus</t>
   </si>
 </sst>
 </file>
@@ -2489,6 +2567,63 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2528,61 +2663,19 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2590,21 +2683,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4247,7 +4325,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+      <selection pane="bottomLeft" activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4319,7 +4397,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>3</v>
@@ -4371,7 +4449,7 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="8"/>
@@ -4388,7 +4466,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4410,7 +4488,7 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -4427,7 +4505,7 @@
         <v>5</v>
       </c>
       <c r="N5" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4590,13 +4668,13 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>121</v>
@@ -4616,7 +4694,7 @@
         <v>9</v>
       </c>
       <c r="N10" s="51" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4631,13 +4709,13 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>121</v>
@@ -4657,7 +4735,7 @@
         <v>9</v>
       </c>
       <c r="N11" s="51" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4672,10 +4750,10 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G12" s="7">
         <v>2484</v>
@@ -4698,7 +4776,7 @@
         <v>9</v>
       </c>
       <c r="N12" s="51" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4713,10 +4791,10 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G13" s="7">
         <v>1654</v>
@@ -4739,7 +4817,7 @@
         <v>9</v>
       </c>
       <c r="N13" s="51" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4754,13 +4832,13 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>120</v>
@@ -4780,7 +4858,7 @@
         <v>9</v>
       </c>
       <c r="N14" s="51" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4795,10 +4873,10 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G15" s="7">
         <v>1152</v>
@@ -4821,7 +4899,7 @@
         <v>9</v>
       </c>
       <c r="N15" s="51" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4836,13 +4914,13 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>122</v>
@@ -4862,7 +4940,7 @@
         <v>9</v>
       </c>
       <c r="N16" s="51" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -4877,10 +4955,10 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G17" s="7">
         <v>2096</v>
@@ -4903,7 +4981,7 @@
         <v>9</v>
       </c>
       <c r="N17" s="51" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -4917,9 +4995,15 @@
         <v>9</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
+      <c r="E18" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>519</v>
+      </c>
       <c r="H18" s="6" t="s">
         <v>122</v>
       </c>
@@ -4938,7 +5022,7 @@
         <v>9</v>
       </c>
       <c r="N18" s="51" t="s">
-        <v>319</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -4953,13 +5037,13 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>123</v>
@@ -4979,7 +5063,7 @@
         <v>9</v>
       </c>
       <c r="N19" s="51" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -4994,13 +5078,13 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>123</v>
@@ -5020,7 +5104,7 @@
         <v>9</v>
       </c>
       <c r="N20" s="51" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="86" customFormat="1" ht="36.75">
@@ -5035,16 +5119,16 @@
       </c>
       <c r="D21" s="101"/>
       <c r="E21" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H21" s="102" t="s">
         <v>397</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H21" s="102" t="s">
-        <v>400</v>
       </c>
       <c r="I21" s="103"/>
       <c r="J21" s="103"/>
@@ -5061,7 +5145,7 @@
         <v>9</v>
       </c>
       <c r="N21" s="51" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -5138,13 +5222,13 @@
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>126</v>
@@ -5164,7 +5248,7 @@
         <v>9</v>
       </c>
       <c r="N24" s="51" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -5175,17 +5259,17 @@
         <v>125</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>126</v>
@@ -5205,7 +5289,7 @@
         <v>9 / 13</v>
       </c>
       <c r="N25" s="51" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -5216,14 +5300,14 @@
         <v>125</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G26" s="7">
         <v>1352</v>
@@ -5246,7 +5330,7 @@
         <v>9 / 13</v>
       </c>
       <c r="N26" s="51" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -5281,7 +5365,7 @@
         <v>9</v>
       </c>
       <c r="N27" s="51" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -5296,13 +5380,13 @@
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>127</v>
@@ -5322,7 +5406,7 @@
         <v>9</v>
       </c>
       <c r="N28" s="51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1">
@@ -5357,7 +5441,7 @@
         <v>9</v>
       </c>
       <c r="N29" s="51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -5372,10 +5456,10 @@
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G30" s="7">
         <v>2644</v>
@@ -5398,7 +5482,7 @@
         <v>9</v>
       </c>
       <c r="N30" s="51" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -5433,7 +5517,7 @@
         <v>9</v>
       </c>
       <c r="N31" s="51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -5468,7 +5552,7 @@
         <v>9</v>
       </c>
       <c r="N32" s="51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -5603,7 +5687,7 @@
         <v>201</v>
       </c>
       <c r="C37" s="69" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D37" s="66"/>
       <c r="E37" s="6"/>
@@ -5625,7 +5709,7 @@
         <v>2 /12</v>
       </c>
       <c r="N37" s="51" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="30">
@@ -5636,12 +5720,18 @@
         <v>202</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D38" s="66"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
+      <c r="E38" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>497</v>
+      </c>
       <c r="H38" s="6"/>
       <c r="I38" s="32"/>
       <c r="J38" s="8"/>
@@ -5658,7 +5748,7 @@
         <v>2 /12</v>
       </c>
       <c r="N38" s="51" t="s">
-        <v>309</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -5893,7 +5983,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="8"/>
@@ -6096,7 +6186,7 @@
         <v>3</v>
       </c>
       <c r="N52" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -6300,7 +6390,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I59" s="32"/>
       <c r="J59" s="8"/>
@@ -6385,20 +6475,20 @@
         <v>158</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C62" s="72">
         <v>1</v>
       </c>
       <c r="D62" s="67"/>
       <c r="E62" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="56"/>
@@ -6416,7 +6506,7 @@
         <v>1</v>
       </c>
       <c r="N62" s="53" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="24.75">
@@ -6424,20 +6514,20 @@
         <v>159</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C63" s="69">
         <v>1</v>
       </c>
       <c r="D63" s="66"/>
       <c r="E63" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="32"/>
@@ -6455,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="N63" s="23" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -6501,13 +6591,13 @@
       </c>
       <c r="D65" s="66"/>
       <c r="E65" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>229</v>
@@ -6535,7 +6625,7 @@
         <v>162</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C66" s="69">
         <v>9</v>
@@ -6609,9 +6699,15 @@
         <v>5</v>
       </c>
       <c r="D68" s="66"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="7"/>
+      <c r="E68" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>497</v>
+      </c>
       <c r="H68" s="6"/>
       <c r="I68" s="32"/>
       <c r="J68" s="8"/>
@@ -6628,7 +6724,7 @@
         <v>5</v>
       </c>
       <c r="N68" s="23" t="s">
-        <v>235</v>
+        <v>523</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -6636,20 +6732,20 @@
         <v>165</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C69" s="69">
         <v>4</v>
       </c>
       <c r="D69" s="66"/>
       <c r="E69" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="32"/>
@@ -6667,7 +6763,7 @@
         <v>4</v>
       </c>
       <c r="N69" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -6675,20 +6771,20 @@
         <v>166</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C70" s="69">
         <v>4</v>
       </c>
       <c r="D70" s="66"/>
       <c r="E70" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="32"/>
@@ -6706,7 +6802,7 @@
         <v>4</v>
       </c>
       <c r="N70" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -6714,20 +6810,20 @@
         <v>167</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C71" s="69">
         <v>4</v>
       </c>
       <c r="D71" s="66"/>
       <c r="E71" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="32"/>
@@ -6745,7 +6841,7 @@
         <v>4</v>
       </c>
       <c r="N71" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -6753,20 +6849,20 @@
         <v>168</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C72" s="69">
         <v>4</v>
       </c>
       <c r="D72" s="66"/>
       <c r="E72" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="32"/>
@@ -6784,7 +6880,7 @@
         <v>4</v>
       </c>
       <c r="N72" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="24.75">
@@ -6792,7 +6888,7 @@
         <v>169</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C73" s="69">
         <v>12</v>
@@ -6817,7 +6913,7 @@
         <v>12</v>
       </c>
       <c r="N73" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -6825,10 +6921,10 @@
         <v>170</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D74" s="66"/>
       <c r="E74" s="6"/>
@@ -6856,17 +6952,17 @@
         <v>171</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C75" s="69" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D75" s="66"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="7"/>
       <c r="H75" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I75" s="32"/>
       <c r="J75" s="8"/>
@@ -6889,17 +6985,17 @@
         <v>172</v>
       </c>
       <c r="B76" s="44" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C76" s="69" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D76" s="66"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="7"/>
       <c r="H76" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I76" s="32"/>
       <c r="J76" s="8"/>
@@ -6922,17 +7018,17 @@
         <v>173</v>
       </c>
       <c r="B77" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="C77" s="69" t="s">
         <v>335</v>
-      </c>
-      <c r="C77" s="69" t="s">
-        <v>337</v>
       </c>
       <c r="D77" s="66"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="7"/>
       <c r="H77" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I77" s="32"/>
       <c r="J77" s="8"/>
@@ -6955,23 +7051,23 @@
         <v>174</v>
       </c>
       <c r="B78" s="44" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D78" s="66"/>
       <c r="E78" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="H78" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="I78" s="32"/>
       <c r="J78" s="8"/>
@@ -6994,20 +7090,20 @@
         <v>175</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C79" s="69" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D79" s="66"/>
       <c r="E79" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="32"/>
@@ -7031,20 +7127,20 @@
         <v>176</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C80" s="69" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D80" s="66"/>
       <c r="E80" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="32"/>
@@ -7068,20 +7164,20 @@
         <v>177</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C81" s="69" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D81" s="66"/>
       <c r="E81" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="32"/>
@@ -7105,20 +7201,20 @@
         <v>178</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D82" s="66"/>
       <c r="E82" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="32"/>
@@ -7142,20 +7238,20 @@
         <v>179</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C83" s="69" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D83" s="66"/>
       <c r="E83" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="32"/>
@@ -7179,20 +7275,20 @@
         <v>180</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C84" s="69" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D84" s="66"/>
       <c r="E84" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="32"/>
@@ -7216,20 +7312,20 @@
         <v>181</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D85" s="66"/>
       <c r="E85" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="32"/>
@@ -7253,20 +7349,20 @@
         <v>182</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C86" s="69" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D86" s="66"/>
       <c r="E86" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="32"/>
@@ -7290,20 +7386,20 @@
         <v>183</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C87" s="69" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D87" s="66"/>
       <c r="E87" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="32"/>
@@ -7327,20 +7423,20 @@
         <v>184</v>
       </c>
       <c r="B88" s="44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C88" s="69" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D88" s="66"/>
       <c r="E88" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="32"/>
@@ -7364,20 +7460,20 @@
         <v>185</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C89" s="69" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D89" s="66"/>
       <c r="E89" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>389</v>
+        <v>516</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="32"/>
@@ -7401,20 +7497,20 @@
         <v>186</v>
       </c>
       <c r="B90" s="44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C90" s="69" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D90" s="66"/>
       <c r="E90" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="32"/>
@@ -7438,20 +7534,20 @@
         <v>187</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C91" s="69" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D91" s="66"/>
       <c r="E91" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="32"/>
@@ -7469,7 +7565,7 @@
         <v>5</v>
       </c>
       <c r="N91" s="23" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -7477,20 +7573,20 @@
         <v>188</v>
       </c>
       <c r="B92" s="44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C92" s="69" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D92" s="66"/>
       <c r="E92" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="32"/>
@@ -7508,7 +7604,7 @@
         <v>7</v>
       </c>
       <c r="N92" s="23" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -7516,20 +7612,20 @@
         <v>189</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C93" s="69" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D93" s="66"/>
       <c r="E93" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="32"/>
@@ -7547,7 +7643,7 @@
         <v>8</v>
       </c>
       <c r="N93" s="23" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="16.5" customHeight="1">
@@ -7555,20 +7651,20 @@
         <v>190</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C94" s="69" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D94" s="66"/>
       <c r="E94" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="32"/>
@@ -7586,7 +7682,7 @@
         <v>5</v>
       </c>
       <c r="N94" s="23" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -7594,17 +7690,17 @@
         <v>191</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C95" s="69" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D95" s="66"/>
       <c r="E95" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G95" s="7">
         <v>1024</v>
@@ -7625,7 +7721,7 @@
         <v>8</v>
       </c>
       <c r="N95" s="23" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -7633,20 +7729,20 @@
         <v>192</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C96" s="69" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D96" s="66"/>
       <c r="E96" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="32"/>
@@ -7664,19 +7760,27 @@
         <v>10</v>
       </c>
       <c r="N96" s="23" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="30">
       <c r="A97" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="B97" s="44"/>
+      <c r="B97" s="44" t="s">
+        <v>499</v>
+      </c>
       <c r="C97" s="69"/>
       <c r="D97" s="66"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="7"/>
+      <c r="E97" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>502</v>
+      </c>
       <c r="H97" s="6"/>
       <c r="I97" s="32"/>
       <c r="J97" s="32"/>
@@ -7684,26 +7788,36 @@
         <f t="shared" si="9"/>
         <v>OPARTGT094</v>
       </c>
-      <c r="L97" s="43">
+      <c r="L97" s="43" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>Syrian Intelligence Internet Agency</v>
       </c>
       <c r="M97" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N97" s="23"/>
+      <c r="N97" s="23" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="44"/>
+      <c r="B98" s="44" t="s">
+        <v>504</v>
+      </c>
       <c r="C98" s="69"/>
       <c r="D98" s="66"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="7"/>
+      <c r="E98" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>497</v>
+      </c>
       <c r="H98" s="6"/>
       <c r="I98" s="32"/>
       <c r="J98" s="32"/>
@@ -7711,26 +7825,36 @@
         <f t="shared" si="9"/>
         <v>OPARTGT095</v>
       </c>
-      <c r="L98" s="43">
+      <c r="L98" s="43" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>Syrian Ministry of Defence</v>
       </c>
       <c r="M98" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N98" s="23"/>
+      <c r="N98" s="23" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="44"/>
+      <c r="B99" s="44" t="s">
+        <v>512</v>
+      </c>
       <c r="C99" s="69"/>
       <c r="D99" s="66"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="7"/>
+      <c r="E99" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>511</v>
+      </c>
       <c r="H99" s="6"/>
       <c r="I99" s="32"/>
       <c r="J99" s="32"/>
@@ -7738,26 +7862,36 @@
         <f t="shared" si="9"/>
         <v>OPARTGT096</v>
       </c>
-      <c r="L99" s="43">
+      <c r="L99" s="43" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>Syrian Ministry of Foreign Affairs</v>
       </c>
       <c r="M99" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N99" s="23"/>
+      <c r="N99" s="23" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="B100" s="44"/>
+      <c r="B100" s="44" t="s">
+        <v>508</v>
+      </c>
       <c r="C100" s="69"/>
       <c r="D100" s="66"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="7"/>
+      <c r="E100" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>515</v>
+      </c>
       <c r="H100" s="6"/>
       <c r="I100" s="32"/>
       <c r="J100" s="32"/>
@@ -7765,15 +7899,17 @@
         <f t="shared" si="9"/>
         <v>OPARTGT097</v>
       </c>
-      <c r="L100" s="43">
+      <c r="L100" s="43" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>Syrian Ministry of Finance</v>
       </c>
       <c r="M100" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N100" s="23"/>
+      <c r="N100" s="23" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="46" t="s">
@@ -10033,34 +10169,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="113"/>
+      <c r="B2" s="132"/>
       <c r="C2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="134"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="K3" t="s">
@@ -10068,17 +10204,17 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="27" t="s">
@@ -10225,17 +10361,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="124"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="14" t="s">
@@ -10250,15 +10386,15 @@
       <c r="D16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="127" t="s">
+      <c r="E16" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="127" t="s">
+      <c r="F16" s="127"/>
+      <c r="G16" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="128"/>
-      <c r="I16" s="129"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15">
@@ -10267,11 +10403,11 @@
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="119"/>
       <c r="K17" t="s">
         <v>66</v>
       </c>
@@ -10283,11 +10419,11 @@
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="131"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="119"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="15">
@@ -10296,11 +10432,11 @@
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="131"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="119"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="15">
@@ -10309,11 +10445,11 @@
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="131"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="15">
@@ -10322,11 +10458,11 @@
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="15">
@@ -10335,11 +10471,11 @@
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="131"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="15">
@@ -10348,11 +10484,11 @@
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="131"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15">
@@ -10361,11 +10497,11 @@
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="131"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="119"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15">
@@ -10374,11 +10510,11 @@
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="136"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="112"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="16">
@@ -10387,23 +10523,19 @@
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -10418,11 +10550,15 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10451,50 +10587,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="113"/>
+      <c r="B2" s="132"/>
       <c r="C2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="114" t="s">
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="115"/>
+      <c r="I2" s="134"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="27" t="s">
@@ -10556,15 +10692,15 @@
       <c r="I6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="147" t="s">
+      <c r="K6" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="17">
@@ -10594,15 +10730,15 @@
       <c r="I7" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="147" t="s">
+      <c r="K7" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="17">
@@ -10710,17 +10846,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="124"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="27" t="s">
@@ -10735,15 +10871,15 @@
       <c r="D16" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="141" t="s">
+      <c r="E16" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141" t="s">
+      <c r="F16" s="146"/>
+      <c r="G16" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="141"/>
-      <c r="I16" s="142"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="147"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15">
@@ -10758,15 +10894,15 @@
       <c r="D17" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="143" t="s">
+      <c r="E17" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="144"/>
-      <c r="G17" s="143" t="s">
+      <c r="F17" s="143"/>
+      <c r="G17" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="145"/>
-      <c r="I17" s="146"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="145"/>
     </row>
     <row r="18" spans="1:11" ht="23.25">
       <c r="A18" s="15">
@@ -10781,15 +10917,15 @@
       <c r="D18" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="144"/>
-      <c r="G18" s="143" t="s">
+      <c r="F18" s="143"/>
+      <c r="G18" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="145"/>
-      <c r="I18" s="146"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="145"/>
     </row>
     <row r="19" spans="1:11" ht="34.5">
       <c r="A19" s="15">
@@ -10804,15 +10940,15 @@
       <c r="D19" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="143" t="s">
+      <c r="E19" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="144"/>
-      <c r="G19" s="143" t="s">
+      <c r="F19" s="143"/>
+      <c r="G19" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="145"/>
-      <c r="I19" s="146"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="145"/>
       <c r="K19" t="s">
         <v>66</v>
       </c>
@@ -10824,11 +10960,11 @@
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="131"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="15">
@@ -10837,11 +10973,11 @@
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
       <c r="K21" t="s">
         <v>91</v>
       </c>
@@ -10853,11 +10989,11 @@
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="131"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="15">
@@ -10866,11 +11002,11 @@
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="131"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15">
@@ -10879,11 +11015,11 @@
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="131"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="119"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15">
@@ -10892,11 +11028,11 @@
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="136"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="112"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="16">
@@ -10905,14 +11041,28 @@
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -10929,20 +11079,6 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10966,7 +11102,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="J1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11003,10 +11139,10 @@
         <v>79</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.75" customHeight="1">
@@ -11017,7 +11153,7 @@
         <v>109</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45">
@@ -11028,7 +11164,7 @@
         <v>110</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
@@ -11062,12 +11198,12 @@
       </c>
       <c r="C2" s="149"/>
       <c r="O2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1">
       <c r="B3" s="59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>2</v>
@@ -11078,10 +11214,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -11089,10 +11225,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -11100,10 +11236,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -11111,10 +11247,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -11122,10 +11258,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -11133,10 +11269,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -11144,10 +11280,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" customHeight="1">
@@ -11155,10 +11291,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" t="s">
         <v>271</v>
-      </c>
-      <c r="D11" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -11166,10 +11302,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -11177,10 +11313,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -11188,10 +11324,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -11199,10 +11335,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -11210,10 +11346,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -11221,10 +11357,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -11268,7 +11404,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="C31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -11296,12 +11432,12 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="J2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="149" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="149"/>
       <c r="C3" s="149"/>
@@ -11311,7 +11447,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="148" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C4" s="148"/>
     </row>
@@ -11320,7 +11456,7 @@
         <v>114</v>
       </c>
       <c r="B5" s="150" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C5" s="150"/>
     </row>
@@ -11329,7 +11465,7 @@
         <v>62</v>
       </c>
       <c r="B6" s="150" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" s="150"/>
     </row>
@@ -11338,7 +11474,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="150" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="150"/>
     </row>
@@ -11347,7 +11483,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="150" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C8" s="150"/>
     </row>
@@ -11383,111 +11519,111 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75">
       <c r="B2" s="151" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" s="152"/>
       <c r="D2" s="153"/>
       <c r="J2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
       <c r="B3" s="91" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C3" s="60" t="s">
         <v>106</v>
       </c>
       <c r="D3" s="92" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="90">
       <c r="B4" s="93" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D4" s="94" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="75">
       <c r="B5" s="93" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="42" customHeight="1">
       <c r="B6" s="93" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>312</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="75">
       <c r="B7" s="93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="75">
       <c r="B8" s="93" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="84" customHeight="1">
       <c r="B9" s="93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D9" s="95" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="75">
       <c r="B10" s="96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1">
       <c r="B11" s="97" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C11" s="98" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1"/>

--- a/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
+++ b/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="564">
   <si>
     <t>OP ACTIVE RESOLVE TARGET LIST</t>
   </si>
@@ -695,12 +695,6 @@
     <t>Tartus Naval Base</t>
   </si>
   <si>
-    <t>XXX Chemical Weapon storage</t>
-  </si>
-  <si>
-    <t>XXX Chemical Weapon research facility</t>
-  </si>
-  <si>
     <t>XXX Chemical Weapon Storage</t>
   </si>
   <si>
@@ -716,13 +710,7 @@
     <t>SCUD / MLRS</t>
   </si>
   <si>
-    <t>MLRS and SCUD rocket engines. Repair and construction of rocket engines</t>
-  </si>
-  <si>
     <t>Rocket research facility</t>
-  </si>
-  <si>
-    <t>Research into rockets</t>
   </si>
   <si>
     <t>Syrian Intelligence Agency</t>
@@ -967,9 +955,6 @@
     <t>Dual use. Both civilian and military traffic</t>
   </si>
   <si>
-    <t>Dual use. Used for radiobroadcast by Syrian national media, but also used for military command and control</t>
-  </si>
-  <si>
     <t>Completely destroy the assigned target. Typically used for fixed targets. Targets can consists of multiple DPI/DMPI's (Desired Point of Impact / Desired Mean Point of Impact). Destroy means destroying all DPI / DMPI   completely destroyed.</t>
   </si>
   <si>
@@ -1617,6 +1602,141 @@
   </si>
   <si>
     <t>Syrian Intelligence Agency HQ building. Downtown Damascus</t>
+  </si>
+  <si>
+    <t>N33 25.029</t>
+  </si>
+  <si>
+    <t>E036 41.150</t>
+  </si>
+  <si>
+    <t>1955ft</t>
+  </si>
+  <si>
+    <t>SouthEast of Damascus. Colocated with target 63 and 64.</t>
+  </si>
+  <si>
+    <t>Research into rockets. SouthEast of Damascus. Colocated with target 63 and 58.</t>
+  </si>
+  <si>
+    <t>MLRS and SCUD rocket engines. Repair and construction of rocket engines. SouthEast of Damascus. Colocated with target 64 and 58.</t>
+  </si>
+  <si>
+    <t>N33 24.836</t>
+  </si>
+  <si>
+    <t>E036 41.175</t>
+  </si>
+  <si>
+    <t>1959ft</t>
+  </si>
+  <si>
+    <t>N33 24.965</t>
+  </si>
+  <si>
+    <t>E036 41.471</t>
+  </si>
+  <si>
+    <t>1962ft</t>
+  </si>
+  <si>
+    <t>N33 15.865</t>
+  </si>
+  <si>
+    <t>E036 26.370</t>
+  </si>
+  <si>
+    <t>2142ft</t>
+  </si>
+  <si>
+    <t>Tunnel entrance to the headquarter. Positioned at Marj Ruhayyil airbase</t>
+  </si>
+  <si>
+    <t>N33 04.107</t>
+  </si>
+  <si>
+    <t>E036 33.455</t>
+  </si>
+  <si>
+    <t>2349ft</t>
+  </si>
+  <si>
+    <t>Tunnel entrance to the headquarter. Positioned at Khalkhalah airbase</t>
+  </si>
+  <si>
+    <t>N33 27.479</t>
+  </si>
+  <si>
+    <t>E036 21.307</t>
+  </si>
+  <si>
+    <t>2133ft</t>
+  </si>
+  <si>
+    <t>N33 29.392</t>
+  </si>
+  <si>
+    <t>E036 28.552</t>
+  </si>
+  <si>
+    <t>2008ft</t>
+  </si>
+  <si>
+    <t>Tunnel entrance to the headquarter. Positioned at Marj as Sultan South RW base</t>
+  </si>
+  <si>
+    <t>Tunnel entrance to the headquarter. Positioned at Qabr as Sitt RW base</t>
+  </si>
+  <si>
+    <t>N33 32.021</t>
+  </si>
+  <si>
+    <t>E036 16.383</t>
+  </si>
+  <si>
+    <t>3714ft</t>
+  </si>
+  <si>
+    <t>Dual use. Used for radiobroadcast by Syrian national media, but also used for military command and control. Positioned on a hill in Damascus</t>
+  </si>
+  <si>
+    <t>Chemical Weapon storage</t>
+  </si>
+  <si>
+    <t>N33 40.475</t>
+  </si>
+  <si>
+    <t>E036 45.396</t>
+  </si>
+  <si>
+    <t>2717ft</t>
+  </si>
+  <si>
+    <t>North al Al Dumayr. 3 bunkers. Grid is on centerbunker.</t>
+  </si>
+  <si>
+    <t>N33 41.500</t>
+  </si>
+  <si>
+    <t>E036 43.300</t>
+  </si>
+  <si>
+    <t>2592ft</t>
+  </si>
+  <si>
+    <t>North of Al Dumayr. Grid is centregrid. Total of 7 storages (not bunkers). A-A missiles are stored here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N33 43.000 </t>
+  </si>
+  <si>
+    <t>E037 02.500</t>
+  </si>
+  <si>
+    <t>2287ft</t>
+  </si>
+  <si>
+    <t>Desert 30nm EAST of Damascus</t>
   </si>
 </sst>
 </file>
@@ -2567,6 +2687,78 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2591,98 +2783,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4323,9 +4443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N317"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N77" sqref="N77"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4397,7 +4517,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>3</v>
@@ -4441,15 +4561,15 @@
         <v>5</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="82" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="8"/>
@@ -4466,7 +4586,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4480,15 +4600,15 @@
         <v>5</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="82" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -4505,7 +4625,7 @@
         <v>5</v>
       </c>
       <c r="N5" s="51" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4519,10 +4639,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="82" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="7"/>
@@ -4556,10 +4676,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="82" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="7"/>
@@ -4593,10 +4713,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="82" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="7"/>
@@ -4630,10 +4750,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="82" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="7"/>
@@ -4667,14 +4787,14 @@
         <v>9</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>389</v>
+      <c r="E10" s="82" t="s">
+        <v>383</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>384</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>121</v>
@@ -4694,7 +4814,7 @@
         <v>9</v>
       </c>
       <c r="N10" s="51" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4708,14 +4828,14 @@
         <v>9</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>424</v>
+      <c r="E11" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>419</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>121</v>
@@ -4735,7 +4855,7 @@
         <v>9</v>
       </c>
       <c r="N11" s="51" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4749,11 +4869,11 @@
         <v>9</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>446</v>
+      <c r="E12" s="82" t="s">
+        <v>440</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>441</v>
       </c>
       <c r="G12" s="7">
         <v>2484</v>
@@ -4776,7 +4896,7 @@
         <v>9</v>
       </c>
       <c r="N12" s="51" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4790,11 +4910,11 @@
         <v>9</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>403</v>
+      <c r="E13" s="82" t="s">
+        <v>397</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>398</v>
       </c>
       <c r="G13" s="7">
         <v>1654</v>
@@ -4817,7 +4937,7 @@
         <v>9</v>
       </c>
       <c r="N13" s="51" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4831,14 +4951,14 @@
         <v>9</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>420</v>
+      <c r="E14" s="82" t="s">
+        <v>414</v>
+      </c>
+      <c r="F14" s="82" t="s">
+        <v>415</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>120</v>
@@ -4858,7 +4978,7 @@
         <v>9</v>
       </c>
       <c r="N14" s="51" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4872,11 +4992,11 @@
         <v>9</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>459</v>
+      <c r="E15" s="82" t="s">
+        <v>453</v>
+      </c>
+      <c r="F15" s="82" t="s">
+        <v>454</v>
       </c>
       <c r="G15" s="7">
         <v>1152</v>
@@ -4899,7 +5019,7 @@
         <v>9</v>
       </c>
       <c r="N15" s="51" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4913,14 +5033,14 @@
         <v>9</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>392</v>
+      <c r="E16" s="82" t="s">
+        <v>386</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>122</v>
@@ -4940,7 +5060,7 @@
         <v>9</v>
       </c>
       <c r="N16" s="51" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -4954,11 +5074,11 @@
         <v>9</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>449</v>
+      <c r="E17" s="82" t="s">
+        <v>443</v>
+      </c>
+      <c r="F17" s="82" t="s">
+        <v>444</v>
       </c>
       <c r="G17" s="7">
         <v>2096</v>
@@ -4981,7 +5101,7 @@
         <v>9</v>
       </c>
       <c r="N17" s="51" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -4995,14 +5115,14 @@
         <v>9</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>518</v>
+      <c r="E18" s="82" t="s">
+        <v>512</v>
+      </c>
+      <c r="F18" s="82" t="s">
+        <v>513</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>122</v>
@@ -5022,7 +5142,7 @@
         <v>9</v>
       </c>
       <c r="N18" s="51" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -5036,14 +5156,14 @@
         <v>9</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>374</v>
+      <c r="E19" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="F19" s="82" t="s">
+        <v>369</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>123</v>
@@ -5063,7 +5183,7 @@
         <v>9</v>
       </c>
       <c r="N19" s="51" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -5077,14 +5197,14 @@
         <v>9</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>455</v>
+      <c r="E20" s="82" t="s">
+        <v>449</v>
+      </c>
+      <c r="F20" s="82" t="s">
+        <v>450</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>123</v>
@@ -5104,7 +5224,7 @@
         <v>9</v>
       </c>
       <c r="N20" s="51" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="86" customFormat="1" ht="36.75">
@@ -5118,17 +5238,17 @@
         <v>9</v>
       </c>
       <c r="D21" s="101"/>
-      <c r="E21" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>395</v>
+      <c r="E21" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="F21" s="82" t="s">
+        <v>390</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H21" s="102" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I21" s="103"/>
       <c r="J21" s="103"/>
@@ -5145,7 +5265,7 @@
         <v>9</v>
       </c>
       <c r="N21" s="51" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -5159,8 +5279,8 @@
         <v>9</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6"/>
       <c r="I22" s="8"/>
@@ -5190,8 +5310,8 @@
         <v>9</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6"/>
       <c r="I23" s="8"/>
@@ -5221,14 +5341,14 @@
         <v>9</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>443</v>
+      <c r="E24" s="82" t="s">
+        <v>437</v>
+      </c>
+      <c r="F24" s="82" t="s">
+        <v>438</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>126</v>
@@ -5248,7 +5368,7 @@
         <v>9</v>
       </c>
       <c r="N24" s="51" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -5259,17 +5379,17 @@
         <v>125</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>416</v>
+      <c r="E25" s="82" t="s">
+        <v>410</v>
+      </c>
+      <c r="F25" s="82" t="s">
+        <v>411</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>126</v>
@@ -5289,7 +5409,7 @@
         <v>9 / 13</v>
       </c>
       <c r="N25" s="51" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -5300,14 +5420,14 @@
         <v>125</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>470</v>
+      <c r="E26" s="82" t="s">
+        <v>464</v>
+      </c>
+      <c r="F26" s="82" t="s">
+        <v>465</v>
       </c>
       <c r="G26" s="7">
         <v>1352</v>
@@ -5330,7 +5450,7 @@
         <v>9 / 13</v>
       </c>
       <c r="N26" s="51" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -5344,8 +5464,8 @@
         <v>9</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6" t="s">
         <v>126</v>
@@ -5365,7 +5485,7 @@
         <v>9</v>
       </c>
       <c r="N27" s="51" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -5379,14 +5499,14 @@
         <v>9</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>426</v>
+      <c r="E28" s="82" t="s">
+        <v>420</v>
+      </c>
+      <c r="F28" s="82" t="s">
+        <v>421</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>127</v>
@@ -5406,7 +5526,7 @@
         <v>9</v>
       </c>
       <c r="N28" s="51" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1">
@@ -5420,8 +5540,8 @@
         <v>9</v>
       </c>
       <c r="D29" s="65"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
       <c r="G29" s="7"/>
       <c r="H29" s="39" t="s">
         <v>127</v>
@@ -5441,7 +5561,7 @@
         <v>9</v>
       </c>
       <c r="N29" s="51" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -5455,11 +5575,11 @@
         <v>9</v>
       </c>
       <c r="D30" s="10"/>
-      <c r="E30" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>452</v>
+      <c r="E30" s="82" t="s">
+        <v>446</v>
+      </c>
+      <c r="F30" s="82" t="s">
+        <v>447</v>
       </c>
       <c r="G30" s="7">
         <v>2644</v>
@@ -5482,7 +5602,7 @@
         <v>9</v>
       </c>
       <c r="N30" s="51" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -5496,8 +5616,8 @@
         <v>9</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6" t="s">
         <v>127</v>
@@ -5517,7 +5637,7 @@
         <v>9</v>
       </c>
       <c r="N31" s="51" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -5531,8 +5651,8 @@
         <v>9</v>
       </c>
       <c r="D32" s="66"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6" t="s">
         <v>127</v>
@@ -5552,7 +5672,7 @@
         <v>9</v>
       </c>
       <c r="N32" s="51" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -5566,9 +5686,15 @@
         <v>9</v>
       </c>
       <c r="D33" s="66"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
+      <c r="E33" s="82" t="s">
+        <v>560</v>
+      </c>
+      <c r="F33" s="82" t="s">
+        <v>561</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>562</v>
+      </c>
       <c r="H33" s="6"/>
       <c r="I33" s="32"/>
       <c r="J33" s="8"/>
@@ -5584,7 +5710,9 @@
         <f t="shared" ref="M33:M64" si="8">C33</f>
         <v>9</v>
       </c>
-      <c r="N33" s="51"/>
+      <c r="N33" s="51" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="46" t="s">
@@ -5597,8 +5725,8 @@
         <v>9</v>
       </c>
       <c r="D34" s="66"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
       <c r="G34" s="7"/>
       <c r="H34" s="6"/>
       <c r="I34" s="32"/>
@@ -5628,8 +5756,8 @@
         <v>9</v>
       </c>
       <c r="D35" s="66"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
       <c r="G35" s="7"/>
       <c r="H35" s="6"/>
       <c r="I35" s="32"/>
@@ -5659,8 +5787,8 @@
         <v>9</v>
       </c>
       <c r="D36" s="66"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6"/>
       <c r="I36" s="32"/>
@@ -5687,12 +5815,18 @@
         <v>201</v>
       </c>
       <c r="C37" s="69" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D37" s="66"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
+      <c r="E37" s="82" t="s">
+        <v>547</v>
+      </c>
+      <c r="F37" s="82" t="s">
+        <v>548</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>549</v>
+      </c>
       <c r="H37" s="6"/>
       <c r="I37" s="32"/>
       <c r="J37" s="8"/>
@@ -5709,7 +5843,7 @@
         <v>2 /12</v>
       </c>
       <c r="N37" s="51" t="s">
-        <v>308</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="30">
@@ -5720,17 +5854,17 @@
         <v>202</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D38" s="66"/>
-      <c r="E38" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>496</v>
+      <c r="E38" s="82" t="s">
+        <v>490</v>
+      </c>
+      <c r="F38" s="82" t="s">
+        <v>491</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="32"/>
@@ -5748,7 +5882,7 @@
         <v>2 /12</v>
       </c>
       <c r="N38" s="51" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -5762,8 +5896,8 @@
         <v>3</v>
       </c>
       <c r="D39" s="66"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6"/>
       <c r="I39" s="32"/>
@@ -5793,8 +5927,8 @@
         <v>3</v>
       </c>
       <c r="D40" s="66"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6"/>
       <c r="I40" s="32"/>
@@ -5824,8 +5958,8 @@
         <v>3</v>
       </c>
       <c r="D41" s="66"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6"/>
       <c r="I41" s="32"/>
@@ -5855,8 +5989,8 @@
         <v>3</v>
       </c>
       <c r="D42" s="66"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
       <c r="G42" s="7"/>
       <c r="H42" s="6"/>
       <c r="I42" s="32"/>
@@ -5983,7 +6117,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="8"/>
@@ -6186,7 +6320,7 @@
         <v>3</v>
       </c>
       <c r="N52" s="51" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -6390,7 +6524,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I59" s="32"/>
       <c r="J59" s="8"/>
@@ -6413,15 +6547,21 @@
         <v>156</v>
       </c>
       <c r="B60" s="82" t="s">
-        <v>224</v>
+        <v>551</v>
       </c>
       <c r="C60" s="69">
         <v>1</v>
       </c>
       <c r="D60" s="66"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="7"/>
+      <c r="E60" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>554</v>
+      </c>
       <c r="H60" s="6"/>
       <c r="I60" s="32"/>
       <c r="J60" s="8"/>
@@ -6431,28 +6571,36 @@
       </c>
       <c r="L60" s="37" t="str">
         <f t="shared" si="7"/>
-        <v>XXX Chemical Weapon storage</v>
+        <v>Chemical Weapon storage</v>
       </c>
       <c r="M60" s="37">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N60" s="51"/>
+      <c r="N60" s="51" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="24.75">
       <c r="A61" s="46" t="s">
         <v>157</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>225</v>
+        <v>477</v>
       </c>
       <c r="C61" s="69">
         <v>1</v>
       </c>
       <c r="D61" s="66"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="7"/>
+      <c r="E61" s="82" t="s">
+        <v>519</v>
+      </c>
+      <c r="F61" s="82" t="s">
+        <v>520</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>521</v>
+      </c>
       <c r="H61" s="6"/>
       <c r="I61" s="32"/>
       <c r="J61" s="8"/>
@@ -6462,33 +6610,35 @@
       </c>
       <c r="L61" s="43" t="str">
         <f t="shared" si="7"/>
-        <v>XXX Chemical Weapon research facility</v>
+        <v>Chemical Weapon research facility</v>
       </c>
       <c r="M61" s="37">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N61" s="51"/>
+      <c r="N61" s="51" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="24.75">
       <c r="A62" s="46" t="s">
         <v>158</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C62" s="72">
         <v>1</v>
       </c>
       <c r="D62" s="67"/>
-      <c r="E62" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>478</v>
+      <c r="E62" s="82" t="s">
+        <v>472</v>
+      </c>
+      <c r="F62" s="82" t="s">
+        <v>473</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="56"/>
@@ -6506,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="N62" s="53" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="24.75">
@@ -6514,20 +6664,20 @@
         <v>159</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C63" s="69">
         <v>1</v>
       </c>
       <c r="D63" s="66"/>
-      <c r="E63" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>466</v>
+      <c r="E63" s="82" t="s">
+        <v>460</v>
+      </c>
+      <c r="F63" s="82" t="s">
+        <v>461</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="32"/>
@@ -6545,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="N63" s="23" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -6553,14 +6703,14 @@
         <v>160</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C64" s="69">
         <v>1</v>
       </c>
       <c r="D64" s="66"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
       <c r="G64" s="7"/>
       <c r="H64" s="6"/>
       <c r="I64" s="32"/>
@@ -6584,23 +6734,23 @@
         <v>161</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C65" s="69">
         <v>4</v>
       </c>
       <c r="D65" s="66"/>
-      <c r="E65" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>337</v>
+      <c r="E65" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="F65" s="82" t="s">
+        <v>332</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I65" s="32"/>
       <c r="J65" s="8"/>
@@ -6617,25 +6767,31 @@
         <v>4</v>
       </c>
       <c r="N65" s="23" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="30">
       <c r="A66" s="46" t="s">
         <v>162</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C66" s="69">
         <v>9</v>
       </c>
       <c r="D66" s="66"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="7"/>
+      <c r="E66" s="82" t="s">
+        <v>525</v>
+      </c>
+      <c r="F66" s="82" t="s">
+        <v>526</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>527</v>
+      </c>
       <c r="H66" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I66" s="32"/>
       <c r="J66" s="8"/>
@@ -6652,7 +6808,7 @@
         <v>9</v>
       </c>
       <c r="N66" s="23" t="s">
-        <v>231</v>
+        <v>524</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -6660,15 +6816,21 @@
         <v>163</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C67" s="69">
         <v>5</v>
       </c>
       <c r="D67" s="66"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="7"/>
+      <c r="E67" s="82" t="s">
+        <v>528</v>
+      </c>
+      <c r="F67" s="82" t="s">
+        <v>529</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>530</v>
+      </c>
       <c r="H67" s="6"/>
       <c r="I67" s="32"/>
       <c r="J67" s="8"/>
@@ -6685,7 +6847,7 @@
         <v>5</v>
       </c>
       <c r="N67" s="23" t="s">
-        <v>233</v>
+        <v>523</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -6693,20 +6855,20 @@
         <v>164</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C68" s="69">
         <v>5</v>
       </c>
       <c r="D68" s="66"/>
-      <c r="E68" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>522</v>
+      <c r="E68" s="82" t="s">
+        <v>516</v>
+      </c>
+      <c r="F68" s="82" t="s">
+        <v>517</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="32"/>
@@ -6724,7 +6886,7 @@
         <v>5</v>
       </c>
       <c r="N68" s="23" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -6732,20 +6894,20 @@
         <v>165</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C69" s="69">
         <v>4</v>
       </c>
       <c r="D69" s="66"/>
-      <c r="E69" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>484</v>
+      <c r="E69" s="82" t="s">
+        <v>478</v>
+      </c>
+      <c r="F69" s="82" t="s">
+        <v>479</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="32"/>
@@ -6763,7 +6925,7 @@
         <v>4</v>
       </c>
       <c r="N69" s="23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -6771,20 +6933,20 @@
         <v>166</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C70" s="69">
         <v>4</v>
       </c>
       <c r="D70" s="66"/>
-      <c r="E70" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>487</v>
+      <c r="E70" s="82" t="s">
+        <v>481</v>
+      </c>
+      <c r="F70" s="82" t="s">
+        <v>482</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="32"/>
@@ -6802,7 +6964,7 @@
         <v>4</v>
       </c>
       <c r="N70" s="23" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -6810,20 +6972,20 @@
         <v>167</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C71" s="69">
         <v>4</v>
       </c>
       <c r="D71" s="66"/>
-      <c r="E71" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>493</v>
+      <c r="E71" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="F71" s="82" t="s">
+        <v>488</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="32"/>
@@ -6841,7 +7003,7 @@
         <v>4</v>
       </c>
       <c r="N71" s="23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -6849,20 +7011,20 @@
         <v>168</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C72" s="69">
         <v>4</v>
       </c>
       <c r="D72" s="66"/>
-      <c r="E72" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>490</v>
+      <c r="E72" s="82" t="s">
+        <v>484</v>
+      </c>
+      <c r="F72" s="82" t="s">
+        <v>485</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="32"/>
@@ -6880,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="N72" s="23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="24.75">
@@ -6888,14 +7050,14 @@
         <v>169</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C73" s="69">
         <v>12</v>
       </c>
       <c r="D73" s="66"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
       <c r="G73" s="7"/>
       <c r="H73" s="6"/>
       <c r="I73" s="32"/>
@@ -6913,7 +7075,7 @@
         <v>12</v>
       </c>
       <c r="N73" s="23" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -6921,15 +7083,21 @@
         <v>170</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D74" s="66"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="7"/>
+      <c r="E74" s="82" t="s">
+        <v>539</v>
+      </c>
+      <c r="F74" s="82" t="s">
+        <v>540</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>541</v>
+      </c>
       <c r="H74" s="6"/>
       <c r="I74" s="32"/>
       <c r="J74" s="8"/>
@@ -6945,24 +7113,32 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="N74" s="23"/>
+      <c r="N74" s="23" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="46" t="s">
         <v>171</v>
       </c>
       <c r="B75" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="C75" s="69" t="s">
         <v>330</v>
       </c>
-      <c r="C75" s="69" t="s">
-        <v>335</v>
-      </c>
       <c r="D75" s="66"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="7"/>
+      <c r="E75" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>533</v>
+      </c>
       <c r="H75" s="6" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I75" s="32"/>
       <c r="J75" s="8"/>
@@ -6978,24 +7154,32 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="N75" s="23"/>
+      <c r="N75" s="23" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="46" t="s">
         <v>172</v>
       </c>
       <c r="B76" s="44" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C76" s="69" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D76" s="66"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="7"/>
+      <c r="E76" s="82" t="s">
+        <v>535</v>
+      </c>
+      <c r="F76" s="82" t="s">
+        <v>536</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>537</v>
+      </c>
       <c r="H76" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I76" s="32"/>
       <c r="J76" s="8"/>
@@ -7011,24 +7195,32 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="N76" s="23"/>
+      <c r="N76" s="23" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="46" t="s">
         <v>173</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C77" s="69" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D77" s="66"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="7"/>
+      <c r="E77" s="82" t="s">
+        <v>542</v>
+      </c>
+      <c r="F77" s="82" t="s">
+        <v>543</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>544</v>
+      </c>
       <c r="H77" s="6" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I77" s="32"/>
       <c r="J77" s="8"/>
@@ -7044,30 +7236,32 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="N77" s="23"/>
+      <c r="N77" s="23" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="46" t="s">
         <v>174</v>
       </c>
       <c r="B78" s="44" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D78" s="66"/>
-      <c r="E78" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>341</v>
+      <c r="E78" s="82" t="s">
+        <v>335</v>
+      </c>
+      <c r="F78" s="82" t="s">
+        <v>336</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I78" s="32"/>
       <c r="J78" s="8"/>
@@ -7090,20 +7284,20 @@
         <v>175</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C79" s="69" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D79" s="66"/>
-      <c r="E79" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>361</v>
+      <c r="E79" s="82" t="s">
+        <v>355</v>
+      </c>
+      <c r="F79" s="82" t="s">
+        <v>356</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="32"/>
@@ -7127,20 +7321,20 @@
         <v>176</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C80" s="69" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D80" s="66"/>
-      <c r="E80" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>352</v>
+      <c r="E80" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="F80" s="82" t="s">
+        <v>347</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="32"/>
@@ -7164,20 +7358,20 @@
         <v>177</v>
       </c>
       <c r="B81" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="C81" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="D81" s="66"/>
+      <c r="E81" s="82" t="s">
         <v>346</v>
       </c>
-      <c r="C81" s="69" t="s">
-        <v>405</v>
-      </c>
-      <c r="D81" s="66"/>
-      <c r="E81" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>352</v>
+      <c r="F81" s="82" t="s">
+        <v>347</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="32"/>
@@ -7201,20 +7395,20 @@
         <v>178</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D82" s="66"/>
-      <c r="E82" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>358</v>
+      <c r="E82" s="82" t="s">
+        <v>352</v>
+      </c>
+      <c r="F82" s="82" t="s">
+        <v>353</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="32"/>
@@ -7238,20 +7432,20 @@
         <v>179</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C83" s="69" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D83" s="66"/>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="82" t="s">
+        <v>344</v>
+      </c>
+      <c r="F83" s="82" t="s">
+        <v>345</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="32"/>
@@ -7275,20 +7469,20 @@
         <v>180</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C84" s="69" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D84" s="66"/>
-      <c r="E84" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>365</v>
+      <c r="E84" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="F84" s="82" t="s">
+        <v>360</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="32"/>
@@ -7312,20 +7506,20 @@
         <v>181</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D85" s="66"/>
-      <c r="E85" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>368</v>
+      <c r="E85" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="F85" s="82" t="s">
+        <v>363</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="32"/>
@@ -7349,20 +7543,20 @@
         <v>182</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C86" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D86" s="66"/>
-      <c r="E86" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>371</v>
+      <c r="E86" s="82" t="s">
+        <v>365</v>
+      </c>
+      <c r="F86" s="82" t="s">
+        <v>366</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="32"/>
@@ -7386,20 +7580,20 @@
         <v>183</v>
       </c>
       <c r="B87" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="C87" s="69" t="s">
+        <v>403</v>
+      </c>
+      <c r="D87" s="66"/>
+      <c r="E87" s="82" t="s">
+        <v>374</v>
+      </c>
+      <c r="F87" s="82" t="s">
+        <v>375</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="C87" s="69" t="s">
-        <v>408</v>
-      </c>
-      <c r="D87" s="66"/>
-      <c r="E87" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="32"/>
@@ -7423,20 +7617,20 @@
         <v>184</v>
       </c>
       <c r="B88" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="C88" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="D88" s="66"/>
+      <c r="E88" s="82" t="s">
+        <v>377</v>
+      </c>
+      <c r="F88" s="82" t="s">
         <v>378</v>
       </c>
-      <c r="C88" s="69" t="s">
-        <v>407</v>
-      </c>
-      <c r="D88" s="66"/>
-      <c r="E88" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="G88" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="32"/>
@@ -7460,20 +7654,20 @@
         <v>185</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C89" s="69" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D89" s="66"/>
-      <c r="E89" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>516</v>
+      <c r="E89" s="82" t="s">
+        <v>381</v>
+      </c>
+      <c r="F89" s="82" t="s">
+        <v>511</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="32"/>
@@ -7497,20 +7691,20 @@
         <v>186</v>
       </c>
       <c r="B90" s="44" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C90" s="69" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D90" s="66"/>
-      <c r="E90" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>400</v>
+      <c r="E90" s="82" t="s">
+        <v>394</v>
+      </c>
+      <c r="F90" s="82" t="s">
+        <v>395</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="32"/>
@@ -7534,20 +7728,20 @@
         <v>187</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C91" s="69" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D91" s="66"/>
-      <c r="E91" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>412</v>
+      <c r="E91" s="82" t="s">
+        <v>406</v>
+      </c>
+      <c r="F91" s="82" t="s">
+        <v>407</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="32"/>
@@ -7565,7 +7759,7 @@
         <v>5</v>
       </c>
       <c r="N91" s="23" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -7573,20 +7767,20 @@
         <v>188</v>
       </c>
       <c r="B92" s="44" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C92" s="69" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D92" s="66"/>
-      <c r="E92" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>429</v>
+      <c r="E92" s="82" t="s">
+        <v>423</v>
+      </c>
+      <c r="F92" s="82" t="s">
+        <v>424</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="32"/>
@@ -7604,7 +7798,7 @@
         <v>7</v>
       </c>
       <c r="N92" s="23" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -7612,20 +7806,20 @@
         <v>189</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C93" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D93" s="66"/>
-      <c r="E93" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>435</v>
+      <c r="E93" s="82" t="s">
+        <v>429</v>
+      </c>
+      <c r="F93" s="82" t="s">
+        <v>430</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="32"/>
@@ -7643,7 +7837,7 @@
         <v>8</v>
       </c>
       <c r="N93" s="23" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="16.5" customHeight="1">
@@ -7651,20 +7845,20 @@
         <v>190</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C94" s="69" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D94" s="66"/>
-      <c r="E94" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>439</v>
+      <c r="E94" s="82" t="s">
+        <v>433</v>
+      </c>
+      <c r="F94" s="82" t="s">
+        <v>434</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="32"/>
@@ -7682,7 +7876,7 @@
         <v>5</v>
       </c>
       <c r="N94" s="23" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -7690,17 +7884,17 @@
         <v>191</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C95" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D95" s="66"/>
-      <c r="E95" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>462</v>
+      <c r="E95" s="82" t="s">
+        <v>453</v>
+      </c>
+      <c r="F95" s="82" t="s">
+        <v>457</v>
       </c>
       <c r="G95" s="7">
         <v>1024</v>
@@ -7721,7 +7915,7 @@
         <v>8</v>
       </c>
       <c r="N95" s="23" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -7729,20 +7923,20 @@
         <v>192</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C96" s="69" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D96" s="66"/>
-      <c r="E96" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>474</v>
+      <c r="E96" s="82" t="s">
+        <v>468</v>
+      </c>
+      <c r="F96" s="82" t="s">
+        <v>469</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="32"/>
@@ -7760,7 +7954,7 @@
         <v>10</v>
       </c>
       <c r="N96" s="23" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="30">
@@ -7768,18 +7962,18 @@
         <v>193</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C97" s="69"/>
       <c r="D97" s="66"/>
-      <c r="E97" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>501</v>
+      <c r="E97" s="82" t="s">
+        <v>495</v>
+      </c>
+      <c r="F97" s="82" t="s">
+        <v>496</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="32"/>
@@ -7797,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="N97" s="23" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -7805,18 +7999,18 @@
         <v>194</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C98" s="69"/>
       <c r="D98" s="66"/>
-      <c r="E98" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>506</v>
+      <c r="E98" s="82" t="s">
+        <v>500</v>
+      </c>
+      <c r="F98" s="82" t="s">
+        <v>501</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="32"/>
@@ -7834,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="N98" s="23" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -7842,18 +8036,18 @@
         <v>195</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C99" s="69"/>
       <c r="D99" s="66"/>
-      <c r="E99" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>510</v>
+      <c r="E99" s="82" t="s">
+        <v>504</v>
+      </c>
+      <c r="F99" s="82" t="s">
+        <v>505</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="32"/>
@@ -7871,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="N99" s="23" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -7879,18 +8073,18 @@
         <v>196</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C100" s="69"/>
       <c r="D100" s="66"/>
-      <c r="E100" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>514</v>
+      <c r="E100" s="82" t="s">
+        <v>508</v>
+      </c>
+      <c r="F100" s="82" t="s">
+        <v>509</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="32"/>
@@ -7908,19 +8102,27 @@
         <v>0</v>
       </c>
       <c r="N100" s="23" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="30">
       <c r="A101" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="B101" s="44"/>
+      <c r="B101" s="44" t="s">
+        <v>343</v>
+      </c>
       <c r="C101" s="69"/>
       <c r="D101" s="66"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="7"/>
+      <c r="E101" s="82" t="s">
+        <v>556</v>
+      </c>
+      <c r="F101" s="82" t="s">
+        <v>557</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>558</v>
+      </c>
       <c r="H101" s="6"/>
       <c r="I101" s="32"/>
       <c r="J101" s="32"/>
@@ -7928,15 +8130,16 @@
         <f t="shared" si="9"/>
         <v>OPARTGT098</v>
       </c>
-      <c r="L101" s="43">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="L101" s="43" t="s">
+        <v>343</v>
       </c>
       <c r="M101" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N101" s="23"/>
+      <c r="N101" s="23" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="46" t="s">
@@ -10169,34 +10372,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="132"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="134"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="K3" t="s">
@@ -10204,17 +10407,17 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="27" t="s">
@@ -10361,17 +10564,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="14" t="s">
@@ -10386,15 +10589,15 @@
       <c r="D16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="124" t="s">
+      <c r="E16" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="127"/>
-      <c r="G16" s="124" t="s">
+      <c r="F16" s="132"/>
+      <c r="G16" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="129"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15">
@@ -10403,11 +10606,11 @@
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
       <c r="K17" t="s">
         <v>66</v>
       </c>
@@ -10419,11 +10622,11 @@
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="119"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="131"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="15">
@@ -10432,11 +10635,11 @@
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="131"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="15">
@@ -10445,11 +10648,11 @@
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="131"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="15">
@@ -10458,11 +10661,11 @@
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="15">
@@ -10471,11 +10674,11 @@
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="131"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="15">
@@ -10484,11 +10687,11 @@
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="131"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15">
@@ -10497,11 +10700,11 @@
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="131"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15">
@@ -10510,11 +10713,11 @@
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="112"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="136"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="16">
@@ -10523,19 +10726,23 @@
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -10550,15 +10757,11 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10587,50 +10790,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="132"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="133" t="s">
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="134"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="27" t="s">
@@ -10692,15 +10895,15 @@
       <c r="I6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="141" t="s">
+      <c r="K6" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="17">
@@ -10730,15 +10933,15 @@
       <c r="I7" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="141" t="s">
+      <c r="K7" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="141"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="17">
@@ -10846,17 +11049,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="27" t="s">
@@ -10871,15 +11074,15 @@
       <c r="D16" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="146" t="s">
+      <c r="E16" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146" t="s">
+      <c r="F16" s="141"/>
+      <c r="G16" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="146"/>
-      <c r="I16" s="147"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="142"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15">
@@ -10894,15 +11097,15 @@
       <c r="D17" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="142" t="s">
+      <c r="E17" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="143"/>
-      <c r="G17" s="142" t="s">
+      <c r="F17" s="144"/>
+      <c r="G17" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="144"/>
-      <c r="I17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="146"/>
     </row>
     <row r="18" spans="1:11" ht="23.25">
       <c r="A18" s="15">
@@ -10917,15 +11120,15 @@
       <c r="D18" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="142" t="s">
+      <c r="E18" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="143"/>
-      <c r="G18" s="142" t="s">
+      <c r="F18" s="144"/>
+      <c r="G18" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="146"/>
     </row>
     <row r="19" spans="1:11" ht="34.5">
       <c r="A19" s="15">
@@ -10940,15 +11143,15 @@
       <c r="D19" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="142" t="s">
+      <c r="E19" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="142" t="s">
+      <c r="F19" s="144"/>
+      <c r="G19" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="144"/>
-      <c r="I19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="146"/>
       <c r="K19" t="s">
         <v>66</v>
       </c>
@@ -10960,11 +11163,11 @@
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="131"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="15">
@@ -10973,11 +11176,11 @@
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
       <c r="K21" t="s">
         <v>91</v>
       </c>
@@ -10989,11 +11192,11 @@
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="131"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="15">
@@ -11002,11 +11205,11 @@
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="131"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15">
@@ -11015,11 +11218,11 @@
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="131"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15">
@@ -11028,11 +11231,11 @@
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="112"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="136"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="16">
@@ -11041,28 +11244,14 @@
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -11079,6 +11268,20 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11102,7 +11305,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="J1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11139,10 +11342,10 @@
         <v>79</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.75" customHeight="1">
@@ -11153,7 +11356,7 @@
         <v>109</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45">
@@ -11164,7 +11367,7 @@
         <v>110</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
@@ -11198,12 +11401,12 @@
       </c>
       <c r="C2" s="149"/>
       <c r="O2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1">
       <c r="B3" s="59" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>2</v>
@@ -11214,10 +11417,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -11225,10 +11428,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -11236,10 +11439,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -11247,10 +11450,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -11258,10 +11461,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -11269,10 +11472,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -11280,10 +11483,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" customHeight="1">
@@ -11291,10 +11494,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -11302,10 +11505,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -11313,10 +11516,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -11324,10 +11527,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -11335,10 +11538,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -11346,10 +11549,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -11357,10 +11560,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -11404,7 +11607,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="C31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -11432,12 +11635,12 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="J2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="149" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B3" s="149"/>
       <c r="C3" s="149"/>
@@ -11447,7 +11650,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="148" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C4" s="148"/>
     </row>
@@ -11456,7 +11659,7 @@
         <v>114</v>
       </c>
       <c r="B5" s="150" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C5" s="150"/>
     </row>
@@ -11465,7 +11668,7 @@
         <v>62</v>
       </c>
       <c r="B6" s="150" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C6" s="150"/>
     </row>
@@ -11474,7 +11677,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="150" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C7" s="150"/>
     </row>
@@ -11483,7 +11686,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="150" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C8" s="150"/>
     </row>
@@ -11519,111 +11722,111 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75">
       <c r="B2" s="151" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C2" s="152"/>
       <c r="D2" s="153"/>
       <c r="J2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
       <c r="B3" s="91" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C3" s="60" t="s">
         <v>106</v>
       </c>
       <c r="D3" s="92" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="90">
       <c r="B4" s="93" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D4" s="94" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="75">
       <c r="B5" s="93" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>291</v>
-      </c>
       <c r="D5" s="51" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="42" customHeight="1">
       <c r="B6" s="93" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="75">
       <c r="B7" s="93" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="75">
       <c r="B8" s="93" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="84" customHeight="1">
       <c r="B9" s="93" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D9" s="95" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="75">
       <c r="B10" s="96" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1">
       <c r="B11" s="97" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C11" s="98" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1"/>

--- a/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
+++ b/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="596">
   <si>
     <t>OP ACTIVE RESOLVE TARGET LIST</t>
   </si>
@@ -1737,6 +1737,102 @@
   </si>
   <si>
     <t>Desert 30nm EAST of Damascus</t>
+  </si>
+  <si>
+    <t>N33 29.100</t>
+  </si>
+  <si>
+    <t>E036 05.800</t>
+  </si>
+  <si>
+    <t>3245ft</t>
+  </si>
+  <si>
+    <t>Produce armored vehicles. Located Damascus West.</t>
+  </si>
+  <si>
+    <t>N33 48.000</t>
+  </si>
+  <si>
+    <t>E036 40.900</t>
+  </si>
+  <si>
+    <t>2733ft</t>
+  </si>
+  <si>
+    <t>Produce military trucks. Located between Al Dumayr and An Nasiriyah</t>
+  </si>
+  <si>
+    <t>N33 44.600</t>
+  </si>
+  <si>
+    <t>E036 36.000</t>
+  </si>
+  <si>
+    <t>3012ft</t>
+  </si>
+  <si>
+    <t>Produce important avionics used in repairs of fighters. Located between Al Dumayr and An Nasiriyah</t>
+  </si>
+  <si>
+    <t>N33 54.075</t>
+  </si>
+  <si>
+    <t>E036 53.054</t>
+  </si>
+  <si>
+    <t>Produce aircraft on license from Russia. Located close to An Nasiriyah</t>
+  </si>
+  <si>
+    <t>Damascus</t>
+  </si>
+  <si>
+    <t>N33 36.830</t>
+  </si>
+  <si>
+    <t>E036 32.840</t>
+  </si>
+  <si>
+    <t>1975ft</t>
+  </si>
+  <si>
+    <t>West Damascus</t>
+  </si>
+  <si>
+    <t>Damascus South</t>
+  </si>
+  <si>
+    <t>Aircraft factory</t>
+  </si>
+  <si>
+    <t>N35 08.000</t>
+  </si>
+  <si>
+    <t>E036 43.900</t>
+  </si>
+  <si>
+    <t>984ft</t>
+  </si>
+  <si>
+    <t>Located close to Hama airfield. Aircraft production on license from Russia. Final assembly of aircrafts. Parts from other factories come here by railway. Railwaystation is also a target.</t>
+  </si>
+  <si>
+    <t>East of Al Quasayr airfield  (aprox 15nm)</t>
+  </si>
+  <si>
+    <t>Palmyra</t>
+  </si>
+  <si>
+    <t>N33 40.412</t>
+  </si>
+  <si>
+    <t>E036 44.684</t>
+  </si>
+  <si>
+    <t>2687ft</t>
+  </si>
+  <si>
+    <t>3 bunkers. Coordinate is on center of the 3. Located North of Al-Dumayr</t>
   </si>
 </sst>
 </file>
@@ -2687,6 +2783,63 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2726,61 +2879,19 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2788,21 +2899,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4443,9 +4539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5279,9 +5375,15 @@
         <v>9</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="7"/>
+      <c r="E22" s="82" t="s">
+        <v>592</v>
+      </c>
+      <c r="F22" s="82" t="s">
+        <v>593</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>594</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -5297,7 +5399,9 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="N22" s="51"/>
+      <c r="N22" s="51" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="46" t="s">
@@ -5464,9 +5568,15 @@
         <v>9</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="7"/>
+      <c r="E27" s="82" t="s">
+        <v>568</v>
+      </c>
+      <c r="F27" s="82" t="s">
+        <v>569</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>570</v>
+      </c>
       <c r="H27" s="6" t="s">
         <v>126</v>
       </c>
@@ -5485,7 +5595,7 @@
         <v>9</v>
       </c>
       <c r="N27" s="51" t="s">
-        <v>314</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -5540,9 +5650,15 @@
         <v>9</v>
       </c>
       <c r="D29" s="65"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="7"/>
+      <c r="E29" s="82" t="s">
+        <v>564</v>
+      </c>
+      <c r="F29" s="82" t="s">
+        <v>565</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="H29" s="39" t="s">
         <v>127</v>
       </c>
@@ -5561,7 +5677,7 @@
         <v>9</v>
       </c>
       <c r="N29" s="51" t="s">
-        <v>315</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -5714,7 +5830,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" ht="30">
       <c r="A34" s="46" t="s">
         <v>130</v>
       </c>
@@ -5725,9 +5841,15 @@
         <v>9</v>
       </c>
       <c r="D34" s="66"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="7"/>
+      <c r="E34" s="82" t="s">
+        <v>572</v>
+      </c>
+      <c r="F34" s="82" t="s">
+        <v>573</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>574</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="32"/>
       <c r="J34" s="8"/>
@@ -5743,7 +5865,9 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="N34" s="51"/>
+      <c r="N34" s="51" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="46" t="s">
@@ -5756,9 +5880,15 @@
         <v>9</v>
       </c>
       <c r="D35" s="66"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="7"/>
+      <c r="E35" s="82" t="s">
+        <v>576</v>
+      </c>
+      <c r="F35" s="82" t="s">
+        <v>577</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>570</v>
+      </c>
       <c r="H35" s="6"/>
       <c r="I35" s="32"/>
       <c r="J35" s="8"/>
@@ -5774,22 +5904,30 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="N35" s="51"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="N35" s="51" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="45">
       <c r="A36" s="46" t="s">
         <v>132</v>
       </c>
       <c r="B36" s="82" t="s">
-        <v>200</v>
+        <v>585</v>
       </c>
       <c r="C36" s="69">
         <v>9</v>
       </c>
       <c r="D36" s="66"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="7"/>
+      <c r="E36" s="82" t="s">
+        <v>586</v>
+      </c>
+      <c r="F36" s="82" t="s">
+        <v>587</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>588</v>
+      </c>
       <c r="H36" s="6"/>
       <c r="I36" s="32"/>
       <c r="J36" s="8"/>
@@ -5799,13 +5937,15 @@
       </c>
       <c r="L36" s="37" t="str">
         <f t="shared" si="7"/>
-        <v>Aircraft parts factory</v>
+        <v>Aircraft factory</v>
       </c>
       <c r="M36" s="37">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="N36" s="51"/>
+      <c r="N36" s="51" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="37" spans="1:14" ht="30">
       <c r="A37" s="46" t="s">
@@ -7314,7 +7454,9 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="N79" s="23"/>
+      <c r="N79" s="23" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="46" t="s">
@@ -7336,7 +7478,9 @@
       <c r="G80" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="H80" s="6"/>
+      <c r="H80" s="6" t="s">
+        <v>584</v>
+      </c>
       <c r="I80" s="32"/>
       <c r="J80" s="8"/>
       <c r="K80" s="54" t="str">
@@ -7373,7 +7517,9 @@
       <c r="G81" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="H81" s="6"/>
+      <c r="H81" s="6" t="s">
+        <v>579</v>
+      </c>
       <c r="I81" s="32"/>
       <c r="J81" s="8"/>
       <c r="K81" s="54" t="str">
@@ -7410,7 +7556,9 @@
       <c r="G82" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="H82" s="6"/>
+      <c r="H82" s="6" t="s">
+        <v>591</v>
+      </c>
       <c r="I82" s="32"/>
       <c r="J82" s="8"/>
       <c r="K82" s="54" t="str">
@@ -7684,7 +7832,9 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="N89" s="23"/>
+      <c r="N89" s="23" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="46" t="s">
@@ -8145,12 +8295,22 @@
       <c r="A102" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="B102" s="44"/>
-      <c r="C102" s="69"/>
+      <c r="B102" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="C102" s="69" t="s">
+        <v>403</v>
+      </c>
       <c r="D102" s="66"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="7"/>
+      <c r="E102" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>582</v>
+      </c>
       <c r="H102" s="6"/>
       <c r="I102" s="32"/>
       <c r="J102" s="32"/>
@@ -8158,15 +8318,17 @@
         <f t="shared" si="9"/>
         <v>OPARTGT099</v>
       </c>
-      <c r="L102" s="43">
+      <c r="L102" s="43" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M102" s="37">
+        <v>Powerdistribution</v>
+      </c>
+      <c r="M102" s="37" t="str">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N102" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="N102" s="23" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="46" t="s">
@@ -10372,34 +10534,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="113"/>
+      <c r="B2" s="132"/>
       <c r="C2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="134"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="K3" t="s">
@@ -10407,17 +10569,17 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="27" t="s">
@@ -10564,17 +10726,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="124"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="14" t="s">
@@ -10589,15 +10751,15 @@
       <c r="D16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="127" t="s">
+      <c r="E16" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="127" t="s">
+      <c r="F16" s="127"/>
+      <c r="G16" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="128"/>
-      <c r="I16" s="129"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15">
@@ -10606,11 +10768,11 @@
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="119"/>
       <c r="K17" t="s">
         <v>66</v>
       </c>
@@ -10622,11 +10784,11 @@
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="131"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="119"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="15">
@@ -10635,11 +10797,11 @@
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="131"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="119"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="15">
@@ -10648,11 +10810,11 @@
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="131"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="15">
@@ -10661,11 +10823,11 @@
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="15">
@@ -10674,11 +10836,11 @@
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="131"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="15">
@@ -10687,11 +10849,11 @@
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="131"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15">
@@ -10700,11 +10862,11 @@
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="131"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="119"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15">
@@ -10713,11 +10875,11 @@
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="136"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="112"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="16">
@@ -10726,23 +10888,19 @@
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -10757,11 +10915,15 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10790,50 +10952,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="113"/>
+      <c r="B2" s="132"/>
       <c r="C2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="114" t="s">
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="115"/>
+      <c r="I2" s="134"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="27" t="s">
@@ -10895,15 +11057,15 @@
       <c r="I6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="147" t="s">
+      <c r="K6" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="17">
@@ -10933,15 +11095,15 @@
       <c r="I7" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="147" t="s">
+      <c r="K7" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="17">
@@ -11049,17 +11211,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="124"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="27" t="s">
@@ -11074,15 +11236,15 @@
       <c r="D16" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="141" t="s">
+      <c r="E16" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141" t="s">
+      <c r="F16" s="146"/>
+      <c r="G16" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="141"/>
-      <c r="I16" s="142"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="147"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15">
@@ -11097,15 +11259,15 @@
       <c r="D17" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="143" t="s">
+      <c r="E17" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="144"/>
-      <c r="G17" s="143" t="s">
+      <c r="F17" s="143"/>
+      <c r="G17" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="145"/>
-      <c r="I17" s="146"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="145"/>
     </row>
     <row r="18" spans="1:11" ht="23.25">
       <c r="A18" s="15">
@@ -11120,15 +11282,15 @@
       <c r="D18" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="144"/>
-      <c r="G18" s="143" t="s">
+      <c r="F18" s="143"/>
+      <c r="G18" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="145"/>
-      <c r="I18" s="146"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="145"/>
     </row>
     <row r="19" spans="1:11" ht="34.5">
       <c r="A19" s="15">
@@ -11143,15 +11305,15 @@
       <c r="D19" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="143" t="s">
+      <c r="E19" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="144"/>
-      <c r="G19" s="143" t="s">
+      <c r="F19" s="143"/>
+      <c r="G19" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="145"/>
-      <c r="I19" s="146"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="145"/>
       <c r="K19" t="s">
         <v>66</v>
       </c>
@@ -11163,11 +11325,11 @@
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="131"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="15">
@@ -11176,11 +11338,11 @@
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
       <c r="K21" t="s">
         <v>91</v>
       </c>
@@ -11192,11 +11354,11 @@
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="131"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="15">
@@ -11205,11 +11367,11 @@
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="131"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15">
@@ -11218,11 +11380,11 @@
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="131"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="119"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15">
@@ -11231,11 +11393,11 @@
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="136"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="112"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="16">
@@ -11244,14 +11406,28 @@
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -11268,20 +11444,6 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
+++ b/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="622">
   <si>
     <t>OP ACTIVE RESOLVE TARGET LIST</t>
   </si>
@@ -150,12 +150,6 @@
   </si>
   <si>
     <t>142nd Heavy Rocket Artillery BN</t>
-  </si>
-  <si>
-    <t>341st Heavy Rocket Artillery BN</t>
-  </si>
-  <si>
-    <t>342nd Heavy Rocket Artillery BN</t>
   </si>
   <si>
     <t>BDA</t>
@@ -1226,9 +1220,6 @@
     <t>Bombs /Rockets/shells/Missiles</t>
   </si>
   <si>
-    <t>Largest ammunition factory in Syria</t>
-  </si>
-  <si>
     <t>N35 10.700</t>
   </si>
   <si>
@@ -1833,6 +1824,93 @@
   </si>
   <si>
     <t>3 bunkers. Coordinate is on center of the 3. Located North of Al-Dumayr</t>
+  </si>
+  <si>
+    <t>N34 21.200</t>
+  </si>
+  <si>
+    <t>E036 46.300</t>
+  </si>
+  <si>
+    <t>2943ft</t>
+  </si>
+  <si>
+    <t>N35 07.600</t>
+  </si>
+  <si>
+    <t>E036 48.000</t>
+  </si>
+  <si>
+    <t>1007ft</t>
+  </si>
+  <si>
+    <t>Produce armored vehicles. Located 20nm SOUTH of HOMS</t>
+  </si>
+  <si>
+    <t>Produce armored vehicles. Located in HAMA.</t>
+  </si>
+  <si>
+    <t>Located in HAMA.</t>
+  </si>
+  <si>
+    <t>Largest ammunition factory in Syria. Located in Hama</t>
+  </si>
+  <si>
+    <t>N36 10.513</t>
+  </si>
+  <si>
+    <t>E037 16.266</t>
+  </si>
+  <si>
+    <t>1204ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covert storage in a civilian storage area connected to railstation. Located in Aleppo. </t>
+  </si>
+  <si>
+    <t>Syrian Navy HQ</t>
+  </si>
+  <si>
+    <t>N35 33.657</t>
+  </si>
+  <si>
+    <t>E035 44.909</t>
+  </si>
+  <si>
+    <t>26ft</t>
+  </si>
+  <si>
+    <t>Headquarter of Syrian navy. Located in Latakia.</t>
+  </si>
+  <si>
+    <t>SYR Navy storage</t>
+  </si>
+  <si>
+    <t>N35 32.434</t>
+  </si>
+  <si>
+    <t>E035 46.524</t>
+  </si>
+  <si>
+    <t>16ft</t>
+  </si>
+  <si>
+    <t>Storage for Syrian navy, key supplies to keep ships going. Located in the harbour at Latakia</t>
+  </si>
+  <si>
+    <t>Jablah Navy port</t>
+  </si>
+  <si>
+    <t>N35 21.660</t>
+  </si>
+  <si>
+    <t>E035 55.175</t>
+  </si>
+  <si>
+    <t>23ft</t>
+  </si>
+  <si>
+    <t>Military port for reciving resupply to Bassel Al-Assad airbase. Located 3nm southwest of Bassel Al-Assad airfield</t>
   </si>
 </sst>
 </file>
@@ -2783,6 +2861,78 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2807,98 +2957,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4540,8 +4618,8 @@
   <dimension ref="A1:N317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4576,7 +4654,7 @@
       <c r="I1" s="107"/>
       <c r="J1" s="108"/>
       <c r="K1" s="106" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L1" s="107"/>
       <c r="M1" s="107"/>
@@ -4584,7 +4662,7 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1">
       <c r="A2" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="80"/>
       <c r="C2" s="70"/>
@@ -4593,7 +4671,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="64"/>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
@@ -4610,10 +4688,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>3</v>
@@ -4622,16 +4700,16 @@
         <v>4</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>11</v>
@@ -4643,7 +4721,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4665,7 +4743,7 @@
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="8"/>
@@ -4682,7 +4760,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4704,7 +4782,7 @@
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -4721,7 +4799,7 @@
         <v>5</v>
       </c>
       <c r="N5" s="51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4798,24 +4876,24 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" ht="30">
       <c r="A8" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="69">
-        <v>5</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="C8" s="69"/>
       <c r="D8" s="7"/>
       <c r="E8" s="82" t="s">
-        <v>9</v>
+        <v>618</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="7"/>
+        <v>619</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>620</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -4825,34 +4903,34 @@
       </c>
       <c r="L8" s="37" t="str">
         <f t="shared" si="1"/>
-        <v>341st Heavy Rocket Artillery BN</v>
+        <v>Jablah Navy port</v>
       </c>
       <c r="M8" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30">
       <c r="A9" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="69">
-        <v>5</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="C9" s="69"/>
       <c r="D9" s="7"/>
       <c r="E9" s="82" t="s">
-        <v>9</v>
+        <v>613</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="7"/>
+        <v>614</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>615</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -4862,14 +4940,14 @@
       </c>
       <c r="L9" s="37" t="str">
         <f t="shared" si="1"/>
-        <v>342nd Heavy Rocket Artillery BN</v>
+        <v>SYR Navy storage</v>
       </c>
       <c r="M9" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N9" s="51" t="s">
-        <v>41</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4877,23 +4955,23 @@
         <v>18</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="69">
         <v>9</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="82" t="s">
+        <v>381</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>382</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F10" s="82" t="s">
-        <v>384</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>385</v>
-      </c>
       <c r="H10" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -4910,7 +4988,7 @@
         <v>9</v>
       </c>
       <c r="N10" s="51" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4918,23 +4996,23 @@
         <v>19</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="69">
         <v>9</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="82" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F11" s="82" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -4951,7 +5029,7 @@
         <v>9</v>
       </c>
       <c r="N11" s="51" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4959,23 +5037,23 @@
         <v>20</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" s="69">
         <v>9</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="82" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G12" s="7">
         <v>2484</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -4992,7 +5070,7 @@
         <v>9</v>
       </c>
       <c r="N12" s="51" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5000,23 +5078,23 @@
         <v>21</v>
       </c>
       <c r="B13" s="82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" s="69">
         <v>9</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="82" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F13" s="82" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G13" s="7">
         <v>1654</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -5033,7 +5111,7 @@
         <v>9</v>
       </c>
       <c r="N13" s="51" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -5041,23 +5119,23 @@
         <v>22</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" s="69">
         <v>9</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="82" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F14" s="82" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -5074,7 +5152,7 @@
         <v>9</v>
       </c>
       <c r="N14" s="51" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -5082,23 +5160,23 @@
         <v>23</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C15" s="69">
         <v>9</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="82" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F15" s="82" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G15" s="7">
         <v>1152</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -5115,7 +5193,7 @@
         <v>9</v>
       </c>
       <c r="N15" s="51" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -5123,23 +5201,23 @@
         <v>24</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C16" s="69">
         <v>9</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="82" t="s">
+        <v>384</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>385</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F16" s="82" t="s">
-        <v>387</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="H16" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -5156,7 +5234,7 @@
         <v>9</v>
       </c>
       <c r="N16" s="51" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -5164,23 +5242,23 @@
         <v>25</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C17" s="69">
         <v>9</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="82" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F17" s="82" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G17" s="7">
         <v>2096</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -5197,7 +5275,7 @@
         <v>9</v>
       </c>
       <c r="N17" s="51" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -5205,23 +5283,23 @@
         <v>26</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C18" s="69">
         <v>9</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="82" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F18" s="82" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -5238,7 +5316,7 @@
         <v>9</v>
       </c>
       <c r="N18" s="51" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -5246,23 +5324,23 @@
         <v>27</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="69">
         <v>9</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="82" t="s">
+        <v>366</v>
+      </c>
+      <c r="F19" s="82" t="s">
+        <v>367</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F19" s="82" t="s">
-        <v>369</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>370</v>
-      </c>
       <c r="H19" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -5279,7 +5357,7 @@
         <v>9</v>
       </c>
       <c r="N19" s="51" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -5287,23 +5365,23 @@
         <v>28</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C20" s="69">
         <v>9</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="82" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -5320,7 +5398,7 @@
         <v>9</v>
       </c>
       <c r="N20" s="51" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="86" customFormat="1" ht="36.75">
@@ -5328,23 +5406,23 @@
         <v>29</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" s="100">
         <v>9</v>
       </c>
       <c r="D21" s="101"/>
       <c r="E21" s="82" t="s">
+        <v>387</v>
+      </c>
+      <c r="F21" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F21" s="82" t="s">
+      <c r="H21" s="102" t="s">
         <v>390</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H21" s="102" t="s">
-        <v>392</v>
       </c>
       <c r="I21" s="103"/>
       <c r="J21" s="103"/>
@@ -5361,7 +5439,7 @@
         <v>9</v>
       </c>
       <c r="N21" s="51" t="s">
-        <v>393</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -5369,20 +5447,20 @@
         <v>30</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C22" s="69">
         <v>9</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="82" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F22" s="82" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="8"/>
@@ -5400,7 +5478,7 @@
         <v>9</v>
       </c>
       <c r="N22" s="51" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -5408,15 +5486,21 @@
         <v>31</v>
       </c>
       <c r="B23" s="82" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="69">
         <v>9</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="7"/>
+      <c r="E23" s="82" t="s">
+        <v>603</v>
+      </c>
+      <c r="F23" s="82" t="s">
+        <v>604</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>605</v>
+      </c>
       <c r="H23" s="6"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -5432,30 +5516,32 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="N23" s="51"/>
+      <c r="N23" s="51" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="46" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="82" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C24" s="69">
         <v>9</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="82" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -5472,7 +5558,7 @@
         <v>9</v>
       </c>
       <c r="N24" s="51" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -5480,23 +5566,23 @@
         <v>33</v>
       </c>
       <c r="B25" s="82" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="82" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F25" s="82" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -5513,7 +5599,7 @@
         <v>9 / 13</v>
       </c>
       <c r="N25" s="51" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -5521,23 +5607,23 @@
         <v>34</v>
       </c>
       <c r="B26" s="82" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="82" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F26" s="82" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G26" s="7">
         <v>1352</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -5554,7 +5640,7 @@
         <v>9 / 13</v>
       </c>
       <c r="N26" s="51" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -5562,23 +5648,23 @@
         <v>35</v>
       </c>
       <c r="B27" s="82" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C27" s="69">
         <v>9</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="82" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F27" s="82" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -5595,7 +5681,7 @@
         <v>9</v>
       </c>
       <c r="N27" s="51" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -5603,23 +5689,23 @@
         <v>36</v>
       </c>
       <c r="B28" s="82" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C28" s="69">
         <v>9</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="82" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F28" s="82" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -5636,7 +5722,7 @@
         <v>9</v>
       </c>
       <c r="N28" s="51" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1">
@@ -5644,23 +5730,23 @@
         <v>37</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C29" s="85">
         <v>9</v>
       </c>
       <c r="D29" s="65"/>
       <c r="E29" s="82" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F29" s="82" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I29" s="40"/>
       <c r="J29" s="8"/>
@@ -5677,7 +5763,7 @@
         <v>9</v>
       </c>
       <c r="N29" s="51" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -5685,23 +5771,23 @@
         <v>38</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C30" s="71">
         <v>9</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="82" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F30" s="82" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G30" s="7">
         <v>2644</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="8"/>
@@ -5718,7 +5804,7 @@
         <v>9</v>
       </c>
       <c r="N30" s="51" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -5726,17 +5812,23 @@
         <v>39</v>
       </c>
       <c r="B31" s="82" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C31" s="69">
         <v>9</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="7"/>
+      <c r="E31" s="82" t="s">
+        <v>593</v>
+      </c>
+      <c r="F31" s="82" t="s">
+        <v>594</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>595</v>
+      </c>
       <c r="H31" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -5753,25 +5845,31 @@
         <v>9</v>
       </c>
       <c r="N31" s="51" t="s">
-        <v>315</v>
+        <v>599</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B32" s="82" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C32" s="69">
         <v>9</v>
       </c>
       <c r="D32" s="66"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="7"/>
+      <c r="E32" s="82" t="s">
+        <v>596</v>
+      </c>
+      <c r="F32" s="82" t="s">
+        <v>597</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>598</v>
+      </c>
       <c r="H32" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I32" s="32"/>
       <c r="J32" s="8"/>
@@ -5788,28 +5886,28 @@
         <v>9</v>
       </c>
       <c r="N32" s="51" t="s">
-        <v>315</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B33" s="82" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C33" s="69">
         <v>9</v>
       </c>
       <c r="D33" s="66"/>
       <c r="E33" s="82" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F33" s="82" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="32"/>
@@ -5827,28 +5925,28 @@
         <v>9</v>
       </c>
       <c r="N33" s="51" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="30">
       <c r="A34" s="46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B34" s="82" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C34" s="69">
         <v>9</v>
       </c>
       <c r="D34" s="66"/>
       <c r="E34" s="82" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F34" s="82" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="32"/>
@@ -5866,28 +5964,28 @@
         <v>9</v>
       </c>
       <c r="N34" s="51" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B35" s="82" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C35" s="69">
         <v>9</v>
       </c>
       <c r="D35" s="66"/>
       <c r="E35" s="82" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F35" s="82" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="32"/>
@@ -5905,28 +6003,28 @@
         <v>9</v>
       </c>
       <c r="N35" s="51" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="45">
       <c r="A36" s="46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B36" s="82" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C36" s="69">
         <v>9</v>
       </c>
       <c r="D36" s="66"/>
       <c r="E36" s="82" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="32"/>
@@ -5944,28 +6042,28 @@
         <v>9</v>
       </c>
       <c r="N36" s="51" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="30">
       <c r="A37" s="46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B37" s="82" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C37" s="69" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D37" s="66"/>
       <c r="E37" s="82" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F37" s="82" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="32"/>
@@ -5983,28 +6081,28 @@
         <v>2 /12</v>
       </c>
       <c r="N37" s="51" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="30">
       <c r="A38" s="46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D38" s="66"/>
       <c r="E38" s="82" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F38" s="82" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="32"/>
@@ -6022,15 +6120,15 @@
         <v>2 /12</v>
       </c>
       <c r="N38" s="51" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B39" s="82" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C39" s="69">
         <v>3</v>
@@ -6058,10 +6156,10 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B40" s="82" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C40" s="69">
         <v>3</v>
@@ -6089,10 +6187,10 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B41" s="82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C41" s="69">
         <v>3</v>
@@ -6120,10 +6218,10 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B42" s="82" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C42" s="69">
         <v>3</v>
@@ -6151,10 +6249,10 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B43" s="82" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C43" s="69">
         <v>3</v>
@@ -6182,10 +6280,10 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B44" s="82" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C44" s="69">
         <v>3</v>
@@ -6213,10 +6311,10 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B45" s="82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C45" s="69">
         <v>3</v>
@@ -6244,10 +6342,10 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B46" s="82" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C46" s="69">
         <v>3</v>
@@ -6257,7 +6355,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="8"/>
@@ -6277,10 +6375,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B47" s="82" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C47" s="69">
         <v>3</v>
@@ -6308,10 +6406,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B48" s="82" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C48" s="69">
         <v>3</v>
@@ -6339,10 +6437,10 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B49" s="82" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C49" s="69">
         <v>3</v>
@@ -6370,10 +6468,10 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B50" s="82" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C50" s="69">
         <v>3</v>
@@ -6401,10 +6499,10 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B51" s="82" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C51" s="69">
         <v>3</v>
@@ -6432,10 +6530,10 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="46" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B52" s="82" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C52" s="69">
         <v>3</v>
@@ -6460,15 +6558,15 @@
         <v>3</v>
       </c>
       <c r="N52" s="51" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B53" s="82" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C53" s="69">
         <v>3</v>
@@ -6496,10 +6594,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B54" s="82" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C54" s="69">
         <v>3</v>
@@ -6527,10 +6625,10 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B55" s="82" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C55" s="69">
         <v>3</v>
@@ -6558,10 +6656,10 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B56" s="82" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C56" s="69">
         <v>3</v>
@@ -6589,10 +6687,10 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B57" s="82" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C57" s="69">
         <v>3</v>
@@ -6620,10 +6718,10 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B58" s="82" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C58" s="69">
         <v>6</v>
@@ -6651,10 +6749,10 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B59" s="82" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C59" s="69">
         <v>6</v>
@@ -6664,7 +6762,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I59" s="32"/>
       <c r="J59" s="8"/>
@@ -6684,23 +6782,23 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B60" s="82" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C60" s="69">
         <v>1</v>
       </c>
       <c r="D60" s="66"/>
       <c r="E60" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="32"/>
@@ -6718,28 +6816,28 @@
         <v>1</v>
       </c>
       <c r="N60" s="51" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="24.75">
       <c r="A61" s="46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C61" s="69">
         <v>1</v>
       </c>
       <c r="D61" s="66"/>
       <c r="E61" s="82" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F61" s="82" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="32"/>
@@ -6757,28 +6855,28 @@
         <v>1</v>
       </c>
       <c r="N61" s="51" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="24.75">
       <c r="A62" s="46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C62" s="72">
         <v>1</v>
       </c>
       <c r="D62" s="67"/>
       <c r="E62" s="82" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F62" s="82" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="56"/>
@@ -6796,28 +6894,28 @@
         <v>1</v>
       </c>
       <c r="N62" s="53" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="24.75">
       <c r="A63" s="46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C63" s="69">
         <v>1</v>
       </c>
       <c r="D63" s="66"/>
       <c r="E63" s="82" t="s">
+        <v>457</v>
+      </c>
+      <c r="F63" s="82" t="s">
+        <v>458</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="F63" s="82" t="s">
-        <v>461</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="32"/>
@@ -6835,15 +6933,15 @@
         <v>1</v>
       </c>
       <c r="N63" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C64" s="69">
         <v>1</v>
@@ -6871,26 +6969,26 @@
     </row>
     <row r="65" spans="1:14" ht="45">
       <c r="A65" s="46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C65" s="69">
         <v>4</v>
       </c>
       <c r="D65" s="66"/>
       <c r="E65" s="82" t="s">
+        <v>329</v>
+      </c>
+      <c r="F65" s="82" t="s">
+        <v>330</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F65" s="82" t="s">
-        <v>332</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="H65" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I65" s="32"/>
       <c r="J65" s="8"/>
@@ -6907,31 +7005,31 @@
         <v>4</v>
       </c>
       <c r="N65" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="30">
       <c r="A66" s="46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C66" s="69">
         <v>9</v>
       </c>
       <c r="D66" s="66"/>
       <c r="E66" s="82" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F66" s="82" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I66" s="32"/>
       <c r="J66" s="8"/>
@@ -6948,28 +7046,28 @@
         <v>9</v>
       </c>
       <c r="N66" s="23" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C67" s="69">
         <v>5</v>
       </c>
       <c r="D67" s="66"/>
       <c r="E67" s="82" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F67" s="82" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="32"/>
@@ -6987,28 +7085,28 @@
         <v>5</v>
       </c>
       <c r="N67" s="23" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C68" s="69">
         <v>5</v>
       </c>
       <c r="D68" s="66"/>
       <c r="E68" s="82" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F68" s="82" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="32"/>
@@ -7026,28 +7124,28 @@
         <v>5</v>
       </c>
       <c r="N68" s="23" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C69" s="69">
         <v>4</v>
       </c>
       <c r="D69" s="66"/>
       <c r="E69" s="82" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F69" s="82" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="32"/>
@@ -7065,28 +7163,28 @@
         <v>4</v>
       </c>
       <c r="N69" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C70" s="69">
         <v>4</v>
       </c>
       <c r="D70" s="66"/>
       <c r="E70" s="82" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F70" s="82" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="32"/>
@@ -7104,28 +7202,28 @@
         <v>4</v>
       </c>
       <c r="N70" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C71" s="69">
         <v>4</v>
       </c>
       <c r="D71" s="66"/>
       <c r="E71" s="82" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F71" s="82" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="32"/>
@@ -7143,28 +7241,28 @@
         <v>4</v>
       </c>
       <c r="N71" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C72" s="69">
         <v>4</v>
       </c>
       <c r="D72" s="66"/>
       <c r="E72" s="82" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F72" s="82" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="32"/>
@@ -7182,15 +7280,15 @@
         <v>4</v>
       </c>
       <c r="N72" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="24.75">
       <c r="A73" s="46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C73" s="69">
         <v>12</v>
@@ -7215,28 +7313,28 @@
         <v>12</v>
       </c>
       <c r="N73" s="23" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D74" s="66"/>
       <c r="E74" s="82" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F74" s="82" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="32"/>
@@ -7254,31 +7352,31 @@
         <v>2</v>
       </c>
       <c r="N74" s="23" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C75" s="69" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D75" s="66"/>
       <c r="E75" s="6" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I75" s="32"/>
       <c r="J75" s="8"/>
@@ -7295,31 +7393,31 @@
         <v>2</v>
       </c>
       <c r="N75" s="23" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="46" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B76" s="44" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C76" s="69" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D76" s="66"/>
       <c r="E76" s="82" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F76" s="82" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I76" s="32"/>
       <c r="J76" s="8"/>
@@ -7336,31 +7434,31 @@
         <v>2</v>
       </c>
       <c r="N76" s="23" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="46" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B77" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="C77" s="69" t="s">
         <v>328</v>
-      </c>
-      <c r="C77" s="69" t="s">
-        <v>330</v>
       </c>
       <c r="D77" s="66"/>
       <c r="E77" s="82" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F77" s="82" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I77" s="32"/>
       <c r="J77" s="8"/>
@@ -7377,31 +7475,31 @@
         <v>2</v>
       </c>
       <c r="N77" s="23" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B78" s="44" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D78" s="66"/>
       <c r="E78" s="82" t="s">
+        <v>333</v>
+      </c>
+      <c r="F78" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F78" s="82" t="s">
+      <c r="H78" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>338</v>
       </c>
       <c r="I78" s="32"/>
       <c r="J78" s="8"/>
@@ -7421,23 +7519,23 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C79" s="69" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D79" s="66"/>
       <c r="E79" s="82" t="s">
+        <v>353</v>
+      </c>
+      <c r="F79" s="82" t="s">
+        <v>354</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F79" s="82" t="s">
-        <v>356</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="32"/>
@@ -7455,31 +7553,31 @@
         <v>5</v>
       </c>
       <c r="N79" s="23" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C80" s="69" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D80" s="66"/>
       <c r="E80" s="82" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F80" s="82" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I80" s="32"/>
       <c r="J80" s="8"/>
@@ -7499,26 +7597,26 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C81" s="69" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D81" s="66"/>
       <c r="E81" s="82" t="s">
+        <v>344</v>
+      </c>
+      <c r="F81" s="82" t="s">
+        <v>345</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F81" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>348</v>
-      </c>
       <c r="H81" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I81" s="32"/>
       <c r="J81" s="8"/>
@@ -7538,26 +7636,26 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D82" s="66"/>
       <c r="E82" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="F82" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F82" s="82" t="s">
-        <v>353</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>354</v>
-      </c>
       <c r="H82" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I82" s="32"/>
       <c r="J82" s="8"/>
@@ -7577,23 +7675,23 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C83" s="69" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D83" s="66"/>
       <c r="E83" s="82" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F83" s="82" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="32"/>
@@ -7614,23 +7712,23 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="77" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C84" s="69" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D84" s="66"/>
       <c r="E84" s="82" t="s">
+        <v>357</v>
+      </c>
+      <c r="F84" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F84" s="82" t="s">
-        <v>360</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="32"/>
@@ -7651,23 +7749,23 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="77" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D85" s="66"/>
       <c r="E85" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="F85" s="82" t="s">
+        <v>361</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F85" s="82" t="s">
-        <v>363</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="32"/>
@@ -7688,23 +7786,23 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="77" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C86" s="69" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D86" s="66"/>
       <c r="E86" s="82" t="s">
+        <v>363</v>
+      </c>
+      <c r="F86" s="82" t="s">
+        <v>364</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F86" s="82" t="s">
-        <v>366</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="32"/>
@@ -7725,23 +7823,23 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="77" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C87" s="69" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D87" s="66"/>
       <c r="E87" s="82" t="s">
+        <v>372</v>
+      </c>
+      <c r="F87" s="82" t="s">
+        <v>373</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F87" s="82" t="s">
-        <v>375</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="32"/>
@@ -7762,23 +7860,23 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B88" s="44" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C88" s="69" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D88" s="66"/>
       <c r="E88" s="82" t="s">
+        <v>375</v>
+      </c>
+      <c r="F88" s="82" t="s">
+        <v>376</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F88" s="82" t="s">
-        <v>378</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="32"/>
@@ -7799,23 +7897,23 @@
     </row>
     <row r="89" spans="1:14" ht="24.75">
       <c r="A89" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C89" s="69" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D89" s="66"/>
       <c r="E89" s="82" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F89" s="82" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="32"/>
@@ -7833,28 +7931,28 @@
         <v>2</v>
       </c>
       <c r="N89" s="23" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B90" s="44" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C90" s="69" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D90" s="66"/>
       <c r="E90" s="82" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F90" s="82" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="32"/>
@@ -7871,27 +7969,29 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="N90" s="23"/>
+      <c r="N90" s="23" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C91" s="69" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D91" s="66"/>
       <c r="E91" s="82" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F91" s="82" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="32"/>
@@ -7909,28 +8009,28 @@
         <v>5</v>
       </c>
       <c r="N91" s="23" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B92" s="44" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C92" s="69" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D92" s="66"/>
       <c r="E92" s="82" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F92" s="82" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="32"/>
@@ -7948,28 +8048,28 @@
         <v>7</v>
       </c>
       <c r="N92" s="23" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C93" s="69" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D93" s="66"/>
       <c r="E93" s="82" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F93" s="82" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="32"/>
@@ -7987,28 +8087,28 @@
         <v>8</v>
       </c>
       <c r="N93" s="23" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="16.5" customHeight="1">
       <c r="A94" s="46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C94" s="69" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D94" s="66"/>
       <c r="E94" s="82" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F94" s="82" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="32"/>
@@ -8026,25 +8126,25 @@
         <v>5</v>
       </c>
       <c r="N94" s="23" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C95" s="69" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D95" s="66"/>
       <c r="E95" s="82" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F95" s="82" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G95" s="7">
         <v>1024</v>
@@ -8065,28 +8165,28 @@
         <v>8</v>
       </c>
       <c r="N95" s="23" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C96" s="69" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D96" s="66"/>
       <c r="E96" s="82" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F96" s="82" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="32"/>
@@ -8104,26 +8204,26 @@
         <v>10</v>
       </c>
       <c r="N96" s="23" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="30">
       <c r="A97" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C97" s="69"/>
       <c r="D97" s="66"/>
       <c r="E97" s="82" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F97" s="82" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="32"/>
@@ -8141,26 +8241,26 @@
         <v>0</v>
       </c>
       <c r="N97" s="23" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C98" s="69"/>
       <c r="D98" s="66"/>
       <c r="E98" s="82" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F98" s="82" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="32"/>
@@ -8178,26 +8278,26 @@
         <v>0</v>
       </c>
       <c r="N98" s="23" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C99" s="69"/>
       <c r="D99" s="66"/>
       <c r="E99" s="82" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F99" s="82" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="32"/>
@@ -8215,26 +8315,26 @@
         <v>0</v>
       </c>
       <c r="N99" s="23" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C100" s="69"/>
       <c r="D100" s="66"/>
       <c r="E100" s="82" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F100" s="82" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="32"/>
@@ -8252,26 +8352,26 @@
         <v>0</v>
       </c>
       <c r="N100" s="23" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="30">
       <c r="A101" s="46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B101" s="44" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C101" s="69"/>
       <c r="D101" s="66"/>
       <c r="E101" s="82" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F101" s="82" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="32"/>
@@ -8281,35 +8381,35 @@
         <v>OPARTGT098</v>
       </c>
       <c r="L101" s="43" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M101" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N101" s="23" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B102" s="44" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C102" s="69" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D102" s="66"/>
       <c r="E102" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="32"/>
@@ -8327,19 +8427,27 @@
         <v>8</v>
       </c>
       <c r="N102" s="23" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="B103" s="44"/>
+        <v>197</v>
+      </c>
+      <c r="B103" s="44" t="s">
+        <v>607</v>
+      </c>
       <c r="C103" s="69"/>
       <c r="D103" s="66"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="7"/>
+      <c r="E103" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>610</v>
+      </c>
       <c r="H103" s="6"/>
       <c r="I103" s="32"/>
       <c r="J103" s="32"/>
@@ -8347,15 +8455,16 @@
         <f t="shared" si="9"/>
         <v>OPARTGT100</v>
       </c>
-      <c r="L103" s="43">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="L103" s="43" t="s">
+        <v>607</v>
       </c>
       <c r="M103" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N103" s="23"/>
+      <c r="N103" s="23" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="78"/>
@@ -10534,65 +10643,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="128" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
+      <c r="A1" s="109" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="132"/>
+      <c r="A2" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="113"/>
       <c r="C2" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="135" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="134"/>
+        <v>55</v>
+      </c>
+      <c r="D2" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="K3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="138" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
+      <c r="A4" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>56</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>3</v>
@@ -10601,13 +10710,13 @@
         <v>4</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -10726,40 +10835,40 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="121" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="A15" s="122" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="C16" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="124" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="127"/>
-      <c r="G16" s="124" t="s">
+      <c r="F16" s="132"/>
+      <c r="G16" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="129"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15">
@@ -10768,13 +10877,13 @@
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -10784,11 +10893,11 @@
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="119"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="131"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="15">
@@ -10797,11 +10906,11 @@
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="131"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="15">
@@ -10810,11 +10919,11 @@
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="131"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="15">
@@ -10823,11 +10932,11 @@
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="15">
@@ -10836,11 +10945,11 @@
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="131"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="15">
@@ -10849,11 +10958,11 @@
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="131"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15">
@@ -10862,11 +10971,11 @@
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="131"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15">
@@ -10875,11 +10984,11 @@
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="112"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="136"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="16">
@@ -10888,19 +10997,23 @@
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -10915,15 +11028,11 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10952,63 +11061,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="128" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
+      <c r="A1" s="109" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="132"/>
+      <c r="A2" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="113"/>
       <c r="C2" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="135" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="133" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="134"/>
+        <v>66</v>
+      </c>
+      <c r="D2" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="138" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
+      <c r="A4" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>56</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>3</v>
@@ -11017,16 +11126,16 @@
         <v>4</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="34.5">
@@ -11034,104 +11143,104 @@
         <v>1</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="I6" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
+      <c r="K6" s="147" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="17">
         <v>2</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="H7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="141" t="s">
-        <v>115</v>
-      </c>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="141"/>
+      <c r="K7" s="147" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="17">
         <v>3</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>98</v>
-      </c>
       <c r="I8" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -11211,40 +11320,40 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="121" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="A15" s="122" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>56</v>
-      </c>
       <c r="C16" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146" t="s">
+      <c r="F16" s="141"/>
+      <c r="G16" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="146"/>
-      <c r="I16" s="147"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="142"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15">
@@ -11254,68 +11363,68 @@
         <v>10</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="143"/>
-      <c r="G17" s="142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="143" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="144"/>
+      <c r="G17" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="144"/>
-      <c r="I17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="146"/>
     </row>
     <row r="18" spans="1:11" ht="23.25">
       <c r="A18" s="15">
         <v>2</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="143"/>
-      <c r="G18" s="142" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="145"/>
+        <v>69</v>
+      </c>
+      <c r="E18" s="143" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="144"/>
+      <c r="G18" s="143" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="145"/>
+      <c r="I18" s="146"/>
     </row>
     <row r="19" spans="1:11" ht="34.5">
       <c r="A19" s="15">
         <v>3</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="143" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="144"/>
+      <c r="G19" s="143" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="142" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="142" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="144"/>
-      <c r="I19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="146"/>
       <c r="K19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -11325,11 +11434,11 @@
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="131"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="15">
@@ -11338,13 +11447,13 @@
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
       <c r="K21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -11354,11 +11463,11 @@
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="131"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="15">
@@ -11367,11 +11476,11 @@
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="131"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15">
@@ -11380,11 +11489,11 @@
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="131"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15">
@@ -11393,11 +11502,11 @@
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="112"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="136"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="16">
@@ -11406,28 +11515,14 @@
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -11444,6 +11539,20 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11467,69 +11576,69 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="J1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="148" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="148"/>
       <c r="C5" s="148"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="A7" s="87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
       <c r="A8" s="89" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.75" customHeight="1">
       <c r="A9" s="88" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45">
       <c r="A10" s="90" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
@@ -11559,16 +11668,16 @@
   <sheetData>
     <row r="2" spans="2:15" ht="15.75">
       <c r="B2" s="149" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C2" s="149"/>
       <c r="O2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1">
       <c r="B3" s="59" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>2</v>
@@ -11579,10 +11688,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -11590,10 +11699,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -11601,10 +11710,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -11612,10 +11721,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -11623,10 +11732,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -11634,10 +11743,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -11645,10 +11754,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" customHeight="1">
@@ -11656,10 +11765,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -11667,10 +11776,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -11678,10 +11787,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -11689,10 +11798,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -11700,10 +11809,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -11711,10 +11820,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -11722,10 +11831,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -11769,7 +11878,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="C31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -11797,58 +11906,58 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="J2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="149" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B3" s="149"/>
       <c r="C3" s="149"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="148" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C4" s="148"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="150" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C5" s="150"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="150" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C6" s="150"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1">
       <c r="A7" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="150" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C7" s="150"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1">
       <c r="A8" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B8" s="150" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C8" s="150"/>
     </row>
@@ -11884,111 +11993,111 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75">
       <c r="B2" s="151" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C2" s="152"/>
       <c r="D2" s="153"/>
       <c r="J2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
       <c r="B3" s="91" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" s="92" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="90">
       <c r="B4" s="93" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D4" s="94" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="75">
       <c r="B5" s="93" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="42" customHeight="1">
       <c r="B6" s="93" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>305</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="75">
       <c r="B7" s="93" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="75">
       <c r="B8" s="93" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="84" customHeight="1">
       <c r="B9" s="93" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D9" s="95" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="75">
       <c r="B10" s="96" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1">
       <c r="B11" s="97" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C11" s="98" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1"/>
@@ -12017,24 +12126,24 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="7.15" customHeight="1"/>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
+++ b/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="658">
   <si>
     <t>OP ACTIVE RESOLVE TARGET LIST</t>
   </si>
@@ -44,15 +44,9 @@
     <t>922nd SSM Regiment</t>
   </si>
   <si>
-    <t>923rd SSM Regiment</t>
-  </si>
-  <si>
     <t>REMARKS</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>SCUDs</t>
   </si>
   <si>
@@ -143,15 +137,6 @@
     <t>OPARTGT028</t>
   </si>
   <si>
-    <t>141st Heavy Rocket Artillery BN</t>
-  </si>
-  <si>
-    <t>MLRS</t>
-  </si>
-  <si>
-    <t>142nd Heavy Rocket Artillery BN</t>
-  </si>
-  <si>
     <t>BDA</t>
   </si>
   <si>
@@ -734,13 +719,7 @@
     <t xml:space="preserve">Syrian Sector Command Center West. Controls West sector of IADS. </t>
   </si>
   <si>
-    <t>HVT</t>
-  </si>
-  <si>
     <t>TARGET PRIORITY</t>
-  </si>
-  <si>
-    <t>SCUD</t>
   </si>
   <si>
     <t>TARGET PRIORITIES</t>
@@ -795,9 +774,6 @@
     <t>Syrian Broadcasting Headquarter</t>
   </si>
   <si>
-    <t>Used for propaganda, and for spreading the message for the Syrian regime</t>
-  </si>
-  <si>
     <t>Naval Base</t>
   </si>
   <si>
@@ -1538,12 +1514,6 @@
     <t>Syrian Ministry of Defence</t>
   </si>
   <si>
-    <t>N33 30.892</t>
-  </si>
-  <si>
-    <t>E036 16.656</t>
-  </si>
-  <si>
     <t>Damascus. Collateral issues, downtown Damascus</t>
   </si>
   <si>
@@ -1655,12 +1625,6 @@
     <t>Tunnel entrance to the headquarter. Positioned at Khalkhalah airbase</t>
   </si>
   <si>
-    <t>N33 27.479</t>
-  </si>
-  <si>
-    <t>E036 21.307</t>
-  </si>
-  <si>
     <t>2133ft</t>
   </si>
   <si>
@@ -1676,9 +1640,6 @@
     <t>Tunnel entrance to the headquarter. Positioned at Marj as Sultan South RW base</t>
   </si>
   <si>
-    <t>Tunnel entrance to the headquarter. Positioned at Qabr as Sitt RW base</t>
-  </si>
-  <si>
     <t>N33 32.021</t>
   </si>
   <si>
@@ -1911,6 +1872,153 @@
   </si>
   <si>
     <t>Military port for reciving resupply to Bassel Al-Assad airbase. Located 3nm southwest of Bassel Al-Assad airfield</t>
+  </si>
+  <si>
+    <t>Syrian Army HQ building 1</t>
+  </si>
+  <si>
+    <t>Syrian Army HQ building 2</t>
+  </si>
+  <si>
+    <t>N36 10.932</t>
+  </si>
+  <si>
+    <t>E037 05.540</t>
+  </si>
+  <si>
+    <t>1427ft</t>
+  </si>
+  <si>
+    <t>N36 10.755</t>
+  </si>
+  <si>
+    <t>E037 05.895</t>
+  </si>
+  <si>
+    <t>922nd SCUD regiment base</t>
+  </si>
+  <si>
+    <t>N36 10.500</t>
+  </si>
+  <si>
+    <t>E037 04.800</t>
+  </si>
+  <si>
+    <t>Located in Aleppo</t>
+  </si>
+  <si>
+    <t>OPARTGT101</t>
+  </si>
+  <si>
+    <t>OPARTGT102</t>
+  </si>
+  <si>
+    <t>OPARTGT103</t>
+  </si>
+  <si>
+    <t>OPARTGT104</t>
+  </si>
+  <si>
+    <t>OPARTGT105</t>
+  </si>
+  <si>
+    <t>OPARTGT106</t>
+  </si>
+  <si>
+    <t>OPARTGT107</t>
+  </si>
+  <si>
+    <t>OPARTGT108</t>
+  </si>
+  <si>
+    <t>OPARTGT110</t>
+  </si>
+  <si>
+    <t>OPARTGT111</t>
+  </si>
+  <si>
+    <t>OPARTGT112</t>
+  </si>
+  <si>
+    <t>OPARTGT113</t>
+  </si>
+  <si>
+    <t>OPARTGT114</t>
+  </si>
+  <si>
+    <t>91st Republican Guard Armor Division</t>
+  </si>
+  <si>
+    <t>N33 24.000</t>
+  </si>
+  <si>
+    <t>E036 16.000</t>
+  </si>
+  <si>
+    <t>2572ft</t>
+  </si>
+  <si>
+    <t>South of Damascus. Republican Guard unit. Elite unit. Will be called in if there is serious trouble</t>
+  </si>
+  <si>
+    <t>923rd SCUD Regiment base</t>
+  </si>
+  <si>
+    <t>N33 21.000</t>
+  </si>
+  <si>
+    <t>E036 19.500</t>
+  </si>
+  <si>
+    <t>2484ft</t>
+  </si>
+  <si>
+    <t>Located in Damascus (south)</t>
+  </si>
+  <si>
+    <t>Located in Damascus (east)</t>
+  </si>
+  <si>
+    <t>924th SCUD Regiment base</t>
+  </si>
+  <si>
+    <t>N33 40.000</t>
+  </si>
+  <si>
+    <t>E036 44.000</t>
+  </si>
+  <si>
+    <t>E036 31.266</t>
+  </si>
+  <si>
+    <t>Air Force HQ. Located just south of Damascus International Airport</t>
+  </si>
+  <si>
+    <t>N33 27.500</t>
+  </si>
+  <si>
+    <t>E036 21.400</t>
+  </si>
+  <si>
+    <t>931st Special Forces Brigade</t>
+  </si>
+  <si>
+    <t>Positioned at Qabr as Sitt RW base. Special Forces have their own organic RW.</t>
+  </si>
+  <si>
+    <t>N33 30.831</t>
+  </si>
+  <si>
+    <t>E036 16.705</t>
+  </si>
+  <si>
+    <t>N33 30.812</t>
+  </si>
+  <si>
+    <t>E036 17.770</t>
+  </si>
+  <si>
+    <t>Dual use. Used for propaganda, and for spreading the message for the Syrian regime. Located in Damascus. Collateral issue.</t>
   </si>
 </sst>
 </file>
@@ -2861,6 +2969,63 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2900,61 +3065,19 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2962,21 +3085,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4618,8 +4726,8 @@
   <dimension ref="A1:N317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <pane ySplit="3" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4654,7 +4762,7 @@
       <c r="I1" s="107"/>
       <c r="J1" s="108"/>
       <c r="K1" s="106" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L1" s="107"/>
       <c r="M1" s="107"/>
@@ -4662,7 +4770,7 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1">
       <c r="A2" s="75" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" s="80"/>
       <c r="C2" s="70"/>
@@ -4671,7 +4779,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="64"/>
       <c r="H2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
@@ -4682,16 +4790,16 @@
     </row>
     <row r="3" spans="1:14" ht="29.45" customHeight="1" thickBot="1">
       <c r="A3" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>3</v>
@@ -4700,19 +4808,19 @@
         <v>4</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>1</v>
@@ -4721,30 +4829,28 @@
         <v>2</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="71">
-        <v>5</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="C4" s="71"/>
       <c r="D4" s="10"/>
       <c r="E4" s="82" t="s">
-        <v>9</v>
+        <v>611</v>
       </c>
       <c r="F4" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="9" t="s">
-        <v>237</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="11"/>
       <c r="J4" s="8"/>
       <c r="K4" s="36" t="str">
@@ -4753,37 +4859,35 @@
       </c>
       <c r="L4" s="37" t="str">
         <f>B4</f>
-        <v>922nd SSM Regiment</v>
+        <v>Syrian Army HQ building 1</v>
       </c>
       <c r="M4" s="37">
         <f>C4</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>239</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="69">
-        <v>5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>610</v>
+      </c>
+      <c r="C5" s="69"/>
       <c r="D5" s="7"/>
       <c r="E5" s="82" t="s">
-        <v>9</v>
+        <v>614</v>
       </c>
       <c r="F5" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6" t="s">
-        <v>237</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="36" t="str">
@@ -4792,34 +4896,34 @@
       </c>
       <c r="L5" s="37" t="str">
         <f t="shared" ref="L5:L29" si="1">B5</f>
-        <v>923rd SSM Regiment</v>
+        <v>Syrian Army HQ building 2</v>
       </c>
       <c r="M5" s="37">
         <f t="shared" ref="M5:M29" si="2">C5</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N5" s="51" t="s">
-        <v>239</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="69">
-        <v>5</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="C6" s="69"/>
       <c r="D6" s="7"/>
       <c r="E6" s="82" t="s">
-        <v>9</v>
+        <v>617</v>
       </c>
       <c r="F6" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="7"/>
+        <v>618</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>613</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -4829,34 +4933,34 @@
       </c>
       <c r="L6" s="37" t="str">
         <f t="shared" si="1"/>
-        <v>141st Heavy Rocket Artillery BN</v>
+        <v>922nd SCUD regiment base</v>
       </c>
       <c r="M6" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N6" s="51" t="s">
-        <v>41</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="69">
-        <v>5</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="C7" s="69"/>
       <c r="D7" s="7"/>
       <c r="E7" s="82" t="s">
-        <v>9</v>
+        <v>639</v>
       </c>
       <c r="F7" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="7"/>
+        <v>640</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>641</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -4866,33 +4970,33 @@
       </c>
       <c r="L7" s="37" t="str">
         <f t="shared" si="1"/>
-        <v>142nd Heavy Rocket Artillery BN</v>
+        <v>923rd SCUD Regiment base</v>
       </c>
       <c r="M7" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N7" s="51" t="s">
-        <v>41</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="30">
       <c r="A8" s="46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C8" s="69"/>
       <c r="D8" s="7"/>
       <c r="E8" s="82" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="8"/>
@@ -4910,26 +5014,26 @@
         <v>0</v>
       </c>
       <c r="N8" s="51" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30">
       <c r="A9" s="46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="C9" s="69"/>
       <c r="D9" s="7"/>
       <c r="E9" s="82" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="8"/>
@@ -4947,31 +5051,31 @@
         <v>0</v>
       </c>
       <c r="N9" s="51" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C10" s="69">
         <v>9</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="82" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F10" s="82" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -4988,31 +5092,31 @@
         <v>9</v>
       </c>
       <c r="N10" s="51" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C11" s="69">
         <v>9</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="82" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F11" s="82" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -5029,31 +5133,31 @@
         <v>9</v>
       </c>
       <c r="N11" s="51" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C12" s="69">
         <v>9</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="82" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G12" s="7">
         <v>2484</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -5070,31 +5174,31 @@
         <v>9</v>
       </c>
       <c r="N12" s="51" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="82" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C13" s="69">
         <v>9</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="82" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F13" s="82" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G13" s="7">
         <v>1654</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -5111,31 +5215,31 @@
         <v>9</v>
       </c>
       <c r="N13" s="51" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C14" s="69">
         <v>9</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="82" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F14" s="82" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -5152,31 +5256,31 @@
         <v>9</v>
       </c>
       <c r="N14" s="51" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C15" s="69">
         <v>9</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="82" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F15" s="82" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G15" s="7">
         <v>1152</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -5193,31 +5297,31 @@
         <v>9</v>
       </c>
       <c r="N15" s="51" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C16" s="69">
         <v>9</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="82" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F16" s="82" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -5234,31 +5338,31 @@
         <v>9</v>
       </c>
       <c r="N16" s="51" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C17" s="69">
         <v>9</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="82" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F17" s="82" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G17" s="7">
         <v>2096</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -5275,31 +5379,31 @@
         <v>9</v>
       </c>
       <c r="N17" s="51" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C18" s="69">
         <v>9</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="82" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F18" s="82" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -5316,31 +5420,31 @@
         <v>9</v>
       </c>
       <c r="N18" s="51" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C19" s="69">
         <v>9</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="82" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -5357,31 +5461,31 @@
         <v>9</v>
       </c>
       <c r="N19" s="51" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C20" s="69">
         <v>9</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="82" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -5398,31 +5502,31 @@
         <v>9</v>
       </c>
       <c r="N20" s="51" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="86" customFormat="1" ht="36.75">
       <c r="A21" s="99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C21" s="100">
         <v>9</v>
       </c>
       <c r="D21" s="101"/>
       <c r="E21" s="82" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F21" s="82" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H21" s="102" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="I21" s="103"/>
       <c r="J21" s="103"/>
@@ -5439,28 +5543,28 @@
         <v>9</v>
       </c>
       <c r="N21" s="51" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C22" s="69">
         <v>9</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="82" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="F22" s="82" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="8"/>
@@ -5478,28 +5582,28 @@
         <v>9</v>
       </c>
       <c r="N22" s="51" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="82" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C23" s="69">
         <v>9</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="82" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="F23" s="82" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="8"/>
@@ -5517,31 +5621,31 @@
         <v>9</v>
       </c>
       <c r="N23" s="51" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="82" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C24" s="69">
         <v>9</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="82" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -5558,31 +5662,31 @@
         <v>9</v>
       </c>
       <c r="N24" s="51" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="82" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="82" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F25" s="82" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -5599,31 +5703,31 @@
         <v>9 / 13</v>
       </c>
       <c r="N25" s="51" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="82" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="82" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F26" s="82" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G26" s="7">
         <v>1352</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -5640,31 +5744,31 @@
         <v>9 / 13</v>
       </c>
       <c r="N26" s="51" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="82" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C27" s="69">
         <v>9</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="82" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="F27" s="82" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -5681,31 +5785,31 @@
         <v>9</v>
       </c>
       <c r="N27" s="51" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="82" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C28" s="69">
         <v>9</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="82" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F28" s="82" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -5722,31 +5826,31 @@
         <v>9</v>
       </c>
       <c r="N28" s="51" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1">
       <c r="A29" s="76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C29" s="85">
         <v>9</v>
       </c>
       <c r="D29" s="65"/>
       <c r="E29" s="82" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="F29" s="82" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I29" s="40"/>
       <c r="J29" s="8"/>
@@ -5763,31 +5867,31 @@
         <v>9</v>
       </c>
       <c r="N29" s="51" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C30" s="71">
         <v>9</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="82" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F30" s="82" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G30" s="7">
         <v>2644</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="8"/>
@@ -5804,31 +5908,31 @@
         <v>9</v>
       </c>
       <c r="N30" s="51" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" s="82" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C31" s="69">
         <v>9</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="82" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="F31" s="82" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -5845,31 +5949,31 @@
         <v>9</v>
       </c>
       <c r="N31" s="51" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="47" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B32" s="82" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C32" s="69">
         <v>9</v>
       </c>
       <c r="D32" s="66"/>
       <c r="E32" s="82" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="F32" s="82" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I32" s="32"/>
       <c r="J32" s="8"/>
@@ -5886,28 +5990,28 @@
         <v>9</v>
       </c>
       <c r="N32" s="51" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="46" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B33" s="82" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C33" s="69">
         <v>9</v>
       </c>
       <c r="D33" s="66"/>
       <c r="E33" s="82" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="F33" s="82" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="32"/>
@@ -5925,28 +6029,28 @@
         <v>9</v>
       </c>
       <c r="N33" s="51" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="30">
       <c r="A34" s="46" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B34" s="82" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C34" s="69">
         <v>9</v>
       </c>
       <c r="D34" s="66"/>
       <c r="E34" s="82" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="F34" s="82" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="32"/>
@@ -5964,28 +6068,28 @@
         <v>9</v>
       </c>
       <c r="N34" s="51" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="46" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B35" s="82" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C35" s="69">
         <v>9</v>
       </c>
       <c r="D35" s="66"/>
       <c r="E35" s="82" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="F35" s="82" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="32"/>
@@ -6003,28 +6107,28 @@
         <v>9</v>
       </c>
       <c r="N35" s="51" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="45">
       <c r="A36" s="46" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B36" s="82" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="C36" s="69">
         <v>9</v>
       </c>
       <c r="D36" s="66"/>
       <c r="E36" s="82" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="32"/>
@@ -6042,28 +6146,28 @@
         <v>9</v>
       </c>
       <c r="N36" s="51" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="30">
       <c r="A37" s="46" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B37" s="82" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C37" s="69" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D37" s="66"/>
       <c r="E37" s="82" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="F37" s="82" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="32"/>
@@ -6081,28 +6185,28 @@
         <v>2 /12</v>
       </c>
       <c r="N37" s="51" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="30">
       <c r="A38" s="46" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D38" s="66"/>
       <c r="E38" s="82" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F38" s="82" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="32"/>
@@ -6120,15 +6224,15 @@
         <v>2 /12</v>
       </c>
       <c r="N38" s="51" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="46" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B39" s="82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C39" s="69">
         <v>3</v>
@@ -6156,10 +6260,10 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="46" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B40" s="82" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C40" s="69">
         <v>3</v>
@@ -6187,10 +6291,10 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="46" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B41" s="82" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C41" s="69">
         <v>3</v>
@@ -6218,10 +6322,10 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="46" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B42" s="82" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C42" s="69">
         <v>3</v>
@@ -6249,10 +6353,10 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="46" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B43" s="82" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C43" s="69">
         <v>3</v>
@@ -6280,10 +6384,10 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="46" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B44" s="82" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C44" s="69">
         <v>3</v>
@@ -6311,10 +6415,10 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="46" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B45" s="82" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C45" s="69">
         <v>3</v>
@@ -6342,10 +6446,10 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="46" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B46" s="82" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C46" s="69">
         <v>3</v>
@@ -6355,7 +6459,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="8"/>
@@ -6375,10 +6479,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="46" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B47" s="82" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C47" s="69">
         <v>3</v>
@@ -6406,10 +6510,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="46" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B48" s="82" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C48" s="69">
         <v>3</v>
@@ -6437,10 +6541,10 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="46" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B49" s="82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C49" s="69">
         <v>3</v>
@@ -6468,10 +6572,10 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="46" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B50" s="82" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C50" s="69">
         <v>3</v>
@@ -6499,10 +6603,10 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="46" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B51" s="82" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C51" s="69">
         <v>3</v>
@@ -6530,10 +6634,10 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="46" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B52" s="82" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C52" s="69">
         <v>3</v>
@@ -6558,15 +6662,15 @@
         <v>3</v>
       </c>
       <c r="N52" s="51" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="46" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B53" s="82" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C53" s="69">
         <v>3</v>
@@ -6594,10 +6698,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="46" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B54" s="82" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C54" s="69">
         <v>3</v>
@@ -6625,10 +6729,10 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="46" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B55" s="82" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C55" s="69">
         <v>3</v>
@@ -6656,10 +6760,10 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="77" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B56" s="82" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C56" s="69">
         <v>3</v>
@@ -6687,10 +6791,10 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="77" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B57" s="82" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C57" s="69">
         <v>3</v>
@@ -6718,10 +6822,10 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="77" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B58" s="82" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C58" s="69">
         <v>6</v>
@@ -6749,10 +6853,10 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="46" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B59" s="82" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C59" s="69">
         <v>6</v>
@@ -6762,7 +6866,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="I59" s="32"/>
       <c r="J59" s="8"/>
@@ -6782,23 +6886,23 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="47" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B60" s="82" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="C60" s="69">
         <v>1</v>
       </c>
       <c r="D60" s="66"/>
       <c r="E60" s="6" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="32"/>
@@ -6816,28 +6920,28 @@
         <v>1</v>
       </c>
       <c r="N60" s="51" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="24.75">
       <c r="A61" s="46" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C61" s="69">
         <v>1</v>
       </c>
       <c r="D61" s="66"/>
       <c r="E61" s="82" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="F61" s="82" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="32"/>
@@ -6855,28 +6959,28 @@
         <v>1</v>
       </c>
       <c r="N61" s="51" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="24.75">
       <c r="A62" s="46" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C62" s="72">
         <v>1</v>
       </c>
       <c r="D62" s="67"/>
       <c r="E62" s="82" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F62" s="82" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="56"/>
@@ -6894,28 +6998,28 @@
         <v>1</v>
       </c>
       <c r="N62" s="53" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="24.75">
       <c r="A63" s="46" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C63" s="69">
         <v>1</v>
       </c>
       <c r="D63" s="66"/>
       <c r="E63" s="82" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F63" s="82" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="32"/>
@@ -6933,15 +7037,15 @@
         <v>1</v>
       </c>
       <c r="N63" s="23" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="46" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C64" s="69">
         <v>1</v>
@@ -6969,67 +7073,67 @@
     </row>
     <row r="65" spans="1:14" ht="45">
       <c r="A65" s="46" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C65" s="69">
         <v>4</v>
       </c>
       <c r="D65" s="66"/>
       <c r="E65" s="82" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F65" s="82" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I65" s="32"/>
       <c r="J65" s="8"/>
       <c r="K65" s="55" t="str">
-        <f t="shared" ref="K65:K103" si="9">A65</f>
+        <f t="shared" ref="K65:K107" si="9">A65</f>
         <v>OPARTGT062</v>
       </c>
       <c r="L65" s="45" t="str">
-        <f t="shared" ref="L65:L103" si="10">B65</f>
+        <f t="shared" ref="L65:L107" si="10">B65</f>
         <v>Air Defence Acadamey</v>
       </c>
       <c r="M65" s="37">
-        <f t="shared" ref="M65:M103" si="11">C65</f>
+        <f t="shared" ref="M65:M107" si="11">C65</f>
         <v>4</v>
       </c>
       <c r="N65" s="23" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="30">
       <c r="A66" s="46" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C66" s="69">
         <v>9</v>
       </c>
       <c r="D66" s="66"/>
       <c r="E66" s="82" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="F66" s="82" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I66" s="32"/>
       <c r="J66" s="8"/>
@@ -7046,28 +7150,28 @@
         <v>9</v>
       </c>
       <c r="N66" s="23" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="46" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C67" s="69">
         <v>5</v>
       </c>
       <c r="D67" s="66"/>
       <c r="E67" s="82" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F67" s="82" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="32"/>
@@ -7085,28 +7189,28 @@
         <v>5</v>
       </c>
       <c r="N67" s="23" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="46" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C68" s="69">
         <v>5</v>
       </c>
       <c r="D68" s="66"/>
       <c r="E68" s="82" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F68" s="82" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="32"/>
@@ -7124,28 +7228,28 @@
         <v>5</v>
       </c>
       <c r="N68" s="23" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="46" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C69" s="69">
         <v>4</v>
       </c>
       <c r="D69" s="66"/>
       <c r="E69" s="82" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F69" s="82" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="32"/>
@@ -7163,28 +7267,28 @@
         <v>4</v>
       </c>
       <c r="N69" s="23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="46" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C70" s="69">
         <v>4</v>
       </c>
       <c r="D70" s="66"/>
       <c r="E70" s="82" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F70" s="82" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="32"/>
@@ -7202,28 +7306,28 @@
         <v>4</v>
       </c>
       <c r="N70" s="23" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="46" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C71" s="69">
         <v>4</v>
       </c>
       <c r="D71" s="66"/>
       <c r="E71" s="82" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F71" s="82" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="32"/>
@@ -7241,28 +7345,28 @@
         <v>4</v>
       </c>
       <c r="N71" s="23" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="46" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C72" s="69">
         <v>4</v>
       </c>
       <c r="D72" s="66"/>
       <c r="E72" s="82" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F72" s="82" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="32"/>
@@ -7280,23 +7384,29 @@
         <v>4</v>
       </c>
       <c r="N72" s="23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="24.75">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="30">
       <c r="A73" s="46" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C73" s="69">
         <v>12</v>
       </c>
       <c r="D73" s="66"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="7"/>
+      <c r="E73" s="82" t="s">
+        <v>655</v>
+      </c>
+      <c r="F73" s="82" t="s">
+        <v>656</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>486</v>
+      </c>
       <c r="H73" s="6"/>
       <c r="I73" s="32"/>
       <c r="J73" s="8"/>
@@ -7313,28 +7423,28 @@
         <v>12</v>
       </c>
       <c r="N73" s="23" t="s">
-        <v>253</v>
+        <v>657</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="46" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>321</v>
+        <v>651</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D74" s="66"/>
       <c r="E74" s="82" t="s">
-        <v>536</v>
+        <v>649</v>
       </c>
       <c r="F74" s="82" t="s">
-        <v>537</v>
+        <v>650</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="32"/>
@@ -7345,38 +7455,38 @@
       </c>
       <c r="L74" s="43" t="str">
         <f t="shared" si="10"/>
-        <v>Syrian Air Force Headquarter</v>
+        <v>931st Special Forces Brigade</v>
       </c>
       <c r="M74" s="37" t="str">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="N74" s="23" t="s">
-        <v>543</v>
+        <v>652</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="46" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C75" s="69" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D75" s="66"/>
       <c r="E75" s="6" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="I75" s="32"/>
       <c r="J75" s="8"/>
@@ -7393,31 +7503,31 @@
         <v>2</v>
       </c>
       <c r="N75" s="23" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="46" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B76" s="44" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C76" s="69" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D76" s="66"/>
       <c r="E76" s="82" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="F76" s="82" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I76" s="32"/>
       <c r="J76" s="8"/>
@@ -7434,31 +7544,31 @@
         <v>2</v>
       </c>
       <c r="N76" s="23" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="46" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C77" s="69" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D77" s="66"/>
       <c r="E77" s="82" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F77" s="82" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I77" s="32"/>
       <c r="J77" s="8"/>
@@ -7475,31 +7585,31 @@
         <v>2</v>
       </c>
       <c r="N77" s="23" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="46" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B78" s="44" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D78" s="66"/>
       <c r="E78" s="82" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F78" s="82" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="I78" s="32"/>
       <c r="J78" s="8"/>
@@ -7519,23 +7629,23 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="46" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C79" s="69" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D79" s="66"/>
       <c r="E79" s="82" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F79" s="82" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="32"/>
@@ -7553,31 +7663,31 @@
         <v>5</v>
       </c>
       <c r="N79" s="23" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="46" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C80" s="69" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D80" s="66"/>
       <c r="E80" s="82" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F80" s="82" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="I80" s="32"/>
       <c r="J80" s="8"/>
@@ -7597,26 +7707,26 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="46" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C81" s="69" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D81" s="66"/>
       <c r="E81" s="82" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F81" s="82" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="I81" s="32"/>
       <c r="J81" s="8"/>
@@ -7636,26 +7746,26 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="46" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D82" s="66"/>
       <c r="E82" s="82" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F82" s="82" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="I82" s="32"/>
       <c r="J82" s="8"/>
@@ -7675,23 +7785,23 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="46" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C83" s="69" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D83" s="66"/>
       <c r="E83" s="82" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F83" s="82" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="32"/>
@@ -7712,23 +7822,23 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="77" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C84" s="69" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D84" s="66"/>
       <c r="E84" s="82" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F84" s="82" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="32"/>
@@ -7749,23 +7859,23 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="77" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D85" s="66"/>
       <c r="E85" s="82" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F85" s="82" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="32"/>
@@ -7786,23 +7896,23 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="77" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C86" s="69" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D86" s="66"/>
       <c r="E86" s="82" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F86" s="82" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="32"/>
@@ -7823,23 +7933,23 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="77" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C87" s="69" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D87" s="66"/>
       <c r="E87" s="82" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F87" s="82" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="32"/>
@@ -7860,23 +7970,23 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="47" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B88" s="44" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C88" s="69" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D88" s="66"/>
       <c r="E88" s="82" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F88" s="82" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="32"/>
@@ -7897,23 +8007,23 @@
     </row>
     <row r="89" spans="1:14" ht="24.75">
       <c r="A89" s="46" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C89" s="69" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D89" s="66"/>
       <c r="E89" s="82" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F89" s="82" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="32"/>
@@ -7931,28 +8041,28 @@
         <v>2</v>
       </c>
       <c r="N89" s="23" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="46" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B90" s="44" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C90" s="69" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D90" s="66"/>
       <c r="E90" s="82" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F90" s="82" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="32"/>
@@ -7970,28 +8080,28 @@
         <v>7</v>
       </c>
       <c r="N90" s="23" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="46" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C91" s="69" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D91" s="66"/>
       <c r="E91" s="82" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F91" s="82" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="32"/>
@@ -8009,28 +8119,28 @@
         <v>5</v>
       </c>
       <c r="N91" s="23" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="46" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B92" s="44" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C92" s="69" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D92" s="66"/>
       <c r="E92" s="82" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F92" s="82" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="32"/>
@@ -8048,28 +8158,28 @@
         <v>7</v>
       </c>
       <c r="N92" s="23" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="46" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C93" s="69" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D93" s="66"/>
       <c r="E93" s="82" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F93" s="82" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="32"/>
@@ -8087,28 +8197,28 @@
         <v>8</v>
       </c>
       <c r="N93" s="23" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="16.5" customHeight="1">
       <c r="A94" s="46" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C94" s="69" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D94" s="66"/>
       <c r="E94" s="82" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F94" s="82" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="32"/>
@@ -8126,25 +8236,25 @@
         <v>5</v>
       </c>
       <c r="N94" s="23" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="46" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C95" s="69" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D95" s="66"/>
       <c r="E95" s="82" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F95" s="82" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G95" s="7">
         <v>1024</v>
@@ -8165,28 +8275,28 @@
         <v>8</v>
       </c>
       <c r="N95" s="23" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="46" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C96" s="69" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D96" s="66"/>
       <c r="E96" s="82" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F96" s="82" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="32"/>
@@ -8204,26 +8314,26 @@
         <v>10</v>
       </c>
       <c r="N96" s="23" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="30">
       <c r="A97" s="46" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C97" s="69"/>
       <c r="D97" s="66"/>
       <c r="E97" s="82" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F97" s="82" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="32"/>
@@ -8241,26 +8351,26 @@
         <v>0</v>
       </c>
       <c r="N97" s="23" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="46" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C98" s="69"/>
       <c r="D98" s="66"/>
       <c r="E98" s="82" t="s">
-        <v>497</v>
+        <v>653</v>
       </c>
       <c r="F98" s="82" t="s">
-        <v>498</v>
+        <v>654</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="32"/>
@@ -8278,26 +8388,26 @@
         <v>0</v>
       </c>
       <c r="N98" s="23" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="46" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C99" s="69"/>
       <c r="D99" s="66"/>
       <c r="E99" s="82" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F99" s="82" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="32"/>
@@ -8315,26 +8425,26 @@
         <v>0</v>
       </c>
       <c r="N99" s="23" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="46" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C100" s="69"/>
       <c r="D100" s="66"/>
       <c r="E100" s="82" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F100" s="82" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="32"/>
@@ -8352,26 +8462,26 @@
         <v>0</v>
       </c>
       <c r="N100" s="23" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="30">
       <c r="A101" s="46" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B101" s="44" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C101" s="69"/>
       <c r="D101" s="66"/>
       <c r="E101" s="82" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="F101" s="82" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="32"/>
@@ -8380,36 +8490,37 @@
         <f t="shared" si="9"/>
         <v>OPARTGT098</v>
       </c>
-      <c r="L101" s="43" t="s">
-        <v>341</v>
+      <c r="L101" s="43" t="str">
+        <f t="shared" si="10"/>
+        <v>Ammunition storage</v>
       </c>
       <c r="M101" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N101" s="23" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="46" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B102" s="44" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C102" s="69" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D102" s="66"/>
       <c r="E102" s="6" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="32"/>
@@ -8427,26 +8538,26 @@
         <v>8</v>
       </c>
       <c r="N102" s="23" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="46" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B103" s="44" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="C103" s="69"/>
       <c r="D103" s="66"/>
       <c r="E103" s="6" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="32"/>
@@ -8455,150 +8566,322 @@
         <f t="shared" si="9"/>
         <v>OPARTGT100</v>
       </c>
-      <c r="L103" s="43" t="s">
-        <v>607</v>
+      <c r="L103" s="43" t="str">
+        <f t="shared" si="10"/>
+        <v>Syrian Navy HQ</v>
       </c>
       <c r="M103" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N103" s="23" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
-      <c r="A104" s="78"/>
-      <c r="B104" s="78"/>
-      <c r="C104" s="73"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="68"/>
-      <c r="H104" s="1"/>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="30">
+      <c r="A104" s="46" t="s">
+        <v>620</v>
+      </c>
+      <c r="B104" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="C104" s="69"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="H104" s="6"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT101</v>
+      </c>
+      <c r="L104" s="43" t="str">
+        <f t="shared" si="10"/>
+        <v>91st Republican Guard Armor Division</v>
+      </c>
+      <c r="M104" s="37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N104" s="23" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="78"/>
-      <c r="B105" s="78"/>
-      <c r="C105" s="73"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="68"/>
-      <c r="H105" s="1"/>
+      <c r="A105" s="46" t="s">
+        <v>621</v>
+      </c>
+      <c r="B105" s="82" t="s">
+        <v>644</v>
+      </c>
+      <c r="C105" s="69"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="H105" s="6"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT102</v>
+      </c>
+      <c r="L105" s="43" t="str">
+        <f t="shared" si="10"/>
+        <v>924th SCUD Regiment base</v>
+      </c>
+      <c r="M105" s="37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N105" s="51" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="78"/>
-      <c r="B106" s="78"/>
-      <c r="C106" s="73"/>
-      <c r="D106" s="68"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="68"/>
-      <c r="H106" s="1"/>
+      <c r="A106" s="46" t="s">
+        <v>622</v>
+      </c>
+      <c r="B106" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="C106" s="69"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H106" s="6"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT103</v>
+      </c>
+      <c r="L106" s="43" t="str">
+        <f t="shared" si="10"/>
+        <v>Syrian Air Force Headquarter</v>
+      </c>
+      <c r="M106" s="37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N106" s="23" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="107" spans="1:14">
-      <c r="A107" s="78"/>
-      <c r="B107" s="78"/>
-      <c r="C107" s="73"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="68"/>
-      <c r="H107" s="1"/>
+      <c r="A107" s="46" t="s">
+        <v>623</v>
+      </c>
+      <c r="B107" s="44"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="66"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>OPARTGT104</v>
+      </c>
+      <c r="L107" s="43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M107" s="37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N107" s="23"/>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="78"/>
-      <c r="B108" s="78"/>
-      <c r="C108" s="73"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="68"/>
-      <c r="H108" s="1"/>
+      <c r="A108" s="46" t="s">
+        <v>624</v>
+      </c>
+      <c r="B108" s="44"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="54"/>
+      <c r="L108" s="43"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="23"/>
     </row>
     <row r="109" spans="1:14">
-      <c r="A109" s="78"/>
-      <c r="B109" s="78"/>
-      <c r="C109" s="73"/>
-      <c r="D109" s="68"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="68"/>
-      <c r="H109" s="1"/>
+      <c r="A109" s="46" t="s">
+        <v>625</v>
+      </c>
+      <c r="B109" s="44"/>
+      <c r="C109" s="69"/>
+      <c r="D109" s="66"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="32"/>
+      <c r="K109" s="54"/>
+      <c r="L109" s="43"/>
+      <c r="M109" s="37"/>
+      <c r="N109" s="23"/>
     </row>
     <row r="110" spans="1:14">
-      <c r="A110" s="78"/>
-      <c r="B110" s="78"/>
-      <c r="C110" s="73"/>
-      <c r="D110" s="68"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="68"/>
-      <c r="H110" s="1"/>
+      <c r="A110" s="46" t="s">
+        <v>626</v>
+      </c>
+      <c r="B110" s="44"/>
+      <c r="C110" s="69"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="54"/>
+      <c r="L110" s="43"/>
+      <c r="M110" s="37"/>
+      <c r="N110" s="23"/>
     </row>
     <row r="111" spans="1:14">
-      <c r="A111" s="78"/>
-      <c r="B111" s="78"/>
-      <c r="C111" s="73"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="68"/>
-      <c r="H111" s="1"/>
+      <c r="A111" s="46" t="s">
+        <v>627</v>
+      </c>
+      <c r="B111" s="44"/>
+      <c r="C111" s="69"/>
+      <c r="D111" s="66"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="32"/>
+      <c r="K111" s="54"/>
+      <c r="L111" s="43"/>
+      <c r="M111" s="37"/>
+      <c r="N111" s="23"/>
     </row>
     <row r="112" spans="1:14">
-      <c r="A112" s="78"/>
-      <c r="B112" s="78"/>
-      <c r="C112" s="73"/>
-      <c r="D112" s="68"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="68"/>
-      <c r="H112" s="1"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="78"/>
-      <c r="B113" s="78"/>
-      <c r="C113" s="73"/>
-      <c r="D113" s="68"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="68"/>
-      <c r="H113" s="1"/>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="78"/>
-      <c r="B114" s="78"/>
-      <c r="C114" s="73"/>
-      <c r="D114" s="68"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="68"/>
-      <c r="H114" s="1"/>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="78"/>
-      <c r="B115" s="78"/>
-      <c r="C115" s="73"/>
-      <c r="D115" s="68"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="68"/>
-      <c r="H115" s="1"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="78"/>
-      <c r="B116" s="78"/>
-      <c r="C116" s="73"/>
-      <c r="D116" s="68"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="68"/>
-      <c r="H116" s="1"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="78"/>
-      <c r="B117" s="78"/>
+      <c r="A112" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B112" s="44"/>
+      <c r="C112" s="69"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="54"/>
+      <c r="L112" s="43"/>
+      <c r="M112" s="37"/>
+      <c r="N112" s="23"/>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="46" t="s">
+        <v>628</v>
+      </c>
+      <c r="B113" s="44"/>
+      <c r="C113" s="69"/>
+      <c r="D113" s="66"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="32"/>
+      <c r="K113" s="54"/>
+      <c r="L113" s="43"/>
+      <c r="M113" s="37"/>
+      <c r="N113" s="23"/>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="B114" s="44"/>
+      <c r="C114" s="69"/>
+      <c r="D114" s="66"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="32"/>
+      <c r="K114" s="54"/>
+      <c r="L114" s="43"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="23"/>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="46" t="s">
+        <v>630</v>
+      </c>
+      <c r="B115" s="44"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="32"/>
+      <c r="K115" s="54"/>
+      <c r="L115" s="43"/>
+      <c r="M115" s="37"/>
+      <c r="N115" s="23"/>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="B116" s="44"/>
+      <c r="C116" s="69"/>
+      <c r="D116" s="66"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="32"/>
+      <c r="K116" s="54"/>
+      <c r="L116" s="43"/>
+      <c r="M116" s="37"/>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="46" t="s">
+        <v>632</v>
+      </c>
+      <c r="B117" s="44"/>
       <c r="C117" s="73"/>
       <c r="D117" s="68"/>
       <c r="E117" s="1"/>
@@ -8606,9 +8889,9 @@
       <c r="G117" s="68"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:14">
       <c r="A118" s="78"/>
-      <c r="B118" s="78"/>
+      <c r="B118" s="44"/>
       <c r="C118" s="73"/>
       <c r="D118" s="68"/>
       <c r="E118" s="1"/>
@@ -8616,7 +8899,7 @@
       <c r="G118" s="68"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:14">
       <c r="A119" s="78"/>
       <c r="B119" s="78"/>
       <c r="C119" s="73"/>
@@ -8626,7 +8909,7 @@
       <c r="G119" s="68"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:14">
       <c r="A120" s="78"/>
       <c r="B120" s="78"/>
       <c r="C120" s="73"/>
@@ -8636,7 +8919,7 @@
       <c r="G120" s="68"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:14">
       <c r="A121" s="78"/>
       <c r="B121" s="78"/>
       <c r="C121" s="73"/>
@@ -8646,7 +8929,7 @@
       <c r="G121" s="68"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:14">
       <c r="A122" s="78"/>
       <c r="B122" s="78"/>
       <c r="C122" s="73"/>
@@ -8656,7 +8939,7 @@
       <c r="G122" s="68"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:14">
       <c r="A123" s="78"/>
       <c r="B123" s="78"/>
       <c r="C123" s="73"/>
@@ -8666,7 +8949,7 @@
       <c r="G123" s="68"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:14">
       <c r="A124" s="78"/>
       <c r="B124" s="78"/>
       <c r="C124" s="73"/>
@@ -8676,7 +8959,7 @@
       <c r="G124" s="68"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:14">
       <c r="A125" s="78"/>
       <c r="B125" s="78"/>
       <c r="C125" s="73"/>
@@ -8686,7 +8969,7 @@
       <c r="G125" s="68"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:14">
       <c r="A126" s="78"/>
       <c r="B126" s="78"/>
       <c r="C126" s="73"/>
@@ -8696,7 +8979,7 @@
       <c r="G126" s="68"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:14">
       <c r="A127" s="78"/>
       <c r="B127" s="78"/>
       <c r="C127" s="73"/>
@@ -8706,7 +8989,7 @@
       <c r="G127" s="68"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:14">
       <c r="A128" s="78"/>
       <c r="B128" s="78"/>
       <c r="C128" s="73"/>
@@ -10643,65 +10926,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="A1" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="113"/>
+      <c r="A2" s="131" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="132"/>
       <c r="C2" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="116" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="115"/>
+        <v>50</v>
+      </c>
+      <c r="D2" s="135" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="134"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="K3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="119" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
+      <c r="A4" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>3</v>
@@ -10710,13 +10993,13 @@
         <v>4</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -10835,40 +11118,40 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="122" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="124"/>
+      <c r="A15" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="127" t="s">
+      <c r="E16" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="128"/>
-      <c r="I16" s="129"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="124" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15">
@@ -10877,13 +11160,13 @@
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="131"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="119"/>
       <c r="K17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -10893,11 +11176,11 @@
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="131"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="119"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="15">
@@ -10906,11 +11189,11 @@
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="131"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="119"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="15">
@@ -10919,11 +11202,11 @@
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="131"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="15">
@@ -10932,11 +11215,11 @@
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="15">
@@ -10945,11 +11228,11 @@
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="131"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="15">
@@ -10958,11 +11241,11 @@
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="131"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15">
@@ -10971,11 +11254,11 @@
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="131"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="119"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15">
@@ -10984,11 +11267,11 @@
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="136"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="112"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="16">
@@ -10997,23 +11280,19 @@
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -11028,11 +11307,15 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11061,63 +11344,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="A1" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="130"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="113"/>
+      <c r="A2" s="131" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="132"/>
       <c r="C2" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="116" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="114" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="115"/>
+        <v>61</v>
+      </c>
+      <c r="D2" s="135" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="134"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="119" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
+      <c r="A4" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="140"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>3</v>
@@ -11126,16 +11409,16 @@
         <v>4</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="28" t="s">
-        <v>62</v>
-      </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="34.5">
@@ -11143,104 +11426,104 @@
         <v>1</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="I6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="147" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
+      <c r="K6" s="141" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="17">
         <v>2</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="H7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="147" t="s">
-        <v>113</v>
-      </c>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="147"/>
+      <c r="K7" s="141" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="17">
         <v>3</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="E8" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="H8" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>96</v>
-      </c>
       <c r="I8" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -11320,111 +11603,111 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="122" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="124"/>
+      <c r="A15" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="25" t="s">
+      <c r="D16" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="141" t="s">
+      <c r="E16" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="141"/>
-      <c r="I16" s="142"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="146"/>
+      <c r="I16" s="147"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="15">
         <v>1</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="143" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="144"/>
-      <c r="G17" s="143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="142" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="143"/>
+      <c r="G17" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="145"/>
-      <c r="I17" s="146"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="145"/>
     </row>
     <row r="18" spans="1:11" ht="23.25">
       <c r="A18" s="15">
         <v>2</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="143" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="144"/>
-      <c r="G18" s="143" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="145"/>
-      <c r="I18" s="146"/>
+        <v>64</v>
+      </c>
+      <c r="E18" s="142" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="143"/>
+      <c r="G18" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="144"/>
+      <c r="I18" s="145"/>
     </row>
     <row r="19" spans="1:11" ht="34.5">
       <c r="A19" s="15">
         <v>3</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="143" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="144"/>
-      <c r="G19" s="143" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="145"/>
-      <c r="I19" s="146"/>
+        <v>92</v>
+      </c>
+      <c r="E19" s="142" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="143"/>
+      <c r="G19" s="142" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="144"/>
+      <c r="I19" s="145"/>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -11434,11 +11717,11 @@
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="131"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="15">
@@ -11447,13 +11730,13 @@
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="131"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
       <c r="K21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -11463,11 +11746,11 @@
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="131"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="15">
@@ -11476,11 +11759,11 @@
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="131"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15">
@@ -11489,11 +11772,11 @@
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="131"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="119"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="15">
@@ -11502,11 +11785,11 @@
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="136"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="112"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="16">
@@ -11515,14 +11798,28 @@
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -11539,20 +11836,6 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11576,69 +11859,69 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="J1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="148" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B5" s="148"/>
       <c r="C5" s="148"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="29" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="A7" s="87" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60">
       <c r="A8" s="89" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33.75" customHeight="1">
       <c r="A9" s="88" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45">
       <c r="A10" s="90" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
@@ -11668,16 +11951,16 @@
   <sheetData>
     <row r="2" spans="2:15" ht="15.75">
       <c r="B2" s="149" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C2" s="149"/>
       <c r="O2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1">
       <c r="B3" s="59" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>2</v>
@@ -11688,10 +11971,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="2:15">
@@ -11699,10 +11982,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -11710,10 +11993,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -11721,10 +12004,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -11732,10 +12015,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -11743,10 +12026,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -11754,10 +12037,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" customHeight="1">
@@ -11765,10 +12048,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -11776,10 +12059,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D12" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -11787,10 +12070,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D13" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -11798,10 +12081,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D14" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -11809,10 +12092,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D15" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -11820,10 +12103,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -11831,10 +12114,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D17" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -11878,7 +12161,7 @@
     </row>
     <row r="31" spans="2:4">
       <c r="C31" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -11906,58 +12189,58 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="J2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="149" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B3" s="149"/>
       <c r="C3" s="149"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="49" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B4" s="148" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C4" s="148"/>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1">
       <c r="A5" s="31" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B5" s="150" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C5" s="150"/>
     </row>
     <row r="6" spans="1:10" ht="64.5" customHeight="1">
       <c r="A6" s="31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B6" s="150" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C6" s="150"/>
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1">
       <c r="A7" s="31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B7" s="150" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C7" s="150"/>
     </row>
     <row r="8" spans="1:10" ht="72.75" customHeight="1">
       <c r="A8" s="38" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B8" s="150" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C8" s="150"/>
     </row>
@@ -11993,111 +12276,111 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:10" ht="15.75">
       <c r="B2" s="151" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C2" s="152"/>
       <c r="D2" s="153"/>
       <c r="J2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
       <c r="B3" s="91" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D3" s="92" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="90">
       <c r="B4" s="93" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D4" s="94" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="75">
       <c r="B5" s="93" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="42" customHeight="1">
       <c r="B6" s="93" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="75">
       <c r="B7" s="93" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="75">
       <c r="B8" s="93" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="84" customHeight="1">
       <c r="B9" s="93" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>288</v>
-      </c>
       <c r="D9" s="95" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="75">
       <c r="B10" s="96" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1">
       <c r="B11" s="97" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C11" s="98" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1"/>
@@ -12126,24 +12409,24 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="7.15" customHeight="1"/>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
+++ b/INTELLIGENCE/OPAR_TARGET_LIST.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03712CF3-D084-4799-8886-3A6CB5C12F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11700"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Target List" sheetId="1" r:id="rId1"/>
@@ -16,12 +17,22 @@
     <sheet name="Effects" sheetId="9" r:id="rId7"/>
     <sheet name="Example_support" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="660">
   <si>
     <t>OP ACTIVE RESOLVE TARGET LIST</t>
   </si>
@@ -1904,9 +1915,6 @@
     <t>E037 04.800</t>
   </si>
   <si>
-    <t>Located in Aleppo</t>
-  </si>
-  <si>
     <t>OPARTGT101</t>
   </si>
   <si>
@@ -2019,13 +2027,22 @@
   </si>
   <si>
     <t>Dual use. Used for propaganda, and for spreading the message for the Syrian regime. Located in Damascus. Collateral issue.</t>
+  </si>
+  <si>
+    <t>Located in Aleppo. HQ building for planning, organizing and development in the Syrian Army.</t>
+  </si>
+  <si>
+    <t>Located in Aleppo. HQ building for Syrian Army high command.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Located in Aleppo. Home base for SCUD regiment. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2681,7 +2698,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2969,6 +2986,78 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2993,99 +3082,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3103,6 +3120,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3111,6 +3134,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3131,7 +3162,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png"/>
+        <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3170,7 +3207,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png"/>
+        <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3214,7 +3257,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png"/>
+        <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3253,7 +3302,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png"/>
+        <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3297,7 +3352,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png"/>
+        <xdr:cNvPr id="2" name="Bilde 1" descr="Patch_wip3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3336,7 +3397,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png"/>
+        <xdr:cNvPr id="3" name="Bilde 2" descr="OPAR JFACC logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3380,7 +3447,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 1"/>
+        <xdr:cNvPr id="4" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3427,7 +3500,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TekstSylinder 2"/>
+        <xdr:cNvPr id="3" name="TekstSylinder 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3513,7 +3592,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPr id="2049" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3565,7 +3650,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3612,7 +3703,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPr id="2049" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3659,7 +3756,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TekstSylinder 3"/>
+        <xdr:cNvPr id="4" name="TekstSylinder 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3751,7 +3854,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3798,7 +3907,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 5"/>
+        <xdr:cNvPr id="4" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3845,7 +3960,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TekstSylinder 4"/>
+        <xdr:cNvPr id="5" name="TekstSylinder 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3933,7 +4054,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1"/>
+        <xdr:cNvPr id="5" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3980,7 +4107,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TekstSylinder 5"/>
+        <xdr:cNvPr id="6" name="TekstSylinder 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4069,7 +4202,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4121,7 +4260,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPr id="3073" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000010C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4168,7 +4313,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3074" name="Picture 2"/>
+        <xdr:cNvPr id="3074" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4215,7 +4366,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3075" name="Picture 3"/>
+        <xdr:cNvPr id="3075" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000030C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4262,7 +4419,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3076" name="Picture 4"/>
+        <xdr:cNvPr id="3076" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000040C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4309,7 +4472,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3077" name="Picture 5"/>
+        <xdr:cNvPr id="3077" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000050C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4356,7 +4525,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3078" name="Picture 6"/>
+        <xdr:cNvPr id="3078" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000060C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4403,7 +4578,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4481,7 +4662,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4513,9 +4694,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4547,6 +4746,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4722,33 +4939,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N88" sqref="N88"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="79" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="79" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="74" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="63" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="79" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="79" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="63" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="10" style="63" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="79.5703125" customWidth="1"/>
+    <col min="14" max="14" width="79.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="49.9" customHeight="1" thickBot="1">
+    <row r="1" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
@@ -4768,7 +4985,7 @@
       <c r="M1" s="107"/>
       <c r="N1" s="108"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="75" t="s">
         <v>46</v>
       </c>
@@ -4788,7 +5005,7 @@
       <c r="M2" s="34"/>
       <c r="N2" s="35"/>
     </row>
-    <row r="3" spans="1:14" ht="29.45" customHeight="1" thickBot="1">
+    <row r="3" spans="1:14" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -4832,8 +5049,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="154" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="81" t="s">
@@ -4866,11 +5083,11 @@
         <v>0</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="46" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="155" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="81" t="s">
@@ -4903,11 +5120,11 @@
         <v>0</v>
       </c>
       <c r="N5" s="51" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="46" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="155" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="82" t="s">
@@ -4940,26 +5157,26 @@
         <v>0</v>
       </c>
       <c r="N6" s="51" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C7" s="69"/>
       <c r="D7" s="7"/>
       <c r="E7" s="82" t="s">
+        <v>638</v>
+      </c>
+      <c r="F7" s="82" t="s">
         <v>639</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="G7" s="7" t="s">
         <v>640</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>641</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="8"/>
@@ -4977,10 +5194,10 @@
         <v>0</v>
       </c>
       <c r="N7" s="51" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="30">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
         <v>14</v>
       </c>
@@ -5017,7 +5234,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
         <v>15</v>
       </c>
@@ -5054,7 +5271,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>16</v>
       </c>
@@ -5095,7 +5312,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>17</v>
       </c>
@@ -5136,7 +5353,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
         <v>18</v>
       </c>
@@ -5177,7 +5394,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>19</v>
       </c>
@@ -5218,7 +5435,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
         <v>20</v>
       </c>
@@ -5259,7 +5476,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
         <v>21</v>
       </c>
@@ -5300,7 +5517,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
         <v>22</v>
       </c>
@@ -5341,7 +5558,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>23</v>
       </c>
@@ -5382,7 +5599,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="46" t="s">
         <v>24</v>
       </c>
@@ -5423,7 +5640,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
         <v>25</v>
       </c>
@@ -5464,7 +5681,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="46" t="s">
         <v>26</v>
       </c>
@@ -5505,7 +5722,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="86" customFormat="1" ht="36.75">
+    <row r="21" spans="1:14" s="86" customFormat="1" ht="35.4" x14ac:dyDescent="0.3">
       <c r="A21" s="99" t="s">
         <v>27</v>
       </c>
@@ -5546,7 +5763,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="46" t="s">
         <v>28</v>
       </c>
@@ -5585,7 +5802,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
         <v>29</v>
       </c>
@@ -5624,7 +5841,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
         <v>30</v>
       </c>
@@ -5665,7 +5882,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="46" t="s">
         <v>31</v>
       </c>
@@ -5706,7 +5923,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="s">
         <v>32</v>
       </c>
@@ -5747,7 +5964,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="s">
         <v>33</v>
       </c>
@@ -5788,7 +6005,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="46" t="s">
         <v>34</v>
       </c>
@@ -5829,7 +6046,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" thickBot="1">
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="76" t="s">
         <v>35</v>
       </c>
@@ -5870,7 +6087,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>36</v>
       </c>
@@ -5911,7 +6128,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
         <v>37</v>
       </c>
@@ -5952,7 +6169,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
         <v>121</v>
       </c>
@@ -5993,7 +6210,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="s">
         <v>122</v>
       </c>
@@ -6032,7 +6249,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="30">
+    <row r="34" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="s">
         <v>123</v>
       </c>
@@ -6071,7 +6288,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="s">
         <v>124</v>
       </c>
@@ -6110,7 +6327,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="45">
+    <row r="36" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="46" t="s">
         <v>125</v>
       </c>
@@ -6149,7 +6366,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="30">
+    <row r="37" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="46" t="s">
         <v>126</v>
       </c>
@@ -6188,7 +6405,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="30">
+    <row r="38" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="46" t="s">
         <v>127</v>
       </c>
@@ -6227,7 +6444,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="46" t="s">
         <v>128</v>
       </c>
@@ -6258,7 +6475,7 @@
       </c>
       <c r="N39" s="51"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="46" t="s">
         <v>129</v>
       </c>
@@ -6289,7 +6506,7 @@
       </c>
       <c r="N40" s="51"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="46" t="s">
         <v>130</v>
       </c>
@@ -6320,7 +6537,7 @@
       </c>
       <c r="N41" s="51"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="46" t="s">
         <v>131</v>
       </c>
@@ -6351,7 +6568,7 @@
       </c>
       <c r="N42" s="51"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="46" t="s">
         <v>132</v>
       </c>
@@ -6382,7 +6599,7 @@
       </c>
       <c r="N43" s="51"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="46" t="s">
         <v>133</v>
       </c>
@@ -6413,7 +6630,7 @@
       </c>
       <c r="N44" s="51"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="46" t="s">
         <v>134</v>
       </c>
@@ -6444,7 +6661,7 @@
       </c>
       <c r="N45" s="51"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="46" t="s">
         <v>135</v>
       </c>
@@ -6477,7 +6694,7 @@
       </c>
       <c r="N46" s="51"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="46" t="s">
         <v>136</v>
       </c>
@@ -6508,7 +6725,7 @@
       </c>
       <c r="N47" s="51"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="46" t="s">
         <v>137</v>
       </c>
@@ -6539,7 +6756,7 @@
       </c>
       <c r="N48" s="51"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="46" t="s">
         <v>138</v>
       </c>
@@ -6570,7 +6787,7 @@
       </c>
       <c r="N49" s="51"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="46" t="s">
         <v>139</v>
       </c>
@@ -6601,7 +6818,7 @@
       </c>
       <c r="N50" s="51"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="46" t="s">
         <v>140</v>
       </c>
@@ -6632,7 +6849,7 @@
       </c>
       <c r="N51" s="51"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="46" t="s">
         <v>141</v>
       </c>
@@ -6665,7 +6882,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="46" t="s">
         <v>142</v>
       </c>
@@ -6696,7 +6913,7 @@
       </c>
       <c r="N53" s="51"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="46" t="s">
         <v>143</v>
       </c>
@@ -6727,7 +6944,7 @@
       </c>
       <c r="N54" s="51"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="46" t="s">
         <v>144</v>
       </c>
@@ -6758,7 +6975,7 @@
       </c>
       <c r="N55" s="51"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="77" t="s">
         <v>145</v>
       </c>
@@ -6789,7 +7006,7 @@
       </c>
       <c r="N56" s="51"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="77" t="s">
         <v>146</v>
       </c>
@@ -6820,7 +7037,7 @@
       </c>
       <c r="N57" s="51"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="77" t="s">
         <v>147</v>
       </c>
@@ -6851,7 +7068,7 @@
       </c>
       <c r="N58" s="51"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="46" t="s">
         <v>148</v>
       </c>
@@ -6884,7 +7101,7 @@
       </c>
       <c r="N59" s="51"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
         <v>149</v>
       </c>
@@ -6923,7 +7140,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="24.75">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="46" t="s">
         <v>150</v>
       </c>
@@ -6962,7 +7179,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="24.75">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="46" t="s">
         <v>151</v>
       </c>
@@ -7001,7 +7218,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="24.75">
+    <row r="63" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A63" s="46" t="s">
         <v>152</v>
       </c>
@@ -7040,7 +7257,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="46" t="s">
         <v>153</v>
       </c>
@@ -7071,7 +7288,7 @@
       </c>
       <c r="N64" s="23"/>
     </row>
-    <row r="65" spans="1:14" ht="45">
+    <row r="65" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="46" t="s">
         <v>154</v>
       </c>
@@ -7112,7 +7329,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="30">
+    <row r="66" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="46" t="s">
         <v>155</v>
       </c>
@@ -7153,7 +7370,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="46" t="s">
         <v>156</v>
       </c>
@@ -7192,7 +7409,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="46" t="s">
         <v>157</v>
       </c>
@@ -7231,7 +7448,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="46" t="s">
         <v>158</v>
       </c>
@@ -7270,7 +7487,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="46" t="s">
         <v>159</v>
       </c>
@@ -7309,7 +7526,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="46" t="s">
         <v>160</v>
       </c>
@@ -7348,7 +7565,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="46" t="s">
         <v>161</v>
       </c>
@@ -7387,7 +7604,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="30">
+    <row r="73" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="46" t="s">
         <v>162</v>
       </c>
@@ -7399,10 +7616,10 @@
       </c>
       <c r="D73" s="66"/>
       <c r="E73" s="82" t="s">
+        <v>654</v>
+      </c>
+      <c r="F73" s="82" t="s">
         <v>655</v>
-      </c>
-      <c r="F73" s="82" t="s">
-        <v>656</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>486</v>
@@ -7423,25 +7640,25 @@
         <v>12</v>
       </c>
       <c r="N73" s="23" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="46" t="s">
         <v>163</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C74" s="69" t="s">
         <v>320</v>
       </c>
       <c r="D74" s="66"/>
       <c r="E74" s="82" t="s">
+        <v>648</v>
+      </c>
+      <c r="F74" s="82" t="s">
         <v>649</v>
-      </c>
-      <c r="F74" s="82" t="s">
-        <v>650</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>526</v>
@@ -7462,10 +7679,10 @@
         <v>2</v>
       </c>
       <c r="N74" s="23" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="46" t="s">
         <v>164</v>
       </c>
@@ -7506,7 +7723,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="46" t="s">
         <v>165</v>
       </c>
@@ -7547,7 +7764,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="46" t="s">
         <v>166</v>
       </c>
@@ -7588,7 +7805,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="46" t="s">
         <v>167</v>
       </c>
@@ -7627,7 +7844,7 @@
       </c>
       <c r="N78" s="23"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="46" t="s">
         <v>168</v>
       </c>
@@ -7666,7 +7883,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="46" t="s">
         <v>169</v>
       </c>
@@ -7705,7 +7922,7 @@
       </c>
       <c r="N80" s="23"/>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="46" t="s">
         <v>170</v>
       </c>
@@ -7744,7 +7961,7 @@
       </c>
       <c r="N81" s="23"/>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="46" t="s">
         <v>171</v>
       </c>
@@ -7783,7 +8000,7 @@
       </c>
       <c r="N82" s="23"/>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="46" t="s">
         <v>172</v>
       </c>
@@ -7820,7 +8037,7 @@
       </c>
       <c r="N83" s="23"/>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="77" t="s">
         <v>173</v>
       </c>
@@ -7857,7 +8074,7 @@
       </c>
       <c r="N84" s="23"/>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="77" t="s">
         <v>174</v>
       </c>
@@ -7894,7 +8111,7 @@
       </c>
       <c r="N85" s="23"/>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="77" t="s">
         <v>175</v>
       </c>
@@ -7931,7 +8148,7 @@
       </c>
       <c r="N86" s="23"/>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="77" t="s">
         <v>176</v>
       </c>
@@ -7968,7 +8185,7 @@
       </c>
       <c r="N87" s="23"/>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="47" t="s">
         <v>177</v>
       </c>
@@ -8005,7 +8222,7 @@
       </c>
       <c r="N88" s="23"/>
     </row>
-    <row r="89" spans="1:14" ht="24.75">
+    <row r="89" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A89" s="46" t="s">
         <v>178</v>
       </c>
@@ -8044,7 +8261,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="46" t="s">
         <v>179</v>
       </c>
@@ -8083,7 +8300,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="46" t="s">
         <v>180</v>
       </c>
@@ -8122,7 +8339,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="46" t="s">
         <v>181</v>
       </c>
@@ -8161,7 +8378,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="46" t="s">
         <v>182</v>
       </c>
@@ -8200,7 +8417,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="16.5" customHeight="1">
+    <row r="94" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="46" t="s">
         <v>183</v>
       </c>
@@ -8239,7 +8456,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="46" t="s">
         <v>184</v>
       </c>
@@ -8278,7 +8495,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="46" t="s">
         <v>185</v>
       </c>
@@ -8317,7 +8534,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="30">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="46" t="s">
         <v>186</v>
       </c>
@@ -8354,7 +8571,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="46" t="s">
         <v>187</v>
       </c>
@@ -8364,10 +8581,10 @@
       <c r="C98" s="69"/>
       <c r="D98" s="66"/>
       <c r="E98" s="82" t="s">
+        <v>652</v>
+      </c>
+      <c r="F98" s="82" t="s">
         <v>653</v>
-      </c>
-      <c r="F98" s="82" t="s">
-        <v>654</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>481</v>
@@ -8391,7 +8608,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="46" t="s">
         <v>188</v>
       </c>
@@ -8428,7 +8645,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="46" t="s">
         <v>189</v>
       </c>
@@ -8465,7 +8682,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="30">
+    <row r="101" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="46" t="s">
         <v>190</v>
       </c>
@@ -8502,7 +8719,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="46" t="s">
         <v>191</v>
       </c>
@@ -8541,7 +8758,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="46" t="s">
         <v>192</v>
       </c>
@@ -8578,23 +8795,23 @@
         <v>598</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="30">
+    <row r="104" spans="1:14" ht="24" x14ac:dyDescent="0.3">
       <c r="A104" s="46" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B104" s="44" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C104" s="69"/>
       <c r="D104" s="66"/>
       <c r="E104" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="F104" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="G104" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="H104" s="6"/>
       <c r="I104" s="32"/>
@@ -8612,26 +8829,26 @@
         <v>0</v>
       </c>
       <c r="N104" s="23" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="46" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B105" s="82" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C105" s="69"/>
       <c r="D105" s="66"/>
       <c r="E105" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="F105" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="F105" s="6" t="s">
-        <v>646</v>
-      </c>
       <c r="G105" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H105" s="6"/>
       <c r="I105" s="32"/>
@@ -8649,12 +8866,12 @@
         <v>0</v>
       </c>
       <c r="N105" s="51" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="46" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B106" s="44" t="s">
         <v>313</v>
@@ -8665,7 +8882,7 @@
         <v>340</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>463</v>
@@ -8686,12 +8903,12 @@
         <v>0</v>
       </c>
       <c r="N106" s="23" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="46" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B107" s="44"/>
       <c r="C107" s="69"/>
@@ -8716,9 +8933,9 @@
       </c>
       <c r="N107" s="23"/>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="46" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B108" s="44"/>
       <c r="C108" s="69"/>
@@ -8734,9 +8951,9 @@
       <c r="M108" s="37"/>
       <c r="N108" s="23"/>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="46" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B109" s="44"/>
       <c r="C109" s="69"/>
@@ -8752,9 +8969,9 @@
       <c r="M109" s="37"/>
       <c r="N109" s="23"/>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="46" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B110" s="44"/>
       <c r="C110" s="69"/>
@@ -8770,9 +8987,9 @@
       <c r="M110" s="37"/>
       <c r="N110" s="23"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="46" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B111" s="44"/>
       <c r="C111" s="69"/>
@@ -8788,7 +9005,7 @@
       <c r="M111" s="37"/>
       <c r="N111" s="23"/>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="46" t="s">
         <v>80</v>
       </c>
@@ -8806,9 +9023,9 @@
       <c r="M112" s="37"/>
       <c r="N112" s="23"/>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="46" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B113" s="44"/>
       <c r="C113" s="69"/>
@@ -8824,9 +9041,9 @@
       <c r="M113" s="37"/>
       <c r="N113" s="23"/>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="46" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B114" s="44"/>
       <c r="C114" s="69"/>
@@ -8842,9 +9059,9 @@
       <c r="M114" s="37"/>
       <c r="N114" s="23"/>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="46" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B115" s="44"/>
       <c r="C115" s="69"/>
@@ -8860,9 +9077,9 @@
       <c r="M115" s="37"/>
       <c r="N115" s="23"/>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="46" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B116" s="44"/>
       <c r="C116" s="69"/>
@@ -8877,9 +9094,9 @@
       <c r="L116" s="43"/>
       <c r="M116" s="37"/>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="46" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B117" s="44"/>
       <c r="C117" s="73"/>
@@ -8889,7 +9106,7 @@
       <c r="G117" s="68"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="78"/>
       <c r="B118" s="44"/>
       <c r="C118" s="73"/>
@@ -8899,7 +9116,7 @@
       <c r="G118" s="68"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="78"/>
       <c r="B119" s="78"/>
       <c r="C119" s="73"/>
@@ -8909,7 +9126,7 @@
       <c r="G119" s="68"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="78"/>
       <c r="B120" s="78"/>
       <c r="C120" s="73"/>
@@ -8919,7 +9136,7 @@
       <c r="G120" s="68"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="78"/>
       <c r="B121" s="78"/>
       <c r="C121" s="73"/>
@@ -8929,7 +9146,7 @@
       <c r="G121" s="68"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="78"/>
       <c r="B122" s="78"/>
       <c r="C122" s="73"/>
@@ -8939,7 +9156,7 @@
       <c r="G122" s="68"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="78"/>
       <c r="B123" s="78"/>
       <c r="C123" s="73"/>
@@ -8949,7 +9166,7 @@
       <c r="G123" s="68"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="78"/>
       <c r="B124" s="78"/>
       <c r="C124" s="73"/>
@@ -8959,7 +9176,7 @@
       <c r="G124" s="68"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="78"/>
       <c r="B125" s="78"/>
       <c r="C125" s="73"/>
@@ -8969,7 +9186,7 @@
       <c r="G125" s="68"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="78"/>
       <c r="B126" s="78"/>
       <c r="C126" s="73"/>
@@ -8979,7 +9196,7 @@
       <c r="G126" s="68"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="78"/>
       <c r="B127" s="78"/>
       <c r="C127" s="73"/>
@@ -8989,7 +9206,7 @@
       <c r="G127" s="68"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="78"/>
       <c r="B128" s="78"/>
       <c r="C128" s="73"/>
@@ -8999,7 +9216,7 @@
       <c r="G128" s="68"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="78"/>
       <c r="B129" s="78"/>
       <c r="C129" s="73"/>
@@ -9009,7 +9226,7 @@
       <c r="G129" s="68"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="78"/>
       <c r="B130" s="78"/>
       <c r="C130" s="73"/>
@@ -9019,7 +9236,7 @@
       <c r="G130" s="68"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="78"/>
       <c r="B131" s="78"/>
       <c r="C131" s="73"/>
@@ -9029,7 +9246,7 @@
       <c r="G131" s="68"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="78"/>
       <c r="B132" s="78"/>
       <c r="C132" s="73"/>
@@ -9039,7 +9256,7 @@
       <c r="G132" s="68"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="78"/>
       <c r="B133" s="78"/>
       <c r="C133" s="73"/>
@@ -9049,7 +9266,7 @@
       <c r="G133" s="68"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="78"/>
       <c r="B134" s="78"/>
       <c r="C134" s="73"/>
@@ -9059,7 +9276,7 @@
       <c r="G134" s="68"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="78"/>
       <c r="B135" s="78"/>
       <c r="C135" s="73"/>
@@ -9069,7 +9286,7 @@
       <c r="G135" s="68"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="78"/>
       <c r="B136" s="78"/>
       <c r="C136" s="73"/>
@@ -9079,7 +9296,7 @@
       <c r="G136" s="68"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="78"/>
       <c r="B137" s="78"/>
       <c r="C137" s="73"/>
@@ -9089,7 +9306,7 @@
       <c r="G137" s="68"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="78"/>
       <c r="B138" s="78"/>
       <c r="C138" s="73"/>
@@ -9099,7 +9316,7 @@
       <c r="G138" s="68"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="78"/>
       <c r="B139" s="78"/>
       <c r="C139" s="73"/>
@@ -9109,7 +9326,7 @@
       <c r="G139" s="68"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="78"/>
       <c r="B140" s="78"/>
       <c r="C140" s="73"/>
@@ -9119,7 +9336,7 @@
       <c r="G140" s="68"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="78"/>
       <c r="B141" s="78"/>
       <c r="C141" s="73"/>
@@ -9129,7 +9346,7 @@
       <c r="G141" s="68"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="78"/>
       <c r="B142" s="78"/>
       <c r="C142" s="73"/>
@@ -9139,7 +9356,7 @@
       <c r="G142" s="68"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="78"/>
       <c r="B143" s="78"/>
       <c r="C143" s="73"/>
@@ -9149,7 +9366,7 @@
       <c r="G143" s="68"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="78"/>
       <c r="B144" s="78"/>
       <c r="C144" s="73"/>
@@ -9159,7 +9376,7 @@
       <c r="G144" s="68"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="78"/>
       <c r="B145" s="78"/>
       <c r="C145" s="73"/>
@@ -9169,7 +9386,7 @@
       <c r="G145" s="68"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="78"/>
       <c r="B146" s="78"/>
       <c r="C146" s="73"/>
@@ -9179,7 +9396,7 @@
       <c r="G146" s="68"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="78"/>
       <c r="B147" s="78"/>
       <c r="C147" s="73"/>
@@ -9189,7 +9406,7 @@
       <c r="G147" s="68"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="78"/>
       <c r="B148" s="78"/>
       <c r="C148" s="73"/>
@@ -9199,7 +9416,7 @@
       <c r="G148" s="68"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="78"/>
       <c r="B149" s="78"/>
       <c r="C149" s="73"/>
@@ -9209,7 +9426,7 @@
       <c r="G149" s="68"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="78"/>
       <c r="B150" s="78"/>
       <c r="C150" s="73"/>
@@ -9219,7 +9436,7 @@
       <c r="G150" s="68"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="78"/>
       <c r="B151" s="78"/>
       <c r="C151" s="73"/>
@@ -9229,7 +9446,7 @@
       <c r="G151" s="68"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="78"/>
       <c r="B152" s="78"/>
       <c r="C152" s="73"/>
@@ -9239,7 +9456,7 @@
       <c r="G152" s="68"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="78"/>
       <c r="B153" s="78"/>
       <c r="C153" s="73"/>
@@ -9249,7 +9466,7 @@
       <c r="G153" s="68"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="78"/>
       <c r="B154" s="78"/>
       <c r="C154" s="73"/>
@@ -9259,7 +9476,7 @@
       <c r="G154" s="68"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="78"/>
       <c r="B155" s="78"/>
       <c r="C155" s="73"/>
@@ -9269,7 +9486,7 @@
       <c r="G155" s="68"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="78"/>
       <c r="B156" s="78"/>
       <c r="C156" s="73"/>
@@ -9279,7 +9496,7 @@
       <c r="G156" s="68"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="78"/>
       <c r="B157" s="78"/>
       <c r="C157" s="73"/>
@@ -9289,7 +9506,7 @@
       <c r="G157" s="68"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="78"/>
       <c r="B158" s="78"/>
       <c r="C158" s="73"/>
@@ -9299,7 +9516,7 @@
       <c r="G158" s="68"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="78"/>
       <c r="B159" s="78"/>
       <c r="C159" s="73"/>
@@ -9309,7 +9526,7 @@
       <c r="G159" s="68"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="78"/>
       <c r="B160" s="78"/>
       <c r="C160" s="73"/>
@@ -9319,7 +9536,7 @@
       <c r="G160" s="68"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="78"/>
       <c r="B161" s="78"/>
       <c r="C161" s="73"/>
@@ -9329,7 +9546,7 @@
       <c r="G161" s="68"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="78"/>
       <c r="B162" s="78"/>
       <c r="C162" s="73"/>
@@ -9339,7 +9556,7 @@
       <c r="G162" s="68"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="78"/>
       <c r="B163" s="78"/>
       <c r="C163" s="73"/>
@@ -9349,7 +9566,7 @@
       <c r="G163" s="68"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="78"/>
       <c r="B164" s="78"/>
       <c r="C164" s="73"/>
@@ -9359,7 +9576,7 @@
       <c r="G164" s="68"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="78"/>
       <c r="B165" s="78"/>
       <c r="C165" s="73"/>
@@ -9369,7 +9586,7 @@
       <c r="G165" s="68"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="78"/>
       <c r="B166" s="78"/>
       <c r="C166" s="73"/>
@@ -9379,7 +9596,7 @@
       <c r="G166" s="68"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="78"/>
       <c r="B167" s="78"/>
       <c r="C167" s="73"/>
@@ -9389,7 +9606,7 @@
       <c r="G167" s="68"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="78"/>
       <c r="B168" s="78"/>
       <c r="C168" s="73"/>
@@ -9399,7 +9616,7 @@
       <c r="G168" s="68"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="78"/>
       <c r="B169" s="78"/>
       <c r="C169" s="73"/>
@@ -9409,7 +9626,7 @@
       <c r="G169" s="68"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="78"/>
       <c r="B170" s="78"/>
       <c r="C170" s="73"/>
@@ -9419,7 +9636,7 @@
       <c r="G170" s="68"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="78"/>
       <c r="B171" s="78"/>
       <c r="C171" s="73"/>
@@ -9429,7 +9646,7 @@
       <c r="G171" s="68"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="78"/>
       <c r="B172" s="78"/>
       <c r="C172" s="73"/>
@@ -9439,7 +9656,7 @@
       <c r="G172" s="68"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="78"/>
       <c r="B173" s="78"/>
       <c r="C173" s="73"/>
@@ -9449,7 +9666,7 @@
       <c r="G173" s="68"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="78"/>
       <c r="B174" s="78"/>
       <c r="C174" s="73"/>
@@ -9459,7 +9676,7 @@
       <c r="G174" s="68"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="78"/>
       <c r="B175" s="78"/>
       <c r="C175" s="73"/>
@@ -9469,7 +9686,7 @@
       <c r="G175" s="68"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="78"/>
       <c r="B176" s="78"/>
       <c r="C176" s="73"/>
@@ -9479,7 +9696,7 @@
       <c r="G176" s="68"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="78"/>
       <c r="B177" s="78"/>
       <c r="C177" s="73"/>
@@ -9489,7 +9706,7 @@
       <c r="G177" s="68"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="78"/>
       <c r="B178" s="78"/>
       <c r="C178" s="73"/>
@@ -9499,7 +9716,7 @@
       <c r="G178" s="68"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="78"/>
       <c r="B179" s="78"/>
       <c r="C179" s="73"/>
@@ -9509,7 +9726,7 @@
       <c r="G179" s="68"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="78"/>
       <c r="B180" s="78"/>
       <c r="C180" s="73"/>
@@ -9519,7 +9736,7 @@
       <c r="G180" s="68"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="78"/>
       <c r="B181" s="78"/>
       <c r="C181" s="73"/>
@@ -9529,7 +9746,7 @@
       <c r="G181" s="68"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="78"/>
       <c r="B182" s="78"/>
       <c r="C182" s="73"/>
@@ -9539,7 +9756,7 @@
       <c r="G182" s="68"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="78"/>
       <c r="B183" s="78"/>
       <c r="C183" s="73"/>
@@ -9549,7 +9766,7 @@
       <c r="G183" s="68"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="78"/>
       <c r="B184" s="78"/>
       <c r="C184" s="73"/>
@@ -9559,7 +9776,7 @@
       <c r="G184" s="68"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="78"/>
       <c r="B185" s="78"/>
       <c r="C185" s="73"/>
@@ -9569,7 +9786,7 @@
       <c r="G185" s="68"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="78"/>
       <c r="B186" s="78"/>
       <c r="C186" s="73"/>
@@ -9579,7 +9796,7 @@
       <c r="G186" s="68"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="78"/>
       <c r="B187" s="78"/>
       <c r="C187" s="73"/>
@@ -9589,7 +9806,7 @@
       <c r="G187" s="68"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="78"/>
       <c r="B188" s="78"/>
       <c r="C188" s="73"/>
@@ -9599,7 +9816,7 @@
       <c r="G188" s="68"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="78"/>
       <c r="B189" s="78"/>
       <c r="C189" s="73"/>
@@ -9609,7 +9826,7 @@
       <c r="G189" s="68"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="78"/>
       <c r="B190" s="78"/>
       <c r="C190" s="73"/>
@@ -9619,7 +9836,7 @@
       <c r="G190" s="68"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="78"/>
       <c r="B191" s="78"/>
       <c r="C191" s="73"/>
@@ -9629,7 +9846,7 @@
       <c r="G191" s="68"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="78"/>
       <c r="B192" s="78"/>
       <c r="C192" s="73"/>
@@ -9639,7 +9856,7 @@
       <c r="G192" s="68"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="78"/>
       <c r="B193" s="78"/>
       <c r="C193" s="73"/>
@@ -9649,7 +9866,7 @@
       <c r="G193" s="68"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="78"/>
       <c r="B194" s="78"/>
       <c r="C194" s="73"/>
@@ -9659,7 +9876,7 @@
       <c r="G194" s="68"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="78"/>
       <c r="B195" s="78"/>
       <c r="C195" s="73"/>
@@ -9669,7 +9886,7 @@
       <c r="G195" s="68"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="78"/>
       <c r="B196" s="78"/>
       <c r="C196" s="73"/>
@@ -9679,7 +9896,7 @@
       <c r="G196" s="68"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="78"/>
       <c r="B197" s="78"/>
       <c r="C197" s="73"/>
@@ -9689,7 +9906,7 @@
       <c r="G197" s="68"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="78"/>
       <c r="B198" s="78"/>
       <c r="C198" s="73"/>
@@ -9699,7 +9916,7 @@
       <c r="G198" s="68"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="78"/>
       <c r="B199" s="78"/>
       <c r="C199" s="73"/>
@@ -9709,7 +9926,7 @@
       <c r="G199" s="68"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="78"/>
       <c r="B200" s="78"/>
       <c r="C200" s="73"/>
@@ -9719,7 +9936,7 @@
       <c r="G200" s="68"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="78"/>
       <c r="B201" s="78"/>
       <c r="C201" s="73"/>
@@ -9729,7 +9946,7 @@
       <c r="G201" s="68"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="78"/>
       <c r="B202" s="78"/>
       <c r="C202" s="73"/>
@@ -9739,7 +9956,7 @@
       <c r="G202" s="68"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="78"/>
       <c r="B203" s="78"/>
       <c r="C203" s="73"/>
@@ -9749,7 +9966,7 @@
       <c r="G203" s="68"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="78"/>
       <c r="B204" s="78"/>
       <c r="C204" s="73"/>
@@ -9759,7 +9976,7 @@
       <c r="G204" s="68"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="78"/>
       <c r="B205" s="78"/>
       <c r="C205" s="73"/>
@@ -9769,7 +9986,7 @@
       <c r="G205" s="68"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="78"/>
       <c r="B206" s="78"/>
       <c r="C206" s="73"/>
@@ -9779,7 +9996,7 @@
       <c r="G206" s="68"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="78"/>
       <c r="B207" s="78"/>
       <c r="C207" s="73"/>
@@ -9789,7 +10006,7 @@
       <c r="G207" s="68"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="78"/>
       <c r="B208" s="78"/>
       <c r="C208" s="73"/>
@@ -9799,7 +10016,7 @@
       <c r="G208" s="68"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="78"/>
       <c r="B209" s="78"/>
       <c r="C209" s="73"/>
@@ -9809,7 +10026,7 @@
       <c r="G209" s="68"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="78"/>
       <c r="B210" s="78"/>
       <c r="C210" s="73"/>
@@ -9819,7 +10036,7 @@
       <c r="G210" s="68"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="78"/>
       <c r="B211" s="78"/>
       <c r="C211" s="73"/>
@@ -9829,7 +10046,7 @@
       <c r="G211" s="68"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="78"/>
       <c r="B212" s="78"/>
       <c r="C212" s="73"/>
@@ -9839,7 +10056,7 @@
       <c r="G212" s="68"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="78"/>
       <c r="B213" s="78"/>
       <c r="C213" s="73"/>
@@ -9849,7 +10066,7 @@
       <c r="G213" s="68"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="78"/>
       <c r="B214" s="78"/>
       <c r="C214" s="73"/>
@@ -9859,7 +10076,7 @@
       <c r="G214" s="68"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="78"/>
       <c r="B215" s="78"/>
       <c r="C215" s="73"/>
@@ -9869,7 +10086,7 @@
       <c r="G215" s="68"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="78"/>
       <c r="B216" s="78"/>
       <c r="C216" s="73"/>
@@ -9879,7 +10096,7 @@
       <c r="G216" s="68"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="78"/>
       <c r="B217" s="78"/>
       <c r="C217" s="73"/>
@@ -9889,7 +10106,7 @@
       <c r="G217" s="68"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="78"/>
       <c r="B218" s="78"/>
       <c r="C218" s="73"/>
@@ -9899,7 +10116,7 @@
       <c r="G218" s="68"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="78"/>
       <c r="B219" s="78"/>
       <c r="C219" s="73"/>
@@ -9909,7 +10126,7 @@
       <c r="G219" s="68"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="78"/>
       <c r="B220" s="78"/>
       <c r="C220" s="73"/>
@@ -9919,7 +10136,7 @@
       <c r="G220" s="68"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="78"/>
       <c r="B221" s="78"/>
       <c r="C221" s="73"/>
@@ -9929,7 +10146,7 @@
       <c r="G221" s="68"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="78"/>
       <c r="B222" s="78"/>
       <c r="C222" s="73"/>
@@ -9939,7 +10156,7 @@
       <c r="G222" s="68"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="78"/>
       <c r="B223" s="78"/>
       <c r="C223" s="73"/>
@@ -9949,7 +10166,7 @@
       <c r="G223" s="68"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="78"/>
       <c r="B224" s="78"/>
       <c r="C224" s="73"/>
@@ -9959,7 +10176,7 @@
       <c r="G224" s="68"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="78"/>
       <c r="B225" s="78"/>
       <c r="C225" s="73"/>
@@ -9969,7 +10186,7 @@
       <c r="G225" s="68"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="78"/>
       <c r="B226" s="78"/>
       <c r="C226" s="73"/>
@@ -9979,7 +10196,7 @@
       <c r="G226" s="68"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="78"/>
       <c r="B227" s="78"/>
       <c r="C227" s="73"/>
@@ -9989,7 +10206,7 @@
       <c r="G227" s="68"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="78"/>
       <c r="B228" s="78"/>
       <c r="C228" s="73"/>
@@ -9999,7 +10216,7 @@
       <c r="G228" s="68"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="78"/>
       <c r="B229" s="78"/>
       <c r="C229" s="73"/>
@@ -10009,7 +10226,7 @@
       <c r="G229" s="68"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="78"/>
       <c r="B230" s="78"/>
       <c r="C230" s="73"/>
@@ -10019,7 +10236,7 @@
       <c r="G230" s="68"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="78"/>
       <c r="B231" s="78"/>
       <c r="C231" s="73"/>
@@ -10029,7 +10246,7 @@
       <c r="G231" s="68"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="78"/>
       <c r="B232" s="78"/>
       <c r="C232" s="73"/>
@@ -10039,7 +10256,7 @@
       <c r="G232" s="68"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="78"/>
       <c r="B233" s="78"/>
       <c r="C233" s="73"/>
@@ -10049,7 +10266,7 @@
       <c r="G233" s="68"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="78"/>
       <c r="B234" s="78"/>
       <c r="C234" s="73"/>
@@ -10059,7 +10276,7 @@
       <c r="G234" s="68"/>
       <c r="H234" s="1"/>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="78"/>
       <c r="B235" s="78"/>
       <c r="C235" s="73"/>
@@ -10069,7 +10286,7 @@
       <c r="G235" s="68"/>
       <c r="H235" s="1"/>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="78"/>
       <c r="B236" s="78"/>
       <c r="C236" s="73"/>
@@ -10079,7 +10296,7 @@
       <c r="G236" s="68"/>
       <c r="H236" s="1"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="78"/>
       <c r="B237" s="78"/>
       <c r="C237" s="73"/>
@@ -10089,7 +10306,7 @@
       <c r="G237" s="68"/>
       <c r="H237" s="1"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="78"/>
       <c r="B238" s="78"/>
       <c r="C238" s="73"/>
@@ -10099,7 +10316,7 @@
       <c r="G238" s="68"/>
       <c r="H238" s="1"/>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="78"/>
       <c r="B239" s="78"/>
       <c r="C239" s="73"/>
@@ -10109,7 +10326,7 @@
       <c r="G239" s="68"/>
       <c r="H239" s="1"/>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="78"/>
       <c r="B240" s="78"/>
       <c r="C240" s="73"/>
@@ -10119,7 +10336,7 @@
       <c r="G240" s="68"/>
       <c r="H240" s="1"/>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="78"/>
       <c r="B241" s="78"/>
       <c r="C241" s="73"/>
@@ -10129,7 +10346,7 @@
       <c r="G241" s="68"/>
       <c r="H241" s="1"/>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="78"/>
       <c r="B242" s="78"/>
       <c r="C242" s="73"/>
@@ -10139,7 +10356,7 @@
       <c r="G242" s="68"/>
       <c r="H242" s="1"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="78"/>
       <c r="B243" s="78"/>
       <c r="C243" s="73"/>
@@ -10149,7 +10366,7 @@
       <c r="G243" s="68"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="78"/>
       <c r="B244" s="78"/>
       <c r="C244" s="73"/>
@@ -10159,7 +10376,7 @@
       <c r="G244" s="68"/>
       <c r="H244" s="1"/>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="78"/>
       <c r="B245" s="78"/>
       <c r="C245" s="73"/>
@@ -10169,7 +10386,7 @@
       <c r="G245" s="68"/>
       <c r="H245" s="1"/>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="78"/>
       <c r="B246" s="78"/>
       <c r="C246" s="73"/>
@@ -10179,7 +10396,7 @@
       <c r="G246" s="68"/>
       <c r="H246" s="1"/>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="78"/>
       <c r="B247" s="78"/>
       <c r="C247" s="73"/>
@@ -10189,7 +10406,7 @@
       <c r="G247" s="68"/>
       <c r="H247" s="1"/>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="78"/>
       <c r="B248" s="78"/>
       <c r="C248" s="73"/>
@@ -10199,7 +10416,7 @@
       <c r="G248" s="68"/>
       <c r="H248" s="1"/>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="78"/>
       <c r="B249" s="78"/>
       <c r="C249" s="73"/>
@@ -10209,7 +10426,7 @@
       <c r="G249" s="68"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="78"/>
       <c r="B250" s="78"/>
       <c r="C250" s="73"/>
@@ -10219,7 +10436,7 @@
       <c r="G250" s="68"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="78"/>
       <c r="B251" s="78"/>
       <c r="C251" s="73"/>
@@ -10229,7 +10446,7 @@
       <c r="G251" s="68"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="78"/>
       <c r="B252" s="78"/>
       <c r="C252" s="73"/>
@@ -10239,7 +10456,7 @@
       <c r="G252" s="68"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="78"/>
       <c r="B253" s="78"/>
       <c r="C253" s="73"/>
@@ -10249,7 +10466,7 @@
       <c r="G253" s="68"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="78"/>
       <c r="B254" s="78"/>
       <c r="C254" s="73"/>
@@ -10259,7 +10476,7 @@
       <c r="G254" s="68"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="78"/>
       <c r="B255" s="78"/>
       <c r="C255" s="73"/>
@@ -10269,7 +10486,7 @@
       <c r="G255" s="68"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="78"/>
       <c r="B256" s="78"/>
       <c r="C256" s="73"/>
@@ -10279,7 +10496,7 @@
       <c r="G256" s="68"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="78"/>
       <c r="B257" s="78"/>
       <c r="C257" s="73"/>
@@ -10289,7 +10506,7 @@
       <c r="G257" s="68"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="78"/>
       <c r="B258" s="78"/>
       <c r="C258" s="73"/>
@@ -10299,7 +10516,7 @@
       <c r="G258" s="68"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="78"/>
       <c r="B259" s="78"/>
       <c r="C259" s="73"/>
@@ -10309,7 +10526,7 @@
       <c r="G259" s="68"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="78"/>
       <c r="B260" s="78"/>
       <c r="C260" s="73"/>
@@ -10319,7 +10536,7 @@
       <c r="G260" s="68"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="78"/>
       <c r="B261" s="78"/>
       <c r="C261" s="73"/>
@@ -10329,7 +10546,7 @@
       <c r="G261" s="68"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="78"/>
       <c r="B262" s="78"/>
       <c r="C262" s="73"/>
@@ -10339,7 +10556,7 @@
       <c r="G262" s="68"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="78"/>
       <c r="B263" s="78"/>
       <c r="C263" s="73"/>
@@ -10349,7 +10566,7 @@
       <c r="G263" s="68"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="78"/>
       <c r="B264" s="78"/>
       <c r="C264" s="73"/>
@@ -10359,7 +10576,7 @@
       <c r="G264" s="68"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="78"/>
       <c r="B265" s="78"/>
       <c r="C265" s="73"/>
@@ -10369,7 +10586,7 @@
       <c r="G265" s="68"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="78"/>
       <c r="B266" s="78"/>
       <c r="C266" s="73"/>
@@ -10379,7 +10596,7 @@
       <c r="G266" s="68"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="78"/>
       <c r="B267" s="78"/>
       <c r="C267" s="73"/>
@@ -10389,7 +10606,7 @@
       <c r="G267" s="68"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="78"/>
       <c r="B268" s="78"/>
       <c r="C268" s="73"/>
@@ -10399,7 +10616,7 @@
       <c r="G268" s="68"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="78"/>
       <c r="B269" s="78"/>
       <c r="C269" s="73"/>
@@ -10409,7 +10626,7 @@
       <c r="G269" s="68"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="78"/>
       <c r="B270" s="78"/>
       <c r="C270" s="73"/>
@@ -10419,7 +10636,7 @@
       <c r="G270" s="68"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="78"/>
       <c r="B271" s="78"/>
       <c r="C271" s="73"/>
@@ -10429,7 +10646,7 @@
       <c r="G271" s="68"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="78"/>
       <c r="B272" s="78"/>
       <c r="C272" s="73"/>
@@ -10439,7 +10656,7 @@
       <c r="G272" s="68"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="78"/>
       <c r="B273" s="78"/>
       <c r="C273" s="73"/>
@@ -10449,7 +10666,7 @@
       <c r="G273" s="68"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="78"/>
       <c r="B274" s="78"/>
       <c r="C274" s="73"/>
@@ -10459,7 +10676,7 @@
       <c r="G274" s="68"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="78"/>
       <c r="B275" s="78"/>
       <c r="C275" s="73"/>
@@ -10469,7 +10686,7 @@
       <c r="G275" s="68"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="78"/>
       <c r="B276" s="78"/>
       <c r="C276" s="73"/>
@@ -10479,7 +10696,7 @@
       <c r="G276" s="68"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="78"/>
       <c r="B277" s="78"/>
       <c r="C277" s="73"/>
@@ -10489,7 +10706,7 @@
       <c r="G277" s="68"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="78"/>
       <c r="B278" s="78"/>
       <c r="C278" s="73"/>
@@ -10499,7 +10716,7 @@
       <c r="G278" s="68"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="78"/>
       <c r="B279" s="78"/>
       <c r="C279" s="73"/>
@@ -10509,7 +10726,7 @@
       <c r="G279" s="68"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="78"/>
       <c r="B280" s="78"/>
       <c r="C280" s="73"/>
@@ -10519,7 +10736,7 @@
       <c r="G280" s="68"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="78"/>
       <c r="B281" s="78"/>
       <c r="C281" s="73"/>
@@ -10529,7 +10746,7 @@
       <c r="G281" s="68"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="78"/>
       <c r="B282" s="78"/>
       <c r="C282" s="73"/>
@@ -10539,7 +10756,7 @@
       <c r="G282" s="68"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="78"/>
       <c r="B283" s="78"/>
       <c r="C283" s="73"/>
@@ -10549,7 +10766,7 @@
       <c r="G283" s="68"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="78"/>
       <c r="B284" s="78"/>
       <c r="C284" s="73"/>
@@ -10559,7 +10776,7 @@
       <c r="G284" s="68"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="78"/>
       <c r="B285" s="78"/>
       <c r="C285" s="73"/>
@@ -10569,7 +10786,7 @@
       <c r="G285" s="68"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="78"/>
       <c r="B286" s="78"/>
       <c r="C286" s="73"/>
@@ -10579,7 +10796,7 @@
       <c r="G286" s="68"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="78"/>
       <c r="B287" s="78"/>
       <c r="C287" s="73"/>
@@ -10589,7 +10806,7 @@
       <c r="G287" s="68"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="78"/>
       <c r="B288" s="78"/>
       <c r="C288" s="73"/>
@@ -10599,7 +10816,7 @@
       <c r="G288" s="68"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="78"/>
       <c r="B289" s="78"/>
       <c r="C289" s="73"/>
@@ -10609,7 +10826,7 @@
       <c r="G289" s="68"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="78"/>
       <c r="B290" s="78"/>
       <c r="C290" s="73"/>
@@ -10619,7 +10836,7 @@
       <c r="G290" s="68"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="78"/>
       <c r="B291" s="78"/>
       <c r="C291" s="73"/>
@@ -10629,7 +10846,7 @@
       <c r="G291" s="68"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="78"/>
       <c r="B292" s="78"/>
       <c r="C292" s="73"/>
@@ -10639,7 +10856,7 @@
       <c r="G292" s="68"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="78"/>
       <c r="B293" s="78"/>
       <c r="C293" s="73"/>
@@ -10649,7 +10866,7 @@
       <c r="G293" s="68"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="78"/>
       <c r="B294" s="78"/>
       <c r="C294" s="73"/>
@@ -10659,7 +10876,7 @@
       <c r="G294" s="68"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="78"/>
       <c r="B295" s="78"/>
       <c r="C295" s="73"/>
@@ -10669,7 +10886,7 @@
       <c r="G295" s="68"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="78"/>
       <c r="B296" s="78"/>
       <c r="C296" s="73"/>
@@ -10679,7 +10896,7 @@
       <c r="G296" s="68"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="78"/>
       <c r="B297" s="78"/>
       <c r="C297" s="73"/>
@@ -10689,7 +10906,7 @@
       <c r="G297" s="68"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="78"/>
       <c r="B298" s="78"/>
       <c r="C298" s="73"/>
@@ -10699,7 +10916,7 @@
       <c r="G298" s="68"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="78"/>
       <c r="B299" s="78"/>
       <c r="C299" s="73"/>
@@ -10709,7 +10926,7 @@
       <c r="G299" s="68"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="78"/>
       <c r="B300" s="78"/>
       <c r="C300" s="73"/>
@@ -10719,7 +10936,7 @@
       <c r="G300" s="68"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="78"/>
       <c r="B301" s="78"/>
       <c r="C301" s="73"/>
@@ -10729,7 +10946,7 @@
       <c r="G301" s="68"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="78"/>
       <c r="B302" s="78"/>
       <c r="C302" s="73"/>
@@ -10739,7 +10956,7 @@
       <c r="G302" s="68"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="78"/>
       <c r="B303" s="78"/>
       <c r="C303" s="73"/>
@@ -10749,7 +10966,7 @@
       <c r="G303" s="68"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="78"/>
       <c r="B304" s="78"/>
       <c r="C304" s="73"/>
@@ -10759,7 +10976,7 @@
       <c r="G304" s="68"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="78"/>
       <c r="B305" s="78"/>
       <c r="C305" s="73"/>
@@ -10769,7 +10986,7 @@
       <c r="G305" s="68"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="78"/>
       <c r="B306" s="78"/>
       <c r="C306" s="73"/>
@@ -10779,7 +10996,7 @@
       <c r="G306" s="68"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="78"/>
       <c r="B307" s="78"/>
       <c r="C307" s="73"/>
@@ -10789,7 +11006,7 @@
       <c r="G307" s="68"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="78"/>
       <c r="B308" s="78"/>
       <c r="C308" s="73"/>
@@ -10799,7 +11016,7 @@
       <c r="G308" s="68"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="78"/>
       <c r="B309" s="78"/>
       <c r="C309" s="73"/>
@@ -10809,7 +11026,7 @@
       <c r="G309" s="68"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="78"/>
       <c r="B310" s="78"/>
       <c r="C310" s="73"/>
@@ -10819,7 +11036,7 @@
       <c r="G310" s="68"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="78"/>
       <c r="B311" s="78"/>
       <c r="C311" s="73"/>
@@ -10829,7 +11046,7 @@
       <c r="G311" s="68"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="78"/>
       <c r="B312" s="78"/>
       <c r="C312" s="73"/>
@@ -10839,7 +11056,7 @@
       <c r="G312" s="68"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="78"/>
       <c r="B313" s="78"/>
       <c r="C313" s="73"/>
@@ -10849,7 +11066,7 @@
       <c r="G313" s="68"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="78"/>
       <c r="B314" s="78"/>
       <c r="C314" s="73"/>
@@ -10859,7 +11076,7 @@
       <c r="G314" s="68"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="78"/>
       <c r="B315" s="78"/>
       <c r="C315" s="73"/>
@@ -10869,7 +11086,7 @@
       <c r="G315" s="68"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="78"/>
       <c r="B316" s="78"/>
       <c r="C316" s="73"/>
@@ -10879,7 +11096,7 @@
       <c r="G316" s="68"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="78"/>
       <c r="B317" s="78"/>
       <c r="C317" s="73"/>
@@ -10895,85 +11112,90 @@
     <mergeCell ref="K1:N1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J77" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PENDING, REATTACK, COMPLETED"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{892FA1E8-1A6C-4B82-8CC1-F477C47B5CEA}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{64AC8B9B-6871-4BD2-9B38-7EC3B05F91EB}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{BC0C82FF-D528-422B-9C22-5BD2559A62D7}"/>
+  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="49.9" customHeight="1">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="131" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="132"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="134"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="138" t="s">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>47</v>
       </c>
@@ -11002,7 +11224,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -11015,7 +11237,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -11028,7 +11250,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -11041,7 +11263,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -11054,7 +11276,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -11067,7 +11289,7 @@
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -11080,7 +11302,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -11093,7 +11315,7 @@
       <c r="H12" s="18"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>8</v>
       </c>
@@ -11106,7 +11328,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -11117,20 +11339,20 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="121" t="s">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
@@ -11143,156 +11365,160 @@
       <c r="D16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="124" t="s">
+      <c r="E16" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="127"/>
-      <c r="G16" s="124" t="s">
+      <c r="F16" s="132"/>
+      <c r="G16" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="H16" s="128"/>
+      <c r="I16" s="129"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>1</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="131"/>
       <c r="K17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>2</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="119"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="E18" s="125"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="131"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>3</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="E19" s="125"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="131"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>4</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="131"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>5</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="E21" s="125"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>6</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="E22" s="125"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="131"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>7</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="131"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>8</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="E24" s="125"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="131"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>9</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="112"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E25" s="133"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="136"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16">
         <v>10</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
@@ -11307,15 +11533,11 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11324,72 +11546,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="49.9" customHeight="1">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:17" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A2" s="131" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="132"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="133" t="s">
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="134"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="138" t="s">
+      <c r="I2" s="115"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>47</v>
       </c>
@@ -11421,7 +11643,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="34.5">
+    <row r="6" spans="1:17" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -11449,17 +11671,17 @@
       <c r="I6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="141" t="s">
+      <c r="K6" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -11487,17 +11709,17 @@
       <c r="I7" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="141" t="s">
+      <c r="K7" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="141"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="147"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -11526,7 +11748,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -11539,7 +11761,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -11552,7 +11774,7 @@
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -11565,7 +11787,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -11578,7 +11800,7 @@
       <c r="H12" s="18"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1">
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>8</v>
       </c>
@@ -11591,7 +11813,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -11602,20 +11824,20 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="121" t="s">
+    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>47</v>
       </c>
@@ -11628,17 +11850,17 @@
       <c r="D16" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="146" t="s">
+      <c r="E16" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146" t="s">
+      <c r="F16" s="141"/>
+      <c r="G16" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="146"/>
-      <c r="I16" s="147"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="H16" s="141"/>
+      <c r="I16" s="142"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>1</v>
       </c>
@@ -11651,17 +11873,17 @@
       <c r="D17" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="142" t="s">
+      <c r="E17" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="143"/>
-      <c r="G17" s="142" t="s">
+      <c r="F17" s="144"/>
+      <c r="G17" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="144"/>
-      <c r="I17" s="145"/>
-    </row>
-    <row r="18" spans="1:11" ht="23.25">
+      <c r="H17" s="145"/>
+      <c r="I17" s="146"/>
+    </row>
+    <row r="18" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>2</v>
       </c>
@@ -11674,17 +11896,17 @@
       <c r="D18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="142" t="s">
+      <c r="E18" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="143"/>
-      <c r="G18" s="142" t="s">
+      <c r="F18" s="144"/>
+      <c r="G18" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="145"/>
-    </row>
-    <row r="19" spans="1:11" ht="34.5">
+      <c r="H18" s="145"/>
+      <c r="I18" s="146"/>
+    </row>
+    <row r="19" spans="1:11" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>3</v>
       </c>
@@ -11697,129 +11919,115 @@
       <c r="D19" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="142" t="s">
+      <c r="E19" s="143" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="142" t="s">
+      <c r="F19" s="144"/>
+      <c r="G19" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="144"/>
-      <c r="I19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="146"/>
       <c r="K19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>4</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="131"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>5</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
       <c r="K21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>6</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="E22" s="125"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="131"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>7</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="131"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>8</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="E24" s="125"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="131"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>9</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="112"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+      <c r="E25" s="133"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="136"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16">
         <v>10</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:I19"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="K6:Q6"/>
@@ -11836,6 +12044,20 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:I20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11844,32 +12066,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="148" t="s">
         <v>105</v>
       </c>
       <c r="B5" s="148"/>
       <c r="C5" s="148"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>57</v>
       </c>
@@ -11880,7 +12102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="87" t="s">
         <v>79</v>
       </c>
@@ -11891,7 +12113,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="60">
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="89" t="s">
         <v>72</v>
       </c>
@@ -11902,7 +12124,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="33.75" customHeight="1">
+    <row r="9" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="88" t="s">
         <v>64</v>
       </c>
@@ -11913,7 +12135,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="90" t="s">
         <v>92</v>
       </c>
@@ -11924,7 +12146,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A5:C5"/>
@@ -11935,21 +12157,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.75">
+    <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="149" t="s">
         <v>106</v>
       </c>
@@ -11958,7 +12180,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="59" t="s">
         <v>242</v>
       </c>
@@ -11966,7 +12188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" customHeight="1">
+    <row r="4" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="62">
         <v>1</v>
       </c>
@@ -11977,7 +12199,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="62">
         <v>2</v>
       </c>
@@ -11988,7 +12210,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="62">
         <v>3</v>
       </c>
@@ -11999,7 +12221,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="62">
         <v>4</v>
       </c>
@@ -12010,7 +12232,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="62">
         <v>5</v>
       </c>
@@ -12021,7 +12243,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="62">
         <v>6</v>
       </c>
@@ -12032,7 +12254,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="62">
         <v>7</v>
       </c>
@@ -12043,7 +12265,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="15.75" customHeight="1">
+    <row r="11" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="62">
         <v>8</v>
       </c>
@@ -12054,7 +12276,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="62">
         <v>9</v>
       </c>
@@ -12065,7 +12287,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="62">
         <v>10</v>
       </c>
@@ -12076,7 +12298,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="62">
         <v>11</v>
       </c>
@@ -12087,7 +12309,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="62">
         <v>12</v>
       </c>
@@ -12098,7 +12320,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="62">
         <v>13</v>
       </c>
@@ -12109,7 +12331,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="62">
         <v>14</v>
       </c>
@@ -12120,46 +12342,46 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="62"/>
       <c r="C18" s="32"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="62"/>
       <c r="C19" s="32"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="62"/>
       <c r="C20" s="32"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="62"/>
       <c r="C21" s="32"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="62"/>
       <c r="C22" s="32"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="62"/>
       <c r="C23" s="32"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="62"/>
       <c r="C24" s="32"/>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="62"/>
       <c r="C25" s="32"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="62"/>
       <c r="C26" s="32"/>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="63"/>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>246</v>
       </c>
@@ -12174,32 +12396,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="149" t="s">
         <v>233</v>
       </c>
       <c r="B3" s="149"/>
       <c r="C3" s="149"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>47</v>
       </c>
@@ -12208,7 +12430,7 @@
       </c>
       <c r="C4" s="148"/>
     </row>
-    <row r="5" spans="1:10" ht="96" customHeight="1">
+    <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>107</v>
       </c>
@@ -12217,7 +12439,7 @@
       </c>
       <c r="C5" s="150"/>
     </row>
-    <row r="6" spans="1:10" ht="64.5" customHeight="1">
+    <row r="6" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>55</v>
       </c>
@@ -12226,7 +12448,7 @@
       </c>
       <c r="C6" s="150"/>
     </row>
-    <row r="7" spans="1:10" ht="67.5" customHeight="1">
+    <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>56</v>
       </c>
@@ -12235,7 +12457,7 @@
       </c>
       <c r="C7" s="150"/>
     </row>
-    <row r="8" spans="1:10" ht="72.75" customHeight="1">
+    <row r="8" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>111</v>
       </c>
@@ -12259,22 +12481,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" customWidth="1"/>
-    <col min="4" max="4" width="52.42578125" style="86" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" style="86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:10" ht="15.75">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="151" t="s">
         <v>243</v>
       </c>
@@ -12284,7 +12506,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" customHeight="1">
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="91" t="s">
         <v>244</v>
       </c>
@@ -12295,7 +12517,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="90">
+    <row r="4" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B4" s="93" t="s">
         <v>270</v>
       </c>
@@ -12306,7 +12528,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="75">
+    <row r="5" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B5" s="93" t="s">
         <v>273</v>
       </c>
@@ -12317,7 +12539,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="42" customHeight="1">
+    <row r="6" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="93" t="s">
         <v>275</v>
       </c>
@@ -12328,7 +12550,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="75">
+    <row r="7" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B7" s="93" t="s">
         <v>271</v>
       </c>
@@ -12339,7 +12561,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="75">
+    <row r="8" spans="2:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B8" s="93" t="s">
         <v>269</v>
       </c>
@@ -12350,7 +12572,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="84" customHeight="1">
+    <row r="9" spans="2:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="93" t="s">
         <v>272</v>
       </c>
@@ -12361,7 +12583,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="75">
+    <row r="10" spans="2:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B10" s="96" t="s">
         <v>274</v>
       </c>
@@ -12372,7 +12594,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1">
+    <row r="11" spans="2:10" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="97" t="s">
         <v>282</v>
       </c>
@@ -12383,7 +12605,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
@@ -12395,24 +12617,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>44</v>
       </c>
@@ -12420,8 +12642,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="7.15" customHeight="1"/>
-    <row r="5" spans="2:3">
+    <row r="4" spans="2:3" ht="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -12431,8 +12653,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
